--- a/results/Manuscript/scenario_comparison_table.xlsx
+++ b/results/Manuscript/scenario_comparison_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/results/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B0ACE4-02B5-9642-9203-A0B5D4C84A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972A9FDC-8D82-684B-B4B7-115895B0097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="28080" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary materials" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="24">
   <si>
     <t>EV Scenario</t>
   </si>
@@ -94,6 +94,9 @@
   <si>
     <t>Without degradation</t>
   </si>
+  <si>
+    <t>With degradation new approach</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="142">
+  <fills count="178">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +980,222 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAEAE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9898"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1111"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1313"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0707"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5E5E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4C4C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98D498"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADE0AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2F4D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFF3CF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AC37A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84C984"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66B866"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DA23D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6ABB6A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4545"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBDBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC8C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB5B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1414"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1B1B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9191"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8787"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF85CA85"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88CB88"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BCD8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF048204"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EEC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FA33F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44A544"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96D396"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3EA23E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1014,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1163,6 +1382,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="152" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13149,10 +13404,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4348AC9D-6E83-9E4C-885B-E3F4BEE15CF2}">
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13170,7 +13425,7 @@
     <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F1" s="143" t="s">
         <v>21</v>
       </c>
@@ -13183,8 +13438,14 @@
       <c r="L1" s="143"/>
       <c r="M1" s="143"/>
       <c r="N1" s="143"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q1" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13221,8 +13482,20 @@
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -13239,16 +13512,16 @@
         <v>10</v>
       </c>
       <c r="F3" s="3">
-        <v>37923.225439901667</v>
+        <v>37914.517412211877</v>
       </c>
       <c r="G3" s="50">
-        <v>8671.8405003598236</v>
+        <v>8667.9661055678935</v>
       </c>
       <c r="H3" s="85">
-        <v>49.190931492585626</v>
-      </c>
-      <c r="I3" s="4">
-        <v>12.968133347775179</v>
+        <v>46.907132089447821</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5.8629293108951863</v>
       </c>
       <c r="K3" s="3">
         <v>37914.328634259356</v>
@@ -13262,8 +13535,20 @@
       <c r="N3" s="3">
         <v>5.6686510549439504</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3">
+        <v>37910.919533813707</v>
+      </c>
+      <c r="R3" s="50">
+        <v>8671.5639839660707</v>
+      </c>
+      <c r="S3" s="80">
+        <v>46.907132089447821</v>
+      </c>
+      <c r="T3" s="3">
+        <v>5.8629293108951863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13280,16 +13565,16 @@
         <v>16</v>
       </c>
       <c r="F4" s="3">
-        <v>37948.712181620736</v>
+        <v>37938.587717049682</v>
       </c>
       <c r="G4" s="50">
-        <v>8682.4682528956291</v>
+        <v>8678.2514830812015</v>
       </c>
       <c r="H4" s="85">
-        <v>54.940456971508112</v>
-      </c>
-      <c r="I4" s="94">
-        <v>33.361730108838557</v>
+        <v>52.759770174688867</v>
+      </c>
+      <c r="I4" s="102">
+        <v>25.263337561805361</v>
       </c>
       <c r="K4" s="3">
         <v>37937.998117381598</v>
@@ -13303,8 +13588,20 @@
       <c r="N4" s="102">
         <v>24.756085172856441</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q4" s="3">
+        <v>37934.54092866274</v>
+      </c>
+      <c r="R4" s="50">
+        <v>8682.298271468142</v>
+      </c>
+      <c r="S4" s="80">
+        <v>52.759770174688867</v>
+      </c>
+      <c r="T4" s="102">
+        <v>25.263337561805361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13321,16 +13618,16 @@
         <v>12</v>
       </c>
       <c r="F5" s="4">
-        <v>37981.106818545741</v>
+        <v>37970.353666750278</v>
       </c>
       <c r="G5" s="50">
-        <v>8694.6201339668278</v>
-      </c>
-      <c r="H5" s="85">
-        <v>59.950132013425048</v>
-      </c>
-      <c r="I5" s="95">
-        <v>58.516830404936577</v>
+        <v>8690.1127887376897</v>
+      </c>
+      <c r="H5" s="80">
+        <v>57.519889207871913</v>
+      </c>
+      <c r="I5" s="125">
+        <v>49.899336816446578</v>
       </c>
       <c r="K5" s="4">
         <v>37969.219784674948</v>
@@ -13344,8 +13641,20 @@
       <c r="N5" s="99">
         <v>49.008738087992263</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q5" s="4">
+        <v>37965.941766946817</v>
+      </c>
+      <c r="R5" s="50">
+        <v>8694.5246885411543</v>
+      </c>
+      <c r="S5" s="65">
+        <v>57.519889207871913</v>
+      </c>
+      <c r="T5" s="125">
+        <v>49.899336816446578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13362,16 +13671,16 @@
         <v>17</v>
       </c>
       <c r="F6" s="3">
-        <v>37951.308039735981</v>
+        <v>37940.698075517197</v>
       </c>
       <c r="G6" s="50">
-        <v>8685.4193750303548</v>
+        <v>8680.8479763245396</v>
       </c>
       <c r="H6" s="80">
-        <v>63.585756079747398</v>
-      </c>
-      <c r="I6" s="94">
-        <v>36.494070206448853</v>
+        <v>60.507419678087032</v>
+      </c>
+      <c r="I6" s="102">
+        <v>27.9212630785789</v>
       </c>
       <c r="K6" s="3">
         <v>37939.558247522087</v>
@@ -13385,8 +13694,20 @@
       <c r="N6" s="102">
         <v>26.979860718542412</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q6" s="3">
+        <v>37936.057025670583</v>
+      </c>
+      <c r="R6" s="50">
+        <v>8685.4890261711607</v>
+      </c>
+      <c r="S6" s="65">
+        <v>60.507419678087032</v>
+      </c>
+      <c r="T6" s="102">
+        <v>27.9212630785789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13403,13 +13724,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="3">
-        <v>37921.221204878449</v>
+        <v>37922.499228774766</v>
       </c>
       <c r="G7" s="50">
-        <v>8650.8798026754175</v>
+        <v>8649.6017787790934</v>
       </c>
       <c r="H7" s="64">
-        <v>18.691615708512749</v>
+        <v>15.68362527740344</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -13426,8 +13747,20 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q7" s="3">
+        <v>37921.296260823467</v>
+      </c>
+      <c r="R7" s="50">
+        <v>8650.8047467303859</v>
+      </c>
+      <c r="S7" s="64">
+        <v>15.68362527740344</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13444,13 +13777,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="3">
-        <v>37916.555732533998</v>
+        <v>37918.37870235373</v>
       </c>
       <c r="G8" s="50">
-        <v>8655.5452750198638</v>
+        <v>8653.7223052001355</v>
       </c>
       <c r="H8" s="64">
-        <v>29.55563856524007</v>
+        <v>25.292267813964418</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -13467,8 +13800,20 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>37916.438730755479</v>
+      </c>
+      <c r="R8" s="50">
+        <v>8655.6622767983827</v>
+      </c>
+      <c r="S8" s="86">
+        <v>25.292267813964418</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13485,16 +13830,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="3">
-        <v>37919.453177506759</v>
+        <v>37913.545116572102</v>
       </c>
       <c r="G9" s="50">
-        <v>8661.5757306312389</v>
+        <v>8658.5558909817719</v>
       </c>
       <c r="H9" s="86">
-        <v>39.008976825935633</v>
+        <v>36.634532424067388</v>
       </c>
       <c r="I9" s="3">
-        <v>5.0415216436581964</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>37913.661862931847</v>
@@ -13508,8 +13853,20 @@
       <c r="N9" s="3">
         <v>1.7770595858507932E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>37910.735168767467</v>
+      </c>
+      <c r="R9" s="50">
+        <v>8661.3658387863925</v>
+      </c>
+      <c r="S9" s="85">
+        <v>36.634532424067388</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13526,16 +13883,16 @@
         <v>17</v>
       </c>
       <c r="F10" s="3">
-        <v>37916.470321881658</v>
+        <v>37915.65400427144</v>
       </c>
       <c r="G10" s="50">
-        <v>8658.7911997675819</v>
+        <v>8656.4470032824211</v>
       </c>
       <c r="H10" s="86">
-        <v>40.068113851923968</v>
+        <v>35.729505890806017</v>
       </c>
       <c r="I10" s="3">
-        <v>1.7847197184623771</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>37916.042608693337</v>
@@ -13549,8 +13906,20 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>37912.913473957698</v>
+      </c>
+      <c r="R10" s="50">
+        <v>8659.1875335961686</v>
+      </c>
+      <c r="S10" s="85">
+        <v>35.729505890806017</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13567,13 +13936,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="3">
-        <v>37930.336372487829</v>
+        <v>37930.457927613737</v>
       </c>
       <c r="G11" s="51">
-        <v>8641.7646350660343</v>
+        <v>8641.643079940126</v>
       </c>
       <c r="H11" s="64">
-        <v>3.0064775944497599</v>
+        <v>2.5002651450554469</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -13590,8 +13959,20 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3">
+        <v>37930.266151874013</v>
+      </c>
+      <c r="R11" s="51">
+        <v>8641.8348556798574</v>
+      </c>
+      <c r="S11" s="64">
+        <v>2.5002651450554469</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13608,13 +13989,13 @@
         <v>16</v>
       </c>
       <c r="F12" s="3">
-        <v>37929.609236026641</v>
+        <v>37929.819155374593</v>
       </c>
       <c r="G12" s="51">
-        <v>8642.4917715272222</v>
+        <v>8642.2818521792669</v>
       </c>
       <c r="H12" s="64">
-        <v>5.4271820893557559</v>
+        <v>4.644443933256662</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -13631,8 +14012,20 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>37929.462916488214</v>
+      </c>
+      <c r="R12" s="51">
+        <v>8642.6380910656517</v>
+      </c>
+      <c r="S12" s="64">
+        <v>4.644443933256662</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -13649,13 +14042,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="3">
-        <v>37927.40887816871</v>
+        <v>37927.937917274066</v>
       </c>
       <c r="G13" s="51">
-        <v>8644.6921293851556</v>
+        <v>8644.1630902798006</v>
       </c>
       <c r="H13" s="64">
-        <v>9.920260280192986</v>
+        <v>8.3427273272073066</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -13672,8 +14065,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>37927.298012059327</v>
+      </c>
+      <c r="R13" s="51">
+        <v>8644.8029954945378</v>
+      </c>
+      <c r="S13" s="64">
+        <v>8.3427273272073066</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -13690,13 +14095,13 @@
         <v>17</v>
       </c>
       <c r="F14" s="3">
-        <v>37927.618850431267</v>
+        <v>37928.230679331617</v>
       </c>
       <c r="G14" s="51">
-        <v>8644.4821571225875</v>
+        <v>8643.8703282222432</v>
       </c>
       <c r="H14" s="64">
-        <v>13.555884346515329</v>
+        <v>11.33025779742243</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -13713,8 +14118,20 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>37927.361624073717</v>
+      </c>
+      <c r="R14" s="51">
+        <v>8644.7393834801387</v>
+      </c>
+      <c r="S14" s="64">
+        <v>11.33025779742243</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -13754,8 +14171,20 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>37951.444667355558</v>
+      </c>
+      <c r="R15" s="51">
+        <v>8620.6563401983021</v>
+      </c>
+      <c r="S15" s="64">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -13795,8 +14224,20 @@
       <c r="N16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3">
+        <v>37951.444667355558</v>
+      </c>
+      <c r="R16" s="51">
+        <v>8620.6563401983021</v>
+      </c>
+      <c r="S16" s="64">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -13836,8 +14277,20 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>37951.444667355558</v>
+      </c>
+      <c r="R17" s="51">
+        <v>8620.6563401983021</v>
+      </c>
+      <c r="S17" s="64">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -13854,13 +14307,13 @@
         <v>17</v>
       </c>
       <c r="F18" s="3">
-        <v>37943.217174465703</v>
+        <v>37943.256953873533</v>
       </c>
       <c r="G18" s="51">
-        <v>8628.8838330881663</v>
+        <v>8628.84405368033</v>
       </c>
       <c r="H18" s="64">
-        <v>0.70982633024418673</v>
+        <v>0.62412641620765053</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -13877,8 +14330,20 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>37943.209082028668</v>
+      </c>
+      <c r="R18" s="51">
+        <v>8628.8919255251985</v>
+      </c>
+      <c r="S18" s="64">
+        <v>0.62412641620765053</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -13895,16 +14360,16 @@
         <v>10</v>
       </c>
       <c r="F19" s="5">
-        <v>38556.290537072608</v>
+        <v>38536.120748242167</v>
       </c>
       <c r="G19" s="52">
-        <v>8785.4657564492445</v>
+        <v>8776.538835789288</v>
       </c>
       <c r="H19" s="87">
-        <v>161.9463914756322</v>
-      </c>
-      <c r="I19" s="96">
-        <v>434.61883852736412</v>
+        <v>159.71475018986581</v>
+      </c>
+      <c r="I19" s="112">
+        <v>418.18813466000802</v>
       </c>
       <c r="K19" s="5">
         <v>38529.90645281726</v>
@@ -13918,8 +14383,20 @@
       <c r="N19" s="112">
         <v>413.63576491561872</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q19" s="5">
+        <v>38533.967340628857</v>
+      </c>
+      <c r="R19" s="52">
+        <v>8778.6922434026019</v>
+      </c>
+      <c r="S19" s="87">
+        <v>131.80473470878221</v>
+      </c>
+      <c r="T19" s="112">
+        <v>418.18813466000802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -13936,16 +14413,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="6">
-        <v>39101.309074324126</v>
+        <v>39080.553339005703</v>
       </c>
       <c r="G20" s="53">
-        <v>8843.9637173261926</v>
+        <v>8834.9385393200519</v>
       </c>
       <c r="H20" s="87">
-        <v>167.74128670747089</v>
-      </c>
-      <c r="I20" s="15">
-        <v>775.42029111376974</v>
+        <v>165.56738827510691</v>
+      </c>
+      <c r="I20" s="113">
+        <v>758.60322223190792</v>
       </c>
       <c r="K20" s="6">
         <v>39074.18055625233</v>
@@ -13959,8 +14436,20 @@
       <c r="N20" s="113">
         <v>753.91281932694449</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q20" s="6">
+        <v>39077.943387483807</v>
+      </c>
+      <c r="R20" s="53">
+        <v>8837.5484908419367</v>
+      </c>
+      <c r="S20" s="76">
+        <v>137.67193460065079</v>
+      </c>
+      <c r="T20" s="113">
+        <v>758.60322223190792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -13977,16 +14466,16 @@
         <v>12</v>
       </c>
       <c r="F21" s="7">
-        <v>39651.032350661037</v>
+        <v>39630.036778922462</v>
       </c>
       <c r="G21" s="54">
-        <v>8903.3434973233489</v>
-      </c>
-      <c r="H21" s="87">
-        <v>172.75096174938781</v>
-      </c>
-      <c r="I21" s="97">
-        <v>1119.376433186429</v>
+        <v>8894.1773598397176</v>
+      </c>
+      <c r="H21" s="76">
+        <v>170.3624000521493</v>
+      </c>
+      <c r="I21" s="160">
+        <v>1102.3443315830821</v>
       </c>
       <c r="K21" s="7">
         <v>39623.486332076383</v>
@@ -14000,8 +14489,20 @@
       <c r="N21" s="114">
         <v>1097.538651145024</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q21" s="7">
+        <v>39627.800896210829</v>
+      </c>
+      <c r="R21" s="54">
+        <v>8896.413242551349</v>
+      </c>
+      <c r="S21" s="76">
+        <v>140.91623767359701</v>
+      </c>
+      <c r="T21" s="160">
+        <v>1102.3443315830821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -14017,17 +14518,17 @@
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="8">
-        <v>40326.181902712851</v>
+      <c r="F22" s="27">
+        <v>40305.287453221703</v>
       </c>
       <c r="G22" s="54">
-        <v>8916.0980794352054</v>
-      </c>
-      <c r="H22" s="87">
-        <v>176.38658581571019</v>
-      </c>
-      <c r="I22" s="98">
-        <v>1507.8309806431671</v>
+        <v>8906.8550231702247</v>
+      </c>
+      <c r="H22" s="76">
+        <v>173.34993052236439</v>
+      </c>
+      <c r="I22" s="131">
+        <v>1490.8125465641119</v>
       </c>
       <c r="K22" s="27">
         <v>40298.782577679223</v>
@@ -14041,8 +14542,20 @@
       <c r="N22" s="37">
         <v>1485.994355704946</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q22" s="27">
+        <v>40302.820957602133</v>
+      </c>
+      <c r="R22" s="54">
+        <v>8909.3215187898004</v>
+      </c>
+      <c r="S22" s="76">
+        <v>143.91050166313369</v>
+      </c>
+      <c r="T22" s="131">
+        <v>1490.8125465641119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -14082,8 +14595,20 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>37951.444667355558</v>
+      </c>
+      <c r="R23" s="51">
+        <v>8620.6563401983021</v>
+      </c>
+      <c r="S23" s="64">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -14123,8 +14648,20 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>37945.260121650492</v>
+      </c>
+      <c r="R24" s="51">
+        <v>8626.8408859033752</v>
+      </c>
+      <c r="S24" s="64">
+        <v>7.6196759842034265E-2</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -14164,8 +14701,20 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>37945.390785585303</v>
+      </c>
+      <c r="R25" s="51">
+        <v>8626.7102219685657</v>
+      </c>
+      <c r="S25" s="64">
+        <v>0.2032536930335217</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -14182,13 +14731,13 @@
         <v>17</v>
       </c>
       <c r="F26" s="3">
-        <v>37940.768246805157</v>
+        <v>37946.140596019068</v>
       </c>
       <c r="G26" s="51">
-        <v>8631.332760748699</v>
+        <v>8625.9604115347938</v>
       </c>
       <c r="H26" s="64">
-        <v>0.9033168378070594</v>
+        <v>0.8676518481602703</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -14205,8 +14754,20 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>37946.074045247311</v>
+      </c>
+      <c r="R26" s="51">
+        <v>8626.0269623065542</v>
+      </c>
+      <c r="S26" s="64">
+        <v>0.8676518481602703</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -14246,8 +14807,20 @@
       <c r="N27" s="99">
         <v>47.626434430857913</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>37889.647796061487</v>
+      </c>
+      <c r="R27" s="55">
+        <v>8749.7968153103175</v>
+      </c>
+      <c r="S27" s="64">
+        <v>0</v>
+      </c>
+      <c r="T27" s="126">
+        <v>38.028451707173289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -14287,8 +14860,20 @@
       <c r="N28" s="5">
         <v>71.022356194643379</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>37909.383410840863</v>
+      </c>
+      <c r="R28" s="55">
+        <v>8755.7854424508332</v>
+      </c>
+      <c r="S28" s="64">
+        <v>0</v>
+      </c>
+      <c r="T28" s="125">
+        <v>52.554747243693711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -14328,8 +14913,20 @@
       <c r="N29" s="100">
         <v>98.379793227212659</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>37933.035154122001</v>
+      </c>
+      <c r="R29" s="52">
+        <v>8762.9689575022931</v>
+      </c>
+      <c r="S29" s="64">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <v>69.967197215174906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -14369,8 +14966,20 @@
       <c r="N30" s="9">
         <v>77.102874343097085</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>37919.5017092083</v>
+      </c>
+      <c r="R30" s="52">
+        <v>8758.9963421327502</v>
+      </c>
+      <c r="S30" s="64">
+        <v>0</v>
+      </c>
+      <c r="T30" s="95">
+        <v>60.081650105701272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -14410,8 +15019,20 @@
       <c r="N31" s="4">
         <v>13.56761401399082</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>37856.347494918882</v>
+      </c>
+      <c r="R31" s="55">
+        <v>8739.8893921812669</v>
+      </c>
+      <c r="S31" s="64">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>13.62935865768752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -14451,8 +15072,20 @@
       <c r="N32" s="101">
         <v>22.497095512264821</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>37868.374799598132</v>
+      </c>
+      <c r="R32" s="55">
+        <v>8743.6750758653052</v>
+      </c>
+      <c r="S32" s="64">
+        <v>0</v>
+      </c>
+      <c r="T32" s="101">
+        <v>22.55884015596153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -14492,8 +15125,20 @@
       <c r="N33" s="94">
         <v>33.402191669799677</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>37883.062342425023</v>
+      </c>
+      <c r="R33" s="55">
+        <v>8748.2990864217845</v>
+      </c>
+      <c r="S33" s="64">
+        <v>0</v>
+      </c>
+      <c r="T33" s="94">
+        <v>33.46393631349639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -14533,8 +15178,20 @@
       <c r="N34" s="102">
         <v>30.400003164439092</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>37878.992274026408</v>
+      </c>
+      <c r="R34" s="55">
+        <v>8747.0526566666194</v>
+      </c>
+      <c r="S34" s="64">
+        <v>0</v>
+      </c>
+      <c r="T34" s="102">
+        <v>30.46174780813579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -14574,8 +15231,20 @@
       <c r="N35" s="3">
         <v>2.1466446078379771</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>37840.924322120321</v>
+      </c>
+      <c r="R35" s="55">
+        <v>8735.0031440133898</v>
+      </c>
+      <c r="S35" s="64">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>2.1607738086984072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -14615,8 +15284,20 @@
       <c r="N36" s="3">
         <v>4.1230474357633717</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q36" s="3">
+        <v>37843.604942101592</v>
+      </c>
+      <c r="R36" s="55">
+        <v>8735.8598207955965</v>
+      </c>
+      <c r="S36" s="64">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <v>4.1582600066098081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -14656,8 +15337,20 @@
       <c r="N37" s="3">
         <v>7.1187422963047036</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q37" s="3">
+        <v>37847.697489402934</v>
+      </c>
+      <c r="R37" s="55">
+        <v>8737.1663487521455</v>
+      </c>
+      <c r="S37" s="64">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>7.2070792124080496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -14697,8 +15390,20 @@
       <c r="N38" s="3">
         <v>9.1837478746091197</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q38" s="3">
+        <v>37850.466770007843</v>
+      </c>
+      <c r="R38" s="55">
+        <v>8738.05393323914</v>
+      </c>
+      <c r="S38" s="64">
+        <v>0</v>
+      </c>
+      <c r="T38" s="3">
+        <v>9.2720847907124657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -14738,8 +15443,20 @@
       <c r="N39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3">
+        <v>37838.025565866148</v>
+      </c>
+      <c r="R39" s="55">
+        <v>8734.0754416877153</v>
+      </c>
+      <c r="S39" s="64">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -14779,8 +15496,20 @@
       <c r="N40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3">
+        <v>37838.025565866148</v>
+      </c>
+      <c r="R40" s="55">
+        <v>8734.0754416877153</v>
+      </c>
+      <c r="S40" s="64">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -14820,8 +15549,20 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>37838.025565866148</v>
+      </c>
+      <c r="R41" s="55">
+        <v>8734.0754416877153</v>
+      </c>
+      <c r="S41" s="64">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -14861,8 +15602,20 @@
       <c r="N42" s="3">
         <v>0.36551293548867059</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>37838.84449777109</v>
+      </c>
+      <c r="R42" s="55">
+        <v>8734.3371627185425</v>
+      </c>
+      <c r="S42" s="64">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0.61023698837490281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -14902,8 +15655,20 @@
       <c r="N43" s="103">
         <v>502.99551780674159</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q43" s="9">
+        <v>38638.497613072082</v>
+      </c>
+      <c r="R43" s="53">
+        <v>8825.9034565163965</v>
+      </c>
+      <c r="S43" s="64">
+        <v>0</v>
+      </c>
+      <c r="T43" s="103">
+        <v>503.87546691325269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -14943,8 +15708,20 @@
       <c r="N44" s="26">
         <v>845.18900455723815</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q44" s="10">
+        <v>39187.683706420568</v>
+      </c>
+      <c r="R44" s="54">
+        <v>8882.6989786766262</v>
+      </c>
+      <c r="S44" s="64">
+        <v>0</v>
+      </c>
+      <c r="T44" s="25">
+        <v>846.0689536637492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -14984,8 +15761,20 @@
       <c r="N45" s="104">
         <v>1190.3476817914491</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q45" s="11">
+        <v>39740.847424975487</v>
+      </c>
+      <c r="R45" s="56">
+        <v>8940.7678549423817</v>
+      </c>
+      <c r="S45" s="64">
+        <v>0</v>
+      </c>
+      <c r="T45" s="104">
+        <v>1191.2276308979599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -15025,8 +15814,20 @@
       <c r="N46" s="46">
         <v>1579.7419032202331</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q46" s="8">
+        <v>40417.047400942443</v>
+      </c>
+      <c r="R46" s="56">
+        <v>8954.1360575282579</v>
+      </c>
+      <c r="S46" s="64">
+        <v>0</v>
+      </c>
+      <c r="T46" s="46">
+        <v>1580.621852326743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -15066,8 +15867,20 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>37838.025565866148</v>
+      </c>
+      <c r="R47" s="55">
+        <v>8734.0754416877153</v>
+      </c>
+      <c r="S47" s="64">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -15107,8 +15920,20 @@
       <c r="N48" s="3">
         <v>7.6196759842034278E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>37838.127769899867</v>
+      </c>
+      <c r="R48" s="55">
+        <v>8734.1081725297699</v>
+      </c>
+      <c r="S48" s="64">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>7.6196759842034278E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -15148,8 +15973,20 @@
       <c r="N49" s="3">
         <v>0.20325369303352181</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>37838.29819356501</v>
+      </c>
+      <c r="R49" s="55">
+        <v>8734.1627507089561</v>
+      </c>
+      <c r="S49" s="64">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0.20325369303352181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -15189,8 +16026,20 @@
       <c r="N50" s="3">
         <v>0.86765184816027041</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>37839.189362318008</v>
+      </c>
+      <c r="R50" s="55">
+        <v>8734.4481475043194</v>
+      </c>
+      <c r="S50" s="64">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0.86765184816027041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -15207,13 +16056,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="12">
-        <v>45530.017936686178</v>
-      </c>
-      <c r="G51" s="57">
-        <v>1042.083070867674</v>
+        <v>45498.852178200643</v>
+      </c>
+      <c r="G51" s="59">
+        <v>1073.2488293532149</v>
       </c>
       <c r="H51" s="80">
-        <v>65.173518211589737</v>
+        <v>56.14594667479075</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -15230,8 +16079,20 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q51" s="14">
+        <v>45479.059271019622</v>
+      </c>
+      <c r="R51" s="59">
+        <v>1093.04173653423</v>
+      </c>
+      <c r="S51" s="65">
+        <v>56.14594667479075</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -15247,14 +16108,14 @@
       <c r="E52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="13">
-        <v>45635.230365671407</v>
-      </c>
-      <c r="G52" s="58">
-        <v>936.87064188245779</v>
-      </c>
-      <c r="H52" s="79">
-        <v>94.878270452192851</v>
+      <c r="F52" s="113">
+        <v>45592.026769851203</v>
+      </c>
+      <c r="G52" s="115">
+        <v>980.07423770265746</v>
+      </c>
+      <c r="H52" s="65">
+        <v>82.466679057452268</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -15271,8 +16132,20 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q52" s="113">
+        <v>45562.970459175951</v>
+      </c>
+      <c r="R52" s="57">
+        <v>1009.130548377913</v>
+      </c>
+      <c r="S52" s="62">
+        <v>82.466679057452268</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -15288,14 +16161,14 @@
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="14">
-        <v>45477.406169298541</v>
-      </c>
-      <c r="G53" s="59">
-        <v>1094.6948382553201</v>
+      <c r="F53" s="108">
+        <v>45700.40619817056</v>
+      </c>
+      <c r="G53" s="77">
+        <v>871.69480938329571</v>
       </c>
       <c r="H53" s="78">
-        <v>131.9697055568281</v>
+        <v>113.4374161850758</v>
       </c>
       <c r="I53" s="3">
         <v>0</v>
@@ -15312,8 +16185,20 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q53" s="13">
+        <v>45660.446917468573</v>
+      </c>
+      <c r="R53" s="58">
+        <v>911.65409008528889</v>
+      </c>
+      <c r="S53" s="87">
+        <v>113.4374161850758</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -15329,14 +16214,14 @@
       <c r="E54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="13">
-        <v>45661.198341144584</v>
-      </c>
-      <c r="G54" s="58">
-        <v>910.9026664092778</v>
-      </c>
-      <c r="H54" s="62">
-        <v>108.7681005865027</v>
+      <c r="F54" s="113">
+        <v>45612.520525902743</v>
+      </c>
+      <c r="G54" s="115">
+        <v>959.5804816511104</v>
+      </c>
+      <c r="H54" s="79">
+        <v>93.920043896019664</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -15353,8 +16238,20 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q54" s="113">
+        <v>45579.355771950519</v>
+      </c>
+      <c r="R54" s="57">
+        <v>992.74523560334501</v>
+      </c>
+      <c r="S54" s="78">
+        <v>93.920043896019664</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -15371,13 +16268,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="15">
-        <v>45782.186985684049</v>
+        <v>45775.599680409461</v>
       </c>
       <c r="G55" s="60">
-        <v>789.91402186980918</v>
+        <v>796.50132714438723</v>
       </c>
       <c r="H55" s="64">
-        <v>19.71376923885984</v>
+        <v>16.659570782644622</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
@@ -15394,8 +16291,20 @@
       <c r="N55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q55" s="15">
+        <v>45769.64195250492</v>
+      </c>
+      <c r="R55" s="60">
+        <v>802.45905504893074</v>
+      </c>
+      <c r="S55" s="64">
+        <v>16.659570782644622</v>
+      </c>
+      <c r="T55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -15412,13 +16321,13 @@
         <v>16</v>
       </c>
       <c r="F56" s="15">
-        <v>45807.866916491403</v>
-      </c>
-      <c r="G56" s="61">
-        <v>764.23409106245765</v>
-      </c>
-      <c r="H56" s="86">
-        <v>30.98105491183404</v>
+        <v>45798.400756225194</v>
+      </c>
+      <c r="G56" s="60">
+        <v>773.70025132867715</v>
+      </c>
+      <c r="H56" s="64">
+        <v>26.664244549131759</v>
       </c>
       <c r="I56" s="3">
         <v>0</v>
@@ -15435,8 +16344,20 @@
       <c r="N56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q56" s="15">
+        <v>45788.892978383679</v>
+      </c>
+      <c r="R56" s="60">
+        <v>783.20802917017147</v>
+      </c>
+      <c r="S56" s="86">
+        <v>26.664244549131759</v>
+      </c>
+      <c r="T56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -15452,14 +16373,14 @@
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="13">
-        <v>45654.351115310121</v>
-      </c>
-      <c r="G57" s="58">
-        <v>917.74989224374133</v>
+      <c r="F57" s="16">
+        <v>45826.182509275262</v>
+      </c>
+      <c r="G57" s="61">
+        <v>745.9184982785797</v>
       </c>
       <c r="H57" s="86">
-        <v>46.030666021179293</v>
+        <v>38.916787664390483</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -15476,8 +16397,20 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q57" s="16">
+        <v>45812.325999871056</v>
+      </c>
+      <c r="R57" s="61">
+        <v>759.77500768279492</v>
+      </c>
+      <c r="S57" s="85">
+        <v>38.916787664390483</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -15494,13 +16427,13 @@
         <v>17</v>
       </c>
       <c r="F58" s="16">
-        <v>45831.100809830088</v>
+        <v>45817.945610651303</v>
       </c>
       <c r="G58" s="61">
-        <v>741.00019772376527</v>
+        <v>754.15539690256196</v>
       </c>
       <c r="H58" s="86">
-        <v>44.086672487144583</v>
+        <v>37.775569145472957</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -15517,8 +16450,20 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q58" s="15">
+        <v>45804.448140313987</v>
+      </c>
+      <c r="R58" s="61">
+        <v>767.65286723986196</v>
+      </c>
+      <c r="S58" s="85">
+        <v>37.775569145472957</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -15535,13 +16480,13 @@
         <v>10</v>
       </c>
       <c r="F59" s="17">
-        <v>46131.640491954568</v>
+        <v>46131.012079274849</v>
       </c>
       <c r="G59" s="62">
-        <v>440.46051559928162</v>
+        <v>441.08892827900718</v>
       </c>
       <c r="H59" s="64">
-        <v>3.1876287034633428</v>
+        <v>2.670698610944005</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -15558,8 +16503,20 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q59" s="17">
+        <v>46130.039658046582</v>
+      </c>
+      <c r="R59" s="78">
+        <v>442.06134950727181</v>
+      </c>
+      <c r="S59" s="64">
+        <v>2.670698610944005</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -15576,13 +16533,13 @@
         <v>16</v>
       </c>
       <c r="F60" s="17">
-        <v>46134.858687324348</v>
+        <v>46133.878983094612</v>
       </c>
       <c r="G60" s="62">
-        <v>437.24232022951139</v>
+        <v>438.22202445923517</v>
       </c>
       <c r="H60" s="64">
-        <v>5.6986717561858011</v>
+        <v>4.9037496596205363</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -15599,8 +16556,20 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q60" s="17">
+        <v>46132.095985493623</v>
+      </c>
+      <c r="R60" s="62">
+        <v>440.00502206024299</v>
+      </c>
+      <c r="S60" s="64">
+        <v>4.9037496596205363</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -15617,13 +16586,13 @@
         <v>12</v>
       </c>
       <c r="F61" s="18">
-        <v>46037.436696708719</v>
+        <v>46035.168673182328</v>
       </c>
       <c r="G61" s="63">
-        <v>534.66431084512715</v>
+        <v>536.93233437152969</v>
       </c>
       <c r="H61" s="64">
-        <v>10.47465395591764</v>
+        <v>8.8677204060688215</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -15640,8 +16609,20 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q61" s="18">
+        <v>46031.953350131422</v>
+      </c>
+      <c r="R61" s="63">
+        <v>540.14765742243412</v>
+      </c>
+      <c r="S61" s="64">
+        <v>8.8677204060688215</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -15658,13 +16639,13 @@
         <v>17</v>
       </c>
       <c r="F62" s="18">
-        <v>46042.329403073389</v>
+        <v>46039.20253906952</v>
       </c>
       <c r="G62" s="63">
-        <v>529.77160448047277</v>
+        <v>532.89846848432398</v>
       </c>
       <c r="H62" s="64">
-        <v>14.373322663941799</v>
+        <v>12.091253929167809</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -15681,8 +16662,20 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q62" s="18">
+        <v>46034.814197276988</v>
+      </c>
+      <c r="R62" s="63">
+        <v>537.28681027687912</v>
+      </c>
+      <c r="S62" s="64">
+        <v>12.091253929167809</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -15722,8 +16715,20 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q63" s="19">
+        <v>46571.263569914678</v>
+      </c>
+      <c r="R63" s="64">
+        <v>0.83743763916593972</v>
+      </c>
+      <c r="S63" s="64">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -15763,8 +16768,20 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q64" s="19">
+        <v>46571.263569914678</v>
+      </c>
+      <c r="R64" s="64">
+        <v>0.83743763916593972</v>
+      </c>
+      <c r="S64" s="64">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -15804,8 +16821,20 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q65" s="19">
+        <v>46571.263569914678</v>
+      </c>
+      <c r="R65" s="64">
+        <v>0.83743763916593972</v>
+      </c>
+      <c r="S65" s="64">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -15822,13 +16851,13 @@
         <v>17</v>
       </c>
       <c r="F66" s="20">
-        <v>46292.045014438729</v>
+        <v>46291.928714326343</v>
       </c>
       <c r="G66" s="65">
-        <v>280.05599311513402</v>
+        <v>280.17229322750791</v>
       </c>
       <c r="H66" s="64">
-        <v>0.73134073424745127</v>
+        <v>0.64893821973014054</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -15845,8 +16874,20 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q66" s="20">
+        <v>46291.69308429231</v>
+      </c>
+      <c r="R66" s="65">
+        <v>280.40792326153712</v>
+      </c>
+      <c r="S66" s="64">
+        <v>0.64893821973014054</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -15862,17 +16903,17 @@
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="21">
-        <v>42011.777856900277</v>
-      </c>
-      <c r="G67" s="66">
-        <v>4609.0308226531506</v>
+      <c r="F67" s="144">
+        <v>41806.270374660977</v>
+      </c>
+      <c r="G67" s="151">
+        <v>4765.830632892882</v>
       </c>
       <c r="H67" s="88">
-        <v>1327.2662035208041</v>
-      </c>
-      <c r="I67" s="102">
-        <v>27.504874218078459</v>
+        <v>1194.1124348943099</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
       </c>
       <c r="K67" s="29">
         <v>41435.080087119299</v>
@@ -15886,8 +16927,20 @@
       <c r="N67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q67" s="164">
+        <v>39929.988061204109</v>
+      </c>
+      <c r="R67" s="155">
+        <v>6642.1129463497409</v>
+      </c>
+      <c r="S67" s="178">
+        <v>987.66236002167693</v>
+      </c>
+      <c r="T67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -15904,16 +16957,16 @@
         <v>16</v>
       </c>
       <c r="F68" s="22">
-        <v>42778.22598599059</v>
-      </c>
-      <c r="G68" s="67">
-        <v>4094.129325192378</v>
-      </c>
-      <c r="H68" s="89">
-        <v>1793.941935289557</v>
-      </c>
-      <c r="I68" s="105">
-        <v>169.5514590561215</v>
+        <v>42796.881367126407</v>
+      </c>
+      <c r="G68" s="68">
+        <v>3975.5713772239228</v>
+      </c>
+      <c r="H68" s="82">
+        <v>1666.1677836688859</v>
+      </c>
+      <c r="I68" s="161">
+        <v>113.1371936644418</v>
       </c>
       <c r="K68" s="106">
         <v>42682.203299161367</v>
@@ -15927,8 +16980,20 @@
       <c r="N68" s="9">
         <v>79.715829950324618</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q68" s="28">
+        <v>40855.200390026439</v>
+      </c>
+      <c r="R68" s="171">
+        <v>5917.252354323884</v>
+      </c>
+      <c r="S68" s="155">
+        <v>1338.30302055633</v>
+      </c>
+      <c r="T68" s="161">
+        <v>113.1371936644418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -15944,17 +17009,17 @@
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="23">
-        <v>43186.292348788869</v>
-      </c>
-      <c r="G69" s="68">
-        <v>4001.236070114127</v>
-      </c>
-      <c r="H69" s="90">
-        <v>2139.809989035261</v>
-      </c>
-      <c r="I69" s="29">
-        <v>347.52746014348719</v>
+      <c r="F69" s="145">
+        <v>43283.495807220534</v>
+      </c>
+      <c r="G69" s="69">
+        <v>3785.4713124262021</v>
+      </c>
+      <c r="H69" s="157">
+        <v>1985.970376620051</v>
+      </c>
+      <c r="I69" s="162">
+        <v>280.57674192390988</v>
       </c>
       <c r="K69" s="119">
         <v>43244.364563264717</v>
@@ -15968,8 +17033,20 @@
       <c r="N69" s="27">
         <v>238.1267234105984</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q69" s="165">
+        <v>41301.384127433288</v>
+      </c>
+      <c r="R69" s="172">
+        <v>5767.5829922134362</v>
+      </c>
+      <c r="S69" s="157">
+        <v>1579.065940593151</v>
+      </c>
+      <c r="T69" s="162">
+        <v>280.57674192390988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -15985,17 +17062,17 @@
       <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="24">
-        <v>43612.648137701472</v>
-      </c>
-      <c r="G70" s="69">
-        <v>3794.283781523226</v>
-      </c>
-      <c r="H70" s="91">
-        <v>2820.0349085534808</v>
-      </c>
-      <c r="I70" s="106">
-        <v>471.42304848954541</v>
+      <c r="F70" s="121">
+        <v>43729.520574664188</v>
+      </c>
+      <c r="G70" s="152">
+        <v>3518.8836418680562</v>
+      </c>
+      <c r="H70" s="158">
+        <v>2617.8681705380668</v>
+      </c>
+      <c r="I70" s="163">
+        <v>381.9035879274644</v>
       </c>
       <c r="K70" s="121">
         <v>43778.846790610522</v>
@@ -16009,8 +17086,20 @@
       <c r="N70" s="124">
         <v>325.78023196862199</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q70" s="163">
+        <v>41714.07025968864</v>
+      </c>
+      <c r="R70" s="173">
+        <v>5534.3339568436104</v>
+      </c>
+      <c r="S70" s="179">
+        <v>2072.622061627781</v>
+      </c>
+      <c r="T70" s="163">
+        <v>381.9035879274644</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -16050,8 +17139,20 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q71" s="19">
+        <v>46571.263569914678</v>
+      </c>
+      <c r="R71" s="64">
+        <v>0.83743763916593972</v>
+      </c>
+      <c r="S71" s="64">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -16068,10 +17169,10 @@
         <v>16</v>
       </c>
       <c r="F72" s="25">
-        <v>46525.528663948571</v>
+        <v>46525.528663948578</v>
       </c>
       <c r="G72" s="64">
-        <v>46.572343605282271</v>
+        <v>46.572343605282278</v>
       </c>
       <c r="H72" s="64">
         <v>7.6196759842034278E-2</v>
@@ -16091,8 +17192,20 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q72" s="25">
+        <v>46525.500995908522</v>
+      </c>
+      <c r="R72" s="64">
+        <v>46.600011645336068</v>
+      </c>
+      <c r="S72" s="64">
+        <v>7.6196759842034278E-2</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -16132,8 +17245,20 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q73" s="25">
+        <v>46525.664558867538</v>
+      </c>
+      <c r="R73" s="64">
+        <v>46.436448686313142</v>
+      </c>
+      <c r="S73" s="64">
+        <v>0.2032536930335217</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -16149,14 +17274,14 @@
       <c r="E74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="26">
-        <v>46476.87149380691</v>
+      <c r="F74" s="25">
+        <v>46526.834907779739</v>
       </c>
       <c r="G74" s="64">
-        <v>95.22951374693595</v>
+        <v>45.266099774121699</v>
       </c>
       <c r="H74" s="64">
-        <v>0.94295526697255883</v>
+        <v>0.86765184816027041</v>
       </c>
       <c r="I74" s="3">
         <v>0</v>
@@ -16173,8 +17298,20 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q74" s="25">
+        <v>46526.519852045909</v>
+      </c>
+      <c r="R74" s="64">
+        <v>45.581155507953781</v>
+      </c>
+      <c r="S74" s="64">
+        <v>0.86765184816027041</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -16191,16 +17328,16 @@
         <v>10</v>
       </c>
       <c r="F75" s="27">
-        <v>40268.570808402059</v>
+        <v>40264.479925647662</v>
       </c>
       <c r="G75" s="70">
-        <v>13804.581291540289</v>
+        <v>13803.26478668848</v>
       </c>
       <c r="H75" s="64">
-        <v>17.320055497836869</v>
+        <v>17.321248297141569</v>
       </c>
       <c r="I75" s="101">
-        <v>21.90288013789166</v>
+        <v>18.849367008410859</v>
       </c>
       <c r="K75" s="27">
         <v>40264.268878064991</v>
@@ -16214,8 +17351,20 @@
       <c r="N75" s="101">
         <v>18.785510469333861</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q75" s="27">
+        <v>40252.944021888259</v>
+      </c>
+      <c r="R75" s="70">
+        <v>13814.800690447881</v>
+      </c>
+      <c r="S75" s="64">
+        <v>13.052093180502149</v>
+      </c>
+      <c r="T75" s="101">
+        <v>18.849367008410859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -16232,16 +17381,16 @@
         <v>16</v>
       </c>
       <c r="F76" s="27">
-        <v>40288.413371213443</v>
+        <v>40284.293428920028</v>
       </c>
       <c r="G76" s="70">
-        <v>13810.492002837929</v>
+        <v>13809.20309457536</v>
       </c>
       <c r="H76" s="64">
         <v>17.32814674702626</v>
       </c>
       <c r="I76" s="94">
-        <v>36.445569944103518</v>
+        <v>33.391230697345897</v>
       </c>
       <c r="K76" s="27">
         <v>40284.205825567929</v>
@@ -16255,8 +17404,20 @@
       <c r="N76" s="94">
         <v>33.32695061794</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q76" s="27">
+        <v>40272.919005058531</v>
+      </c>
+      <c r="R76" s="70">
+        <v>13820.577518436859</v>
+      </c>
+      <c r="S76" s="64">
+        <v>13.06075943764743</v>
+      </c>
+      <c r="T76" s="94">
+        <v>33.391230697345897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -16273,16 +17434,16 @@
         <v>12</v>
       </c>
       <c r="F77" s="8">
-        <v>40313.342479558509</v>
+        <v>40308.059338055413</v>
       </c>
       <c r="G77" s="70">
-        <v>13821.93562603692</v>
+        <v>13820.306366885619</v>
       </c>
       <c r="H77" s="64">
         <v>22.69688301522719</v>
       </c>
-      <c r="I77" s="95">
-        <v>56.984991456506997</v>
+      <c r="I77" s="125">
+        <v>53.081608216475402</v>
       </c>
       <c r="K77" s="8">
         <v>40307.727060026482</v>
@@ -16296,8 +17457,20 @@
       <c r="N77" s="125">
         <v>52.838734854905788</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q77" s="27">
+        <v>40296.273289093268</v>
+      </c>
+      <c r="R77" s="174">
+        <v>13832.092415847759</v>
+      </c>
+      <c r="S77" s="64">
+        <v>18.429638760530029</v>
+      </c>
+      <c r="T77" s="125">
+        <v>53.081608216475402</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -16314,16 +17487,16 @@
         <v>17</v>
       </c>
       <c r="F78" s="27">
-        <v>40298.607316961221</v>
+        <v>40294.487374667813</v>
       </c>
       <c r="G78" s="70">
-        <v>13813.741029405561</v>
+        <v>13812.452121142989</v>
       </c>
       <c r="H78" s="64">
         <v>17.32814674702626</v>
       </c>
-      <c r="I78" s="99">
-        <v>44.036720320894162</v>
+      <c r="I78" s="126">
+        <v>40.982381074136548</v>
       </c>
       <c r="K78" s="27">
         <v>40294.399771315708</v>
@@ -16337,8 +17510,20 @@
       <c r="N78" s="126">
         <v>40.918100994730644</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q78" s="27">
+        <v>40283.113547377929</v>
+      </c>
+      <c r="R78" s="70">
+        <v>13823.82594843287</v>
+      </c>
+      <c r="S78" s="64">
+        <v>13.060802953653059</v>
+      </c>
+      <c r="T78" s="126">
+        <v>40.982381074136548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -16355,16 +17540,16 @@
         <v>10</v>
       </c>
       <c r="F79" s="27">
-        <v>40248.399139190187</v>
+        <v>40246.835093562913</v>
       </c>
       <c r="G79" s="70">
-        <v>13790.61614591117</v>
+        <v>13790.080308249841</v>
       </c>
       <c r="H79" s="64">
-        <v>6.3427005469277802</v>
+        <v>6.3438933462324796</v>
       </c>
       <c r="I79" s="3">
-        <v>2.626064805489734</v>
+        <v>1.4402757222699529</v>
       </c>
       <c r="K79" s="27">
         <v>40246.742393705899</v>
@@ -16378,8 +17563,20 @@
       <c r="N79" s="3">
         <v>1.4636451231819489</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q79" s="27">
+        <v>40246.34850323401</v>
+      </c>
+      <c r="R79" s="70">
+        <v>13790.566898578731</v>
+      </c>
+      <c r="S79" s="64">
+        <v>6.3438933462324796</v>
+      </c>
+      <c r="T79" s="3">
+        <v>1.4402757222699529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -16396,16 +17593,16 @@
         <v>16</v>
       </c>
       <c r="F80" s="27">
-        <v>40251.283790381101</v>
+        <v>40249.709546235943</v>
       </c>
       <c r="G80" s="70">
-        <v>13793.59697260549</v>
+        <v>13793.070681041971</v>
       </c>
       <c r="H80" s="64">
-        <v>7.658659614224776</v>
+        <v>7.7607877125690479</v>
       </c>
       <c r="I80" s="3">
-        <v>5.9382582411259257</v>
+        <v>4.7521007409603602</v>
       </c>
       <c r="K80" s="27">
         <v>40249.698053064407</v>
@@ -16419,8 +17616,20 @@
       <c r="N80" s="3">
         <v>4.772244771787399</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q80" s="27">
+        <v>40249.114277047222</v>
+      </c>
+      <c r="R80" s="70">
+        <v>13793.665950230679</v>
+      </c>
+      <c r="S80" s="64">
+        <v>7.7607877125690479</v>
+      </c>
+      <c r="T80" s="3">
+        <v>4.7521007409603602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -16437,16 +17646,16 @@
         <v>12</v>
       </c>
       <c r="F81" s="27">
-        <v>40259.18131020986</v>
+        <v>40256.928937931807</v>
       </c>
       <c r="G81" s="70">
-        <v>13795.7578187455</v>
+        <v>13795.041832717239</v>
       </c>
       <c r="H81" s="64">
         <v>9.1417499646669498</v>
       </c>
       <c r="I81" s="3">
-        <v>11.618145606977039</v>
+        <v>9.9419348890846457</v>
       </c>
       <c r="K81" s="27">
         <v>40256.900289470563</v>
@@ -16460,8 +17669,20 @@
       <c r="N81" s="3">
         <v>9.9207570868343389</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q81" s="27">
+        <v>40256.227745954078</v>
+      </c>
+      <c r="R81" s="70">
+        <v>13795.74302469497</v>
+      </c>
+      <c r="S81" s="64">
+        <v>9.1417499646669498</v>
+      </c>
+      <c r="T81" s="3">
+        <v>9.9419348890846457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -16478,16 +17699,16 @@
         <v>17</v>
       </c>
       <c r="F82" s="27">
-        <v>40259.80146494761</v>
+        <v>40258.227220802437</v>
       </c>
       <c r="G82" s="70">
-        <v>13796.06123056001</v>
+        <v>13795.53493899649</v>
       </c>
       <c r="H82" s="64">
-        <v>8.7456750701936468</v>
+        <v>8.8478031685379204</v>
       </c>
       <c r="I82" s="3">
-        <v>12.13967703742833</v>
+        <v>10.953519537262769</v>
       </c>
       <c r="K82" s="27">
         <v>40258.215727630923</v>
@@ -16501,8 +17722,20 @@
       <c r="N82" s="3">
         <v>10.973663568089799</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q82" s="27">
+        <v>40257.548575179208</v>
+      </c>
+      <c r="R82" s="70">
+        <v>13796.213584619731</v>
+      </c>
+      <c r="S82" s="64">
+        <v>8.8478031685379204</v>
+      </c>
+      <c r="T82" s="3">
+        <v>10.953519537262769</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>80</v>
       </c>
@@ -16519,16 +17752,16 @@
         <v>10</v>
       </c>
       <c r="F83" s="27">
-        <v>40245.651573136107</v>
+        <v>40244.595311841578</v>
       </c>
       <c r="G83" s="70">
-        <v>13789.03445012369</v>
+        <v>13790.03777200741</v>
       </c>
       <c r="H83" s="64">
-        <v>1.266045203079782</v>
+        <v>1.1104999914638261</v>
       </c>
       <c r="I83" s="3">
-        <v>0.18136158892109641</v>
+        <v>0.1514670820378915</v>
       </c>
       <c r="K83" s="27">
         <v>40244.423329086472</v>
@@ -16542,8 +17775,20 @@
       <c r="N83" s="3">
         <v>0.16025958406236351</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q83" s="27">
+        <v>40244.51013409243</v>
+      </c>
+      <c r="R83" s="70">
+        <v>13790.12294975656</v>
+      </c>
+      <c r="S83" s="64">
+        <v>1.1104999914638261</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0.1514670820378915</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>81</v>
       </c>
@@ -16560,16 +17805,16 @@
         <v>16</v>
       </c>
       <c r="F84" s="27">
-        <v>40248.087676590039</v>
+        <v>40247.792048232091</v>
       </c>
       <c r="G84" s="70">
-        <v>13787.263741231431</v>
+        <v>13787.15119231855</v>
       </c>
       <c r="H84" s="64">
-        <v>1.6662410388604341</v>
+        <v>1.6802703684433871</v>
       </c>
       <c r="I84" s="3">
-        <v>0.55710514168498626</v>
+        <v>0.32661035447634051</v>
       </c>
       <c r="K84" s="27">
         <v>40247.783002562297</v>
@@ -16583,8 +17828,20 @@
       <c r="N84" s="3">
         <v>0.35247327135810602</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q84" s="27">
+        <v>40247.663167863742</v>
+      </c>
+      <c r="R84" s="70">
+        <v>13787.280072686901</v>
+      </c>
+      <c r="S84" s="64">
+        <v>1.6802703684433871</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0.32661035447634051</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>82</v>
       </c>
@@ -16601,16 +17858,16 @@
         <v>12</v>
       </c>
       <c r="F85" s="27">
-        <v>40248.5247165853</v>
+        <v>40248.055904914007</v>
       </c>
       <c r="G85" s="70">
-        <v>13788.374891073539</v>
+        <v>13788.200682666489</v>
       </c>
       <c r="H85" s="64">
-        <v>2.3521146942414219</v>
+        <v>2.3775207500994582</v>
       </c>
       <c r="I85" s="3">
-        <v>1.4313568764567199</v>
+        <v>1.068248034496553</v>
       </c>
       <c r="K85" s="27">
         <v>40248.032932652153</v>
@@ -16624,8 +17881,20 @@
       <c r="N85" s="3">
         <v>1.091956368391662</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q85" s="27">
+        <v>40247.87354393462</v>
+      </c>
+      <c r="R85" s="70">
+        <v>13788.383043645879</v>
+      </c>
+      <c r="S85" s="64">
+        <v>2.3775207500994582</v>
+      </c>
+      <c r="T85" s="3">
+        <v>1.068248034496553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>83</v>
       </c>
@@ -16642,16 +17911,16 @@
         <v>17</v>
       </c>
       <c r="F86" s="27">
-        <v>40251.429083100898</v>
+        <v>40250.960271429598</v>
       </c>
       <c r="G86" s="70">
-        <v>13788.97013969772</v>
+        <v>13788.79593129067</v>
       </c>
       <c r="H86" s="64">
-        <v>2.704512155143624</v>
+        <v>2.729918211001658</v>
       </c>
       <c r="I86" s="3">
-        <v>3.407564530806503</v>
+        <v>3.044455688846337</v>
       </c>
       <c r="K86" s="27">
         <v>40250.937299167737</v>
@@ -16665,8 +17934,20 @@
       <c r="N86" s="3">
         <v>3.068164022741446</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q86" s="27">
+        <v>40250.750880803433</v>
+      </c>
+      <c r="R86" s="70">
+        <v>13789.00532191684</v>
+      </c>
+      <c r="S86" s="64">
+        <v>2.729918211001658</v>
+      </c>
+      <c r="T86" s="3">
+        <v>3.044455688846337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>84</v>
       </c>
@@ -16706,8 +17987,20 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q87" s="27">
+        <v>40248.48442086939</v>
+      </c>
+      <c r="R87" s="70">
+        <v>13785.88043383257</v>
+      </c>
+      <c r="S87" s="64">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>85</v>
       </c>
@@ -16747,8 +18040,20 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q88" s="27">
+        <v>40248.48442086939</v>
+      </c>
+      <c r="R88" s="70">
+        <v>13785.88043383257</v>
+      </c>
+      <c r="S88" s="64">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>86</v>
       </c>
@@ -16788,8 +18093,20 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q89" s="27">
+        <v>40248.48442086939</v>
+      </c>
+      <c r="R89" s="70">
+        <v>13785.88043383257</v>
+      </c>
+      <c r="S89" s="64">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -16806,16 +18123,16 @@
         <v>17</v>
       </c>
       <c r="F90" s="27">
-        <v>40248.730907739628</v>
+        <v>40248.690809719767</v>
       </c>
       <c r="G90" s="70">
-        <v>13786.059228807861</v>
+        <v>13786.0463874169</v>
       </c>
       <c r="H90" s="64">
         <v>0.14087019278751159</v>
       </c>
       <c r="I90" s="3">
-        <v>0.24015361827945839</v>
+        <v>0.2102591113962535</v>
       </c>
       <c r="K90" s="27">
         <v>40248.702603255027</v>
@@ -16829,8 +18146,20 @@
       <c r="N90" s="3">
         <v>0.21905161342072549</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q90" s="27">
+        <v>40248.680004671573</v>
+      </c>
+      <c r="R90" s="70">
+        <v>13786.05719246511</v>
+      </c>
+      <c r="S90" s="64">
+        <v>0.14087019278751159</v>
+      </c>
+      <c r="T90" s="3">
+        <v>0.2102591113962535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>88</v>
       </c>
@@ -16847,16 +18176,16 @@
         <v>10</v>
       </c>
       <c r="F91" s="28">
-        <v>40859.121067238368</v>
-      </c>
-      <c r="G91" s="71">
-        <v>13934.737804512009</v>
-      </c>
-      <c r="H91" s="87">
-        <v>175.0847046080888</v>
-      </c>
-      <c r="I91" s="107">
-        <v>428.88084260074407</v>
+        <v>40835.421545937599</v>
+      </c>
+      <c r="G91" s="74">
+        <v>13925.75332923428</v>
+      </c>
+      <c r="H91" s="76">
+        <v>175.07564591022509</v>
+      </c>
+      <c r="I91" s="35">
+        <v>410.42442335648349</v>
       </c>
       <c r="K91" s="28">
         <v>40828.425021926778</v>
@@ -16870,8 +18199,20 @@
       <c r="N91" s="21">
         <v>405.3576940569352</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q91" s="28">
+        <v>40827.757471203571</v>
+      </c>
+      <c r="R91" s="74">
+        <v>13933.417403968309</v>
+      </c>
+      <c r="S91" s="76">
+        <v>141.32352401322001</v>
+      </c>
+      <c r="T91" s="35">
+        <v>410.42442335648349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -16888,16 +18229,16 @@
         <v>16</v>
       </c>
       <c r="F92" s="29">
-        <v>41408.944881537733</v>
-      </c>
-      <c r="G92" s="72">
-        <v>13990.885381786449</v>
-      </c>
-      <c r="H92" s="87">
+        <v>41385.472796539463</v>
+      </c>
+      <c r="G92" s="71">
+        <v>13981.657594554599</v>
+      </c>
+      <c r="H92" s="76">
         <v>175.11225449740641</v>
       </c>
-      <c r="I92" s="108">
-        <v>771.06855596826085</v>
+      <c r="I92" s="12">
+        <v>752.60317185701501</v>
       </c>
       <c r="K92" s="127">
         <v>41378.631351125572</v>
@@ -16911,8 +18252,20 @@
       <c r="N92" s="12">
         <v>747.53575484529426</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q92" s="127">
+        <v>41376.670280814142</v>
+      </c>
+      <c r="R92" s="72">
+        <v>13990.46011027991</v>
+      </c>
+      <c r="S92" s="77">
+        <v>175.11225449740641</v>
+      </c>
+      <c r="T92" s="12">
+        <v>752.60317185701501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -16928,17 +18281,17 @@
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="21">
-        <v>41962.108600092659</v>
-      </c>
-      <c r="G93" s="73">
-        <v>14048.954258052199</v>
-      </c>
-      <c r="H93" s="87">
+      <c r="F93" s="128">
+        <v>41938.636515094382</v>
+      </c>
+      <c r="G93" s="72">
+        <v>14039.726470820349</v>
+      </c>
+      <c r="H93" s="76">
         <v>175.11225449740641</v>
       </c>
-      <c r="I93" s="109">
-        <v>1116.2272332024711</v>
+      <c r="I93" s="114">
+        <v>1097.7618490912259</v>
       </c>
       <c r="K93" s="128">
         <v>41931.795069680498</v>
@@ -16952,8 +18305,20 @@
       <c r="N93" s="114">
         <v>1092.6944320795051</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q93" s="128">
+        <v>41929.833999369068</v>
+      </c>
+      <c r="R93" s="73">
+        <v>14048.528986545671</v>
+      </c>
+      <c r="S93" s="77">
+        <v>175.11225449740641</v>
+      </c>
+      <c r="T93" s="114">
+        <v>1097.7618490912259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>91</v>
       </c>
@@ -16970,16 +18335,16 @@
         <v>17</v>
       </c>
       <c r="F94" s="30">
-        <v>42638.308576059593</v>
+        <v>42614.836491061324</v>
       </c>
       <c r="G94" s="73">
-        <v>14062.322460638081</v>
-      </c>
-      <c r="H94" s="87">
+        <v>14053.094673406231</v>
+      </c>
+      <c r="H94" s="76">
         <v>175.11225449740641</v>
       </c>
-      <c r="I94" s="41">
-        <v>1505.6214546312549</v>
+      <c r="I94" s="37">
+        <v>1487.1560705200091</v>
       </c>
       <c r="K94" s="30">
         <v>42607.99504564744</v>
@@ -16993,8 +18358,20 @@
       <c r="N94" s="37">
         <v>1482.0886535082891</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q94" s="30">
+        <v>42606.033975336009</v>
+      </c>
+      <c r="R94" s="73">
+        <v>14061.89718913154</v>
+      </c>
+      <c r="S94" s="77">
+        <v>175.11225449740641</v>
+      </c>
+      <c r="T94" s="37">
+        <v>1487.1560705200091</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>92</v>
       </c>
@@ -17034,8 +18411,20 @@
       <c r="N95" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q95" s="27">
+        <v>40246.123122037621</v>
+      </c>
+      <c r="R95" s="70">
+        <v>13788.241732664341</v>
+      </c>
+      <c r="S95" s="64">
+        <v>6.8615489806603619E-2</v>
+      </c>
+      <c r="T95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>93</v>
       </c>
@@ -17052,16 +18441,16 @@
         <v>16</v>
       </c>
       <c r="F96" s="27">
-        <v>40248.475116327092</v>
+        <v>40248.435018307231</v>
       </c>
       <c r="G96" s="70">
-        <v>13785.977311607359</v>
+        <v>13785.964470216401</v>
       </c>
       <c r="H96" s="64">
         <v>0.14087019278751159</v>
       </c>
       <c r="I96" s="3">
-        <v>4.9451978418248298E-2</v>
+        <v>1.9557471535043419E-2</v>
       </c>
       <c r="K96" s="27">
         <v>40248.446811842477</v>
@@ -17075,8 +18464,20 @@
       <c r="N96" s="3">
         <v>2.8349973559515431E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q96" s="27">
+        <v>40248.424213259023</v>
+      </c>
+      <c r="R96" s="70">
+        <v>13785.975275264611</v>
+      </c>
+      <c r="S96" s="64">
+        <v>0.14087019278751159</v>
+      </c>
+      <c r="T96" s="3">
+        <v>1.9557471535043419E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>94</v>
       </c>
@@ -17093,16 +18494,16 @@
         <v>12</v>
       </c>
       <c r="F97" s="27">
-        <v>40248.645539992242</v>
+        <v>40248.605441972381</v>
       </c>
       <c r="G97" s="70">
-        <v>13786.03188978654</v>
+        <v>13786.019048395579</v>
       </c>
       <c r="H97" s="64">
         <v>0.14087019278751159</v>
       </c>
       <c r="I97" s="3">
-        <v>0.17650891160973581</v>
+        <v>0.14661440472653089</v>
       </c>
       <c r="K97" s="27">
         <v>40248.617235507627</v>
@@ -17116,8 +18517,20 @@
       <c r="N97" s="3">
         <v>0.15540690675100291</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q97" s="27">
+        <v>40248.594636924172</v>
+      </c>
+      <c r="R97" s="70">
+        <v>13786.02985344379</v>
+      </c>
+      <c r="S97" s="64">
+        <v>0.14087019278751159</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0.14661440472653089</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>95</v>
       </c>
@@ -17134,16 +18547,16 @@
         <v>17</v>
       </c>
       <c r="F98" s="27">
-        <v>40249.53670874524</v>
+        <v>40249.496610725379</v>
       </c>
       <c r="G98" s="70">
-        <v>13786.317286581911</v>
+        <v>13786.30444519095</v>
       </c>
       <c r="H98" s="64">
         <v>0.14087019278751159</v>
       </c>
       <c r="I98" s="3">
-        <v>0.84090706673648452</v>
+        <v>0.81101255985327958</v>
       </c>
       <c r="K98" s="27">
         <v>40249.508404260632</v>
@@ -17157,8 +18570,20 @@
       <c r="N98" s="3">
         <v>0.81980506187775171</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q98" s="27">
+        <v>40249.48580567717</v>
+      </c>
+      <c r="R98" s="70">
+        <v>13786.315250239149</v>
+      </c>
+      <c r="S98" s="64">
+        <v>0.14087019278751159</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0.81101255985327958</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>96</v>
       </c>
@@ -17198,8 +18623,20 @@
       <c r="N99" s="94">
         <v>34.107216778374053</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q99" s="31">
+        <v>40187.71711020224</v>
+      </c>
+      <c r="R99" s="74">
+        <v>13890.38186110489</v>
+      </c>
+      <c r="S99" s="64">
+        <v>0</v>
+      </c>
+      <c r="T99" s="101">
+        <v>24.696343037586828</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -17239,8 +18676,20 @@
       <c r="N100" s="99">
         <v>48.649939470607691</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q100" s="31">
+        <v>40199.772379225702</v>
+      </c>
+      <c r="R100" s="74">
+        <v>13894.123227000729</v>
+      </c>
+      <c r="S100" s="64">
+        <v>0</v>
+      </c>
+      <c r="T100" s="94">
+        <v>33.616589862937829</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -17280,8 +18729,20 @@
       <c r="N101" s="5">
         <v>72.507656039580453</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q101" s="31">
+        <v>40223.401588528563</v>
+      </c>
+      <c r="R101" s="74">
+        <v>13901.300148633391</v>
+      </c>
+      <c r="S101" s="64">
+        <v>0</v>
+      </c>
+      <c r="T101" s="125">
+        <v>51.01259180148503</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -17321,8 +18782,20 @@
       <c r="N102" s="95">
         <v>56.241089847398342</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q102" s="31">
+        <v>40210.350277930876</v>
+      </c>
+      <c r="R102" s="74">
+        <v>13897.468605267321</v>
+      </c>
+      <c r="S102" s="64">
+        <v>0</v>
+      </c>
+      <c r="T102" s="126">
+        <v>41.47896484597716</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -17362,8 +18835,20 @@
       <c r="N103" s="3">
         <v>7.3562667550104841</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q103" s="32">
+        <v>40164.244045015927</v>
+      </c>
+      <c r="R103" s="74">
+        <v>13883.168413359181</v>
+      </c>
+      <c r="S103" s="64">
+        <v>0</v>
+      </c>
+      <c r="T103" s="3">
+        <v>7.367888530584862</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -17403,8 +18888,20 @@
       <c r="N104" s="3">
         <v>11.535823226761829</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q104" s="32">
+        <v>40169.90578043821</v>
+      </c>
+      <c r="R104" s="74">
+        <v>13884.968963763549</v>
+      </c>
+      <c r="S104" s="64">
+        <v>0</v>
+      </c>
+      <c r="T104" s="3">
+        <v>11.5817879968399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -17444,8 +18941,20 @@
       <c r="N105" s="4">
         <v>18.277023708468569</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q105" s="31">
+        <v>40178.967544989719</v>
+      </c>
+      <c r="R105" s="74">
+        <v>13887.845017190881</v>
+      </c>
+      <c r="S105" s="64">
+        <v>0</v>
+      </c>
+      <c r="T105" s="4">
+        <v>18.32298847854663</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -17485,8 +18994,20 @@
       <c r="N106" s="101">
         <v>18.824257479033111</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q106" s="31">
+        <v>40179.693048883171</v>
+      </c>
+      <c r="R106" s="74">
+        <v>13888.08859546056</v>
+      </c>
+      <c r="S106" s="64">
+        <v>0</v>
+      </c>
+      <c r="T106" s="101">
+        <v>18.870222249111169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -17526,8 +19047,20 @@
       <c r="N107" s="3">
         <v>1.199451384328037</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q107" s="32">
+        <v>40155.97099663804</v>
+      </c>
+      <c r="R107" s="74">
+        <v>13880.53014383446</v>
+      </c>
+      <c r="S107" s="64">
+        <v>0</v>
+      </c>
+      <c r="T107" s="3">
+        <v>1.2063453045580641</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -17567,8 +19100,20 @@
       <c r="N108" s="3">
         <v>1.94113788816177</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q108" s="32">
+        <v>40156.965925613178</v>
+      </c>
+      <c r="R108" s="74">
+        <v>13880.848648350009</v>
+      </c>
+      <c r="S108" s="64">
+        <v>0</v>
+      </c>
+      <c r="T108" s="3">
+        <v>1.9480318083917969</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>106</v>
       </c>
@@ -17608,8 +19153,20 @@
       <c r="N109" s="3">
         <v>3.2808810540760032</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q109" s="32">
+        <v>40158.782500114379</v>
+      </c>
+      <c r="R109" s="74">
+        <v>13881.429935587301</v>
+      </c>
+      <c r="S109" s="64">
+        <v>0</v>
+      </c>
+      <c r="T109" s="3">
+        <v>3.302087192315033</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>107</v>
       </c>
@@ -17649,8 +19206,20 @@
       <c r="N110" s="3">
         <v>5.6094861693279876</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q110" s="32">
+        <v>40161.906245284757</v>
+      </c>
+      <c r="R110" s="74">
+        <v>13882.429857126721</v>
+      </c>
+      <c r="S110" s="64">
+        <v>0</v>
+      </c>
+      <c r="T110" s="3">
+        <v>5.6306923075670179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>108</v>
       </c>
@@ -17690,8 +19259,20 @@
       <c r="N111" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q111" s="32">
+        <v>40154.352822692912</v>
+      </c>
+      <c r="R111" s="74">
+        <v>13880.01203200905</v>
+      </c>
+      <c r="S111" s="64">
+        <v>0</v>
+      </c>
+      <c r="T111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>109</v>
       </c>
@@ -17731,8 +19312,20 @@
       <c r="N112" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q112" s="32">
+        <v>40154.352822692912</v>
+      </c>
+      <c r="R112" s="74">
+        <v>13880.01203200905</v>
+      </c>
+      <c r="S112" s="64">
+        <v>0</v>
+      </c>
+      <c r="T112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>110</v>
       </c>
@@ -17772,8 +19365,20 @@
       <c r="N113" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q113" s="32">
+        <v>40154.352822692912</v>
+      </c>
+      <c r="R113" s="74">
+        <v>13880.01203200905</v>
+      </c>
+      <c r="S113" s="64">
+        <v>0</v>
+      </c>
+      <c r="T113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>111</v>
       </c>
@@ -17813,8 +19418,20 @@
       <c r="N114" s="3">
         <v>0.3597316458122779</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q114" s="32">
+        <v>40154.835336980083</v>
+      </c>
+      <c r="R114" s="74">
+        <v>13880.16655721071</v>
+      </c>
+      <c r="S114" s="64">
+        <v>0</v>
+      </c>
+      <c r="T114" s="3">
+        <v>0.3597316458122779</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>112</v>
       </c>
@@ -17854,8 +19471,20 @@
       <c r="N115" s="103">
         <v>501.74576531155572</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q115" s="33">
+        <v>40953.535948384357</v>
+      </c>
+      <c r="R115" s="71">
+        <v>13971.11218835159</v>
+      </c>
+      <c r="S115" s="64">
+        <v>0</v>
+      </c>
+      <c r="T115" s="103">
+        <v>502.73660566274651</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -17895,8 +19524,20 @@
       <c r="N116" s="26">
         <v>843.93925206205222</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q116" s="34">
+        <v>41502.72204173285</v>
+      </c>
+      <c r="R116" s="72">
+        <v>14027.907710511819</v>
+      </c>
+      <c r="S116" s="64">
+        <v>0</v>
+      </c>
+      <c r="T116" s="26">
+        <v>844.93009241324307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>114</v>
       </c>
@@ -17936,8 +19577,20 @@
       <c r="N117" s="104">
         <v>1189.0979292962629</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q117" s="35">
+        <v>42055.885760287783</v>
+      </c>
+      <c r="R117" s="73">
+        <v>14085.97658677757</v>
+      </c>
+      <c r="S117" s="64">
+        <v>0</v>
+      </c>
+      <c r="T117" s="104">
+        <v>1190.088769647454</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>115</v>
       </c>
@@ -17977,8 +19630,20 @@
       <c r="N118" s="46">
         <v>1578.4921507250469</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q118" s="36">
+        <v>42732.085736254718</v>
+      </c>
+      <c r="R118" s="73">
+        <v>14099.344789363449</v>
+      </c>
+      <c r="S118" s="64">
+        <v>0</v>
+      </c>
+      <c r="T118" s="46">
+        <v>1579.4829910762371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>116</v>
       </c>
@@ -18018,8 +19683,20 @@
       <c r="N119" s="3">
         <v>6.8615489806603619E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q119" s="32">
+        <v>40154.444857837829</v>
+      </c>
+      <c r="R119" s="74">
+        <v>13880.041506264441</v>
+      </c>
+      <c r="S119" s="64">
+        <v>0</v>
+      </c>
+      <c r="T119" s="3">
+        <v>6.8615489806603619E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>117</v>
       </c>
@@ -18059,8 +19736,20 @@
       <c r="N120" s="3">
         <v>0.16903000595106779</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q120" s="32">
+        <v>40154.579545567532</v>
+      </c>
+      <c r="R120" s="74">
+        <v>13880.084640010209</v>
+      </c>
+      <c r="S120" s="64">
+        <v>0</v>
+      </c>
+      <c r="T120" s="3">
+        <v>0.16903000595106779</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>118</v>
       </c>
@@ -18100,8 +19789,20 @@
       <c r="N121" s="3">
         <v>0.29608693914255529</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q121" s="32">
+        <v>40154.749969232682</v>
+      </c>
+      <c r="R121" s="74">
+        <v>13880.13921818939</v>
+      </c>
+      <c r="S121" s="64">
+        <v>0</v>
+      </c>
+      <c r="T121" s="3">
+        <v>0.29608693914255529</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>119</v>
       </c>
@@ -18141,8 +19842,20 @@
       <c r="N122" s="3">
         <v>0.96048509426930406</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q122" s="32">
+        <v>40155.64113798568</v>
+      </c>
+      <c r="R122" s="74">
+        <v>13880.42461498476</v>
+      </c>
+      <c r="S122" s="64">
+        <v>0</v>
+      </c>
+      <c r="T122" s="3">
+        <v>0.96048509426930406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>120</v>
       </c>
@@ -18158,14 +19871,14 @@
       <c r="E123" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="37">
-        <v>52995.046414420583</v>
-      </c>
-      <c r="G123" s="57">
-        <v>1039.318440281377</v>
+      <c r="F123" s="146">
+        <v>52806.300387778261</v>
+      </c>
+      <c r="G123" s="153">
+        <v>1228.064466923681</v>
       </c>
       <c r="H123" s="86">
-        <v>45.19142618044517</v>
+        <v>39.381801504440617</v>
       </c>
       <c r="I123" s="3">
         <v>0</v>
@@ -18182,8 +19895,20 @@
       <c r="N123" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q123" s="146">
+        <v>52792.410893613043</v>
+      </c>
+      <c r="R123" s="153">
+        <v>1241.9539610889169</v>
+      </c>
+      <c r="S123" s="85">
+        <v>39.381801504440617</v>
+      </c>
+      <c r="T123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>121</v>
       </c>
@@ -18199,17 +19924,17 @@
       <c r="E124" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="38">
-        <v>52876.982808467423</v>
-      </c>
-      <c r="G124" s="75">
-        <v>1163.823954234485</v>
+      <c r="F124" s="147">
+        <v>52653.816846379013</v>
+      </c>
+      <c r="G124" s="154">
+        <v>1380.5480083229429</v>
       </c>
       <c r="H124" s="80">
-        <v>63.575014997993769</v>
+        <v>56.513372608181541</v>
       </c>
       <c r="I124" s="3">
-        <v>3.6376994011251358</v>
+        <v>0</v>
       </c>
       <c r="K124" s="41">
         <v>53230.825026340208</v>
@@ -18223,8 +19948,20 @@
       <c r="N124" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q124" s="166">
+        <v>52633.866833881017</v>
+      </c>
+      <c r="R124" s="154">
+        <v>1400.498020820932</v>
+      </c>
+      <c r="S124" s="65">
+        <v>56.513372608181541</v>
+      </c>
+      <c r="T124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>122</v>
       </c>
@@ -18240,17 +19977,17 @@
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="39">
-        <v>53355.35870293685</v>
-      </c>
-      <c r="G125" s="76">
-        <v>713.19907870756253</v>
+      <c r="F125" s="98">
+        <v>53289.884555796823</v>
+      </c>
+      <c r="G125" s="61">
+        <v>759.58869015200935</v>
       </c>
       <c r="H125" s="65">
-        <v>79.005512122808881</v>
-      </c>
-      <c r="I125" s="101">
-        <v>19.308501435012779</v>
+        <v>78.22282939554286</v>
+      </c>
+      <c r="I125" s="3">
+        <v>8.5316005430559336</v>
       </c>
       <c r="K125" s="40">
         <v>53192.817493941773</v>
@@ -18264,8 +20001,20 @@
       <c r="N125" s="3">
         <v>5.8491757571577088</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q125" s="41">
+        <v>53262.147086836187</v>
+      </c>
+      <c r="R125" s="60">
+        <v>787.32615911262587</v>
+      </c>
+      <c r="S125" s="62">
+        <v>78.22282939554286</v>
+      </c>
+      <c r="T125" s="3">
+        <v>8.5316005430559336</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>123</v>
       </c>
@@ -18281,17 +20030,17 @@
       <c r="E126" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F126" s="40">
-        <v>53168.671070724427</v>
-      </c>
-      <c r="G126" s="77">
-        <v>879.90191045148163</v>
+      <c r="F126" s="37">
+        <v>53046.312160754169</v>
+      </c>
+      <c r="G126" s="115">
+        <v>989.16791404959326</v>
       </c>
       <c r="H126" s="80">
-        <v>70.077477791961428</v>
+        <v>66.448612919742303</v>
       </c>
       <c r="I126" s="3">
-        <v>8.0232274608370098</v>
+        <v>0.6297568199471405</v>
       </c>
       <c r="K126" s="43">
         <v>53596.645501803883</v>
@@ -18305,8 +20054,20 @@
       <c r="N126" s="3">
         <v>0.58538248795234027</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q126" s="167">
+        <v>52103.643318668132</v>
+      </c>
+      <c r="R126" s="175">
+        <v>1931.8367561356049</v>
+      </c>
+      <c r="S126" s="85">
+        <v>43.297034979086789</v>
+      </c>
+      <c r="T126" s="3">
+        <v>0.6297568199471405</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>124</v>
       </c>
@@ -18322,14 +20083,14 @@
       <c r="E127" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="39">
-        <v>53365.185421877657</v>
-      </c>
-      <c r="G127" s="76">
-        <v>669.17943282429087</v>
+      <c r="F127" s="98">
+        <v>53312.818230840407</v>
+      </c>
+      <c r="G127" s="61">
+        <v>721.54662386153871</v>
       </c>
       <c r="H127" s="64">
-        <v>9.7564128404244528</v>
+        <v>8.4865673753873274</v>
       </c>
       <c r="I127" s="3">
         <v>0</v>
@@ -18346,8 +20107,20 @@
       <c r="N127" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q127" s="98">
+        <v>53309.820398501433</v>
+      </c>
+      <c r="R127" s="61">
+        <v>724.54445620051922</v>
+      </c>
+      <c r="S127" s="64">
+        <v>8.4865673753873274</v>
+      </c>
+      <c r="T127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>125</v>
       </c>
@@ -18363,14 +20136,14 @@
       <c r="E128" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F128" s="41">
-        <v>53240.077230029732</v>
-      </c>
-      <c r="G128" s="60">
-        <v>794.28762467222145</v>
+      <c r="F128" s="131">
+        <v>53140.909191805928</v>
+      </c>
+      <c r="G128" s="58">
+        <v>893.45566289603232</v>
       </c>
       <c r="H128" s="64">
-        <v>16.557052363197268</v>
+        <v>14.01541339592255</v>
       </c>
       <c r="I128" s="3">
         <v>0</v>
@@ -18387,8 +20160,20 @@
       <c r="N128" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q128" s="131">
+        <v>53135.971461134883</v>
+      </c>
+      <c r="R128" s="58">
+        <v>898.39339356707421</v>
+      </c>
+      <c r="S128" s="64">
+        <v>14.01541339592255</v>
+      </c>
+      <c r="T128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>126</v>
       </c>
@@ -18404,14 +20189,14 @@
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F129" s="42">
-        <v>53567.286176757567</v>
-      </c>
-      <c r="G129" s="78">
-        <v>467.07867794437419</v>
+      <c r="F129" s="132">
+        <v>53431.413030550641</v>
+      </c>
+      <c r="G129" s="87">
+        <v>602.95182415129852</v>
       </c>
       <c r="H129" s="64">
-        <v>25.059203716214309</v>
+        <v>21.56155719846485</v>
       </c>
       <c r="I129" s="3">
         <v>0</v>
@@ -18428,8 +20213,20 @@
       <c r="N129" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q129" s="132">
+        <v>53423.829055920942</v>
+      </c>
+      <c r="R129" s="87">
+        <v>610.53579878100356</v>
+      </c>
+      <c r="S129" s="64">
+        <v>21.56155719846485</v>
+      </c>
+      <c r="T129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>127</v>
       </c>
@@ -18445,17 +20242,17 @@
       <c r="E130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="43">
-        <v>53629.223115665423</v>
-      </c>
-      <c r="G130" s="62">
-        <v>406.38395301038207</v>
+      <c r="F130" s="148">
+        <v>53486.129900883192</v>
+      </c>
+      <c r="G130" s="63">
+        <v>549.25582695367405</v>
       </c>
       <c r="H130" s="64">
-        <v>26.09705592154172</v>
+        <v>22.433011606244779</v>
       </c>
       <c r="I130" s="3">
-        <v>0.70146935174572911</v>
+        <v>0.57647976213425078</v>
       </c>
       <c r="K130" s="132">
         <v>53416.191389262603</v>
@@ -18469,8 +20266,20 @@
       <c r="N130" s="3">
         <v>0.5852722641587228</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q130" s="148">
+        <v>53478.219180491607</v>
+      </c>
+      <c r="R130" s="87">
+        <v>557.16654734525889</v>
+      </c>
+      <c r="S130" s="86">
+        <v>22.433011606244779</v>
+      </c>
+      <c r="T130" s="3">
+        <v>0.57647976213425078</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>128</v>
       </c>
@@ -18487,13 +20296,13 @@
         <v>10</v>
       </c>
       <c r="F131" s="44">
-        <v>53740.800945368122</v>
+        <v>53729.786514913183</v>
       </c>
       <c r="G131" s="65">
-        <v>293.56390933383273</v>
+        <v>304.57833978878472</v>
       </c>
       <c r="H131" s="64">
-        <v>1.608944304223636</v>
+        <v>1.3732007837008759</v>
       </c>
       <c r="I131" s="3">
         <v>0</v>
@@ -18510,8 +20319,20 @@
       <c r="N131" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q131" s="44">
+        <v>53729.288633652643</v>
+      </c>
+      <c r="R131" s="65">
+        <v>305.07622104932801</v>
+      </c>
+      <c r="S131" s="64">
+        <v>1.3732007837008759</v>
+      </c>
+      <c r="T131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>129</v>
       </c>
@@ -18527,14 +20348,14 @@
       <c r="E132" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F132" s="43">
-        <v>53613.906675536076</v>
-      </c>
-      <c r="G132" s="62">
-        <v>420.4581791658606</v>
+      <c r="F132" s="44">
+        <v>53767.532347708831</v>
+      </c>
+      <c r="G132" s="80">
+        <v>266.83250699310861</v>
       </c>
       <c r="H132" s="64">
-        <v>2.6318180742498778</v>
+        <v>2.177255841067113</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -18551,8 +20372,20 @@
       <c r="N132" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q132" s="44">
+        <v>53766.744137994749</v>
+      </c>
+      <c r="R132" s="80">
+        <v>267.62071670720542</v>
+      </c>
+      <c r="S132" s="64">
+        <v>2.177255841067113</v>
+      </c>
+      <c r="T132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>130</v>
       </c>
@@ -18569,13 +20402,13 @@
         <v>12</v>
       </c>
       <c r="F133" s="43">
-        <v>53700.021168864652</v>
+        <v>53669.596736150241</v>
       </c>
       <c r="G133" s="79">
-        <v>334.34368583730412</v>
+        <v>364.76811855171758</v>
       </c>
       <c r="H133" s="64">
-        <v>4.5333613602275342</v>
+        <v>3.8640941209221582</v>
       </c>
       <c r="I133" s="3">
         <v>0</v>
@@ -18592,8 +20425,20 @@
       <c r="N133" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q133" s="43">
+        <v>53668.204482869784</v>
+      </c>
+      <c r="R133" s="79">
+        <v>366.16037183218032</v>
+      </c>
+      <c r="S133" s="64">
+        <v>3.8640941209221582</v>
+      </c>
+      <c r="T133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>131</v>
       </c>
@@ -18609,17 +20454,17 @@
       <c r="E134" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F134" s="45">
-        <v>53797.687378453462</v>
+      <c r="F134" s="44">
+        <v>53761.906494607072</v>
       </c>
       <c r="G134" s="80">
-        <v>237.90442796206921</v>
+        <v>273.46397096951591</v>
       </c>
       <c r="H134" s="64">
-        <v>6.6557775861694326</v>
+        <v>5.8593450564310476</v>
       </c>
       <c r="I134" s="3">
-        <v>0.6928508624707026</v>
+        <v>0.56786127285922428</v>
       </c>
       <c r="K134" s="44">
         <v>53741.164923379452</v>
@@ -18633,8 +20478,20 @@
       <c r="N134" s="3">
         <v>0.57665377488369629</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q134" s="44">
+        <v>53759.796417731653</v>
+      </c>
+      <c r="R134" s="80">
+        <v>275.57404784495509</v>
+      </c>
+      <c r="S134" s="64">
+        <v>5.8593450564310476</v>
+      </c>
+      <c r="T134" s="3">
+        <v>0.56786127285922428</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>132</v>
       </c>
@@ -18674,8 +20531,20 @@
       <c r="N135" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q135" s="46">
+        <v>54033.391231884329</v>
+      </c>
+      <c r="R135" s="64">
+        <v>0.97362281762849534</v>
+      </c>
+      <c r="S135" s="64">
+        <v>0</v>
+      </c>
+      <c r="T135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>133</v>
       </c>
@@ -18715,8 +20584,20 @@
       <c r="N136" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q136" s="46">
+        <v>54033.391231884329</v>
+      </c>
+      <c r="R136" s="64">
+        <v>0.97362281762849534</v>
+      </c>
+      <c r="S136" s="64">
+        <v>0</v>
+      </c>
+      <c r="T136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>134</v>
       </c>
@@ -18756,8 +20637,20 @@
       <c r="N137" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q137" s="46">
+        <v>54033.391231884329</v>
+      </c>
+      <c r="R137" s="64">
+        <v>0.97362281762849534</v>
+      </c>
+      <c r="S137" s="64">
+        <v>0</v>
+      </c>
+      <c r="T137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>135</v>
       </c>
@@ -18797,8 +20690,20 @@
       <c r="N138" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q138" s="46">
+        <v>54019.035100390909</v>
+      </c>
+      <c r="R138" s="64">
+        <v>15.3297543110488</v>
+      </c>
+      <c r="S138" s="64">
+        <v>0.35973164581227779</v>
+      </c>
+      <c r="T138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>136</v>
       </c>
@@ -18814,14 +20719,14 @@
       <c r="E139" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F139" s="17">
-        <v>46140.391150446259</v>
-      </c>
-      <c r="G139" s="81">
-        <v>7893.9737042556844</v>
-      </c>
-      <c r="H139" s="92">
-        <v>1417.504172790409</v>
+      <c r="F139" s="14">
+        <v>45390.853341825823</v>
+      </c>
+      <c r="G139" s="51">
+        <v>8643.5115128761281</v>
+      </c>
+      <c r="H139" s="88">
+        <v>1191.4318866157471</v>
       </c>
       <c r="I139" s="3">
         <v>0</v>
@@ -18838,8 +20743,20 @@
       <c r="N139" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q139" s="133">
+        <v>45038.850635100003</v>
+      </c>
+      <c r="R139" s="134">
+        <v>8995.5142196019442</v>
+      </c>
+      <c r="S139" s="171">
+        <v>1191.4318866157471</v>
+      </c>
+      <c r="T139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>137</v>
       </c>
@@ -18855,17 +20772,17 @@
       <c r="E140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="47">
-        <v>47601.257469295822</v>
-      </c>
-      <c r="G140" s="82">
-        <v>6555.1684157753107</v>
-      </c>
-      <c r="H140" s="90">
-        <v>2143.915916270741</v>
-      </c>
-      <c r="I140" s="5">
-        <v>68.926991363128906</v>
+      <c r="F140" s="149">
+        <v>47442.754551080019</v>
+      </c>
+      <c r="G140" s="155">
+        <v>6641.0730991604742</v>
+      </c>
+      <c r="H140" s="159">
+        <v>1917.1342876618601</v>
+      </c>
+      <c r="I140" s="102">
+        <v>27.93128708294461</v>
       </c>
       <c r="K140" s="135">
         <v>47199.558423828952</v>
@@ -18879,8 +20796,20 @@
       <c r="N140" s="4">
         <v>14.02430342801726</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q140" s="168">
+        <v>43845.040722431411</v>
+      </c>
+      <c r="R140" s="176">
+        <v>10238.78692780908</v>
+      </c>
+      <c r="S140" s="90">
+        <v>1533.280238189245</v>
+      </c>
+      <c r="T140" s="102">
+        <v>27.93128708294461</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>138</v>
       </c>
@@ -18897,16 +20826,16 @@
         <v>12</v>
       </c>
       <c r="F141" s="48">
-        <v>48292.224843604643</v>
-      </c>
-      <c r="G141" s="83">
-        <v>6068.474712256525</v>
+        <v>48289.337086243453</v>
+      </c>
+      <c r="G141" s="156">
+        <v>5970.8775214278166</v>
       </c>
       <c r="H141" s="93">
-        <v>2709.4076682037298</v>
-      </c>
-      <c r="I141" s="110">
-        <v>184.27887311994019</v>
+        <v>2437.294730432523</v>
+      </c>
+      <c r="I141" s="10">
+        <v>127.53574113866151</v>
       </c>
       <c r="K141" s="138">
         <v>48174.092730581768</v>
@@ -18920,8 +20849,20 @@
       <c r="N141" s="141">
         <v>103.8950290843644</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q141" s="169">
+        <v>44334.093803528893</v>
+      </c>
+      <c r="R141" s="177">
+        <v>9926.1208041423906</v>
+      </c>
+      <c r="S141" s="93">
+        <v>1936.8190103483601</v>
+      </c>
+      <c r="T141" s="10">
+        <v>127.53574113866151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>139</v>
       </c>
@@ -18937,17 +20878,17 @@
       <c r="E142" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F142" s="49">
-        <v>48592.449774793691</v>
-      </c>
-      <c r="G142" s="84">
-        <v>5689.5794889004628</v>
+      <c r="F142" s="150">
+        <v>48697.233909312883</v>
+      </c>
+      <c r="G142" s="142">
+        <v>5430.086325926779</v>
       </c>
       <c r="H142" s="73">
-        <v>3963.8792167740512</v>
-      </c>
-      <c r="I142" s="111">
-        <v>139.85432146467721</v>
+        <v>3578.7193729932751</v>
+      </c>
+      <c r="I142" s="125">
+        <v>52.491238949080874</v>
       </c>
       <c r="K142" s="49">
         <v>48647.237173999063</v>
@@ -18961,8 +20902,20 @@
       <c r="N142" s="102">
         <v>25.613472355020011</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q142" s="170">
+        <v>44493.310417501772</v>
+      </c>
+      <c r="R142" s="93">
+        <v>9634.0098177378859</v>
+      </c>
+      <c r="S142" s="73">
+        <v>2840.9262645217541</v>
+      </c>
+      <c r="T142" s="125">
+        <v>52.491238949080874</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>140</v>
       </c>
@@ -19002,8 +20955,20 @@
       <c r="N143" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q143" s="46">
+        <v>54003.85863201644</v>
+      </c>
+      <c r="R143" s="64">
+        <v>30.506222685509609</v>
+      </c>
+      <c r="S143" s="64">
+        <v>6.8615489806603619E-2</v>
+      </c>
+      <c r="T143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>141</v>
       </c>
@@ -19043,8 +21008,20 @@
       <c r="N144" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q144" s="46">
+        <v>54009.093441892728</v>
+      </c>
+      <c r="R144" s="64">
+        <v>25.27141280922952</v>
+      </c>
+      <c r="S144" s="64">
+        <v>0.16903000595106779</v>
+      </c>
+      <c r="T144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>142</v>
       </c>
@@ -19061,7 +21038,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="46">
-        <v>54015.825342378666</v>
+        <v>54015.825342378659</v>
       </c>
       <c r="G145" s="64">
         <v>18.539512323298059</v>
@@ -19084,8 +21061,20 @@
       <c r="N145" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q145" s="46">
+        <v>54015.717174339581</v>
+      </c>
+      <c r="R145" s="64">
+        <v>18.647680362380779</v>
+      </c>
+      <c r="S145" s="64">
+        <v>0.29608693914255529</v>
+      </c>
+      <c r="T145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>143</v>
       </c>
@@ -19102,16 +21091,16 @@
         <v>17</v>
       </c>
       <c r="F146" s="46">
-        <v>54033.289519919701</v>
+        <v>54033.12186921831</v>
       </c>
       <c r="G146" s="64">
-        <v>1.890869694992555</v>
+        <v>1.8371795574542009</v>
       </c>
       <c r="H146" s="64">
         <v>0.61698831734804704</v>
       </c>
       <c r="I146" s="3">
-        <v>0.46052673582339038</v>
+        <v>0.335537146211912</v>
       </c>
       <c r="K146" s="46">
         <v>54033.133662753557</v>
@@ -19125,11 +21114,24 @@
       <c r="N146" s="3">
         <v>0.34432964823638401</v>
       </c>
+      <c r="Q146" s="46">
+        <v>54032.896467798651</v>
+      </c>
+      <c r="R146" s="64">
+        <v>2.0625809771107422</v>
+      </c>
+      <c r="S146" s="64">
+        <v>0.61698831734804704</v>
+      </c>
+      <c r="T146" s="3">
+        <v>0.335537146211912</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Manuscript/scenario_comparison_table.xlsx
+++ b/results/Manuscript/scenario_comparison_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/results/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972A9FDC-8D82-684B-B4B7-115895B0097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCA7FF5-676D-504D-ADEA-B148B65A81B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="28080" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="67380" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary materials" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="New batteries" sheetId="4" r:id="rId4"/>
     <sheet name="Overview" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -133,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="178">
+  <fills count="176">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,97 +1102,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC8C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB5B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF1414"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF1B1B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9191"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8787"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF85CA85"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88CB88"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8BCD8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF048204"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EEC6"/>
+        <fgColor rgb="FFFF9E9E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3FA33F"/>
+        <fgColor rgb="FFFF8B8B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF44A544"/>
+        <fgColor rgb="FFFF8282"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF96D396"/>
+        <fgColor rgb="FFFFBABA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3EA23E"/>
+        <fgColor rgb="FFFF3333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2020"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9DEA9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCE8BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2ECC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEF2CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95D395"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6DCA6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEE9BE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1379,9 +1367,6 @@
     <xf numFmtId="0" fontId="2" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1402,22 +1387,23 @@
     <xf numFmtId="0" fontId="2" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13406,8 +13392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4348AC9D-6E83-9E4C-885B-E3F4BEE15CF2}">
   <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13422,28 +13408,33 @@
     <col min="12" max="12" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="2"/>
+    <col min="15" max="16" width="8.83203125" style="2"/>
+    <col min="17" max="17" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="K1" s="143" t="s">
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="K1" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="Q1" s="143" t="s">
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="Q1" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -13536,12 +13527,12 @@
         <v>5.6686510549439504</v>
       </c>
       <c r="Q3" s="3">
-        <v>37910.919533813707</v>
-      </c>
-      <c r="R3" s="50">
-        <v>8671.5639839660707</v>
-      </c>
-      <c r="S3" s="80">
+        <v>37939.702560999118</v>
+      </c>
+      <c r="R3" s="51">
+        <v>8642.7809567806617</v>
+      </c>
+      <c r="S3" s="85">
         <v>46.907132089447821</v>
       </c>
       <c r="T3" s="3">
@@ -13588,13 +13579,13 @@
       <c r="N4" s="102">
         <v>24.756085172856441</v>
       </c>
-      <c r="Q4" s="3">
-        <v>37934.54092866274</v>
+      <c r="Q4" s="4">
+        <v>37966.915235758257</v>
       </c>
       <c r="R4" s="50">
-        <v>8682.298271468142</v>
-      </c>
-      <c r="S4" s="80">
+        <v>8649.9239643726214</v>
+      </c>
+      <c r="S4" s="85">
         <v>52.759770174688867</v>
       </c>
       <c r="T4" s="102">
@@ -13642,12 +13633,12 @@
         <v>49.008738087992263</v>
       </c>
       <c r="Q5" s="4">
-        <v>37965.941766946817</v>
+        <v>38001.236965374534</v>
       </c>
       <c r="R5" s="50">
-        <v>8694.5246885411543</v>
-      </c>
-      <c r="S5" s="65">
+        <v>8659.2294901134428</v>
+      </c>
+      <c r="S5" s="80">
         <v>57.519889207871913</v>
       </c>
       <c r="T5" s="125">
@@ -13694,13 +13685,13 @@
       <c r="N6" s="102">
         <v>26.979860718542412</v>
       </c>
-      <c r="Q6" s="3">
-        <v>37936.057025670583</v>
+      <c r="Q6" s="4">
+        <v>37973.185424443553</v>
       </c>
       <c r="R6" s="50">
-        <v>8685.4890261711607</v>
-      </c>
-      <c r="S6" s="65">
+        <v>8648.3606273981932</v>
+      </c>
+      <c r="S6" s="80">
         <v>60.507419678087032</v>
       </c>
       <c r="T6" s="102">
@@ -13748,10 +13739,10 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <v>37921.296260823467</v>
-      </c>
-      <c r="R7" s="50">
-        <v>8650.8047467303859</v>
+        <v>37930.920004433821</v>
+      </c>
+      <c r="R7" s="51">
+        <v>8641.1810031200457</v>
       </c>
       <c r="S7" s="64">
         <v>15.68362527740344</v>
@@ -13801,12 +13792,12 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>37916.438730755479</v>
-      </c>
-      <c r="R8" s="50">
-        <v>8655.6622767983827</v>
-      </c>
-      <c r="S8" s="86">
+        <v>37931.958503541457</v>
+      </c>
+      <c r="R8" s="51">
+        <v>8640.1425040124068</v>
+      </c>
+      <c r="S8" s="64">
         <v>25.292267813964418</v>
       </c>
       <c r="T8" s="3">
@@ -13854,12 +13845,12 @@
         <v>1.7770595858507932E-2</v>
       </c>
       <c r="Q9" s="3">
-        <v>37910.735168767467</v>
-      </c>
-      <c r="R9" s="50">
-        <v>8661.3658387863925</v>
-      </c>
-      <c r="S9" s="85">
+        <v>37933.214751204439</v>
+      </c>
+      <c r="R9" s="51">
+        <v>8638.8862563494222</v>
+      </c>
+      <c r="S9" s="86">
         <v>36.634532424067388</v>
       </c>
       <c r="T9" s="3">
@@ -13907,12 +13898,12 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>37912.913473957698</v>
-      </c>
-      <c r="R10" s="50">
-        <v>8659.1875335961686</v>
-      </c>
-      <c r="S10" s="85">
+        <v>37934.837716467657</v>
+      </c>
+      <c r="R10" s="51">
+        <v>8637.2632910861976</v>
+      </c>
+      <c r="S10" s="86">
         <v>35.729505890806017</v>
       </c>
       <c r="T10" s="3">
@@ -13960,10 +13951,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <v>37930.266151874013</v>
+        <v>37931.80035779185</v>
       </c>
       <c r="R11" s="51">
-        <v>8641.8348556798574</v>
+        <v>8640.3006497620099</v>
       </c>
       <c r="S11" s="64">
         <v>2.5002651450554469</v>
@@ -14013,10 +14004,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>37929.462916488214</v>
+        <v>37932.312827579277</v>
       </c>
       <c r="R12" s="51">
-        <v>8642.6380910656517</v>
+        <v>8639.788179974581</v>
       </c>
       <c r="S12" s="64">
         <v>4.644443933256662</v>
@@ -14066,10 +14057,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>37927.298012059327</v>
+        <v>37932.417253777217</v>
       </c>
       <c r="R13" s="51">
-        <v>8644.8029954945378</v>
+        <v>8639.6837537766351</v>
       </c>
       <c r="S13" s="64">
         <v>8.3427273272073066</v>
@@ -14119,10 +14110,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>37927.361624073717</v>
+        <v>37934.314066136889</v>
       </c>
       <c r="R14" s="51">
-        <v>8644.7393834801387</v>
+        <v>8637.7869414169782</v>
       </c>
       <c r="S14" s="64">
         <v>11.33025779742243</v>
@@ -14331,10 +14322,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>37943.209082028668</v>
+        <v>37943.592056787609</v>
       </c>
       <c r="R18" s="51">
-        <v>8628.8919255251985</v>
+        <v>8628.5089507662506</v>
       </c>
       <c r="S18" s="64">
         <v>0.62412641620765053</v>
@@ -14383,14 +14374,14 @@
       <c r="N19" s="112">
         <v>413.63576491561872</v>
       </c>
-      <c r="Q19" s="5">
-        <v>38533.967340628857</v>
-      </c>
-      <c r="R19" s="52">
-        <v>8778.6922434026019</v>
+      <c r="Q19" s="9">
+        <v>38598.277109019218</v>
+      </c>
+      <c r="R19" s="55">
+        <v>8714.3824750122421</v>
       </c>
       <c r="S19" s="87">
-        <v>131.80473470878221</v>
+        <v>159.71475018986581</v>
       </c>
       <c r="T19" s="112">
         <v>418.18813466000802</v>
@@ -14436,14 +14427,14 @@
       <c r="N20" s="113">
         <v>753.91281932694449</v>
       </c>
-      <c r="Q20" s="6">
-        <v>39077.943387483807</v>
-      </c>
-      <c r="R20" s="53">
-        <v>8837.5484908419367</v>
-      </c>
-      <c r="S20" s="76">
-        <v>137.67193460065079</v>
+      <c r="Q20" s="10">
+        <v>39145.852069704088</v>
+      </c>
+      <c r="R20" s="52">
+        <v>8769.6398086216577</v>
+      </c>
+      <c r="S20" s="87">
+        <v>165.56738827510691</v>
       </c>
       <c r="T20" s="113">
         <v>758.60322223190792</v>
@@ -14474,7 +14465,7 @@
       <c r="H21" s="76">
         <v>170.3624000521493</v>
       </c>
-      <c r="I21" s="160">
+      <c r="I21" s="159">
         <v>1102.3443315830821</v>
       </c>
       <c r="K21" s="7">
@@ -14489,16 +14480,16 @@
       <c r="N21" s="114">
         <v>1097.538651145024</v>
       </c>
-      <c r="Q21" s="7">
-        <v>39627.800896210829</v>
-      </c>
-      <c r="R21" s="54">
-        <v>8896.413242551349</v>
+      <c r="Q21" s="110">
+        <v>39697.910023978533</v>
+      </c>
+      <c r="R21" s="53">
+        <v>8826.3041147836539</v>
       </c>
       <c r="S21" s="76">
-        <v>140.91623767359701</v>
-      </c>
-      <c r="T21" s="160">
+        <v>170.3624000521493</v>
+      </c>
+      <c r="T21" s="159">
         <v>1102.3443315830821</v>
       </c>
     </row>
@@ -14542,14 +14533,14 @@
       <c r="N22" s="37">
         <v>1485.994355704946</v>
       </c>
-      <c r="Q22" s="27">
-        <v>40302.820957602133</v>
-      </c>
-      <c r="R22" s="54">
-        <v>8909.3215187898004</v>
+      <c r="Q22" s="8">
+        <v>40374.764748579873</v>
+      </c>
+      <c r="R22" s="53">
+        <v>8837.3777278120615</v>
       </c>
       <c r="S22" s="76">
-        <v>143.91050166313369</v>
+        <v>173.34993052236439</v>
       </c>
       <c r="T22" s="131">
         <v>1490.8125465641119</v>
@@ -14649,10 +14640,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>37945.260121650492</v>
+        <v>37945.306877299627</v>
       </c>
       <c r="R24" s="51">
-        <v>8626.8408859033752</v>
+        <v>8626.7941302542386</v>
       </c>
       <c r="S24" s="64">
         <v>7.6196759842034265E-2</v>
@@ -14702,10 +14693,10 @@
         <v>0</v>
       </c>
       <c r="Q25" s="3">
-        <v>37945.390785585303</v>
+        <v>37945.515505565207</v>
       </c>
       <c r="R25" s="51">
-        <v>8626.7102219685657</v>
+        <v>8626.5855019886494</v>
       </c>
       <c r="S25" s="64">
         <v>0.2032536930335217</v>
@@ -14755,10 +14746,10 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>37946.074045247311</v>
+        <v>37946.606451421387</v>
       </c>
       <c r="R26" s="51">
-        <v>8626.0269623065542</v>
+        <v>8625.4945561324694</v>
       </c>
       <c r="S26" s="64">
         <v>0.8676518481602703</v>
@@ -14808,16 +14799,16 @@
         <v>47.626434430857913</v>
       </c>
       <c r="Q27" s="3">
-        <v>37889.647796061487</v>
+        <v>37902.578549460348</v>
       </c>
       <c r="R27" s="55">
-        <v>8749.7968153103175</v>
+        <v>8753.9145264877388</v>
       </c>
       <c r="S27" s="64">
         <v>0</v>
       </c>
-      <c r="T27" s="126">
-        <v>38.028451707173289</v>
+      <c r="T27" s="99">
+        <v>47.655597791794548</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -14861,16 +14852,16 @@
         <v>71.022356194643379</v>
       </c>
       <c r="Q28" s="3">
-        <v>37909.383410840863</v>
-      </c>
-      <c r="R28" s="55">
-        <v>8755.7854424508332</v>
+        <v>37934.360533865132</v>
+      </c>
+      <c r="R28" s="52">
+        <v>8763.5637762112474</v>
       </c>
       <c r="S28" s="64">
         <v>0</v>
       </c>
-      <c r="T28" s="125">
-        <v>52.554747243693711</v>
+      <c r="T28" s="5">
+        <v>71.051519555580015</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -14913,17 +14904,17 @@
       <c r="N29" s="100">
         <v>98.379793227212659</v>
       </c>
-      <c r="Q29" s="3">
-        <v>37933.035154122001</v>
+      <c r="Q29" s="4">
+        <v>37971.512950970013</v>
       </c>
       <c r="R29" s="52">
-        <v>8762.9689575022931</v>
+        <v>8774.8579383986907</v>
       </c>
       <c r="S29" s="64">
         <v>0</v>
       </c>
-      <c r="T29" s="5">
-        <v>69.967197215174906</v>
+      <c r="T29" s="100">
+        <v>98.408956588149323</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -14967,16 +14958,16 @@
         <v>77.102874343097085</v>
       </c>
       <c r="Q30" s="3">
-        <v>37919.5017092083</v>
+        <v>37942.484897555842</v>
       </c>
       <c r="R30" s="52">
-        <v>8758.9963421327502</v>
+        <v>8766.2072452040793</v>
       </c>
       <c r="S30" s="64">
         <v>0</v>
       </c>
-      <c r="T30" s="95">
-        <v>60.081650105701272</v>
+      <c r="T30" s="9">
+        <v>77.132037704033735</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -16079,13 +16070,13 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="Q51" s="14">
-        <v>45479.059271019622</v>
-      </c>
-      <c r="R51" s="59">
-        <v>1093.04173653423</v>
-      </c>
-      <c r="S51" s="65">
+      <c r="Q51" s="113">
+        <v>45562.557027744653</v>
+      </c>
+      <c r="R51" s="57">
+        <v>1009.543979809202</v>
+      </c>
+      <c r="S51" s="80">
         <v>56.14594667479075</v>
       </c>
       <c r="T51" s="3">
@@ -16132,13 +16123,13 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="113">
-        <v>45562.970459175951</v>
-      </c>
-      <c r="R52" s="57">
-        <v>1009.130548377913</v>
-      </c>
-      <c r="S52" s="62">
+      <c r="Q52" s="108">
+        <v>45685.543883113321</v>
+      </c>
+      <c r="R52" s="58">
+        <v>886.55712444053722</v>
+      </c>
+      <c r="S52" s="65">
         <v>82.466679057452268</v>
       </c>
       <c r="T52" s="3">
@@ -16185,13 +16176,13 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="Q53" s="13">
-        <v>45660.446917468573</v>
-      </c>
-      <c r="R53" s="58">
-        <v>911.65409008528889</v>
-      </c>
-      <c r="S53" s="87">
+      <c r="Q53" s="16">
+        <v>45829.011509719363</v>
+      </c>
+      <c r="R53" s="61">
+        <v>743.08949783449236</v>
+      </c>
+      <c r="S53" s="78">
         <v>113.4374161850758</v>
       </c>
       <c r="T53" s="3">
@@ -16238,13 +16229,13 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="113">
-        <v>45579.355771950519</v>
-      </c>
-      <c r="R54" s="57">
-        <v>992.74523560334501</v>
-      </c>
-      <c r="S54" s="78">
+      <c r="Q54" s="108">
+        <v>45719.216692540969</v>
+      </c>
+      <c r="R54" s="77">
+        <v>852.88431501287528</v>
+      </c>
+      <c r="S54" s="79">
         <v>93.920043896019664</v>
       </c>
       <c r="T54" s="3">
@@ -16292,10 +16283,10 @@
         <v>0</v>
       </c>
       <c r="Q55" s="15">
-        <v>45769.64195250492</v>
+        <v>45794.726825541249</v>
       </c>
       <c r="R55" s="60">
-        <v>802.45905504893074</v>
+        <v>777.37418201260584</v>
       </c>
       <c r="S55" s="64">
         <v>16.659570782644622</v>
@@ -16344,13 +16335,13 @@
       <c r="N56" s="3">
         <v>0</v>
       </c>
-      <c r="Q56" s="15">
-        <v>45788.892978383679</v>
-      </c>
-      <c r="R56" s="60">
-        <v>783.20802917017147</v>
-      </c>
-      <c r="S56" s="86">
+      <c r="Q56" s="16">
+        <v>45828.947946434433</v>
+      </c>
+      <c r="R56" s="61">
+        <v>743.15306111942732</v>
+      </c>
+      <c r="S56" s="64">
         <v>26.664244549131759</v>
       </c>
       <c r="T56" s="3">
@@ -16398,12 +16389,12 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <v>45812.325999871056</v>
-      </c>
-      <c r="R57" s="61">
-        <v>759.77500768279492</v>
-      </c>
-      <c r="S57" s="85">
+        <v>45870.718125643223</v>
+      </c>
+      <c r="R57" s="76">
+        <v>701.38288191062736</v>
+      </c>
+      <c r="S57" s="86">
         <v>38.916787664390483</v>
       </c>
       <c r="T57" s="3">
@@ -16450,13 +16441,13 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="15">
-        <v>45804.448140313987</v>
-      </c>
-      <c r="R58" s="61">
-        <v>767.65286723986196</v>
-      </c>
-      <c r="S58" s="85">
+      <c r="Q58" s="16">
+        <v>45861.287234822637</v>
+      </c>
+      <c r="R58" s="76">
+        <v>710.81377273120438</v>
+      </c>
+      <c r="S58" s="86">
         <v>37.775569145472957</v>
       </c>
       <c r="T58" s="3">
@@ -16504,10 +16495,10 @@
         <v>0</v>
       </c>
       <c r="Q59" s="17">
-        <v>46130.039658046582</v>
-      </c>
-      <c r="R59" s="78">
-        <v>442.06134950727181</v>
+        <v>46134.118773322247</v>
+      </c>
+      <c r="R59" s="62">
+        <v>437.98223423159948</v>
       </c>
       <c r="S59" s="64">
         <v>2.670698610944005</v>
@@ -16557,10 +16548,10 @@
         <v>0</v>
       </c>
       <c r="Q60" s="17">
-        <v>46132.095985493623</v>
+        <v>46139.577537968187</v>
       </c>
       <c r="R60" s="62">
-        <v>440.00502206024299</v>
+        <v>432.52346958566511</v>
       </c>
       <c r="S60" s="64">
         <v>4.9037496596205363</v>
@@ -16610,10 +16601,10 @@
         <v>0</v>
       </c>
       <c r="Q61" s="18">
-        <v>46031.953350131422</v>
+        <v>46045.453026564552</v>
       </c>
       <c r="R61" s="63">
-        <v>540.14765742243412</v>
+        <v>526.64798098930169</v>
       </c>
       <c r="S61" s="64">
         <v>8.8677204060688215</v>
@@ -16663,10 +16654,10 @@
         <v>0</v>
       </c>
       <c r="Q62" s="18">
-        <v>46034.814197276988</v>
+        <v>46053.235133914663</v>
       </c>
       <c r="R62" s="63">
-        <v>537.28681027687912</v>
+        <v>518.86587363920569</v>
       </c>
       <c r="S62" s="64">
         <v>12.091253929167809</v>
@@ -16875,10 +16866,10 @@
         <v>0</v>
       </c>
       <c r="Q66" s="20">
-        <v>46291.69308429231</v>
+        <v>46292.682085313929</v>
       </c>
       <c r="R66" s="65">
-        <v>280.40792326153712</v>
+        <v>279.41892223993051</v>
       </c>
       <c r="S66" s="64">
         <v>0.64893821973014054</v>
@@ -16903,10 +16894,10 @@
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="144">
+      <c r="F67" s="143">
         <v>41806.270374660977</v>
       </c>
-      <c r="G67" s="151">
+      <c r="G67" s="150">
         <v>4765.830632892882</v>
       </c>
       <c r="H67" s="88">
@@ -16927,14 +16918,14 @@
       <c r="N67" s="3">
         <v>0</v>
       </c>
-      <c r="Q67" s="164">
-        <v>39929.988061204109</v>
-      </c>
-      <c r="R67" s="155">
-        <v>6642.1129463497409</v>
-      </c>
-      <c r="S67" s="178">
-        <v>987.66236002167693</v>
+      <c r="Q67" s="165">
+        <v>42871.860494080109</v>
+      </c>
+      <c r="R67" s="171">
+        <v>3700.2405134737519</v>
+      </c>
+      <c r="S67" s="88">
+        <v>1194.1124348943099</v>
       </c>
       <c r="T67" s="3">
         <v>0</v>
@@ -16965,7 +16956,7 @@
       <c r="H68" s="82">
         <v>1666.1677836688859</v>
       </c>
-      <c r="I68" s="161">
+      <c r="I68" s="160">
         <v>113.1371936644418</v>
       </c>
       <c r="K68" s="106">
@@ -16980,16 +16971,16 @@
       <c r="N68" s="9">
         <v>79.715829950324618</v>
       </c>
-      <c r="Q68" s="28">
-        <v>40855.200390026439</v>
-      </c>
-      <c r="R68" s="171">
-        <v>5917.252354323884</v>
-      </c>
-      <c r="S68" s="155">
-        <v>1338.30302055633</v>
-      </c>
-      <c r="T68" s="161">
+      <c r="Q68" s="166">
+        <v>44211.180716951887</v>
+      </c>
+      <c r="R68" s="172">
+        <v>2561.2720273984228</v>
+      </c>
+      <c r="S68" s="82">
+        <v>1666.1677836688859</v>
+      </c>
+      <c r="T68" s="160">
         <v>113.1371936644418</v>
       </c>
     </row>
@@ -17009,16 +17000,16 @@
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="145">
+      <c r="F69" s="144">
         <v>43283.495807220534</v>
       </c>
       <c r="G69" s="69">
         <v>3785.4713124262021</v>
       </c>
-      <c r="H69" s="157">
+      <c r="H69" s="156">
         <v>1985.970376620051</v>
       </c>
-      <c r="I69" s="162">
+      <c r="I69" s="161">
         <v>280.57674192390988</v>
       </c>
       <c r="K69" s="119">
@@ -17033,16 +17024,16 @@
       <c r="N69" s="27">
         <v>238.1267234105984</v>
       </c>
-      <c r="Q69" s="165">
-        <v>41301.384127433288</v>
-      </c>
-      <c r="R69" s="172">
-        <v>5767.5829922134362</v>
-      </c>
-      <c r="S69" s="157">
-        <v>1579.065940593151</v>
-      </c>
-      <c r="T69" s="162">
+      <c r="Q69" s="167">
+        <v>44889.382484340073</v>
+      </c>
+      <c r="R69" s="173">
+        <v>2179.58463530668</v>
+      </c>
+      <c r="S69" s="156">
+        <v>1985.970376620051</v>
+      </c>
+      <c r="T69" s="161">
         <v>280.57674192390988</v>
       </c>
     </row>
@@ -17065,13 +17056,13 @@
       <c r="F70" s="121">
         <v>43729.520574664188</v>
       </c>
-      <c r="G70" s="152">
+      <c r="G70" s="151">
         <v>3518.8836418680562</v>
       </c>
-      <c r="H70" s="158">
+      <c r="H70" s="157">
         <v>2617.8681705380668</v>
       </c>
-      <c r="I70" s="163">
+      <c r="I70" s="162">
         <v>381.9035879274644</v>
       </c>
       <c r="K70" s="121">
@@ -17086,16 +17077,16 @@
       <c r="N70" s="124">
         <v>325.78023196862199</v>
       </c>
-      <c r="Q70" s="163">
-        <v>41714.07025968864</v>
-      </c>
-      <c r="R70" s="173">
-        <v>5534.3339568436104</v>
-      </c>
-      <c r="S70" s="179">
-        <v>2072.622061627781</v>
-      </c>
-      <c r="T70" s="163">
+      <c r="Q70" s="15">
+        <v>45769.930452838467</v>
+      </c>
+      <c r="R70" s="174">
+        <v>1478.473763693773</v>
+      </c>
+      <c r="S70" s="157">
+        <v>2617.8681705380668</v>
+      </c>
+      <c r="T70" s="162">
         <v>381.9035879274644</v>
       </c>
     </row>
@@ -17193,10 +17184,10 @@
         <v>0</v>
       </c>
       <c r="Q72" s="25">
-        <v>46525.500995908522</v>
+        <v>46525.617134514629</v>
       </c>
       <c r="R72" s="64">
-        <v>46.600011645336068</v>
+        <v>46.483873039223397</v>
       </c>
       <c r="S72" s="64">
         <v>7.6196759842034278E-2</v>
@@ -17246,10 +17237,10 @@
         <v>0</v>
       </c>
       <c r="Q73" s="25">
-        <v>46525.664558867538</v>
+        <v>46525.97435682542</v>
       </c>
       <c r="R73" s="64">
-        <v>46.436448686313142</v>
+        <v>46.126650728432743</v>
       </c>
       <c r="S73" s="64">
         <v>0.2032536930335217</v>
@@ -17299,10 +17290,10 @@
         <v>0</v>
       </c>
       <c r="Q74" s="25">
-        <v>46526.519852045909</v>
+        <v>46527.842321353593</v>
       </c>
       <c r="R74" s="64">
-        <v>45.581155507953781</v>
+        <v>44.258686200265061</v>
       </c>
       <c r="S74" s="64">
         <v>0.86765184816027041</v>
@@ -17352,13 +17343,13 @@
         <v>18.785510469333861</v>
       </c>
       <c r="Q75" s="27">
-        <v>40252.944021888259</v>
+        <v>40273.779965878479</v>
       </c>
       <c r="R75" s="70">
-        <v>13814.800690447881</v>
+        <v>13793.964746457659</v>
       </c>
       <c r="S75" s="64">
-        <v>13.052093180502149</v>
+        <v>17.321248297141569</v>
       </c>
       <c r="T75" s="101">
         <v>18.849367008410859</v>
@@ -17405,13 +17396,13 @@
         <v>33.32695061794</v>
       </c>
       <c r="Q76" s="27">
-        <v>40272.919005058531</v>
+        <v>40293.597173032947</v>
       </c>
       <c r="R76" s="70">
-        <v>13820.577518436859</v>
+        <v>13799.89935046245</v>
       </c>
       <c r="S76" s="64">
-        <v>13.06075943764743</v>
+        <v>17.32814674702626</v>
       </c>
       <c r="T76" s="94">
         <v>33.391230697345897</v>
@@ -17457,14 +17448,14 @@
       <c r="N77" s="125">
         <v>52.838734854905788</v>
       </c>
-      <c r="Q77" s="27">
-        <v>40296.273289093268</v>
-      </c>
-      <c r="R77" s="174">
-        <v>13832.092415847759</v>
+      <c r="Q77" s="8">
+        <v>40320.24563788408</v>
+      </c>
+      <c r="R77" s="70">
+        <v>13808.12006705696</v>
       </c>
       <c r="S77" s="64">
-        <v>18.429638760530029</v>
+        <v>22.69688301522719</v>
       </c>
       <c r="T77" s="125">
         <v>53.081608216475402</v>
@@ -17511,13 +17502,13 @@
         <v>40.918100994730644</v>
       </c>
       <c r="Q78" s="27">
-        <v>40283.113547377929</v>
+        <v>40303.791118780733</v>
       </c>
       <c r="R78" s="70">
-        <v>13823.82594843287</v>
+        <v>13803.148377030069</v>
       </c>
       <c r="S78" s="64">
-        <v>13.060802953653059</v>
+        <v>17.32814674702626</v>
       </c>
       <c r="T78" s="126">
         <v>40.982381074136548</v>
@@ -17564,10 +17555,10 @@
         <v>1.4636451231819489</v>
       </c>
       <c r="Q79" s="27">
-        <v>40246.34850323401</v>
+        <v>40250.241225865138</v>
       </c>
       <c r="R79" s="70">
-        <v>13790.566898578731</v>
+        <v>13786.674175947601</v>
       </c>
       <c r="S79" s="64">
         <v>6.3438933462324796</v>
@@ -17617,10 +17608,10 @@
         <v>4.772244771787399</v>
       </c>
       <c r="Q80" s="27">
-        <v>40249.114277047222</v>
+        <v>40253.876430556949</v>
       </c>
       <c r="R80" s="70">
-        <v>13793.665950230679</v>
+        <v>13788.903796720961</v>
       </c>
       <c r="S80" s="64">
         <v>7.7607877125690479</v>
@@ -17670,10 +17661,10 @@
         <v>9.9207570868343389</v>
       </c>
       <c r="Q81" s="27">
-        <v>40256.227745954078</v>
+        <v>40261.837281775908</v>
       </c>
       <c r="R81" s="70">
-        <v>13795.74302469497</v>
+        <v>13790.13348887314</v>
       </c>
       <c r="S81" s="64">
         <v>9.1417499646669498</v>
@@ -17723,10 +17714,10 @@
         <v>10.973663568089799</v>
       </c>
       <c r="Q82" s="27">
-        <v>40257.548575179208</v>
+        <v>40262.977740165152</v>
       </c>
       <c r="R82" s="70">
-        <v>13796.213584619731</v>
+        <v>13790.78441963379</v>
       </c>
       <c r="S82" s="64">
         <v>8.8478031685379204</v>
@@ -17776,10 +17767,10 @@
         <v>0.16025958406236351</v>
       </c>
       <c r="Q83" s="27">
-        <v>40244.51013409243</v>
+        <v>40245.191556085629</v>
       </c>
       <c r="R83" s="70">
-        <v>13790.12294975656</v>
+        <v>13789.44152776336</v>
       </c>
       <c r="S83" s="64">
         <v>1.1104999914638261</v>
@@ -17829,10 +17820,10 @@
         <v>0.35247327135810602</v>
       </c>
       <c r="Q84" s="27">
-        <v>40247.663167863742</v>
+        <v>40248.694210810507</v>
       </c>
       <c r="R84" s="70">
-        <v>13787.280072686901</v>
+        <v>13786.24902974014</v>
       </c>
       <c r="S84" s="64">
         <v>1.6802703684433871</v>
@@ -17882,10 +17873,10 @@
         <v>1.091956368391662</v>
       </c>
       <c r="Q85" s="27">
-        <v>40247.87354393462</v>
+        <v>40249.332431769697</v>
       </c>
       <c r="R85" s="70">
-        <v>13788.383043645879</v>
+        <v>13786.924155810801</v>
       </c>
       <c r="S85" s="64">
         <v>2.3775207500994582</v>
@@ -17935,10 +17926,10 @@
         <v>3.068164022741446</v>
       </c>
       <c r="Q86" s="27">
-        <v>40250.750880803433</v>
+        <v>40252.426005812813</v>
       </c>
       <c r="R86" s="70">
-        <v>13789.00532191684</v>
+        <v>13787.330196907469</v>
       </c>
       <c r="S86" s="64">
         <v>2.729918211001658</v>
@@ -18147,10 +18138,10 @@
         <v>0.21905161342072549</v>
       </c>
       <c r="Q90" s="27">
-        <v>40248.680004671573</v>
+        <v>40248.766445057241</v>
       </c>
       <c r="R90" s="70">
-        <v>13786.05719246511</v>
+        <v>13785.970752079431</v>
       </c>
       <c r="S90" s="64">
         <v>0.14087019278751159</v>
@@ -18199,14 +18190,14 @@
       <c r="N91" s="21">
         <v>405.3576940569352</v>
       </c>
-      <c r="Q91" s="28">
-        <v>40827.757471203571</v>
-      </c>
-      <c r="R91" s="74">
-        <v>13933.417403968309</v>
+      <c r="Q91" s="168">
+        <v>40897.019500310533</v>
+      </c>
+      <c r="R91" s="163">
+        <v>13864.155374861341</v>
       </c>
       <c r="S91" s="76">
-        <v>141.32352401322001</v>
+        <v>175.07564591022509</v>
       </c>
       <c r="T91" s="35">
         <v>410.42442335648349</v>
@@ -18252,13 +18243,13 @@
       <c r="N92" s="12">
         <v>747.53575484529426</v>
       </c>
-      <c r="Q92" s="127">
-        <v>41376.670280814142</v>
-      </c>
-      <c r="R92" s="72">
-        <v>13990.46011027991</v>
-      </c>
-      <c r="S92" s="77">
+      <c r="Q92" s="34">
+        <v>41447.090406616633</v>
+      </c>
+      <c r="R92" s="74">
+        <v>13920.03998447742</v>
+      </c>
+      <c r="S92" s="76">
         <v>175.11225449740641</v>
       </c>
       <c r="T92" s="12">
@@ -18305,13 +18296,13 @@
       <c r="N93" s="114">
         <v>1092.6944320795051</v>
       </c>
-      <c r="Q93" s="128">
-        <v>41929.833999369068</v>
-      </c>
-      <c r="R93" s="73">
-        <v>14048.528986545671</v>
-      </c>
-      <c r="S93" s="77">
+      <c r="Q93" s="21">
+        <v>42000.254125171552</v>
+      </c>
+      <c r="R93" s="71">
+        <v>13978.108860743179</v>
+      </c>
+      <c r="S93" s="76">
         <v>175.11225449740641</v>
       </c>
       <c r="T93" s="114">
@@ -18358,13 +18349,13 @@
       <c r="N94" s="37">
         <v>1482.0886535082891</v>
       </c>
-      <c r="Q94" s="30">
-        <v>42606.033975336009</v>
-      </c>
-      <c r="R94" s="73">
-        <v>14061.89718913154</v>
-      </c>
-      <c r="S94" s="77">
+      <c r="Q94" s="106">
+        <v>42676.454101138494</v>
+      </c>
+      <c r="R94" s="72">
+        <v>13991.477063329059</v>
+      </c>
+      <c r="S94" s="76">
         <v>175.11225449740641</v>
       </c>
       <c r="T94" s="37">
@@ -18412,10 +18403,10 @@
         <v>0</v>
       </c>
       <c r="Q95" s="27">
-        <v>40246.123122037621</v>
+        <v>40246.165225688397</v>
       </c>
       <c r="R95" s="70">
-        <v>13788.241732664341</v>
+        <v>13788.199629013559</v>
       </c>
       <c r="S95" s="64">
         <v>6.8615489806603619E-2</v>
@@ -18465,10 +18456,10 @@
         <v>2.8349973559515431E-2</v>
       </c>
       <c r="Q96" s="27">
-        <v>40248.424213259023</v>
+        <v>40248.510653644698</v>
       </c>
       <c r="R96" s="70">
-        <v>13785.975275264611</v>
+        <v>13785.88883487893</v>
       </c>
       <c r="S96" s="64">
         <v>0.14087019278751159</v>
@@ -18518,10 +18509,10 @@
         <v>0.15540690675100291</v>
       </c>
       <c r="Q97" s="27">
-        <v>40248.594636924172</v>
+        <v>40248.68107730984</v>
       </c>
       <c r="R97" s="70">
-        <v>13786.02985344379</v>
+        <v>13785.943413058119</v>
       </c>
       <c r="S97" s="64">
         <v>0.14087019278751159</v>
@@ -18571,10 +18562,10 @@
         <v>0.81980506187775171</v>
       </c>
       <c r="Q98" s="27">
-        <v>40249.48580567717</v>
+        <v>40249.572246062839</v>
       </c>
       <c r="R98" s="70">
-        <v>13786.315250239149</v>
+        <v>13786.228809853479</v>
       </c>
       <c r="S98" s="64">
         <v>0.14087019278751159</v>
@@ -18624,16 +18615,16 @@
         <v>34.107216778374053</v>
       </c>
       <c r="Q99" s="31">
-        <v>40187.71711020224</v>
+        <v>40200.412277855001</v>
       </c>
       <c r="R99" s="74">
-        <v>13890.38186110489</v>
+        <v>13894.37516607424</v>
       </c>
       <c r="S99" s="64">
         <v>0</v>
       </c>
-      <c r="T99" s="101">
-        <v>24.696343037586828</v>
+      <c r="T99" s="94">
+        <v>34.120204238900307</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -18677,16 +18668,16 @@
         <v>48.649939470607691</v>
       </c>
       <c r="Q100" s="31">
-        <v>40199.772379225702</v>
+        <v>40220.065286323508</v>
       </c>
       <c r="R100" s="74">
-        <v>13894.123227000729</v>
+        <v>13900.47548995177</v>
       </c>
       <c r="S100" s="64">
         <v>0</v>
       </c>
-      <c r="T100" s="94">
-        <v>33.616589862937829</v>
+      <c r="T100" s="99">
+        <v>48.66292693113396</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
@@ -18729,17 +18720,17 @@
       <c r="N101" s="5">
         <v>72.507656039580453</v>
       </c>
-      <c r="Q101" s="31">
-        <v>40223.401588528563</v>
+      <c r="Q101" s="27">
+        <v>40252.529747223089</v>
       </c>
       <c r="R101" s="74">
-        <v>13901.300148633391</v>
+        <v>13910.397960989931</v>
       </c>
       <c r="S101" s="64">
         <v>0</v>
       </c>
-      <c r="T101" s="125">
-        <v>51.01259180148503</v>
+      <c r="T101" s="5">
+        <v>72.598524416633452</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
@@ -18783,16 +18774,16 @@
         <v>56.241089847398342</v>
       </c>
       <c r="Q102" s="31">
-        <v>40210.350277930876</v>
+        <v>40230.259232071287</v>
       </c>
       <c r="R102" s="74">
-        <v>13897.468605267321</v>
+        <v>13903.7245165194</v>
       </c>
       <c r="S102" s="64">
         <v>0</v>
       </c>
-      <c r="T102" s="126">
-        <v>41.47896484597716</v>
+      <c r="T102" s="95">
+        <v>56.254077307924597</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
@@ -19871,10 +19862,10 @@
       <c r="E123" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="146">
+      <c r="F123" s="145">
         <v>52806.300387778261</v>
       </c>
-      <c r="G123" s="153">
+      <c r="G123" s="152">
         <v>1228.064466923681</v>
       </c>
       <c r="H123" s="86">
@@ -19895,13 +19886,13 @@
       <c r="N123" s="3">
         <v>0</v>
       </c>
-      <c r="Q123" s="146">
-        <v>52792.410893613043</v>
-      </c>
-      <c r="R123" s="153">
-        <v>1241.9539610889169</v>
-      </c>
-      <c r="S123" s="85">
+      <c r="Q123" s="38">
+        <v>52850.880710092657</v>
+      </c>
+      <c r="R123" s="75">
+        <v>1183.484144609288</v>
+      </c>
+      <c r="S123" s="86">
         <v>39.381801504440617</v>
       </c>
       <c r="T123" s="3">
@@ -19924,10 +19915,10 @@
       <c r="E124" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="147">
+      <c r="F124" s="146">
         <v>52653.816846379013</v>
       </c>
-      <c r="G124" s="154">
+      <c r="G124" s="153">
         <v>1380.5480083229429</v>
       </c>
       <c r="H124" s="80">
@@ -19948,13 +19939,13 @@
       <c r="N124" s="3">
         <v>0</v>
       </c>
-      <c r="Q124" s="166">
-        <v>52633.866833881017</v>
-      </c>
-      <c r="R124" s="154">
-        <v>1400.498020820932</v>
-      </c>
-      <c r="S124" s="65">
+      <c r="Q124" s="129">
+        <v>52717.814186071359</v>
+      </c>
+      <c r="R124" s="130">
+        <v>1316.550668630588</v>
+      </c>
+      <c r="S124" s="80">
         <v>56.513372608181541</v>
       </c>
       <c r="T124" s="3">
@@ -20001,13 +19992,13 @@
       <c r="N125" s="3">
         <v>5.8491757571577088</v>
       </c>
-      <c r="Q125" s="41">
-        <v>53262.147086836187</v>
-      </c>
-      <c r="R125" s="60">
-        <v>787.32615911262587</v>
-      </c>
-      <c r="S125" s="62">
+      <c r="Q125" s="39">
+        <v>53378.669843893593</v>
+      </c>
+      <c r="R125" s="76">
+        <v>670.80340205522816</v>
+      </c>
+      <c r="S125" s="65">
         <v>78.22282939554286</v>
       </c>
       <c r="T125" s="3">
@@ -20054,14 +20045,14 @@
       <c r="N126" s="3">
         <v>0.58538248795234027</v>
       </c>
-      <c r="Q126" s="167">
-        <v>52103.643318668132</v>
-      </c>
-      <c r="R126" s="175">
-        <v>1931.8367561356049</v>
-      </c>
-      <c r="S126" s="85">
-        <v>43.297034979086789</v>
+      <c r="Q126" s="131">
+        <v>53121.59123269999</v>
+      </c>
+      <c r="R126" s="58">
+        <v>913.88884210376648</v>
+      </c>
+      <c r="S126" s="80">
+        <v>66.448612919742303</v>
       </c>
       <c r="T126" s="3">
         <v>0.6297568199471405</v>
@@ -20108,10 +20099,10 @@
         <v>0</v>
       </c>
       <c r="Q127" s="98">
-        <v>53309.820398501433</v>
-      </c>
-      <c r="R127" s="61">
-        <v>724.54445620051922</v>
+        <v>53322.47361680965</v>
+      </c>
+      <c r="R127" s="76">
+        <v>711.89123789229791</v>
       </c>
       <c r="S127" s="64">
         <v>8.4865673753873274</v>
@@ -20160,11 +20151,11 @@
       <c r="N128" s="3">
         <v>0</v>
       </c>
-      <c r="Q128" s="131">
-        <v>53135.971461134883</v>
-      </c>
-      <c r="R128" s="58">
-        <v>898.39339356707421</v>
+      <c r="Q128" s="40">
+        <v>53156.819071933976</v>
+      </c>
+      <c r="R128" s="77">
+        <v>877.5457827679636</v>
       </c>
       <c r="S128" s="64">
         <v>14.01541339592255</v>
@@ -20214,10 +20205,10 @@
         <v>0</v>
       </c>
       <c r="Q129" s="132">
-        <v>53423.829055920942</v>
+        <v>53455.85504184755</v>
       </c>
       <c r="R129" s="87">
-        <v>610.53579878100356</v>
+        <v>578.5098128544048</v>
       </c>
       <c r="S129" s="64">
         <v>21.56155719846485</v>
@@ -20242,7 +20233,7 @@
       <c r="E130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="148">
+      <c r="F130" s="147">
         <v>53486.129900883192</v>
       </c>
       <c r="G130" s="63">
@@ -20266,13 +20257,13 @@
       <c r="N130" s="3">
         <v>0.5852722641587228</v>
       </c>
-      <c r="Q130" s="148">
-        <v>53478.219180491607</v>
-      </c>
-      <c r="R130" s="87">
-        <v>557.16654734525889</v>
-      </c>
-      <c r="S130" s="86">
+      <c r="Q130" s="147">
+        <v>53511.611567252818</v>
+      </c>
+      <c r="R130" s="63">
+        <v>523.77416058404549</v>
+      </c>
+      <c r="S130" s="64">
         <v>22.433011606244779</v>
       </c>
       <c r="T130" s="3">
@@ -20320,10 +20311,10 @@
         <v>0</v>
       </c>
       <c r="Q131" s="44">
-        <v>53729.288633652643</v>
+        <v>53731.379074393233</v>
       </c>
       <c r="R131" s="65">
-        <v>305.07622104932801</v>
+        <v>302.98578030873568</v>
       </c>
       <c r="S131" s="64">
         <v>1.3732007837008759</v>
@@ -20373,10 +20364,10 @@
         <v>0</v>
       </c>
       <c r="Q132" s="44">
-        <v>53766.744137994749</v>
+        <v>53770.054668644792</v>
       </c>
       <c r="R132" s="80">
-        <v>267.62071670720542</v>
+        <v>264.31018605716258</v>
       </c>
       <c r="S132" s="64">
         <v>2.177255841067113</v>
@@ -20426,10 +20417,10 @@
         <v>0</v>
       </c>
       <c r="Q133" s="43">
-        <v>53668.204482869784</v>
+        <v>53674.057965460051</v>
       </c>
       <c r="R133" s="79">
-        <v>366.16037183218032</v>
+        <v>360.30688924189872</v>
       </c>
       <c r="S133" s="64">
         <v>3.8640941209221582</v>
@@ -20479,10 +20470,10 @@
         <v>0.57665377488369629</v>
       </c>
       <c r="Q134" s="44">
-        <v>53759.796417731653</v>
+        <v>53768.668828337548</v>
       </c>
       <c r="R134" s="80">
-        <v>275.57404784495509</v>
+        <v>266.70163723906472</v>
       </c>
       <c r="S134" s="64">
         <v>5.8593450564310476</v>
@@ -20691,10 +20682,10 @@
         <v>0</v>
       </c>
       <c r="Q138" s="46">
-        <v>54019.035100390909</v>
+        <v>54019.585975919967</v>
       </c>
       <c r="R138" s="64">
-        <v>15.3297543110488</v>
+        <v>14.778878781981829</v>
       </c>
       <c r="S138" s="64">
         <v>0.35973164581227779</v>
@@ -20743,13 +20734,13 @@
       <c r="N139" s="3">
         <v>0</v>
       </c>
-      <c r="Q139" s="133">
-        <v>45038.850635100003</v>
-      </c>
-      <c r="R139" s="134">
-        <v>8995.5142196019442</v>
-      </c>
-      <c r="S139" s="171">
+      <c r="Q139" s="26">
+        <v>46459.897579822667</v>
+      </c>
+      <c r="R139" s="158">
+        <v>7574.46727487928</v>
+      </c>
+      <c r="S139" s="88">
         <v>1191.4318866157471</v>
       </c>
       <c r="T139" s="3">
@@ -20772,13 +20763,13 @@
       <c r="E140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="149">
+      <c r="F140" s="148">
         <v>47442.754551080019</v>
       </c>
-      <c r="G140" s="155">
+      <c r="G140" s="154">
         <v>6641.0730991604742</v>
       </c>
-      <c r="H140" s="159">
+      <c r="H140" s="158">
         <v>1917.1342876618601</v>
       </c>
       <c r="I140" s="102">
@@ -20796,14 +20787,14 @@
       <c r="N140" s="4">
         <v>14.02430342801726</v>
       </c>
-      <c r="Q140" s="168">
-        <v>43845.040722431411</v>
-      </c>
-      <c r="R140" s="176">
-        <v>10238.78692780908</v>
-      </c>
-      <c r="S140" s="90">
-        <v>1533.280238189245</v>
+      <c r="Q140" s="159">
+        <v>49129.562105274628</v>
+      </c>
+      <c r="R140" s="175">
+        <v>4954.2655449658596</v>
+      </c>
+      <c r="S140" s="158">
+        <v>1917.1342876618601</v>
       </c>
       <c r="T140" s="102">
         <v>27.93128708294461</v>
@@ -20828,7 +20819,7 @@
       <c r="F141" s="48">
         <v>48289.337086243453</v>
       </c>
-      <c r="G141" s="156">
+      <c r="G141" s="155">
         <v>5970.8775214278166</v>
       </c>
       <c r="H141" s="93">
@@ -20850,13 +20841,13 @@
         <v>103.8950290843644</v>
       </c>
       <c r="Q141" s="169">
-        <v>44334.093803528893</v>
-      </c>
-      <c r="R141" s="177">
-        <v>9926.1208041423906</v>
+        <v>50364.809817473462</v>
+      </c>
+      <c r="R141" s="176">
+        <v>3895.4047901978051</v>
       </c>
       <c r="S141" s="93">
-        <v>1936.8190103483601</v>
+        <v>2437.294730432523</v>
       </c>
       <c r="T141" s="10">
         <v>127.53574113866151</v>
@@ -20878,7 +20869,7 @@
       <c r="E142" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F142" s="150">
+      <c r="F142" s="149">
         <v>48697.233909312883</v>
       </c>
       <c r="G142" s="142">
@@ -20903,13 +20894,13 @@
         <v>25.613472355020011</v>
       </c>
       <c r="Q142" s="170">
-        <v>44493.310417501772</v>
-      </c>
-      <c r="R142" s="93">
-        <v>9634.0098177378859</v>
+        <v>51693.253016897688</v>
+      </c>
+      <c r="R142" s="177">
+        <v>2434.067218341982</v>
       </c>
       <c r="S142" s="73">
-        <v>2840.9262645217541</v>
+        <v>3578.7193729932751</v>
       </c>
       <c r="T142" s="125">
         <v>52.491238949080874</v>
@@ -20956,10 +20947,10 @@
         <v>0</v>
       </c>
       <c r="Q143" s="46">
-        <v>54003.85863201644</v>
+        <v>54003.963706437033</v>
       </c>
       <c r="R143" s="64">
-        <v>30.506222685509609</v>
+        <v>30.401148264925759</v>
       </c>
       <c r="S143" s="64">
         <v>6.8615489806603619E-2</v>
@@ -21009,10 +21000,10 @@
         <v>0</v>
       </c>
       <c r="Q144" s="46">
-        <v>54009.093441892728</v>
+        <v>54009.352286214707</v>
       </c>
       <c r="R144" s="64">
-        <v>25.27141280922952</v>
+        <v>25.01256848724546</v>
       </c>
       <c r="S144" s="64">
         <v>0.16903000595106779</v>
@@ -21062,10 +21053,10 @@
         <v>0</v>
       </c>
       <c r="Q145" s="46">
-        <v>54015.717174339581</v>
+        <v>54016.170587463363</v>
       </c>
       <c r="R145" s="64">
-        <v>18.647680362380779</v>
+        <v>18.19426723860159</v>
       </c>
       <c r="S145" s="64">
         <v>0.29608693914255529</v>
@@ -21115,10 +21106,10 @@
         <v>0.34432964823638401</v>
       </c>
       <c r="Q146" s="46">
-        <v>54032.896467798651</v>
+        <v>54033.841293670128</v>
       </c>
       <c r="R146" s="64">
-        <v>2.0625809771107422</v>
+        <v>1.117755105648182</v>
       </c>
       <c r="S146" s="64">
         <v>0.61698831734804704</v>

--- a/results/Manuscript/scenario_comparison_table.xlsx
+++ b/results/Manuscript/scenario_comparison_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/results/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCA7FF5-676D-504D-ADEA-B148B65A81B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155E280-D050-1E43-A320-A8EB41DDCA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="67380" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="500" windowWidth="56180" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary materials" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,24 @@
     <sheet name="New batteries" sheetId="4" r:id="rId4"/>
     <sheet name="Overview" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="25">
   <si>
     <t>EV Scenario</t>
   </si>
@@ -89,13 +101,16 @@
     <t>New batteries</t>
   </si>
   <si>
-    <t>With degradation</t>
+    <t>No reuse</t>
   </si>
   <si>
-    <t>Without degradation</t>
+    <t>With degradation SLB model approach</t>
   </si>
   <si>
-    <t>With degradation new approach</t>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>With degradation capacity approach (likely wrong)</t>
   </si>
 </sst>
 </file>
@@ -133,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="176">
+  <fills count="228">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,30 +835,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D192"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4DBA4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77C277"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF60B560"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -856,24 +847,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFE1AF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF369E36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB7B7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFDEDE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -898,18 +871,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF1212"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1F4D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0D0D"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -934,42 +895,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6161"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF76C176"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6BBB6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5353"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF83C983"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF48A848"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1114,7 +1045,265 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8B8B"/>
+        <fgColor rgb="FFFFBABA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9DEA9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCE8BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2ECC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEE9BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD6D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCFCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6F6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7272"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA4A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6767"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2121"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF67B967"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5AB25A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E901E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF178D17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF188D18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A8E1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCF1CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0F3D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF62B662"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BCD8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3E3B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0E1B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1D9A1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93D193"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3CA13C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6E5B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0D9A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8ECF8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6CBC6C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9AD59A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB0B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9393"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBEBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9595"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7E7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5F5F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,61 +1315,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBABA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3333"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF2020"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9DEA9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE8BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2ECC2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCEF2CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF95D395"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6DCA6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBEE9BE"/>
+        <fgColor rgb="FFFF8181"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9C9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3535"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1F1F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1A1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1C1C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1E1E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1919"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1717"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1414"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB45E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5FB55F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9EFC9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F911F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0EAC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF52AD52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF178C17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE8BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF168C16"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAE7BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD1D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8787"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7D7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3232"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2222"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0F0F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0202"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1346,18 +1673,18 @@
     <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1369,11 +1696,11 @@
     <xf numFmtId="0" fontId="2" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1387,16 +1714,13 @@
     <xf numFmtId="0" fontId="2" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1404,6 +1728,61 @@
     <xf numFmtId="0" fontId="2" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="180" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="181" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="183" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="187" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="188" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="189" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="190" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="191" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="192" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="193" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="194" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="195" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="196" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="197" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="198" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="199" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="200" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="201" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="202" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="203" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="204" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="205" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="206" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="207" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="208" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="209" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="210" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="211" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="212" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="213" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="214" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="215" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="216" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="217" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="218" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="219" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="220" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="221" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="222" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="223" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="224" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="225" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="226" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="227" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13392,8 +13771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4348AC9D-6E83-9E4C-885B-E3F4BEE15CF2}">
   <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13417,24 +13796,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F1" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="K1" s="164" t="s">
+      <c r="F1" s="229" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="K1" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="Q1" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="Q1" s="164" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -13494,10 +13873,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -13514,29 +13893,29 @@
       <c r="I3" s="3">
         <v>5.8629293108951863</v>
       </c>
-      <c r="K3" s="3">
-        <v>37914.328634259356</v>
-      </c>
-      <c r="L3" s="50">
-        <v>8667.8108411702415</v>
-      </c>
-      <c r="M3" s="85">
-        <v>46.729552091167321</v>
-      </c>
-      <c r="N3" s="3">
-        <v>5.6686510549439504</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>37939.702560999118</v>
-      </c>
-      <c r="R3" s="51">
-        <v>8642.7809567806617</v>
-      </c>
-      <c r="S3" s="85">
-        <v>46.907132089447821</v>
-      </c>
-      <c r="T3" s="3">
-        <v>5.8629293108951863</v>
+      <c r="K3" s="9">
+        <v>38466.838380746063</v>
+      </c>
+      <c r="L3" s="54">
+        <v>7762.2309044956692</v>
+      </c>
+      <c r="M3" s="64">
+        <v>0</v>
+      </c>
+      <c r="N3" s="103">
+        <v>503.50156248983302</v>
+      </c>
+      <c r="Q3" s="190">
+        <v>38466.838380746063</v>
+      </c>
+      <c r="R3" s="50">
+        <v>7762.2309044956692</v>
+      </c>
+      <c r="S3" s="64">
+        <v>0</v>
+      </c>
+      <c r="T3" s="103">
+        <v>503.50156248983302</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -13547,10 +13926,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -13567,29 +13946,29 @@
       <c r="I4" s="102">
         <v>25.263337561805361</v>
       </c>
-      <c r="K4" s="3">
-        <v>37937.998117381598</v>
-      </c>
-      <c r="L4" s="50">
-        <v>8677.9428025831548</v>
-      </c>
-      <c r="M4" s="80">
-        <v>52.525170981628619</v>
-      </c>
-      <c r="N4" s="102">
-        <v>24.756085172856441</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>37966.915235758257</v>
-      </c>
-      <c r="R4" s="50">
-        <v>8649.9239643726214</v>
-      </c>
-      <c r="S4" s="85">
-        <v>52.759770174688867</v>
-      </c>
-      <c r="T4" s="102">
-        <v>25.263337561805361</v>
+      <c r="K4" s="10">
+        <v>39016.024474094564</v>
+      </c>
+      <c r="L4" s="125">
+        <v>7819.0264266558988</v>
+      </c>
+      <c r="M4" s="64">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <v>845.69504924032958</v>
+      </c>
+      <c r="Q4" s="221">
+        <v>39016.024474094564</v>
+      </c>
+      <c r="R4" s="55">
+        <v>7819.0264266558988</v>
+      </c>
+      <c r="S4" s="64">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25">
+        <v>845.69504924032958</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -13600,10 +13979,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -13617,32 +13996,32 @@
       <c r="H5" s="80">
         <v>57.519889207871913</v>
       </c>
-      <c r="I5" s="125">
+      <c r="I5" s="118">
         <v>49.899336816446578</v>
       </c>
-      <c r="K5" s="4">
-        <v>37969.219784674948</v>
-      </c>
-      <c r="L5" s="50">
-        <v>8689.6695325063865</v>
-      </c>
-      <c r="M5" s="80">
-        <v>57.333763967950347</v>
-      </c>
-      <c r="N5" s="99">
-        <v>49.008738087992263</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>38001.236965374534</v>
-      </c>
-      <c r="R5" s="50">
-        <v>8659.2294901134428</v>
-      </c>
-      <c r="S5" s="80">
-        <v>57.519889207871913</v>
-      </c>
-      <c r="T5" s="125">
-        <v>49.899336816446578</v>
+      <c r="K5" s="11">
+        <v>39569.188192649483</v>
+      </c>
+      <c r="L5" s="216">
+        <v>7877.0953029216525</v>
+      </c>
+      <c r="M5" s="64">
+        <v>0</v>
+      </c>
+      <c r="N5" s="104">
+        <v>1190.8537264745401</v>
+      </c>
+      <c r="Q5" s="189">
+        <v>39569.188192649483</v>
+      </c>
+      <c r="R5" s="52">
+        <v>7877.0953029216525</v>
+      </c>
+      <c r="S5" s="64">
+        <v>0</v>
+      </c>
+      <c r="T5" s="104">
+        <v>1190.8537264745401</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -13653,10 +14032,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -13673,29 +14052,29 @@
       <c r="I6" s="102">
         <v>27.9212630785789</v>
       </c>
-      <c r="K6" s="3">
-        <v>37939.558247522087</v>
-      </c>
-      <c r="L6" s="50">
-        <v>8680.3206991727984</v>
-      </c>
-      <c r="M6" s="80">
-        <v>60.177085113017618</v>
-      </c>
-      <c r="N6" s="102">
-        <v>26.979860718542412</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>37973.185424443553</v>
-      </c>
-      <c r="R6" s="50">
-        <v>8648.3606273981932</v>
-      </c>
-      <c r="S6" s="80">
-        <v>60.507419678087032</v>
-      </c>
-      <c r="T6" s="102">
-        <v>27.9212630785789</v>
+      <c r="K6" s="8">
+        <v>40245.388168616417</v>
+      </c>
+      <c r="L6" s="216">
+        <v>7890.4635055075296</v>
+      </c>
+      <c r="M6" s="64">
+        <v>0</v>
+      </c>
+      <c r="N6" s="46">
+        <v>1580.2479479033241</v>
+      </c>
+      <c r="Q6" s="187">
+        <v>40245.388168616417</v>
+      </c>
+      <c r="R6" s="53">
+        <v>7890.4635055075296</v>
+      </c>
+      <c r="S6" s="64">
+        <v>0</v>
+      </c>
+      <c r="T6" s="46">
+        <v>1580.2479479033241</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -13706,10 +14085,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -13727,28 +14106,28 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>37922.684081688072</v>
-      </c>
-      <c r="L7" s="50">
-        <v>8649.4169258657876</v>
+        <v>37730.997091155383</v>
+      </c>
+      <c r="L7" s="53">
+        <v>7690.1049775888641</v>
       </c>
       <c r="M7" s="64">
-        <v>15.287698011926221</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N7" s="99">
+        <v>47.248250644288397</v>
       </c>
       <c r="Q7" s="3">
-        <v>37930.920004433821</v>
-      </c>
-      <c r="R7" s="51">
-        <v>8641.1810031200457</v>
+        <v>37730.997091155383</v>
+      </c>
+      <c r="R7" s="166">
+        <v>7690.1049775888641</v>
       </c>
       <c r="S7" s="64">
-        <v>15.68362527740344</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T7" s="99">
+        <v>47.248250644288397</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -13759,10 +14138,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -13780,28 +14159,28 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>37918.608019934538</v>
-      </c>
-      <c r="L8" s="50">
-        <v>8653.4929876193237</v>
-      </c>
-      <c r="M8" s="86">
-        <v>24.801156956050018</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+        <v>37762.779075560153</v>
+      </c>
+      <c r="L8" s="53">
+        <v>7699.7542273123736</v>
+      </c>
+      <c r="M8" s="64">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>70.644172408073871</v>
       </c>
       <c r="Q8" s="3">
-        <v>37931.958503541457</v>
-      </c>
-      <c r="R8" s="51">
-        <v>8640.1425040124068</v>
+        <v>37762.779075560153</v>
+      </c>
+      <c r="R8" s="166">
+        <v>7699.7542273123736</v>
       </c>
       <c r="S8" s="64">
-        <v>25.292267813964418</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>70.644172408073871</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -13812,10 +14191,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -13832,29 +14211,29 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <v>37913.661862931847</v>
-      </c>
-      <c r="L9" s="50">
-        <v>8658.4706141116494</v>
-      </c>
-      <c r="M9" s="86">
-        <v>36.436305440988718</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1.7770595858507932E-2</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>37933.214751204439</v>
+      <c r="K9" s="4">
+        <v>37799.931492665033</v>
+      </c>
+      <c r="L9" s="53">
+        <v>7711.0483894998179</v>
+      </c>
+      <c r="M9" s="64">
+        <v>0</v>
+      </c>
+      <c r="N9" s="100">
+        <v>98.001609440643151</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>37799.931492665033</v>
       </c>
       <c r="R9" s="51">
-        <v>8638.8862563494222</v>
-      </c>
-      <c r="S9" s="86">
-        <v>36.634532424067388</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
+        <v>7711.0483894998179</v>
+      </c>
+      <c r="S9" s="64">
+        <v>0</v>
+      </c>
+      <c r="T9" s="100">
+        <v>98.001609440643151</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -13865,10 +14244,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -13886,28 +14265,28 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>37916.042608693337</v>
-      </c>
-      <c r="L10" s="50">
-        <v>8656.0583988605231</v>
-      </c>
-      <c r="M10" s="86">
-        <v>34.886567796655349</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+        <v>37770.903439250869</v>
+      </c>
+      <c r="L10" s="53">
+        <v>7702.3976963052046</v>
+      </c>
+      <c r="M10" s="64">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>76.724690556527577</v>
       </c>
       <c r="Q10" s="3">
-        <v>37934.837716467657</v>
-      </c>
-      <c r="R10" s="51">
-        <v>8637.2632910861976</v>
-      </c>
-      <c r="S10" s="86">
-        <v>35.729505890806017</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
+        <v>37770.903439250869</v>
+      </c>
+      <c r="R10" s="166">
+        <v>7702.3976963052046</v>
+      </c>
+      <c r="S10" s="64">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>76.724690556527577</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -13918,10 +14297,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -13939,28 +14318,28 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>37930.505759654072</v>
-      </c>
-      <c r="L11" s="51">
-        <v>8641.5952478997915</v>
+        <v>37684.819018465249</v>
+      </c>
+      <c r="L11" s="53">
+        <v>7676.0864577951652</v>
       </c>
       <c r="M11" s="64">
-        <v>2.394896363193884</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>13.25566515100215</v>
       </c>
       <c r="Q11" s="3">
-        <v>37931.80035779185</v>
-      </c>
-      <c r="R11" s="51">
-        <v>8640.3006497620099</v>
+        <v>37684.819018465249</v>
+      </c>
+      <c r="R11" s="166">
+        <v>7676.0864577951652</v>
       </c>
       <c r="S11" s="64">
-        <v>2.5002651450554469</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>13.25566515100215</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -13971,10 +14350,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
@@ -13992,28 +14371,28 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>37929.877027079703</v>
-      </c>
-      <c r="L12" s="51">
-        <v>8642.2239804741621</v>
+        <v>37696.846323144498</v>
+      </c>
+      <c r="L12" s="53">
+        <v>7679.8721414792026</v>
       </c>
       <c r="M12" s="64">
-        <v>4.5176937778025961</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="101">
+        <v>22.18514664927616</v>
       </c>
       <c r="Q12" s="3">
-        <v>37932.312827579277</v>
-      </c>
-      <c r="R12" s="51">
-        <v>8639.788179974581</v>
+        <v>37696.846323144498</v>
+      </c>
+      <c r="R12" s="166">
+        <v>7679.8721414792026</v>
       </c>
       <c r="S12" s="64">
-        <v>4.644443933256662</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T12" s="101">
+        <v>22.18514664927616</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -14024,10 +14403,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -14045,28 +14424,28 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>37928.070291882213</v>
-      </c>
-      <c r="L13" s="51">
-        <v>8644.0307156716535</v>
+        <v>37711.533865971382</v>
+      </c>
+      <c r="L13" s="53">
+        <v>7684.4961520356828</v>
       </c>
       <c r="M13" s="64">
-        <v>8.0562812877776722</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N13" s="94">
+        <v>33.09024280681102</v>
       </c>
       <c r="Q13" s="3">
-        <v>37932.417253777217</v>
-      </c>
-      <c r="R13" s="51">
-        <v>8639.6837537766351</v>
+        <v>37711.533865971382</v>
+      </c>
+      <c r="R13" s="166">
+        <v>7684.4961520356828</v>
       </c>
       <c r="S13" s="64">
-        <v>8.3427273272073066</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T13" s="94">
+        <v>33.09024280681102</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -14077,10 +14456,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -14098,28 +14477,28 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>37928.425405657959</v>
-      </c>
-      <c r="L14" s="51">
-        <v>8643.6756018959059</v>
+        <v>37707.463797572782</v>
+      </c>
+      <c r="L14" s="53">
+        <v>7683.2497222805177</v>
       </c>
       <c r="M14" s="64">
-        <v>10.899602432844929</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="102">
+        <v>30.08805430145042</v>
       </c>
       <c r="Q14" s="3">
-        <v>37934.314066136889</v>
-      </c>
-      <c r="R14" s="51">
-        <v>8637.7869414169782</v>
+        <v>37707.463797572782</v>
+      </c>
+      <c r="R14" s="166">
+        <v>7683.2497222805177</v>
       </c>
       <c r="S14" s="64">
-        <v>11.33025779742243</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T14" s="102">
+        <v>30.08805430145042</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -14130,10 +14509,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -14151,28 +14530,28 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>37951.444667355558</v>
-      </c>
-      <c r="L15" s="51">
-        <v>8620.6563401983021</v>
+        <v>37669.842623451703</v>
+      </c>
+      <c r="L15" s="52">
+        <v>7671.3392186161509</v>
       </c>
       <c r="M15" s="64">
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>2.1178699060453412</v>
       </c>
       <c r="Q15" s="3">
-        <v>37951.444667355558</v>
-      </c>
-      <c r="R15" s="51">
-        <v>8620.6563401983021</v>
+        <v>37669.842623451703</v>
+      </c>
+      <c r="R15" s="166">
+        <v>7671.3392186161509</v>
       </c>
       <c r="S15" s="64">
         <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>2.1178699060453412</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -14183,10 +14562,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -14204,28 +14583,28 @@
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <v>37951.444667355558</v>
-      </c>
-      <c r="L16" s="51">
-        <v>8620.6563401983021</v>
+        <v>37672.426340543963</v>
+      </c>
+      <c r="L16" s="52">
+        <v>7672.1649837811447</v>
       </c>
       <c r="M16" s="64">
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>4.0431801659011652</v>
       </c>
       <c r="Q16" s="3">
-        <v>37951.444667355558</v>
-      </c>
-      <c r="R16" s="51">
-        <v>8620.6563401983021</v>
+        <v>37672.426340543963</v>
+      </c>
+      <c r="R16" s="166">
+        <v>7672.1649837811447</v>
       </c>
       <c r="S16" s="64">
         <v>0</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>4.0431801659011652</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -14236,10 +14615,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -14257,28 +14636,28 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>37951.444667355558</v>
-      </c>
-      <c r="L17" s="51">
-        <v>8620.6563401983021</v>
+        <v>37676.262790654167</v>
+      </c>
+      <c r="L17" s="52">
+        <v>7673.3901665169751</v>
       </c>
       <c r="M17" s="64">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>6.9014480537611433</v>
       </c>
       <c r="Q17" s="3">
-        <v>37951.444667355558</v>
-      </c>
-      <c r="R17" s="51">
-        <v>8620.6563401983021</v>
+        <v>37676.262790654167</v>
+      </c>
+      <c r="R17" s="166">
+        <v>7673.3901665169751</v>
       </c>
       <c r="S17" s="64">
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>6.9014480537611433</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -14289,10 +14668,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -14310,28 +14689,28 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>37943.368388327879</v>
-      </c>
-      <c r="L18" s="51">
-        <v>8628.7326192259879</v>
+        <v>37679.126494547403</v>
+      </c>
+      <c r="L18" s="53">
+        <v>7674.3077430675066</v>
       </c>
       <c r="M18" s="64">
-        <v>0.38322536114051298</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>9.0367100919316066</v>
       </c>
       <c r="Q18" s="3">
-        <v>37943.592056787609</v>
-      </c>
-      <c r="R18" s="51">
-        <v>8628.5089507662506</v>
+        <v>37679.126494547403</v>
+      </c>
+      <c r="R18" s="166">
+        <v>7674.3077430675066</v>
       </c>
       <c r="S18" s="64">
-        <v>0.62412641620765053</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>9.0367100919316066</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -14342,10 +14721,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -14362,29 +14741,29 @@
       <c r="I19" s="112">
         <v>418.18813466000802</v>
       </c>
-      <c r="K19" s="5">
-        <v>38529.90645281726</v>
+      <c r="K19" s="3">
+        <v>37667.001434024533</v>
       </c>
       <c r="L19" s="52">
-        <v>8774.691457106097</v>
-      </c>
-      <c r="M19" s="76">
-        <v>159.53463427333531</v>
-      </c>
-      <c r="N19" s="112">
-        <v>413.63576491561872</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>38598.277109019218</v>
-      </c>
-      <c r="R19" s="55">
-        <v>8714.3824750122421</v>
-      </c>
-      <c r="S19" s="87">
-        <v>159.71475018986581</v>
-      </c>
-      <c r="T19" s="112">
-        <v>418.18813466000802</v>
+        <v>7670.4299268775649</v>
+      </c>
+      <c r="M19" s="64">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>37667.001434024533</v>
+      </c>
+      <c r="R19" s="166">
+        <v>7670.4299268775649</v>
+      </c>
+      <c r="S19" s="64">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -14395,10 +14774,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -14415,29 +14794,29 @@
       <c r="I20" s="113">
         <v>758.60322223190792</v>
       </c>
-      <c r="K20" s="6">
-        <v>39074.18055625233</v>
-      </c>
-      <c r="L20" s="53">
-        <v>8833.0052086031483</v>
-      </c>
-      <c r="M20" s="61">
-        <v>165.33025316379661</v>
-      </c>
-      <c r="N20" s="113">
-        <v>753.91281932694449</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>39145.852069704088</v>
-      </c>
-      <c r="R20" s="52">
-        <v>8769.6398086216577</v>
-      </c>
-      <c r="S20" s="87">
-        <v>165.56738827510691</v>
-      </c>
-      <c r="T20" s="113">
-        <v>758.60322223190792</v>
+      <c r="K20" s="3">
+        <v>37667.001434024533</v>
+      </c>
+      <c r="L20" s="52">
+        <v>7670.4299268775649</v>
+      </c>
+      <c r="M20" s="64">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>37667.001434024533</v>
+      </c>
+      <c r="R20" s="166">
+        <v>7670.4299268775649</v>
+      </c>
+      <c r="S20" s="64">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -14448,10 +14827,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
@@ -14465,32 +14844,32 @@
       <c r="H21" s="76">
         <v>170.3624000521493</v>
       </c>
-      <c r="I21" s="159">
+      <c r="I21" s="145">
         <v>1102.3443315830821</v>
       </c>
-      <c r="K21" s="7">
-        <v>39623.486332076383</v>
-      </c>
-      <c r="L21" s="54">
-        <v>8892.2175512068734</v>
-      </c>
-      <c r="M21" s="61">
-        <v>170.17479469847899</v>
-      </c>
-      <c r="N21" s="114">
-        <v>1097.538651145024</v>
-      </c>
-      <c r="Q21" s="110">
-        <v>39697.910023978533</v>
-      </c>
-      <c r="R21" s="53">
-        <v>8826.3041147836539</v>
-      </c>
-      <c r="S21" s="76">
-        <v>170.3624000521493</v>
-      </c>
-      <c r="T21" s="159">
-        <v>1102.3443315830821</v>
+      <c r="K21" s="3">
+        <v>37667.001434024533</v>
+      </c>
+      <c r="L21" s="52">
+        <v>7670.4299268775649</v>
+      </c>
+      <c r="M21" s="64">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>37667.001434024533</v>
+      </c>
+      <c r="R21" s="166">
+        <v>7670.4299268775649</v>
+      </c>
+      <c r="S21" s="64">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -14501,10 +14880,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -14518,32 +14897,32 @@
       <c r="H22" s="76">
         <v>173.34993052236439</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="122">
         <v>1490.8125465641119</v>
       </c>
-      <c r="K22" s="27">
-        <v>40298.782577679223</v>
-      </c>
-      <c r="L22" s="54">
-        <v>8904.8274888518627</v>
-      </c>
-      <c r="M22" s="60">
-        <v>173.0181158435463</v>
-      </c>
-      <c r="N22" s="37">
-        <v>1485.994355704946</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>40374.764748579873</v>
-      </c>
-      <c r="R22" s="53">
-        <v>8837.3777278120615</v>
-      </c>
-      <c r="S22" s="76">
-        <v>173.34993052236439</v>
-      </c>
-      <c r="T22" s="131">
-        <v>1490.8125465641119</v>
+      <c r="K22" s="3">
+        <v>37667.471532776952</v>
+      </c>
+      <c r="L22" s="52">
+        <v>7670.580224704273</v>
+      </c>
+      <c r="M22" s="64">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.3503335136736847</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>37667.471532776952</v>
+      </c>
+      <c r="R22" s="166">
+        <v>7670.580224704273</v>
+      </c>
+      <c r="S22" s="64">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.3503335136736847</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -14554,7 +14933,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
@@ -14575,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>37951.444667355558</v>
-      </c>
-      <c r="L23" s="51">
-        <v>8620.6563401983021</v>
+        <v>37667.001434024533</v>
+      </c>
+      <c r="L23" s="52">
+        <v>7670.4299268775649</v>
       </c>
       <c r="M23" s="64">
         <v>0</v>
@@ -14587,10 +14966,10 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>37951.444667355558</v>
-      </c>
-      <c r="R23" s="51">
-        <v>8620.6563401983021</v>
+        <v>37667.001434024533</v>
+      </c>
+      <c r="R23" s="166">
+        <v>7670.4299268775649</v>
       </c>
       <c r="S23" s="64">
         <v>0</v>
@@ -14607,7 +14986,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
@@ -14628,28 +15007,28 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>37945.265966106628</v>
-      </c>
-      <c r="L24" s="51">
-        <v>8626.8350414472334</v>
+        <v>37667.103638058237</v>
+      </c>
+      <c r="L24" s="52">
+        <v>7670.4626577196186</v>
       </c>
       <c r="M24" s="64">
-        <v>7.6196759842034265E-2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>7.6196759842034334E-2</v>
       </c>
       <c r="Q24" s="3">
-        <v>37945.306877299627</v>
-      </c>
-      <c r="R24" s="51">
-        <v>8626.7941302542386</v>
+        <v>37667.103638058237</v>
+      </c>
+      <c r="R24" s="166">
+        <v>7670.4626577196186</v>
       </c>
       <c r="S24" s="64">
-        <v>7.6196759842034265E-2</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>7.6196759842034334E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -14660,7 +15039,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>15</v>
@@ -14681,28 +15060,28 @@
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <v>37945.406375582788</v>
-      </c>
-      <c r="L25" s="51">
-        <v>8626.6946319710769</v>
+        <v>37667.274061723387</v>
+      </c>
+      <c r="L25" s="52">
+        <v>7670.5172358988048</v>
       </c>
       <c r="M25" s="64">
-        <v>0.2032536930335217</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>0.20325369303352181</v>
       </c>
       <c r="Q25" s="3">
-        <v>37945.515505565207</v>
-      </c>
-      <c r="R25" s="51">
-        <v>8626.5855019886494</v>
+        <v>37667.274061723387</v>
+      </c>
+      <c r="R25" s="166">
+        <v>7670.5172358988048</v>
       </c>
       <c r="S25" s="64">
-        <v>0.2032536930335217</v>
+        <v>0</v>
       </c>
       <c r="T25" s="3">
-        <v>0</v>
+        <v>0.20325369303352181</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -14713,7 +15092,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>15</v>
@@ -14734,28 +15113,28 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>37946.140596019068</v>
-      </c>
-      <c r="L26" s="51">
-        <v>8625.9604115347938</v>
+        <v>37668.165230476392</v>
+      </c>
+      <c r="L26" s="52">
+        <v>7670.802632694169</v>
       </c>
       <c r="M26" s="64">
-        <v>0.8676518481602703</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>0.86765184816027052</v>
       </c>
       <c r="Q26" s="3">
-        <v>37946.606451421387</v>
-      </c>
-      <c r="R26" s="51">
-        <v>8625.4945561324694</v>
+        <v>37668.165230476392</v>
+      </c>
+      <c r="R26" s="166">
+        <v>7670.802632694169</v>
       </c>
       <c r="S26" s="64">
-        <v>0.8676518481602703</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>0.86765184816027052</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -14766,10 +15145,10 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -14786,29 +15165,29 @@
       <c r="I27" s="99">
         <v>47.655597791794548</v>
       </c>
-      <c r="K27" s="3">
-        <v>37902.538648109701</v>
-      </c>
-      <c r="L27" s="55">
-        <v>8753.9027831950552</v>
-      </c>
-      <c r="M27" s="64">
-        <v>0</v>
-      </c>
-      <c r="N27" s="99">
-        <v>47.626434430857913</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>37902.578549460348</v>
-      </c>
-      <c r="R27" s="55">
-        <v>8753.9145264877388</v>
-      </c>
-      <c r="S27" s="64">
-        <v>0</v>
-      </c>
-      <c r="T27" s="99">
-        <v>47.655597791794548</v>
+      <c r="K27" s="10">
+        <v>38939.604714932357</v>
+      </c>
+      <c r="L27" s="173">
+        <v>7039.8373938595387</v>
+      </c>
+      <c r="M27" s="155">
+        <v>607.43768786206397</v>
+      </c>
+      <c r="N27" s="7">
+        <v>178.61716232365981</v>
+      </c>
+      <c r="Q27" s="127">
+        <v>38613.902490650988</v>
+      </c>
+      <c r="R27" s="165">
+        <v>7025.6713953055696</v>
+      </c>
+      <c r="S27" s="155">
+        <v>607.43768786206397</v>
+      </c>
+      <c r="T27" s="7">
+        <v>178.61716232365981</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -14819,10 +15198,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
@@ -14839,29 +15218,29 @@
       <c r="I28" s="5">
         <v>71.051519555580015</v>
       </c>
-      <c r="K28" s="3">
-        <v>37934.320632514478</v>
-      </c>
-      <c r="L28" s="52">
-        <v>8763.5520329185638</v>
-      </c>
-      <c r="M28" s="64">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5">
-        <v>71.022356194643379</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>37934.360533865132</v>
-      </c>
-      <c r="R28" s="52">
-        <v>8763.5637762112474</v>
-      </c>
-      <c r="S28" s="64">
-        <v>0</v>
-      </c>
-      <c r="T28" s="5">
-        <v>71.051519555580015</v>
+      <c r="K28" s="188">
+        <v>39334.452238667887</v>
+      </c>
+      <c r="L28" s="116">
+        <v>7103.9965775088931</v>
+      </c>
+      <c r="M28" s="176">
+        <v>833.27518262577712</v>
+      </c>
+      <c r="N28" s="185">
+        <v>369.43524737899457</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>38887.658129835268</v>
+      </c>
+      <c r="R28" s="165">
+        <v>7027.2731644513524</v>
+      </c>
+      <c r="S28" s="176">
+        <v>833.27518262577712</v>
+      </c>
+      <c r="T28" s="185">
+        <v>369.43524737899457</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -14872,10 +15251,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
@@ -14892,29 +15271,29 @@
       <c r="I29" s="100">
         <v>98.408956588149323</v>
       </c>
-      <c r="K29" s="4">
-        <v>37971.473049619359</v>
-      </c>
-      <c r="L29" s="52">
-        <v>8774.8461951060071</v>
-      </c>
-      <c r="M29" s="64">
-        <v>0</v>
-      </c>
-      <c r="N29" s="100">
-        <v>98.379793227212659</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>37971.512950970013</v>
-      </c>
-      <c r="R29" s="52">
-        <v>8774.8579383986907</v>
-      </c>
-      <c r="S29" s="64">
-        <v>0</v>
-      </c>
-      <c r="T29" s="100">
-        <v>98.408956588149323</v>
+      <c r="K29" s="189">
+        <v>39714.255115205087</v>
+      </c>
+      <c r="L29" s="212">
+        <v>7189.9794846051946</v>
+      </c>
+      <c r="M29" s="177">
+        <v>1045.5082246835509</v>
+      </c>
+      <c r="N29" s="186">
+        <v>568.20062337949071</v>
+      </c>
+      <c r="Q29" s="158">
+        <v>39153.663698030432</v>
+      </c>
+      <c r="R29" s="165">
+        <v>7050.2907606156123</v>
+      </c>
+      <c r="S29" s="177">
+        <v>1045.5082246835509</v>
+      </c>
+      <c r="T29" s="186">
+        <v>568.20062337949071</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -14925,10 +15304,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -14945,29 +15324,29 @@
       <c r="I30" s="9">
         <v>77.132037704033735</v>
       </c>
-      <c r="K30" s="3">
-        <v>37942.444996205188</v>
-      </c>
-      <c r="L30" s="52">
-        <v>8766.1955019113957</v>
-      </c>
-      <c r="M30" s="64">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
-        <v>77.102874343097085</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>37942.484897555842</v>
-      </c>
-      <c r="R30" s="52">
-        <v>8766.2072452040793</v>
-      </c>
-      <c r="S30" s="64">
-        <v>0</v>
-      </c>
-      <c r="T30" s="9">
-        <v>77.132037704033735</v>
+      <c r="K30" s="8">
+        <v>40236.28962581321</v>
+      </c>
+      <c r="L30" s="211">
+        <v>7225.496891927759</v>
+      </c>
+      <c r="M30" s="178">
+        <v>1272.3045072180421</v>
+      </c>
+      <c r="N30" s="17">
+        <v>814.37617993414631</v>
+      </c>
+      <c r="Q30" s="189">
+        <v>39554.092231340343</v>
+      </c>
+      <c r="R30" s="165">
+        <v>7026.5656762796252</v>
+      </c>
+      <c r="S30" s="178">
+        <v>1272.3045072180421</v>
+      </c>
+      <c r="T30" s="17">
+        <v>814.37617993414631</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -14978,10 +15357,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -14998,29 +15377,29 @@
       <c r="I31" s="4">
         <v>13.62935865768752</v>
       </c>
-      <c r="K31" s="3">
-        <v>37856.264166841873</v>
-      </c>
-      <c r="L31" s="55">
-        <v>8739.8633782620473</v>
-      </c>
-      <c r="M31" s="64">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>13.56761401399082</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>37856.347494918882</v>
-      </c>
-      <c r="R31" s="55">
-        <v>8739.8893921812669</v>
-      </c>
-      <c r="S31" s="64">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4">
-        <v>13.62935865768752</v>
+      <c r="K31" s="156">
+        <v>38580.024339730757</v>
+      </c>
+      <c r="L31" s="165">
+        <v>6789.8718178070831</v>
+      </c>
+      <c r="M31" s="85">
+        <v>48.715543106125537</v>
+      </c>
+      <c r="N31" s="3">
+        <v>3.5824073321482368</v>
+      </c>
+      <c r="Q31" s="100">
+        <v>38553.903535796802</v>
+      </c>
+      <c r="R31" s="144">
+        <v>6857.248534458844</v>
+      </c>
+      <c r="S31" s="85">
+        <v>48.715543106125537</v>
+      </c>
+      <c r="T31" s="3">
+        <v>3.5824073321482368</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -15031,10 +15410,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
@@ -15051,29 +15430,29 @@
       <c r="I32" s="101">
         <v>22.55884015596153</v>
       </c>
-      <c r="K32" s="3">
-        <v>37868.29147152113</v>
-      </c>
-      <c r="L32" s="55">
-        <v>8743.6490619460856</v>
-      </c>
-      <c r="M32" s="64">
-        <v>0</v>
+      <c r="K32" s="100">
+        <v>38617.573211261268</v>
+      </c>
+      <c r="L32" s="165">
+        <v>6789.8166883232834</v>
+      </c>
+      <c r="M32" s="85">
+        <v>54.568181191366591</v>
       </c>
       <c r="N32" s="101">
-        <v>22.497095512264821</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>37868.374799598132</v>
-      </c>
-      <c r="R32" s="55">
-        <v>8743.6750758653052</v>
-      </c>
-      <c r="S32" s="64">
-        <v>0</v>
+        <v>22.982776988128119</v>
+      </c>
+      <c r="Q32" s="100">
+        <v>38588.314279284932</v>
+      </c>
+      <c r="R32" s="144">
+        <v>6859.3707676827626</v>
+      </c>
+      <c r="S32" s="85">
+        <v>54.568181191366591</v>
       </c>
       <c r="T32" s="101">
-        <v>22.55884015596153</v>
+        <v>22.982776988128119</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -15084,10 +15463,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
@@ -15104,29 +15483,29 @@
       <c r="I33" s="94">
         <v>33.46393631349639</v>
       </c>
-      <c r="K33" s="3">
-        <v>37882.979014348013</v>
-      </c>
-      <c r="L33" s="55">
-        <v>8748.2730725025649</v>
-      </c>
-      <c r="M33" s="64">
-        <v>0</v>
-      </c>
-      <c r="N33" s="94">
-        <v>33.402191669799677</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>37883.062342425023</v>
-      </c>
-      <c r="R33" s="55">
-        <v>8748.2990864217845</v>
-      </c>
-      <c r="S33" s="64">
-        <v>0</v>
-      </c>
-      <c r="T33" s="94">
-        <v>33.46393631349639</v>
+      <c r="K33" s="100">
+        <v>38659.84700408575</v>
+      </c>
+      <c r="L33" s="165">
+        <v>6793.6141685812008</v>
+      </c>
+      <c r="M33" s="80">
+        <v>59.432969220206843</v>
+      </c>
+      <c r="N33" s="99">
+        <v>47.52592116952269</v>
+      </c>
+      <c r="Q33" s="127">
+        <v>38627.979619730992</v>
+      </c>
+      <c r="R33" s="144">
+        <v>6864.919288399793</v>
+      </c>
+      <c r="S33" s="80">
+        <v>59.432969220206843</v>
+      </c>
+      <c r="T33" s="99">
+        <v>47.52592116952269</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -15137,10 +15516,10 @@
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -15157,29 +15536,29 @@
       <c r="I34" s="102">
         <v>30.46174780813579</v>
       </c>
-      <c r="K34" s="3">
-        <v>37878.908945949413</v>
-      </c>
-      <c r="L34" s="55">
-        <v>8747.0266427473998</v>
-      </c>
-      <c r="M34" s="64">
-        <v>0</v>
+      <c r="K34" s="100">
+        <v>38635.393943858056</v>
+      </c>
+      <c r="L34" s="165">
+        <v>6780.7487101604092</v>
+      </c>
+      <c r="M34" s="80">
+        <v>62.420499690421963</v>
       </c>
       <c r="N34" s="102">
-        <v>30.400003164439092</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>37878.992274026408</v>
-      </c>
-      <c r="R34" s="55">
-        <v>8747.0526566666194</v>
-      </c>
-      <c r="S34" s="64">
-        <v>0</v>
+        <v>25.547847431655018</v>
+      </c>
+      <c r="Q34" s="127">
+        <v>38601.924674505542</v>
+      </c>
+      <c r="R34" s="144">
+        <v>6853.1461669087212</v>
+      </c>
+      <c r="S34" s="80">
+        <v>62.420499690421963</v>
       </c>
       <c r="T34" s="102">
-        <v>30.46174780813579</v>
+        <v>25.547847431655018</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -15190,10 +15569,10 @@
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -15210,29 +15589,29 @@
       <c r="I35" s="3">
         <v>2.1607738086984072</v>
       </c>
-      <c r="K35" s="3">
-        <v>37840.905364473278</v>
-      </c>
-      <c r="L35" s="55">
-        <v>8734.9970806232159</v>
+      <c r="K35" s="190">
+        <v>38534.551098115291</v>
+      </c>
+      <c r="L35" s="142">
+        <v>6811.0889868363583</v>
       </c>
       <c r="M35" s="64">
-        <v>0</v>
+        <v>15.309346959372821</v>
       </c>
       <c r="N35" s="3">
-        <v>2.1466446078379771</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>37840.924322120321</v>
-      </c>
-      <c r="R35" s="55">
-        <v>8735.0031440133898</v>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="156">
+        <v>38526.342374065731</v>
+      </c>
+      <c r="R35" s="144">
+        <v>6870.4039945911654</v>
       </c>
       <c r="S35" s="64">
-        <v>0</v>
+        <v>15.309346959372821</v>
       </c>
       <c r="T35" s="3">
-        <v>2.1607738086984072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -15243,10 +15622,10 @@
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
@@ -15263,29 +15642,29 @@
       <c r="I36" s="3">
         <v>4.1582600066098081</v>
       </c>
-      <c r="K36" s="3">
-        <v>37843.5576780755</v>
-      </c>
-      <c r="L36" s="55">
-        <v>8735.8447277886262</v>
+      <c r="K36" s="156">
+        <v>38554.146666780129</v>
+      </c>
+      <c r="L36" s="165">
+        <v>6796.6454795417967</v>
       </c>
       <c r="M36" s="64">
-        <v>0</v>
+        <v>24.91798949593381</v>
       </c>
       <c r="N36" s="3">
-        <v>4.1230474357633717</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>37843.604942101592</v>
-      </c>
-      <c r="R36" s="55">
-        <v>8735.8598207955965</v>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="100">
+        <v>38540.785881360287</v>
+      </c>
+      <c r="R36" s="144">
+        <v>6859.7408867581717</v>
       </c>
       <c r="S36" s="64">
-        <v>0</v>
+        <v>24.91798949593381</v>
       </c>
       <c r="T36" s="3">
-        <v>4.1582600066098081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -15296,10 +15675,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
@@ -15316,29 +15695,29 @@
       <c r="I37" s="3">
         <v>7.2070792124080496</v>
       </c>
-      <c r="K37" s="3">
-        <v>37847.578827310703</v>
-      </c>
-      <c r="L37" s="55">
-        <v>8737.1285772791471</v>
-      </c>
-      <c r="M37" s="64">
-        <v>0</v>
+      <c r="K37" s="156">
+        <v>38578.089757983187</v>
+      </c>
+      <c r="L37" s="165">
+        <v>6779.0085028325402</v>
+      </c>
+      <c r="M37" s="86">
+        <v>36.678951877950169</v>
       </c>
       <c r="N37" s="3">
-        <v>7.1187422963047036</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>37847.697489402934</v>
-      </c>
-      <c r="R37" s="55">
-        <v>8737.1663487521455</v>
-      </c>
-      <c r="S37" s="64">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="100">
+        <v>38558.422858069549</v>
+      </c>
+      <c r="R37" s="144">
+        <v>6846.7246723980024</v>
+      </c>
+      <c r="S37" s="86">
+        <v>36.678951877950169</v>
       </c>
       <c r="T37" s="3">
-        <v>7.2070792124080496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -15349,10 +15728,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -15369,29 +15748,29 @@
       <c r="I38" s="3">
         <v>9.2720847907124657</v>
       </c>
-      <c r="K38" s="3">
-        <v>37850.348107915612</v>
-      </c>
-      <c r="L38" s="55">
-        <v>8738.0161617661397</v>
-      </c>
-      <c r="M38" s="64">
-        <v>0</v>
+      <c r="K38" s="156">
+        <v>38574.088879657567</v>
+      </c>
+      <c r="L38" s="165">
+        <v>6782.2996129644062</v>
+      </c>
+      <c r="M38" s="86">
+        <v>35.355227572775419</v>
       </c>
       <c r="N38" s="3">
-        <v>9.1837478746091197</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>37850.466770007843</v>
-      </c>
-      <c r="R38" s="55">
-        <v>8738.05393323914</v>
-      </c>
-      <c r="S38" s="64">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="100">
+        <v>38555.131747937681</v>
+      </c>
+      <c r="R38" s="144">
+        <v>6849.303534341364</v>
+      </c>
+      <c r="S38" s="86">
+        <v>35.355227572775419</v>
       </c>
       <c r="T38" s="3">
-        <v>9.2720847907124657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -15402,10 +15781,10 @@
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -15422,26 +15801,26 @@
       <c r="I39" s="3">
         <v>0</v>
       </c>
-      <c r="K39" s="3">
-        <v>37838.025565866148</v>
-      </c>
-      <c r="L39" s="55">
-        <v>8734.0754416877153</v>
+      <c r="K39" s="190">
+        <v>38548.45553919956</v>
+      </c>
+      <c r="L39" s="165">
+        <v>6790.2545613210305</v>
       </c>
       <c r="M39" s="64">
-        <v>0</v>
+        <v>2.384861322190901</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
       </c>
-      <c r="Q39" s="3">
-        <v>37838.025565866148</v>
-      </c>
-      <c r="R39" s="55">
-        <v>8734.0754416877153</v>
+      <c r="Q39" s="100">
+        <v>38547.176799581059</v>
+      </c>
+      <c r="R39" s="144">
+        <v>6851.792250320017</v>
       </c>
       <c r="S39" s="64">
-        <v>0</v>
+        <v>2.384861322190901</v>
       </c>
       <c r="T39" s="3">
         <v>0</v>
@@ -15455,10 +15834,10 @@
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
@@ -15475,26 +15854,26 @@
       <c r="I40" s="3">
         <v>0</v>
       </c>
-      <c r="K40" s="3">
-        <v>37838.025565866148</v>
-      </c>
-      <c r="L40" s="55">
-        <v>8734.0754416877153</v>
+      <c r="K40" s="190">
+        <v>38552.198290605636</v>
+      </c>
+      <c r="L40" s="165">
+        <v>6787.6614978821844</v>
       </c>
       <c r="M40" s="64">
-        <v>0</v>
+        <v>4.5290401103921152</v>
       </c>
       <c r="N40" s="3">
         <v>0</v>
       </c>
-      <c r="Q40" s="3">
-        <v>37838.025565866148</v>
-      </c>
-      <c r="R40" s="55">
-        <v>8734.0754416877153</v>
+      <c r="Q40" s="100">
+        <v>38549.769863019908</v>
+      </c>
+      <c r="R40" s="144">
+        <v>6849.9433331200207</v>
       </c>
       <c r="S40" s="64">
-        <v>0</v>
+        <v>4.5290401103921152</v>
       </c>
       <c r="T40" s="3">
         <v>0</v>
@@ -15508,10 +15887,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
@@ -15528,26 +15907,26 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3">
-        <v>37838.025565866148</v>
-      </c>
-      <c r="L41" s="55">
-        <v>8734.0754416877153</v>
+      <c r="K41" s="190">
+        <v>38547.956959859242</v>
+      </c>
+      <c r="L41" s="165">
+        <v>6793.782853393177</v>
       </c>
       <c r="M41" s="64">
-        <v>0</v>
+        <v>8.0353038414672575</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3">
-        <v>37838.025565866148</v>
-      </c>
-      <c r="R41" s="55">
-        <v>8734.0754416877153</v>
+      <c r="Q41" s="100">
+        <v>38543.648507508908</v>
+      </c>
+      <c r="R41" s="144">
+        <v>6855.3415234862132</v>
       </c>
       <c r="S41" s="64">
-        <v>0</v>
+        <v>8.0353038414672575</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -15561,10 +15940,10 @@
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -15581,29 +15960,29 @@
       <c r="I42" s="3">
         <v>0.61023698837490281</v>
       </c>
-      <c r="K42" s="3">
-        <v>37838.51604311086</v>
-      </c>
-      <c r="L42" s="55">
-        <v>8734.2322418685326</v>
+      <c r="K42" s="156">
+        <v>38553.452252922187</v>
+      </c>
+      <c r="L42" s="165">
+        <v>6789.889445327979</v>
       </c>
       <c r="M42" s="64">
-        <v>0</v>
+        <v>11.022834311682381</v>
       </c>
       <c r="N42" s="3">
-        <v>0.36551293548867059</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>37838.84449777109</v>
-      </c>
-      <c r="R42" s="55">
-        <v>8734.3371627185425</v>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="100">
+        <v>38547.541915574111</v>
+      </c>
+      <c r="R42" s="144">
+        <v>6852.5404523507341</v>
       </c>
       <c r="S42" s="64">
-        <v>0</v>
+        <v>11.022834311682381</v>
       </c>
       <c r="T42" s="3">
-        <v>0.61023698837490281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -15614,10 +15993,10 @@
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -15634,29 +16013,29 @@
       <c r="I43" s="103">
         <v>503.87546691325269</v>
       </c>
-      <c r="K43" s="9">
-        <v>38636.981567063936</v>
-      </c>
-      <c r="L43" s="53">
-        <v>8825.8612233585827</v>
+      <c r="K43" s="156">
+        <v>38591.458918353521</v>
+      </c>
+      <c r="L43" s="165">
+        <v>6745.9724425485674</v>
       </c>
       <c r="M43" s="64">
         <v>0</v>
       </c>
-      <c r="N43" s="103">
-        <v>502.99551780674159</v>
-      </c>
-      <c r="Q43" s="9">
-        <v>38638.497613072082</v>
-      </c>
-      <c r="R43" s="53">
-        <v>8825.9034565163965</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="100">
+        <v>38591.458918353521</v>
+      </c>
+      <c r="R43" s="126">
+        <v>6815.6472324559254</v>
       </c>
       <c r="S43" s="64">
         <v>0</v>
       </c>
-      <c r="T43" s="103">
-        <v>503.87546691325269</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -15667,10 +16046,10 @@
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
@@ -15687,29 +16066,29 @@
       <c r="I44" s="25">
         <v>846.0689536637492</v>
       </c>
-      <c r="K44" s="10">
-        <v>39186.16766041243</v>
-      </c>
-      <c r="L44" s="54">
-        <v>8882.6567455188124</v>
+      <c r="K44" s="156">
+        <v>38591.458918353521</v>
+      </c>
+      <c r="L44" s="165">
+        <v>6745.9724425485674</v>
       </c>
       <c r="M44" s="64">
         <v>0</v>
       </c>
-      <c r="N44" s="26">
-        <v>845.18900455723815</v>
-      </c>
-      <c r="Q44" s="10">
-        <v>39187.683706420568</v>
-      </c>
-      <c r="R44" s="54">
-        <v>8882.6989786766262</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="100">
+        <v>38591.458918353521</v>
+      </c>
+      <c r="R44" s="126">
+        <v>6815.6472324559254</v>
       </c>
       <c r="S44" s="64">
         <v>0</v>
       </c>
-      <c r="T44" s="25">
-        <v>846.0689536637492</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -15720,10 +16099,10 @@
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -15740,29 +16119,29 @@
       <c r="I45" s="104">
         <v>1191.2276308979599</v>
       </c>
-      <c r="K45" s="11">
-        <v>39739.331378967363</v>
-      </c>
-      <c r="L45" s="56">
-        <v>8940.7256217845679</v>
+      <c r="K45" s="156">
+        <v>38591.458918353521</v>
+      </c>
+      <c r="L45" s="165">
+        <v>6745.9724425485674</v>
       </c>
       <c r="M45" s="64">
         <v>0</v>
       </c>
-      <c r="N45" s="104">
-        <v>1190.3476817914491</v>
-      </c>
-      <c r="Q45" s="11">
-        <v>39740.847424975487</v>
-      </c>
-      <c r="R45" s="56">
-        <v>8940.7678549423817</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="100">
+        <v>38591.458918353521</v>
+      </c>
+      <c r="R45" s="126">
+        <v>6815.6472324559254</v>
       </c>
       <c r="S45" s="64">
         <v>0</v>
       </c>
-      <c r="T45" s="104">
-        <v>1191.2276308979599</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -15773,10 +16152,10 @@
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -15793,29 +16172,29 @@
       <c r="I46" s="46">
         <v>1580.621852326743</v>
       </c>
-      <c r="K46" s="8">
-        <v>40415.53135493429</v>
-      </c>
-      <c r="L46" s="56">
-        <v>8954.0938243704441</v>
+      <c r="K46" s="156">
+        <v>38562.875646890432</v>
+      </c>
+      <c r="L46" s="165">
+        <v>6774.7507626280976</v>
       </c>
       <c r="M46" s="64">
-        <v>0</v>
-      </c>
-      <c r="N46" s="46">
-        <v>1579.7419032202331</v>
-      </c>
-      <c r="Q46" s="8">
-        <v>40417.047400942443</v>
-      </c>
-      <c r="R46" s="56">
-        <v>8954.1360575282579</v>
+        <v>0.36376748993015001</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="100">
+        <v>38562.680598273997</v>
+      </c>
+      <c r="R46" s="144">
+        <v>6839.0059569433388</v>
       </c>
       <c r="S46" s="64">
-        <v>0</v>
-      </c>
-      <c r="T46" s="46">
-        <v>1580.621852326743</v>
+        <v>0.36376748993015001</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -15826,7 +16205,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>15</v>
@@ -15846,11 +16225,11 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3">
-        <v>37838.025565866148</v>
-      </c>
-      <c r="L47" s="55">
-        <v>8734.0754416877153</v>
+      <c r="K47" s="156">
+        <v>38591.458918353521</v>
+      </c>
+      <c r="L47" s="165">
+        <v>6745.9724425485674</v>
       </c>
       <c r="M47" s="64">
         <v>0</v>
@@ -15858,11 +16237,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3">
-        <v>37838.025565866148</v>
-      </c>
-      <c r="R47" s="55">
-        <v>8734.0754416877153</v>
+      <c r="Q47" s="100">
+        <v>38591.458918353521</v>
+      </c>
+      <c r="R47" s="126">
+        <v>6815.6472324559254</v>
       </c>
       <c r="S47" s="64">
         <v>0</v>
@@ -15879,7 +16258,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>15</v>
@@ -15899,29 +16278,29 @@
       <c r="I48" s="3">
         <v>7.6196759842034278E-2</v>
       </c>
-      <c r="K48" s="3">
-        <v>37838.127769899867</v>
-      </c>
-      <c r="L48" s="55">
-        <v>8734.1081725297699</v>
+      <c r="K48" s="156">
+        <v>38585.373049964262</v>
+      </c>
+      <c r="L48" s="165">
+        <v>6752.0991669048899</v>
       </c>
       <c r="M48" s="64">
-        <v>0</v>
+        <v>7.6196759842034334E-2</v>
       </c>
       <c r="N48" s="3">
-        <v>7.6196759842034278E-2</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>37838.127769899867</v>
-      </c>
-      <c r="R48" s="55">
-        <v>8734.1081725297699</v>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="100">
+        <v>38585.332193997201</v>
+      </c>
+      <c r="R48" s="126">
+        <v>6820.6149233733913</v>
       </c>
       <c r="S48" s="64">
-        <v>0</v>
+        <v>7.6196759842034334E-2</v>
       </c>
       <c r="T48" s="3">
-        <v>7.6196759842034278E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -15932,7 +16311,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>15</v>
@@ -15952,29 +16331,29 @@
       <c r="I49" s="3">
         <v>0.20325369303352181</v>
       </c>
-      <c r="K49" s="3">
-        <v>37838.29819356501</v>
-      </c>
-      <c r="L49" s="55">
-        <v>8734.1627507089561</v>
+      <c r="K49" s="156">
+        <v>38585.668256815952</v>
+      </c>
+      <c r="L49" s="165">
+        <v>6751.872086754217</v>
       </c>
       <c r="M49" s="64">
-        <v>0</v>
+        <v>0.20325369303352181</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="100">
+        <v>38585.559274147883</v>
+      </c>
+      <c r="R49" s="126">
+        <v>6820.446067689074</v>
+      </c>
+      <c r="S49" s="64">
         <v>0.20325369303352181</v>
       </c>
-      <c r="Q49" s="3">
-        <v>37838.29819356501</v>
-      </c>
-      <c r="R49" s="55">
-        <v>8734.1627507089561</v>
-      </c>
-      <c r="S49" s="64">
-        <v>0</v>
-      </c>
       <c r="T49" s="3">
-        <v>0.20325369303352181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -15985,7 +16364,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>15</v>
@@ -16005,29 +16384,29 @@
       <c r="I50" s="3">
         <v>0.86765184816027041</v>
       </c>
-      <c r="K50" s="3">
-        <v>37839.189362318008</v>
-      </c>
-      <c r="L50" s="55">
-        <v>8734.4481475043194</v>
+      <c r="K50" s="156">
+        <v>38587.211933990591</v>
+      </c>
+      <c r="L50" s="165">
+        <v>6750.6846534565366</v>
       </c>
       <c r="M50" s="64">
-        <v>0</v>
+        <v>0.86765184816027041</v>
       </c>
       <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="100">
+        <v>38586.746707445564</v>
+      </c>
+      <c r="R50" s="126">
+        <v>6819.563098123187</v>
+      </c>
+      <c r="S50" s="64">
         <v>0.86765184816027041</v>
       </c>
-      <c r="Q50" s="3">
-        <v>37839.189362318008</v>
-      </c>
-      <c r="R50" s="55">
-        <v>8734.4481475043194</v>
-      </c>
-      <c r="S50" s="64">
-        <v>0</v>
-      </c>
       <c r="T50" s="3">
-        <v>0.86765184816027041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
@@ -16041,7 +16420,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -16058,26 +16437,26 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="14">
-        <v>45485.796730914597</v>
-      </c>
-      <c r="L51" s="59">
-        <v>1086.3042766392541</v>
-      </c>
-      <c r="M51" s="80">
-        <v>52.41578054052502</v>
+      <c r="K51" s="191">
+        <v>43330.653664078753</v>
+      </c>
+      <c r="L51" s="152">
+        <v>3222.8053452708969</v>
+      </c>
+      <c r="M51" s="88">
+        <v>1172.200666452452</v>
       </c>
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="Q51" s="113">
-        <v>45562.557027744653</v>
-      </c>
-      <c r="R51" s="57">
-        <v>1009.543979809202</v>
-      </c>
-      <c r="S51" s="80">
-        <v>56.14594667479075</v>
+      <c r="Q51" s="106">
+        <v>42114.626015631213</v>
+      </c>
+      <c r="R51" s="152">
+        <v>3638.1165965938649</v>
+      </c>
+      <c r="S51" s="88">
+        <v>1172.200666452452</v>
       </c>
       <c r="T51" s="3">
         <v>0</v>
@@ -16094,7 +16473,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>16</v>
@@ -16111,29 +16490,29 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="113">
-        <v>45574.287179253588</v>
-      </c>
-      <c r="L52" s="57">
-        <v>997.81382830026519</v>
-      </c>
-      <c r="M52" s="79">
-        <v>77.419285421294646</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="108">
-        <v>45685.543883113321</v>
-      </c>
-      <c r="R52" s="58">
-        <v>886.55712444053722</v>
-      </c>
-      <c r="S52" s="65">
-        <v>82.466679057452268</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="K52" s="192">
+        <v>44954.313772550493</v>
+      </c>
+      <c r="L52" s="218">
+        <v>2280.5481766469461</v>
+      </c>
+      <c r="M52" s="82">
+        <v>1644.2139572453129</v>
+      </c>
+      <c r="N52" s="157">
+        <v>110.0268357839718</v>
+      </c>
+      <c r="Q52" s="161">
+        <v>43251.726868542748</v>
+      </c>
+      <c r="R52" s="153">
+        <v>2687.2812480231878</v>
+      </c>
+      <c r="S52" s="82">
+        <v>1644.2139572453129</v>
+      </c>
+      <c r="T52" s="157">
+        <v>110.0268357839718</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -16147,7 +16526,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
@@ -16164,29 +16543,29 @@
       <c r="I53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="13">
-        <v>45676.977612466559</v>
-      </c>
-      <c r="L53" s="58">
-        <v>895.12339508729724</v>
-      </c>
-      <c r="M53" s="78">
-        <v>106.78086294918801</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="16">
-        <v>45829.011509719363</v>
-      </c>
-      <c r="R53" s="61">
-        <v>743.08949783449236</v>
-      </c>
-      <c r="S53" s="78">
-        <v>113.4374161850758</v>
-      </c>
-      <c r="T53" s="3">
-        <v>0</v>
+      <c r="K53" s="160">
+        <v>45804.491770209963</v>
+      </c>
+      <c r="L53" s="215">
+        <v>2051.6228794566391</v>
+      </c>
+      <c r="M53" s="142">
+        <v>1961.788155632516</v>
+      </c>
+      <c r="N53" s="187">
+        <v>276.1904093149447</v>
+      </c>
+      <c r="Q53" s="222">
+        <v>43774.906950308839</v>
+      </c>
+      <c r="R53" s="154">
+        <v>2379.2296057776821</v>
+      </c>
+      <c r="S53" s="142">
+        <v>1961.788155632516</v>
+      </c>
+      <c r="T53" s="187">
+        <v>276.1904093149447</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -16200,7 +16579,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -16217,29 +16596,29 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="113">
-        <v>45590.98230506148</v>
-      </c>
-      <c r="L54" s="115">
-        <v>981.11870249237745</v>
-      </c>
-      <c r="M54" s="62">
-        <v>87.404252898917051</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="108">
-        <v>45719.216692540969</v>
-      </c>
-      <c r="R54" s="77">
-        <v>852.88431501287528</v>
-      </c>
-      <c r="S54" s="79">
-        <v>93.920043896019664</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
+      <c r="K54" s="193">
+        <v>47095.51085192983</v>
+      </c>
+      <c r="L54" s="213">
+        <v>1573.664438924538</v>
+      </c>
+      <c r="M54" s="179">
+        <v>2589.340564873989</v>
+      </c>
+      <c r="N54" s="185">
+        <v>374.12102308128061</v>
+      </c>
+      <c r="Q54" s="223">
+        <v>44426.288187696067</v>
+      </c>
+      <c r="R54" s="139">
+        <v>1755.96100519174</v>
+      </c>
+      <c r="S54" s="179">
+        <v>2589.340564873989</v>
+      </c>
+      <c r="T54" s="185">
+        <v>374.12102308128061</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
@@ -16253,7 +16632,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -16270,26 +16649,26 @@
       <c r="I55" s="3">
         <v>0</v>
       </c>
-      <c r="K55" s="15">
-        <v>45772.544614748113</v>
-      </c>
-      <c r="L55" s="60">
-        <v>799.55639280575122</v>
-      </c>
-      <c r="M55" s="64">
-        <v>15.287698011926221</v>
+      <c r="K55" s="194">
+        <v>44545.898605826347</v>
+      </c>
+      <c r="L55" s="115">
+        <v>854.08008916728227</v>
+      </c>
+      <c r="M55" s="80">
+        <v>55.712015306098479</v>
       </c>
       <c r="N55" s="3">
         <v>0</v>
       </c>
-      <c r="Q55" s="15">
-        <v>45794.726825541249</v>
-      </c>
-      <c r="R55" s="60">
-        <v>777.37418201260584</v>
-      </c>
-      <c r="S55" s="64">
-        <v>16.659570782644622</v>
+      <c r="Q55" s="198">
+        <v>44483.351271734799</v>
+      </c>
+      <c r="R55" s="77">
+        <v>1295.448896591738</v>
+      </c>
+      <c r="S55" s="80">
+        <v>55.712015306098479</v>
       </c>
       <c r="T55" s="3">
         <v>0</v>
@@ -16306,7 +16685,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>16</v>
@@ -16323,26 +16702,26 @@
       <c r="I56" s="3">
         <v>0</v>
       </c>
-      <c r="K56" s="15">
-        <v>45794.229364112609</v>
-      </c>
-      <c r="L56" s="60">
-        <v>777.87164344125085</v>
-      </c>
-      <c r="M56" s="86">
-        <v>24.801156956050029</v>
+      <c r="K56" s="195">
+        <v>44691.992645910133</v>
+      </c>
+      <c r="L56" s="77">
+        <v>737.39017118228776</v>
+      </c>
+      <c r="M56" s="65">
+        <v>82.023158253107027</v>
       </c>
       <c r="N56" s="3">
         <v>0</v>
       </c>
-      <c r="Q56" s="16">
-        <v>45828.947946434433</v>
+      <c r="Q56" s="14">
+        <v>44600.041189719806</v>
       </c>
       <c r="R56" s="61">
-        <v>743.15306111942732</v>
-      </c>
-      <c r="S56" s="64">
-        <v>26.664244549131759</v>
+        <v>1207.9676466440169</v>
+      </c>
+      <c r="S56" s="65">
+        <v>82.023158253107027</v>
       </c>
       <c r="T56" s="3">
         <v>0</v>
@@ -16359,7 +16738,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
@@ -16376,26 +16755,26 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="16">
-        <v>45820.62192413248</v>
-      </c>
-      <c r="L57" s="61">
-        <v>751.4790834213826</v>
-      </c>
-      <c r="M57" s="86">
-        <v>36.440971877195729</v>
+      <c r="K57" s="124">
+        <v>44862.837774914973</v>
+      </c>
+      <c r="L57" s="76">
+        <v>601.16309378556321</v>
+      </c>
+      <c r="M57" s="78">
+        <v>112.98254322708959</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="16">
-        <v>45870.718125643223</v>
-      </c>
-      <c r="R57" s="76">
-        <v>701.38288191062736</v>
-      </c>
-      <c r="S57" s="86">
-        <v>38.916787664390483</v>
+      <c r="Q57" s="113">
+        <v>44736.268267116538</v>
+      </c>
+      <c r="R57" s="87">
+        <v>1105.9782581039251</v>
+      </c>
+      <c r="S57" s="78">
+        <v>112.98254322708959</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -16412,7 +16791,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
@@ -16429,26 +16808,26 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="16">
-        <v>45811.82401091772</v>
-      </c>
-      <c r="L58" s="61">
-        <v>760.27699663612862</v>
-      </c>
-      <c r="M58" s="86">
-        <v>34.886567796655349</v>
+      <c r="K58" s="195">
+        <v>44739.398996049647</v>
+      </c>
+      <c r="L58" s="60">
+        <v>703.12536905283196</v>
+      </c>
+      <c r="M58" s="79">
+        <v>93.474120302442998</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="16">
-        <v>45861.287234822637</v>
-      </c>
-      <c r="R58" s="76">
-        <v>710.81377273120438</v>
-      </c>
-      <c r="S58" s="86">
-        <v>37.775569145472957</v>
+      <c r="Q58" s="14">
+        <v>44634.305991849273</v>
+      </c>
+      <c r="R58" s="61">
+        <v>1184.3177123747739</v>
+      </c>
+      <c r="S58" s="79">
+        <v>93.474120302442998</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -16465,7 +16844,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -16482,26 +16861,26 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="17">
-        <v>46130.670462995156</v>
-      </c>
-      <c r="L59" s="78">
-        <v>441.43054455870117</v>
+      <c r="K59" s="195">
+        <v>44684.640314637298</v>
+      </c>
+      <c r="L59" s="61">
+        <v>671.43225899752292</v>
       </c>
       <c r="M59" s="64">
-        <v>2.394896363193884</v>
+        <v>16.277776033003871</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="17">
-        <v>46134.118773322247</v>
-      </c>
-      <c r="R59" s="62">
-        <v>437.98223423159948</v>
+      <c r="Q59" s="12">
+        <v>44665.999101904577</v>
+      </c>
+      <c r="R59" s="76">
+        <v>1127.0044281983151</v>
       </c>
       <c r="S59" s="64">
-        <v>2.670698610944005</v>
+        <v>16.277776033003871</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -16518,7 +16897,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
@@ -16535,26 +16914,26 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="17">
-        <v>46133.398766883547</v>
-      </c>
-      <c r="L60" s="62">
-        <v>438.70224067031143</v>
+      <c r="K60" s="195">
+        <v>44729.507669650273</v>
+      </c>
+      <c r="L60" s="61">
+        <v>637.93576814150049</v>
       </c>
       <c r="M60" s="64">
-        <v>4.5176937778025952</v>
+        <v>26.28174785105303</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="17">
-        <v>46139.577537968187</v>
-      </c>
-      <c r="R60" s="62">
-        <v>432.52346958566511</v>
+      <c r="Q60" s="12">
+        <v>44699.495592760592</v>
+      </c>
+      <c r="R60" s="87">
+        <v>1103.2875462518971</v>
       </c>
       <c r="S60" s="64">
-        <v>4.9037496596205363</v>
+        <v>26.28174785105303</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -16571,7 +16950,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
@@ -16588,26 +16967,26 @@
       <c r="I61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="18">
-        <v>46033.989243000338</v>
-      </c>
-      <c r="L61" s="63">
-        <v>538.1117645535237</v>
-      </c>
-      <c r="M61" s="64">
-        <v>8.0562812877776722</v>
+      <c r="K61" s="196">
+        <v>44784.346103457698</v>
+      </c>
+      <c r="L61" s="76">
+        <v>597.02605019279213</v>
+      </c>
+      <c r="M61" s="86">
+        <v>38.533428215143573</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="Q61" s="18">
-        <v>46045.453026564552</v>
-      </c>
-      <c r="R61" s="63">
-        <v>526.64798098930169</v>
-      </c>
-      <c r="S61" s="64">
-        <v>8.8677204060688215</v>
+      <c r="Q61" s="113">
+        <v>44740.405310709313</v>
+      </c>
+      <c r="R61" s="87">
+        <v>1074.3381263798731</v>
+      </c>
+      <c r="S61" s="86">
+        <v>38.533428215143573</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -16624,7 +17003,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -16641,26 +17020,26 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="18">
-        <v>46037.531050345111</v>
-      </c>
-      <c r="L62" s="63">
-        <v>534.5699572087467</v>
-      </c>
-      <c r="M62" s="64">
-        <v>10.899602432844929</v>
+      <c r="K62" s="196">
+        <v>44775.268993199701</v>
+      </c>
+      <c r="L62" s="76">
+        <v>604.93410454032926</v>
+      </c>
+      <c r="M62" s="86">
+        <v>37.392432635927619</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="18">
-        <v>46053.235133914663</v>
-      </c>
-      <c r="R62" s="63">
-        <v>518.86587363920569</v>
-      </c>
-      <c r="S62" s="64">
-        <v>12.091253929167809</v>
+      <c r="Q62" s="113">
+        <v>44732.49725636177</v>
+      </c>
+      <c r="R62" s="87">
+        <v>1080.5406568792621</v>
+      </c>
+      <c r="S62" s="86">
+        <v>37.392432635927619</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -16677,7 +17056,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -16694,26 +17073,26 @@
       <c r="I63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="19">
-        <v>46571.263569914678</v>
-      </c>
-      <c r="L63" s="64">
-        <v>0.83743763916593972</v>
+      <c r="K63" s="192">
+        <v>44949.637622635317</v>
+      </c>
+      <c r="L63" s="78">
+        <v>390.75946407947919</v>
       </c>
       <c r="M63" s="64">
-        <v>0</v>
+        <v>2.552629892846991</v>
       </c>
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="Q63" s="19">
-        <v>46571.263569914678</v>
-      </c>
-      <c r="R63" s="64">
-        <v>0.83743763916593972</v>
+      <c r="Q63" s="15">
+        <v>44946.671896822627</v>
+      </c>
+      <c r="R63" s="79">
+        <v>891.70877069474727</v>
       </c>
       <c r="S63" s="64">
-        <v>0</v>
+        <v>2.552629892846991</v>
       </c>
       <c r="T63" s="3">
         <v>0</v>
@@ -16730,7 +17109,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>16</v>
@@ -16747,26 +17126,26 @@
       <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="19">
-        <v>46571.263569914678</v>
-      </c>
-      <c r="L64" s="64">
-        <v>0.83743763916593972</v>
+      <c r="K64" s="192">
+        <v>44957.964139933763</v>
+      </c>
+      <c r="L64" s="78">
+        <v>385.0208944263249</v>
       </c>
       <c r="M64" s="64">
-        <v>0</v>
+        <v>4.7856752187593257</v>
       </c>
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="Q64" s="19">
-        <v>46571.263569914678</v>
-      </c>
-      <c r="R64" s="64">
-        <v>0.83743763916593972</v>
+      <c r="Q64" s="16">
+        <v>44952.410466475769</v>
+      </c>
+      <c r="R64" s="79">
+        <v>887.89208665679189</v>
       </c>
       <c r="S64" s="64">
-        <v>0</v>
+        <v>4.7856752187593257</v>
       </c>
       <c r="T64" s="3">
         <v>0</v>
@@ -16783,7 +17162,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -16800,26 +17179,26 @@
       <c r="I65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="19">
-        <v>46571.263569914678</v>
-      </c>
-      <c r="L65" s="64">
-        <v>0.83743763916593972</v>
+      <c r="K65" s="197">
+        <v>44884.549312753777</v>
+      </c>
+      <c r="L65" s="63">
+        <v>462.78841377704441</v>
       </c>
       <c r="M65" s="64">
-        <v>0</v>
+        <v>8.5530005029627443</v>
       </c>
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="Q65" s="19">
-        <v>46571.263569914678</v>
-      </c>
-      <c r="R65" s="64">
-        <v>0.83743763916593972</v>
+      <c r="Q65" s="108">
+        <v>44874.642947125038</v>
+      </c>
+      <c r="R65" s="78">
+        <v>952.73029115977545</v>
       </c>
       <c r="S65" s="64">
-        <v>0</v>
+        <v>8.5530005029627443</v>
       </c>
       <c r="T65" s="3">
         <v>0</v>
@@ -16836,7 +17215,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>17</v>
@@ -16853,26 +17232,26 @@
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="20">
-        <v>46291.581778949527</v>
-      </c>
-      <c r="L66" s="65">
-        <v>280.51922860432433</v>
+      <c r="K66" s="197">
+        <v>44896.865784561727</v>
+      </c>
+      <c r="L66" s="63">
+        <v>454.21491370222481</v>
       </c>
       <c r="M66" s="64">
-        <v>0.38322536114051298</v>
+        <v>11.77651366788316</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="20">
-        <v>46292.682085313929</v>
-      </c>
-      <c r="R66" s="65">
-        <v>279.41892223993051</v>
+      <c r="Q66" s="108">
+        <v>44883.216447199877</v>
+      </c>
+      <c r="R66" s="78">
+        <v>946.99280479218237</v>
       </c>
       <c r="S66" s="64">
-        <v>0.64893821973014054</v>
+        <v>11.77651366788316</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -16889,15 +17268,15 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="143">
+      <c r="F67" s="129">
         <v>41806.270374660977</v>
       </c>
-      <c r="G67" s="150">
+      <c r="G67" s="136">
         <v>4765.830632892882</v>
       </c>
       <c r="H67" s="88">
@@ -16906,26 +17285,26 @@
       <c r="I67" s="3">
         <v>0</v>
       </c>
-      <c r="K67" s="29">
-        <v>41435.080087119299</v>
-      </c>
-      <c r="L67" s="116">
-        <v>5137.0209204345592</v>
-      </c>
-      <c r="M67" s="66">
-        <v>1029.689844907143</v>
+      <c r="K67" s="12">
+        <v>45336.69915052638</v>
+      </c>
+      <c r="L67" s="64">
+        <v>0.73221037571774539</v>
+      </c>
+      <c r="M67" s="64">
+        <v>0</v>
       </c>
       <c r="N67" s="3">
         <v>0</v>
       </c>
-      <c r="Q67" s="165">
-        <v>42871.860494080109</v>
-      </c>
-      <c r="R67" s="171">
-        <v>3700.2405134737519</v>
-      </c>
-      <c r="S67" s="88">
-        <v>1194.1124348943099</v>
+      <c r="Q67" s="159">
+        <v>45336.69915052638</v>
+      </c>
+      <c r="R67" s="64">
+        <v>573.98897315398642</v>
+      </c>
+      <c r="S67" s="64">
+        <v>0</v>
       </c>
       <c r="T67" s="3">
         <v>0</v>
@@ -16942,7 +17321,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -16956,32 +17335,32 @@
       <c r="H68" s="82">
         <v>1666.1677836688859</v>
       </c>
-      <c r="I68" s="160">
+      <c r="I68" s="146">
         <v>113.1371936644418</v>
       </c>
-      <c r="K68" s="106">
-        <v>42682.203299161367</v>
-      </c>
-      <c r="L68" s="117">
-        <v>4031.064414613686</v>
-      </c>
-      <c r="M68" s="118">
-        <v>1525.765426486596</v>
-      </c>
-      <c r="N68" s="9">
-        <v>79.715829950324618</v>
-      </c>
-      <c r="Q68" s="166">
-        <v>44211.180716951887</v>
-      </c>
-      <c r="R68" s="172">
-        <v>2561.2720273984228</v>
-      </c>
-      <c r="S68" s="82">
-        <v>1666.1677836688859</v>
-      </c>
-      <c r="T68" s="160">
-        <v>113.1371936644418</v>
+      <c r="K68" s="12">
+        <v>45336.69915052638</v>
+      </c>
+      <c r="L68" s="64">
+        <v>0.73221037571774539</v>
+      </c>
+      <c r="M68" s="64">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="159">
+        <v>45336.69915052638</v>
+      </c>
+      <c r="R68" s="64">
+        <v>573.98897315398642</v>
+      </c>
+      <c r="S68" s="64">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -16995,46 +17374,46 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="144">
+      <c r="F69" s="130">
         <v>43283.495807220534</v>
       </c>
       <c r="G69" s="69">
         <v>3785.4713124262021</v>
       </c>
-      <c r="H69" s="156">
+      <c r="H69" s="142">
         <v>1985.970376620051</v>
       </c>
-      <c r="I69" s="161">
+      <c r="I69" s="147">
         <v>280.57674192390988</v>
       </c>
-      <c r="K69" s="119">
-        <v>43244.364563264717</v>
-      </c>
-      <c r="L69" s="69">
-        <v>3749.4289140039818</v>
-      </c>
-      <c r="M69" s="120">
-        <v>1829.625826357277</v>
-      </c>
-      <c r="N69" s="27">
-        <v>238.1267234105984</v>
-      </c>
-      <c r="Q69" s="167">
-        <v>44889.382484340073</v>
-      </c>
-      <c r="R69" s="173">
-        <v>2179.58463530668</v>
-      </c>
-      <c r="S69" s="156">
-        <v>1985.970376620051</v>
-      </c>
-      <c r="T69" s="161">
-        <v>280.57674192390988</v>
+      <c r="K69" s="12">
+        <v>45336.69915052638</v>
+      </c>
+      <c r="L69" s="64">
+        <v>0.73221037571774539</v>
+      </c>
+      <c r="M69" s="64">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="159">
+        <v>45336.69915052638</v>
+      </c>
+      <c r="R69" s="64">
+        <v>573.98897315398642</v>
+      </c>
+      <c r="S69" s="64">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -17048,46 +17427,46 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="121">
+      <c r="F70" s="117">
         <v>43729.520574664188</v>
       </c>
-      <c r="G70" s="151">
+      <c r="G70" s="137">
         <v>3518.8836418680562</v>
       </c>
-      <c r="H70" s="157">
+      <c r="H70" s="143">
         <v>2617.8681705380668</v>
       </c>
-      <c r="I70" s="162">
+      <c r="I70" s="148">
         <v>381.9035879274644</v>
       </c>
-      <c r="K70" s="121">
-        <v>43778.846790610522</v>
-      </c>
-      <c r="L70" s="122">
-        <v>3370.1700230968909</v>
-      </c>
-      <c r="M70" s="123">
-        <v>2411.5890252284489</v>
-      </c>
-      <c r="N70" s="124">
-        <v>325.78023196862199</v>
-      </c>
-      <c r="Q70" s="15">
-        <v>45769.930452838467</v>
-      </c>
-      <c r="R70" s="174">
-        <v>1478.473763693773</v>
-      </c>
-      <c r="S70" s="157">
-        <v>2617.8681705380668</v>
-      </c>
-      <c r="T70" s="162">
-        <v>381.9035879274644</v>
+      <c r="K70" s="198">
+        <v>45095.844984542287</v>
+      </c>
+      <c r="L70" s="65">
+        <v>242.0276586797269</v>
+      </c>
+      <c r="M70" s="64">
+        <v>0.38042081672706007</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="160">
+        <v>45095.403702222357</v>
+      </c>
+      <c r="R70" s="80">
+        <v>770.17033772036814</v>
+      </c>
+      <c r="S70" s="64">
+        <v>0.38042081672706007</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -17118,11 +17497,11 @@
       <c r="I71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="19">
-        <v>46571.263569914678</v>
+      <c r="K71" s="12">
+        <v>45336.69915052638</v>
       </c>
       <c r="L71" s="64">
-        <v>0.83743763916593972</v>
+        <v>0.73221037571774539</v>
       </c>
       <c r="M71" s="64">
         <v>0</v>
@@ -17130,11 +17509,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="Q71" s="19">
-        <v>46571.263569914678</v>
+      <c r="Q71" s="159">
+        <v>45336.69915052638</v>
       </c>
       <c r="R71" s="64">
-        <v>0.83743763916593972</v>
+        <v>573.98897315398642</v>
       </c>
       <c r="S71" s="64">
         <v>0</v>
@@ -17171,26 +17550,26 @@
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="25">
-        <v>46525.528663948578</v>
+      <c r="K72" s="14">
+        <v>45291.176626333057</v>
       </c>
       <c r="L72" s="64">
-        <v>46.572343605282271</v>
+        <v>46.343085708842928</v>
       </c>
       <c r="M72" s="64">
-        <v>7.6196759842034278E-2</v>
+        <v>7.6196759842034348E-2</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="Q72" s="25">
-        <v>46525.617134514629</v>
+      <c r="Q72" s="17">
+        <v>45291.088275193237</v>
       </c>
       <c r="R72" s="64">
-        <v>46.483873039223397</v>
+        <v>611.03071140330746</v>
       </c>
       <c r="S72" s="64">
-        <v>7.6196759842034278E-2</v>
+        <v>7.6196759842034348E-2</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
@@ -17224,26 +17603,26 @@
       <c r="I73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="25">
-        <v>46525.738362941767</v>
+      <c r="K73" s="14">
+        <v>45291.740468688462</v>
       </c>
       <c r="L73" s="64">
-        <v>46.362644612076991</v>
+        <v>45.926567529594507</v>
       </c>
       <c r="M73" s="64">
-        <v>0.2032536930335217</v>
+        <v>0.20325369303352181</v>
       </c>
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="Q73" s="25">
-        <v>46525.97435682542</v>
+      <c r="Q73" s="17">
+        <v>45291.504793372493</v>
       </c>
       <c r="R73" s="64">
-        <v>46.126650728432743</v>
+        <v>610.74082819080343</v>
       </c>
       <c r="S73" s="64">
-        <v>0.2032536930335217</v>
+        <v>0.20325369303352181</v>
       </c>
       <c r="T73" s="3">
         <v>0</v>
@@ -17277,26 +17656,26 @@
       <c r="I74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="25">
-        <v>46526.834907779739</v>
+      <c r="K74" s="14">
+        <v>45294.688877809458</v>
       </c>
       <c r="L74" s="64">
-        <v>45.266099774121699</v>
+        <v>43.74853676088167</v>
       </c>
       <c r="M74" s="64">
-        <v>0.86765184816027041</v>
+        <v>0.86765184816027063</v>
       </c>
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="Q74" s="25">
-        <v>46527.842321353593</v>
+      <c r="Q74" s="17">
+        <v>45293.682824141208</v>
       </c>
       <c r="R74" s="64">
-        <v>44.258686200265061</v>
+        <v>609.22498905670716</v>
       </c>
       <c r="S74" s="64">
-        <v>0.86765184816027041</v>
+        <v>0.86765184816027063</v>
       </c>
       <c r="T74" s="3">
         <v>0</v>
@@ -17310,10 +17689,10 @@
         <v>6</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -17330,29 +17709,29 @@
       <c r="I75" s="101">
         <v>18.849367008410859</v>
       </c>
-      <c r="K75" s="27">
-        <v>40264.268878064991</v>
-      </c>
-      <c r="L75" s="70">
-        <v>13803.362752373891</v>
+      <c r="K75" s="120">
+        <v>41207.604730523693</v>
+      </c>
+      <c r="L75" s="71">
+        <v>12148.776956200951</v>
       </c>
       <c r="M75" s="64">
-        <v>17.31595644534163</v>
-      </c>
-      <c r="N75" s="101">
-        <v>18.785510469333861</v>
-      </c>
-      <c r="Q75" s="27">
-        <v>40273.779965878479</v>
-      </c>
-      <c r="R75" s="70">
-        <v>13793.964746457659</v>
+        <v>0</v>
+      </c>
+      <c r="N75" s="103">
+        <v>502.32714533462251</v>
+      </c>
+      <c r="Q75" s="148">
+        <v>41207.604730523693</v>
+      </c>
+      <c r="R75" s="71">
+        <v>12148.776956200951</v>
       </c>
       <c r="S75" s="64">
-        <v>17.321248297141569</v>
-      </c>
-      <c r="T75" s="101">
-        <v>18.849367008410859</v>
+        <v>0</v>
+      </c>
+      <c r="T75" s="103">
+        <v>502.32714533462251</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
@@ -17363,10 +17742,10 @@
         <v>6</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>16</v>
@@ -17383,29 +17762,29 @@
       <c r="I76" s="94">
         <v>33.391230697345897</v>
       </c>
-      <c r="K76" s="27">
-        <v>40284.205825567929</v>
-      </c>
-      <c r="L76" s="70">
-        <v>13809.17686599357</v>
+      <c r="K76" s="121">
+        <v>41756.790823872187</v>
+      </c>
+      <c r="L76" s="72">
+        <v>12205.57247836118</v>
       </c>
       <c r="M76" s="64">
-        <v>17.32814674702626</v>
-      </c>
-      <c r="N76" s="94">
-        <v>33.32695061794</v>
-      </c>
-      <c r="Q76" s="27">
-        <v>40293.597173032947</v>
-      </c>
-      <c r="R76" s="70">
-        <v>13799.89935046245</v>
+        <v>0</v>
+      </c>
+      <c r="N76" s="26">
+        <v>844.5206320851189</v>
+      </c>
+      <c r="Q76" s="96">
+        <v>41756.790823872187</v>
+      </c>
+      <c r="R76" s="72">
+        <v>12205.57247836118</v>
       </c>
       <c r="S76" s="64">
-        <v>17.32814674702626</v>
-      </c>
-      <c r="T76" s="94">
-        <v>33.391230697345897</v>
+        <v>0</v>
+      </c>
+      <c r="T76" s="26">
+        <v>844.5206320851189</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
@@ -17416,10 +17795,10 @@
         <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>12</v>
@@ -17433,32 +17812,32 @@
       <c r="H77" s="64">
         <v>22.69688301522719</v>
       </c>
-      <c r="I77" s="125">
+      <c r="I77" s="118">
         <v>53.081608216475402</v>
       </c>
-      <c r="K77" s="8">
-        <v>40307.727060026482</v>
-      </c>
-      <c r="L77" s="70">
-        <v>13820.208546745809</v>
+      <c r="K77" s="162">
+        <v>42309.954542427113</v>
+      </c>
+      <c r="L77" s="73">
+        <v>12263.64135462694</v>
       </c>
       <c r="M77" s="64">
-        <v>22.69688301522719</v>
-      </c>
-      <c r="N77" s="125">
-        <v>52.838734854905788</v>
-      </c>
-      <c r="Q77" s="8">
-        <v>40320.24563788408</v>
-      </c>
-      <c r="R77" s="70">
-        <v>13808.12006705696</v>
+        <v>0</v>
+      </c>
+      <c r="N77" s="104">
+        <v>1189.6793093193301</v>
+      </c>
+      <c r="Q77" s="150">
+        <v>42309.954542427113</v>
+      </c>
+      <c r="R77" s="73">
+        <v>12263.64135462694</v>
       </c>
       <c r="S77" s="64">
-        <v>22.69688301522719</v>
-      </c>
-      <c r="T77" s="125">
-        <v>53.081608216475402</v>
+        <v>0</v>
+      </c>
+      <c r="T77" s="104">
+        <v>1189.6793093193301</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
@@ -17469,10 +17848,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>17</v>
@@ -17486,32 +17865,32 @@
       <c r="H78" s="64">
         <v>17.32814674702626</v>
       </c>
-      <c r="I78" s="126">
+      <c r="I78" s="119">
         <v>40.982381074136548</v>
       </c>
-      <c r="K78" s="27">
-        <v>40294.399771315708</v>
-      </c>
-      <c r="L78" s="70">
-        <v>13812.425892561199</v>
+      <c r="K78" s="23">
+        <v>42986.154518394047</v>
+      </c>
+      <c r="L78" s="73">
+        <v>12277.009557212819</v>
       </c>
       <c r="M78" s="64">
-        <v>17.32814674702626</v>
-      </c>
-      <c r="N78" s="126">
-        <v>40.918100994730644</v>
-      </c>
-      <c r="Q78" s="27">
-        <v>40303.791118780733</v>
-      </c>
-      <c r="R78" s="70">
-        <v>13803.148377030069</v>
+        <v>0</v>
+      </c>
+      <c r="N78" s="46">
+        <v>1579.0735307481129</v>
+      </c>
+      <c r="Q78" s="186">
+        <v>42986.154518394047</v>
+      </c>
+      <c r="R78" s="73">
+        <v>12277.009557212819</v>
       </c>
       <c r="S78" s="64">
-        <v>17.32814674702626</v>
-      </c>
-      <c r="T78" s="126">
-        <v>40.982381074136548</v>
+        <v>0</v>
+      </c>
+      <c r="T78" s="46">
+        <v>1579.0735307481129</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -17522,10 +17901,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
@@ -17542,29 +17921,29 @@
       <c r="I79" s="3">
         <v>1.4402757222699529</v>
       </c>
-      <c r="K79" s="27">
-        <v>40246.742393705899</v>
-      </c>
-      <c r="L79" s="70">
-        <v>13790.214392375879</v>
+      <c r="K79" s="187">
+        <v>40454.907816175873</v>
+      </c>
+      <c r="L79" s="149">
+        <v>12072.01404723274</v>
       </c>
       <c r="M79" s="64">
-        <v>6.3386000249159871</v>
-      </c>
-      <c r="N79" s="3">
-        <v>1.4636451231819489</v>
-      </c>
-      <c r="Q79" s="27">
-        <v>40250.241225865138</v>
-      </c>
-      <c r="R79" s="70">
-        <v>13786.674175947601</v>
+        <v>0</v>
+      </c>
+      <c r="N79" s="94">
+        <v>33.937112046761968</v>
+      </c>
+      <c r="Q79" s="151">
+        <v>40454.907816175873</v>
+      </c>
+      <c r="R79" s="149">
+        <v>12072.01404723274</v>
       </c>
       <c r="S79" s="64">
-        <v>6.3438933462324796</v>
-      </c>
-      <c r="T79" s="3">
-        <v>1.4402757222699529</v>
+        <v>0</v>
+      </c>
+      <c r="T79" s="94">
+        <v>33.937112046761968</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -17575,10 +17954,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>16</v>
@@ -17595,29 +17974,29 @@
       <c r="I80" s="3">
         <v>4.7521007409603602</v>
       </c>
-      <c r="K80" s="27">
-        <v>40249.698053064407</v>
-      </c>
-      <c r="L80" s="70">
-        <v>13793.117846757879</v>
+      <c r="K80" s="187">
+        <v>40474.560824644373</v>
+      </c>
+      <c r="L80" s="149">
+        <v>12078.11437111027</v>
       </c>
       <c r="M80" s="64">
-        <v>7.5452949041766706</v>
-      </c>
-      <c r="N80" s="3">
-        <v>4.772244771787399</v>
-      </c>
-      <c r="Q80" s="27">
-        <v>40253.876430556949</v>
-      </c>
-      <c r="R80" s="70">
-        <v>13788.903796720961</v>
+        <v>0</v>
+      </c>
+      <c r="N80" s="99">
+        <v>48.479834738995613</v>
+      </c>
+      <c r="Q80" s="151">
+        <v>40474.560824644373</v>
+      </c>
+      <c r="R80" s="149">
+        <v>12078.11437111027</v>
       </c>
       <c r="S80" s="64">
-        <v>7.7607877125690479</v>
-      </c>
-      <c r="T80" s="3">
-        <v>4.7521007409603602</v>
+        <v>0</v>
+      </c>
+      <c r="T80" s="99">
+        <v>48.479834738995613</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -17628,10 +18007,10 @@
         <v>6</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
@@ -17648,29 +18027,29 @@
       <c r="I81" s="3">
         <v>9.9419348890846457</v>
       </c>
-      <c r="K81" s="27">
-        <v>40256.900289470563</v>
-      </c>
-      <c r="L81" s="70">
-        <v>13795.03297795497</v>
+      <c r="K81" s="187">
+        <v>40505.609956456217</v>
+      </c>
+      <c r="L81" s="74">
+        <v>12087.622718317491</v>
       </c>
       <c r="M81" s="64">
-        <v>9.1417499646669498</v>
-      </c>
-      <c r="N81" s="3">
-        <v>9.9207570868343389</v>
-      </c>
-      <c r="Q81" s="27">
-        <v>40261.837281775908</v>
-      </c>
-      <c r="R81" s="70">
-        <v>13790.13348887314</v>
+        <v>0</v>
+      </c>
+      <c r="N81" s="5">
+        <v>71.38235323815853</v>
+      </c>
+      <c r="Q81" s="33">
+        <v>40505.609956456217</v>
+      </c>
+      <c r="R81" s="149">
+        <v>12087.622718317491</v>
       </c>
       <c r="S81" s="64">
-        <v>9.1417499646669498</v>
-      </c>
-      <c r="T81" s="3">
-        <v>9.9419348890846457</v>
+        <v>0</v>
+      </c>
+      <c r="T81" s="5">
+        <v>71.38235323815853</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -17681,10 +18060,10 @@
         <v>6</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>17</v>
@@ -17701,29 +18080,29 @@
       <c r="I82" s="3">
         <v>10.953519537262769</v>
       </c>
-      <c r="K82" s="27">
-        <v>40258.215727630923</v>
-      </c>
-      <c r="L82" s="70">
-        <v>13795.582104712401</v>
+      <c r="K82" s="187">
+        <v>40484.754770392152</v>
+      </c>
+      <c r="L82" s="149">
+        <v>12081.363397677889</v>
       </c>
       <c r="M82" s="64">
-        <v>8.6323103601455422</v>
-      </c>
-      <c r="N82" s="3">
-        <v>10.973663568089799</v>
-      </c>
-      <c r="Q82" s="27">
-        <v>40262.977740165152</v>
-      </c>
-      <c r="R82" s="70">
-        <v>13790.78441963379</v>
+        <v>0</v>
+      </c>
+      <c r="N82" s="95">
+        <v>56.070985115786257</v>
+      </c>
+      <c r="Q82" s="151">
+        <v>40484.754770392152</v>
+      </c>
+      <c r="R82" s="149">
+        <v>12081.363397677889</v>
       </c>
       <c r="S82" s="64">
-        <v>8.8478031685379204</v>
-      </c>
-      <c r="T82" s="3">
-        <v>10.953519537262769</v>
+        <v>0</v>
+      </c>
+      <c r="T82" s="95">
+        <v>56.070985115786257</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -17734,10 +18113,10 @@
         <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -17754,29 +18133,29 @@
       <c r="I83" s="3">
         <v>0.1514670820378915</v>
       </c>
-      <c r="K83" s="27">
-        <v>40244.423329086472</v>
-      </c>
-      <c r="L83" s="70">
-        <v>13790.225325177469</v>
+      <c r="K83" s="199">
+        <v>40418.883167932559</v>
+      </c>
+      <c r="L83" s="149">
+        <v>12060.849634504861</v>
       </c>
       <c r="M83" s="64">
-        <v>1.080511730466742</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0.16025958406236351</v>
-      </c>
-      <c r="Q83" s="27">
-        <v>40245.191556085629</v>
-      </c>
-      <c r="R83" s="70">
-        <v>13789.44152776336</v>
+        <v>7.2897866214610332</v>
+      </c>
+      <c r="Q83" s="28">
+        <v>40418.883167932559</v>
+      </c>
+      <c r="R83" s="149">
+        <v>12060.849634504861</v>
       </c>
       <c r="S83" s="64">
-        <v>1.1104999914638261</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>0.1514670820378915</v>
+        <v>7.2897866214610332</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -17787,10 +18166,10 @@
         <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>16</v>
@@ -17807,29 +18186,29 @@
       <c r="I84" s="3">
         <v>0.32661035447634051</v>
       </c>
-      <c r="K84" s="27">
-        <v>40247.783002562297</v>
-      </c>
-      <c r="L84" s="70">
-        <v>13787.206037960461</v>
+      <c r="K84" s="199">
+        <v>40424.237987516819</v>
+      </c>
+      <c r="L84" s="149">
+        <v>12062.553473900271</v>
       </c>
       <c r="M84" s="64">
-        <v>1.6349853782995321</v>
+        <v>0</v>
       </c>
       <c r="N84" s="3">
-        <v>0.35247327135810602</v>
-      </c>
-      <c r="Q84" s="27">
-        <v>40248.694210810507</v>
-      </c>
-      <c r="R84" s="70">
-        <v>13786.24902974014</v>
+        <v>11.27576089232673</v>
+      </c>
+      <c r="Q84" s="28">
+        <v>40424.237987516819</v>
+      </c>
+      <c r="R84" s="149">
+        <v>12062.553473900271</v>
       </c>
       <c r="S84" s="64">
-        <v>1.6802703684433871</v>
+        <v>0</v>
       </c>
       <c r="T84" s="3">
-        <v>0.32661035447634051</v>
+        <v>11.27576089232673</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -17840,10 +18219,10 @@
         <v>6</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>12</v>
@@ -17860,29 +18239,29 @@
       <c r="I85" s="3">
         <v>1.068248034496553</v>
       </c>
-      <c r="K85" s="27">
-        <v>40248.032932652153</v>
-      </c>
-      <c r="L85" s="70">
-        <v>13788.265639405059</v>
+      <c r="K85" s="199">
+        <v>40433.299752068328</v>
+      </c>
+      <c r="L85" s="149">
+        <v>12065.4295273276</v>
       </c>
       <c r="M85" s="64">
-        <v>2.3013799465691971</v>
-      </c>
-      <c r="N85" s="3">
-        <v>1.091956368391662</v>
-      </c>
-      <c r="Q85" s="27">
-        <v>40249.332431769697</v>
-      </c>
-      <c r="R85" s="70">
-        <v>13786.924155810801</v>
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>18.01696137403346</v>
+      </c>
+      <c r="Q85" s="28">
+        <v>40433.299752068328</v>
+      </c>
+      <c r="R85" s="149">
+        <v>12065.4295273276</v>
       </c>
       <c r="S85" s="64">
-        <v>2.3775207500994582</v>
-      </c>
-      <c r="T85" s="3">
-        <v>1.068248034496553</v>
+        <v>0</v>
+      </c>
+      <c r="T85" s="4">
+        <v>18.01696137403346</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -17893,10 +18272,10 @@
         <v>6</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>17</v>
@@ -17913,29 +18292,29 @@
       <c r="I86" s="3">
         <v>3.044455688846337</v>
       </c>
-      <c r="K86" s="27">
-        <v>40250.937299167737</v>
-      </c>
-      <c r="L86" s="70">
-        <v>13788.86088802924</v>
+      <c r="K86" s="199">
+        <v>40434.025255961787</v>
+      </c>
+      <c r="L86" s="149">
+        <v>12065.67310559727</v>
       </c>
       <c r="M86" s="64">
-        <v>2.6537774074713978</v>
-      </c>
-      <c r="N86" s="3">
-        <v>3.068164022741446</v>
-      </c>
-      <c r="Q86" s="27">
-        <v>40252.426005812813</v>
-      </c>
-      <c r="R86" s="70">
-        <v>13787.330196907469</v>
+        <v>0</v>
+      </c>
+      <c r="N86" s="101">
+        <v>18.56419514459801</v>
+      </c>
+      <c r="Q86" s="28">
+        <v>40434.025255961787</v>
+      </c>
+      <c r="R86" s="149">
+        <v>12065.67310559727</v>
       </c>
       <c r="S86" s="64">
-        <v>2.729918211001658</v>
-      </c>
-      <c r="T86" s="3">
-        <v>3.044455688846337</v>
+        <v>0</v>
+      </c>
+      <c r="T86" s="101">
+        <v>18.56419514459801</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -17946,10 +18325,10 @@
         <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -17966,29 +18345,29 @@
       <c r="I87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="27">
-        <v>40248.48442086939</v>
-      </c>
-      <c r="L87" s="70">
-        <v>13785.88043383257</v>
+      <c r="K87" s="199">
+        <v>40410.678821616399</v>
+      </c>
+      <c r="L87" s="149">
+        <v>12058.23314021843</v>
       </c>
       <c r="M87" s="64">
         <v>0</v>
       </c>
       <c r="N87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="27">
-        <v>40248.48442086939</v>
-      </c>
-      <c r="R87" s="70">
-        <v>13785.88043383257</v>
+        <v>1.1793352800210379</v>
+      </c>
+      <c r="Q87" s="28">
+        <v>40410.678821616399</v>
+      </c>
+      <c r="R87" s="149">
+        <v>12058.23314021843</v>
       </c>
       <c r="S87" s="64">
         <v>0</v>
       </c>
       <c r="T87" s="3">
-        <v>0</v>
+        <v>1.1793352800210379</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -17999,10 +18378,10 @@
         <v>6</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>16</v>
@@ -18019,29 +18398,29 @@
       <c r="I88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="27">
-        <v>40248.48442086939</v>
-      </c>
-      <c r="L88" s="70">
-        <v>13785.88043383257</v>
+      <c r="K88" s="199">
+        <v>40411.673750591537</v>
+      </c>
+      <c r="L88" s="149">
+        <v>12058.55164473398</v>
       </c>
       <c r="M88" s="64">
         <v>0</v>
       </c>
       <c r="N88" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="27">
-        <v>40248.48442086939</v>
-      </c>
-      <c r="R88" s="70">
-        <v>13785.88043383257</v>
+        <v>1.921021783854771</v>
+      </c>
+      <c r="Q88" s="28">
+        <v>40411.673750591537</v>
+      </c>
+      <c r="R88" s="149">
+        <v>12058.55164473398</v>
       </c>
       <c r="S88" s="64">
         <v>0</v>
       </c>
       <c r="T88" s="3">
-        <v>0</v>
+        <v>1.921021783854771</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -18052,10 +18431,10 @@
         <v>6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
@@ -18072,29 +18451,29 @@
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="27">
-        <v>40248.48442086939</v>
-      </c>
-      <c r="L89" s="70">
-        <v>13785.88043383257</v>
+      <c r="K89" s="199">
+        <v>40413.405479649802</v>
+      </c>
+      <c r="L89" s="149">
+        <v>12059.10580824002</v>
       </c>
       <c r="M89" s="64">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="27">
-        <v>40248.48442086939</v>
-      </c>
-      <c r="R89" s="70">
-        <v>13785.88043383257</v>
+        <v>3.2118489754693011</v>
+      </c>
+      <c r="Q89" s="28">
+        <v>40413.405479649802</v>
+      </c>
+      <c r="R89" s="149">
+        <v>12059.10580824002</v>
       </c>
       <c r="S89" s="64">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>3.2118489754693011</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -18105,10 +18484,10 @@
         <v>6</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>17</v>
@@ -18125,29 +18504,29 @@
       <c r="I90" s="3">
         <v>0.2102591113962535</v>
       </c>
-      <c r="K90" s="27">
-        <v>40248.702603255027</v>
-      </c>
-      <c r="L90" s="70">
-        <v>13786.05016429659</v>
+      <c r="K90" s="199">
+        <v>40416.529224820188</v>
+      </c>
+      <c r="L90" s="149">
+        <v>12060.10572977944</v>
       </c>
       <c r="M90" s="64">
-        <v>0.14087019278751159</v>
+        <v>0</v>
       </c>
       <c r="N90" s="3">
-        <v>0.21905161342072549</v>
-      </c>
-      <c r="Q90" s="27">
-        <v>40248.766445057241</v>
-      </c>
-      <c r="R90" s="70">
-        <v>13785.970752079431</v>
+        <v>5.5404540907212851</v>
+      </c>
+      <c r="Q90" s="28">
+        <v>40416.529224820188</v>
+      </c>
+      <c r="R90" s="149">
+        <v>12060.10572977944</v>
       </c>
       <c r="S90" s="64">
-        <v>0.14087019278751159</v>
+        <v>0</v>
       </c>
       <c r="T90" s="3">
-        <v>0.2102591113962535</v>
+        <v>5.5404540907212851</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -18158,10 +18537,10 @@
         <v>6</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>10</v>
@@ -18178,29 +18557,29 @@
       <c r="I91" s="35">
         <v>410.42442335648349</v>
       </c>
-      <c r="K91" s="28">
-        <v>40828.425021926778</v>
-      </c>
-      <c r="L91" s="74">
-        <v>13923.77731307362</v>
-      </c>
-      <c r="M91" s="60">
-        <v>175.06910726175309</v>
-      </c>
-      <c r="N91" s="21">
-        <v>405.3576940569352</v>
-      </c>
-      <c r="Q91" s="168">
-        <v>40897.019500310533</v>
-      </c>
-      <c r="R91" s="163">
-        <v>13864.155374861341</v>
-      </c>
-      <c r="S91" s="76">
-        <v>175.07564591022509</v>
-      </c>
-      <c r="T91" s="35">
-        <v>410.42442335648349</v>
+      <c r="K91" s="199">
+        <v>40409.096882295169</v>
+      </c>
+      <c r="L91" s="149">
+        <v>12057.726625124589</v>
+      </c>
+      <c r="M91" s="64">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="28">
+        <v>40409.096882295169</v>
+      </c>
+      <c r="R91" s="149">
+        <v>12057.726625124589</v>
+      </c>
+      <c r="S91" s="64">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -18211,10 +18590,10 @@
         <v>6</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>16</v>
@@ -18231,29 +18610,29 @@
       <c r="I92" s="12">
         <v>752.60317185701501</v>
       </c>
-      <c r="K92" s="127">
-        <v>41378.631351125572</v>
-      </c>
-      <c r="L92" s="71">
-        <v>13979.525281945271</v>
-      </c>
-      <c r="M92" s="60">
-        <v>175.11225449740641</v>
-      </c>
-      <c r="N92" s="12">
-        <v>747.53575484529426</v>
-      </c>
-      <c r="Q92" s="34">
-        <v>41447.090406616633</v>
-      </c>
-      <c r="R92" s="74">
-        <v>13920.03998447742</v>
-      </c>
-      <c r="S92" s="76">
-        <v>175.11225449740641</v>
-      </c>
-      <c r="T92" s="12">
-        <v>752.60317185701501</v>
+      <c r="K92" s="199">
+        <v>40409.096882295169</v>
+      </c>
+      <c r="L92" s="149">
+        <v>12057.726625124589</v>
+      </c>
+      <c r="M92" s="64">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="28">
+        <v>40409.096882295169</v>
+      </c>
+      <c r="R92" s="149">
+        <v>12057.726625124589</v>
+      </c>
+      <c r="S92" s="64">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -18264,15 +18643,15 @@
         <v>6</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="128">
+      <c r="F93" s="121">
         <v>41938.636515094382</v>
       </c>
       <c r="G93" s="72">
@@ -18284,29 +18663,29 @@
       <c r="I93" s="114">
         <v>1097.7618490912259</v>
       </c>
-      <c r="K93" s="128">
-        <v>41931.795069680498</v>
-      </c>
-      <c r="L93" s="72">
-        <v>14037.594158211021</v>
-      </c>
-      <c r="M93" s="60">
-        <v>175.11225449740641</v>
-      </c>
-      <c r="N93" s="114">
-        <v>1092.6944320795051</v>
-      </c>
-      <c r="Q93" s="21">
-        <v>42000.254125171552</v>
-      </c>
-      <c r="R93" s="71">
-        <v>13978.108860743179</v>
-      </c>
-      <c r="S93" s="76">
-        <v>175.11225449740641</v>
-      </c>
-      <c r="T93" s="114">
-        <v>1097.7618490912259</v>
+      <c r="K93" s="199">
+        <v>40409.096882295169</v>
+      </c>
+      <c r="L93" s="149">
+        <v>12057.726625124589</v>
+      </c>
+      <c r="M93" s="64">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="28">
+        <v>40409.096882295169</v>
+      </c>
+      <c r="R93" s="149">
+        <v>12057.726625124589</v>
+      </c>
+      <c r="S93" s="64">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
@@ -18317,10 +18696,10 @@
         <v>6</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>17</v>
@@ -18337,29 +18716,29 @@
       <c r="I94" s="37">
         <v>1487.1560705200091</v>
       </c>
-      <c r="K94" s="30">
-        <v>42607.99504564744</v>
-      </c>
-      <c r="L94" s="73">
-        <v>14050.962360796901</v>
-      </c>
-      <c r="M94" s="60">
-        <v>175.11225449740641</v>
-      </c>
-      <c r="N94" s="37">
-        <v>1482.0886535082891</v>
-      </c>
-      <c r="Q94" s="106">
-        <v>42676.454101138494</v>
-      </c>
-      <c r="R94" s="72">
-        <v>13991.477063329059</v>
-      </c>
-      <c r="S94" s="76">
-        <v>175.11225449740641</v>
-      </c>
-      <c r="T94" s="37">
-        <v>1487.1560705200091</v>
+      <c r="K94" s="199">
+        <v>40409.579396582332</v>
+      </c>
+      <c r="L94" s="149">
+        <v>12057.88115032625</v>
+      </c>
+      <c r="M94" s="64">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0.3597316458122779</v>
+      </c>
+      <c r="Q94" s="28">
+        <v>40409.579396582332</v>
+      </c>
+      <c r="R94" s="149">
+        <v>12057.88115032625</v>
+      </c>
+      <c r="S94" s="64">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0.3597316458122779</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
@@ -18370,7 +18749,7 @@
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>15</v>
@@ -18390,29 +18769,29 @@
       <c r="I95" s="3">
         <v>0</v>
       </c>
-      <c r="K95" s="27">
-        <v>40246.128384993957</v>
-      </c>
-      <c r="L95" s="70">
-        <v>13788.23646970799</v>
+      <c r="K95" s="199">
+        <v>40409.188917440093</v>
+      </c>
+      <c r="L95" s="149">
+        <v>12057.756099379971</v>
       </c>
       <c r="M95" s="64">
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
         <v>6.8615489806603619E-2</v>
       </c>
-      <c r="N95" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="27">
-        <v>40246.165225688397</v>
-      </c>
-      <c r="R95" s="70">
-        <v>13788.199629013559</v>
+      <c r="Q95" s="28">
+        <v>40409.188917440093</v>
+      </c>
+      <c r="R95" s="149">
+        <v>12057.756099379971</v>
       </c>
       <c r="S95" s="64">
+        <v>0</v>
+      </c>
+      <c r="T95" s="3">
         <v>6.8615489806603619E-2</v>
-      </c>
-      <c r="T95" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -18423,7 +18802,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>15</v>
@@ -18443,29 +18822,29 @@
       <c r="I96" s="3">
         <v>1.9557471535043419E-2</v>
       </c>
-      <c r="K96" s="27">
-        <v>40248.446811842477</v>
-      </c>
-      <c r="L96" s="70">
-        <v>13785.968247096091</v>
+      <c r="K96" s="199">
+        <v>40409.32360516979</v>
+      </c>
+      <c r="L96" s="149">
+        <v>12057.79923312575</v>
       </c>
       <c r="M96" s="64">
-        <v>0.14087019278751159</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>2.8349973559515431E-2</v>
-      </c>
-      <c r="Q96" s="27">
-        <v>40248.510653644698</v>
-      </c>
-      <c r="R96" s="70">
-        <v>13785.88883487893</v>
+        <v>0.16903000595106779</v>
+      </c>
+      <c r="Q96" s="28">
+        <v>40409.32360516979</v>
+      </c>
+      <c r="R96" s="149">
+        <v>12057.79923312575</v>
       </c>
       <c r="S96" s="64">
-        <v>0.14087019278751159</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>1.9557471535043419E-2</v>
+        <v>0.16903000595106779</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -18476,7 +18855,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>15</v>
@@ -18496,29 +18875,29 @@
       <c r="I97" s="3">
         <v>0.14661440472653089</v>
       </c>
-      <c r="K97" s="27">
-        <v>40248.617235507627</v>
-      </c>
-      <c r="L97" s="70">
-        <v>13786.02282527528</v>
+      <c r="K97" s="199">
+        <v>40409.494028834932</v>
+      </c>
+      <c r="L97" s="149">
+        <v>12057.853811304931</v>
       </c>
       <c r="M97" s="64">
-        <v>0.14087019278751159</v>
+        <v>0</v>
       </c>
       <c r="N97" s="3">
-        <v>0.15540690675100291</v>
-      </c>
-      <c r="Q97" s="27">
-        <v>40248.68107730984</v>
-      </c>
-      <c r="R97" s="70">
-        <v>13785.943413058119</v>
+        <v>0.29608693914255529</v>
+      </c>
+      <c r="Q97" s="28">
+        <v>40409.494028834932</v>
+      </c>
+      <c r="R97" s="149">
+        <v>12057.853811304931</v>
       </c>
       <c r="S97" s="64">
-        <v>0.14087019278751159</v>
+        <v>0</v>
       </c>
       <c r="T97" s="3">
-        <v>0.14661440472653089</v>
+        <v>0.29608693914255529</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
@@ -18529,7 +18908,7 @@
         <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>15</v>
@@ -18549,29 +18928,29 @@
       <c r="I98" s="3">
         <v>0.81101255985327958</v>
       </c>
-      <c r="K98" s="27">
-        <v>40249.508404260632</v>
-      </c>
-      <c r="L98" s="70">
-        <v>13786.30822207064</v>
+      <c r="K98" s="199">
+        <v>40410.38519758793</v>
+      </c>
+      <c r="L98" s="149">
+        <v>12058.1392081003</v>
       </c>
       <c r="M98" s="64">
-        <v>0.14087019278751159</v>
+        <v>0</v>
       </c>
       <c r="N98" s="3">
-        <v>0.81980506187775171</v>
-      </c>
-      <c r="Q98" s="27">
-        <v>40249.572246062839</v>
-      </c>
-      <c r="R98" s="70">
-        <v>13786.228809853479</v>
+        <v>0.96048509426930406</v>
+      </c>
+      <c r="Q98" s="28">
+        <v>40410.38519758793</v>
+      </c>
+      <c r="R98" s="149">
+        <v>12058.1392081003</v>
       </c>
       <c r="S98" s="64">
-        <v>0.14087019278751159</v>
+        <v>0</v>
       </c>
       <c r="T98" s="3">
-        <v>0.81101255985327958</v>
+        <v>0.96048509426930406</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -18582,10 +18961,10 @@
         <v>6</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
@@ -18602,29 +18981,29 @@
       <c r="I99" s="94">
         <v>34.120204238900307</v>
       </c>
-      <c r="K99" s="31">
-        <v>40200.394648769012</v>
-      </c>
-      <c r="L99" s="74">
-        <v>13894.369796001531</v>
-      </c>
-      <c r="M99" s="64">
-        <v>0</v>
-      </c>
-      <c r="N99" s="94">
-        <v>34.107216778374053</v>
-      </c>
-      <c r="Q99" s="31">
-        <v>40200.412277855001</v>
-      </c>
-      <c r="R99" s="74">
-        <v>13894.37516607424</v>
-      </c>
-      <c r="S99" s="64">
-        <v>0</v>
-      </c>
-      <c r="T99" s="94">
-        <v>34.120204238900307</v>
+      <c r="K99" s="107">
+        <v>42057.786178376758</v>
+      </c>
+      <c r="L99" s="217">
+        <v>11031.37836986613</v>
+      </c>
+      <c r="M99" s="180">
+        <v>741.47822666772481</v>
+      </c>
+      <c r="N99" s="10">
+        <v>126.9246421873744</v>
+      </c>
+      <c r="Q99" s="107">
+        <v>41660.212711159293</v>
+      </c>
+      <c r="R99" s="168">
+        <v>11080.630769399149</v>
+      </c>
+      <c r="S99" s="180">
+        <v>741.47822666772481</v>
+      </c>
+      <c r="T99" s="10">
+        <v>126.9246421873744</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -18635,10 +19014,10 @@
         <v>6</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>16</v>
@@ -18655,29 +19034,29 @@
       <c r="I100" s="99">
         <v>48.66292693113396</v>
       </c>
-      <c r="K100" s="31">
-        <v>40220.047657237512</v>
-      </c>
-      <c r="L100" s="74">
-        <v>13900.470119879061</v>
-      </c>
-      <c r="M100" s="64">
-        <v>0</v>
-      </c>
-      <c r="N100" s="99">
-        <v>48.649939470607691</v>
-      </c>
-      <c r="Q100" s="31">
-        <v>40220.065286323508</v>
-      </c>
-      <c r="R100" s="74">
-        <v>13900.47548995177</v>
-      </c>
-      <c r="S100" s="64">
-        <v>0</v>
-      </c>
-      <c r="T100" s="99">
-        <v>48.66292693113396</v>
+      <c r="K100" s="106">
+        <v>42498.339927225323</v>
+      </c>
+      <c r="L100" s="217">
+        <v>11035.33208228335</v>
+      </c>
+      <c r="M100" s="181">
+        <v>1068.922450257201</v>
+      </c>
+      <c r="N100" s="147">
+        <v>278.7903310606651</v>
+      </c>
+      <c r="Q100" s="162">
+        <v>41925.19402832925</v>
+      </c>
+      <c r="R100" s="169">
+        <v>11020.76046757051</v>
+      </c>
+      <c r="S100" s="181">
+        <v>1068.922450257201</v>
+      </c>
+      <c r="T100" s="147">
+        <v>278.7903310606651</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
@@ -18688,10 +19067,10 @@
         <v>6</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
@@ -18708,29 +19087,29 @@
       <c r="I101" s="5">
         <v>72.598524416633452</v>
       </c>
-      <c r="K101" s="27">
-        <v>40252.405420461509</v>
-      </c>
-      <c r="L101" s="74">
-        <v>13910.36137128741</v>
-      </c>
-      <c r="M101" s="64">
-        <v>0</v>
-      </c>
-      <c r="N101" s="5">
-        <v>72.507656039580453</v>
-      </c>
-      <c r="Q101" s="27">
-        <v>40252.529747223089</v>
-      </c>
-      <c r="R101" s="74">
-        <v>13910.397960989931</v>
-      </c>
-      <c r="S101" s="64">
-        <v>0</v>
-      </c>
-      <c r="T101" s="5">
-        <v>72.598524416633452</v>
+      <c r="K101" s="200">
+        <v>42884.505005019841</v>
+      </c>
+      <c r="L101" s="219">
+        <v>11105.89504429228</v>
+      </c>
+      <c r="M101" s="182">
+        <v>1339.762375182537</v>
+      </c>
+      <c r="N101" s="162">
+        <v>454.69570449114372</v>
+      </c>
+      <c r="Q101" s="36">
+        <v>42166.137352954553</v>
+      </c>
+      <c r="R101" s="169">
+        <v>11024.71921720197</v>
+      </c>
+      <c r="S101" s="182">
+        <v>1339.762375182537</v>
+      </c>
+      <c r="T101" s="162">
+        <v>454.69570449114372</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
@@ -18741,10 +19120,10 @@
         <v>6</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>17</v>
@@ -18761,29 +19140,29 @@
       <c r="I102" s="95">
         <v>56.254077307924597</v>
       </c>
-      <c r="K102" s="31">
-        <v>40230.24160298529</v>
-      </c>
-      <c r="L102" s="74">
-        <v>13903.71914644668</v>
-      </c>
-      <c r="M102" s="64">
-        <v>0</v>
-      </c>
-      <c r="N102" s="95">
-        <v>56.241089847398342</v>
-      </c>
-      <c r="Q102" s="31">
-        <v>40230.259232071287</v>
-      </c>
-      <c r="R102" s="74">
-        <v>13903.7245165194</v>
-      </c>
-      <c r="S102" s="64">
-        <v>0</v>
-      </c>
-      <c r="T102" s="95">
-        <v>56.254077307924597</v>
+      <c r="K102" s="24">
+        <v>43402.347207181941</v>
+      </c>
+      <c r="L102" s="219">
+        <v>11084.89361857412</v>
+      </c>
+      <c r="M102" s="183">
+        <v>1863.626870505522</v>
+      </c>
+      <c r="N102" s="117">
+        <v>576.64095152584036</v>
+      </c>
+      <c r="Q102" s="103">
+        <v>42403.088469893977</v>
+      </c>
+      <c r="R102" s="170">
+        <v>10917.221724535981</v>
+      </c>
+      <c r="S102" s="183">
+        <v>1863.626870505522</v>
+      </c>
+      <c r="T102" s="117">
+        <v>576.64095152584036</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
@@ -18794,10 +19173,10 @@
         <v>6</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>10</v>
@@ -18814,29 +19193,29 @@
       <c r="I103" s="3">
         <v>7.367888530584862</v>
       </c>
-      <c r="K103" s="32">
-        <v>40164.228430170981</v>
-      </c>
-      <c r="L103" s="74">
-        <v>13883.16344750166</v>
+      <c r="K103" s="35">
+        <v>41899.158109548531</v>
+      </c>
+      <c r="L103" s="214">
+        <v>10607.77995253856</v>
       </c>
       <c r="M103" s="64">
-        <v>0</v>
-      </c>
-      <c r="N103" s="3">
-        <v>7.3562667550104841</v>
-      </c>
-      <c r="Q103" s="32">
-        <v>40164.244045015927</v>
-      </c>
-      <c r="R103" s="74">
-        <v>13883.168413359181</v>
+        <v>19.05919834792099</v>
+      </c>
+      <c r="N103" s="4">
+        <v>16.881603775677949</v>
+      </c>
+      <c r="Q103" s="162">
+        <v>41888.938751383932</v>
+      </c>
+      <c r="R103" s="167">
+        <v>10739.499461663139</v>
       </c>
       <c r="S103" s="64">
-        <v>0</v>
-      </c>
-      <c r="T103" s="3">
-        <v>7.367888530584862</v>
+        <v>19.05919834792099</v>
+      </c>
+      <c r="T103" s="4">
+        <v>16.881603775677949</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
@@ -18847,10 +19226,10 @@
         <v>6</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>16</v>
@@ -18867,29 +19246,29 @@
       <c r="I104" s="3">
         <v>11.5817879968399</v>
       </c>
-      <c r="K104" s="32">
-        <v>40169.843920556938</v>
-      </c>
-      <c r="L104" s="74">
-        <v>13884.94942581959</v>
+      <c r="K104" s="112">
+        <v>41918.980017414913</v>
+      </c>
+      <c r="L104" s="214">
+        <v>10613.71355471369</v>
       </c>
       <c r="M104" s="64">
-        <v>0</v>
-      </c>
-      <c r="N104" s="3">
-        <v>11.535823226761829</v>
-      </c>
-      <c r="Q104" s="32">
-        <v>40169.90578043821</v>
-      </c>
-      <c r="R104" s="74">
-        <v>13884.968963763549</v>
+        <v>19.066096797805681</v>
+      </c>
+      <c r="N104" s="94">
+        <v>31.42346746461299</v>
+      </c>
+      <c r="Q104" s="162">
+        <v>41908.756960368068</v>
+      </c>
+      <c r="R104" s="167">
+        <v>10745.465581387651</v>
       </c>
       <c r="S104" s="64">
-        <v>0</v>
-      </c>
-      <c r="T104" s="3">
-        <v>11.5817879968399</v>
+        <v>19.066096797805681</v>
+      </c>
+      <c r="T104" s="94">
+        <v>31.42346746461299</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -18900,10 +19279,10 @@
         <v>6</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>12</v>
@@ -18920,29 +19299,29 @@
       <c r="I105" s="4">
         <v>18.32298847854663</v>
       </c>
-      <c r="K105" s="31">
-        <v>40178.905685108453</v>
-      </c>
-      <c r="L105" s="74">
-        <v>13887.82547924692</v>
+      <c r="K105" s="112">
+        <v>41943.580112751079</v>
+      </c>
+      <c r="L105" s="214">
+        <v>10623.746651230051</v>
       </c>
       <c r="M105" s="64">
-        <v>0</v>
-      </c>
-      <c r="N105" s="4">
-        <v>18.277023708468569</v>
-      </c>
-      <c r="Q105" s="31">
-        <v>40178.967544989719</v>
-      </c>
-      <c r="R105" s="74">
-        <v>13887.845017190881</v>
+        <v>26.08118311098249</v>
+      </c>
+      <c r="N105" s="99">
+        <v>48.856535478661627</v>
+      </c>
+      <c r="Q105" s="162">
+        <v>41929.595634143843</v>
+      </c>
+      <c r="R105" s="167">
+        <v>10755.923616224551</v>
       </c>
       <c r="S105" s="64">
-        <v>0</v>
-      </c>
-      <c r="T105" s="4">
-        <v>18.32298847854663</v>
+        <v>26.08118311098249</v>
+      </c>
+      <c r="T105" s="99">
+        <v>48.856535478661627</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
@@ -18953,10 +19332,10 @@
         <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>17</v>
@@ -18973,29 +19352,29 @@
       <c r="I106" s="101">
         <v>18.870222249111169</v>
       </c>
-      <c r="K106" s="31">
-        <v>40179.631189001913</v>
-      </c>
-      <c r="L106" s="74">
-        <v>13888.06905751659</v>
+      <c r="K106" s="112">
+        <v>41929.173963162677</v>
+      </c>
+      <c r="L106" s="214">
+        <v>10616.96258128131</v>
       </c>
       <c r="M106" s="64">
-        <v>0</v>
-      </c>
-      <c r="N106" s="101">
-        <v>18.824257479033111</v>
-      </c>
-      <c r="Q106" s="31">
-        <v>40179.693048883171</v>
-      </c>
-      <c r="R106" s="74">
-        <v>13888.08859546056</v>
+        <v>19.066096797805681</v>
+      </c>
+      <c r="N106" s="119">
+        <v>39.014617841403648</v>
+      </c>
+      <c r="Q106" s="162">
+        <v>41918.950906115853</v>
+      </c>
+      <c r="R106" s="167">
+        <v>10748.714607955269</v>
       </c>
       <c r="S106" s="64">
-        <v>0</v>
-      </c>
-      <c r="T106" s="101">
-        <v>18.870222249111169</v>
+        <v>19.066096797805681</v>
+      </c>
+      <c r="T106" s="119">
+        <v>39.014617841403648</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
@@ -19006,10 +19385,10 @@
         <v>6</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>10</v>
@@ -19026,29 +19405,29 @@
       <c r="I107" s="3">
         <v>1.2063453045580641</v>
       </c>
-      <c r="K107" s="32">
-        <v>40155.961748383394</v>
-      </c>
-      <c r="L107" s="74">
-        <v>13880.527183823669</v>
+      <c r="K107" s="35">
+        <v>41869.514943481227</v>
+      </c>
+      <c r="L107" s="214">
+        <v>10603.085144091359</v>
       </c>
       <c r="M107" s="64">
-        <v>0</v>
+        <v>6.443652796510138</v>
       </c>
       <c r="N107" s="3">
-        <v>1.199451384328037</v>
-      </c>
-      <c r="Q107" s="32">
-        <v>40155.97099663804</v>
-      </c>
-      <c r="R107" s="74">
-        <v>13880.53014383446</v>
+        <v>1.3109659250548931</v>
+      </c>
+      <c r="Q107" s="224">
+        <v>41866.059919056082</v>
+      </c>
+      <c r="R107" s="167">
+        <v>10732.97047470996</v>
       </c>
       <c r="S107" s="64">
-        <v>0</v>
+        <v>6.443652796510138</v>
       </c>
       <c r="T107" s="3">
-        <v>1.2063453045580641</v>
+        <v>1.3109659250548931</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
@@ -19059,10 +19438,10 @@
         <v>6</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>16</v>
@@ -19079,29 +19458,29 @@
       <c r="I108" s="3">
         <v>1.9480318083917969</v>
       </c>
-      <c r="K108" s="32">
-        <v>40156.956677358532</v>
-      </c>
-      <c r="L108" s="74">
-        <v>13880.845688339219</v>
+      <c r="K108" s="35">
+        <v>41851.327471245997</v>
+      </c>
+      <c r="L108" s="214">
+        <v>10627.683998945769</v>
       </c>
       <c r="M108" s="64">
-        <v>0</v>
+        <v>7.6374339764668093</v>
       </c>
       <c r="N108" s="3">
-        <v>1.94113788816177</v>
-      </c>
-      <c r="Q108" s="32">
-        <v>40156.965925613178</v>
-      </c>
-      <c r="R108" s="74">
-        <v>13880.848648350009</v>
+        <v>4.5699713868016616</v>
+      </c>
+      <c r="Q108" s="224">
+        <v>41847.232352876432</v>
+      </c>
+      <c r="R108" s="167">
+        <v>10753.448368988051</v>
       </c>
       <c r="S108" s="64">
-        <v>0</v>
+        <v>7.6374339764668093</v>
       </c>
       <c r="T108" s="3">
-        <v>1.9480318083917969</v>
+        <v>4.5699713868016616</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
@@ -19112,10 +19491,10 @@
         <v>6</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
@@ -19132,29 +19511,29 @@
       <c r="I109" s="3">
         <v>3.302087192315033</v>
       </c>
-      <c r="K109" s="32">
-        <v>40158.754046400391</v>
-      </c>
-      <c r="L109" s="74">
-        <v>13881.4208358983</v>
+      <c r="K109" s="35">
+        <v>41882.507212725883</v>
+      </c>
+      <c r="L109" s="214">
+        <v>10605.91028363779</v>
       </c>
       <c r="M109" s="64">
-        <v>0</v>
+        <v>9.4273131076562038</v>
       </c>
       <c r="N109" s="3">
-        <v>3.2808810540760032</v>
-      </c>
-      <c r="Q109" s="32">
-        <v>40158.782500114379</v>
-      </c>
-      <c r="R109" s="74">
-        <v>13881.429935587301</v>
+        <v>9.3395424170814856</v>
+      </c>
+      <c r="Q109" s="224">
+        <v>41877.452378444897</v>
+      </c>
+      <c r="R109" s="167">
+        <v>10736.262514767081</v>
       </c>
       <c r="S109" s="64">
-        <v>0</v>
+        <v>9.4273131076562038</v>
       </c>
       <c r="T109" s="3">
-        <v>3.302087192315033</v>
+        <v>9.3395424170814856</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
@@ -19165,10 +19544,10 @@
         <v>6</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>17</v>
@@ -19185,29 +19564,29 @@
       <c r="I110" s="3">
         <v>5.6306923075670179</v>
       </c>
-      <c r="K110" s="32">
-        <v>40161.877791570769</v>
-      </c>
-      <c r="L110" s="74">
-        <v>13882.420757437711</v>
+      <c r="K110" s="35">
+        <v>41874.695889834482</v>
+      </c>
+      <c r="L110" s="214">
+        <v>10615.88036007222</v>
       </c>
       <c r="M110" s="64">
-        <v>0</v>
+        <v>8.7244494324356801</v>
       </c>
       <c r="N110" s="3">
-        <v>5.6094861693279876</v>
-      </c>
-      <c r="Q110" s="32">
-        <v>40161.906245284757</v>
-      </c>
-      <c r="R110" s="74">
-        <v>13882.429857126721</v>
+        <v>10.771390183104071</v>
+      </c>
+      <c r="Q110" s="224">
+        <v>41870.017924271007</v>
+      </c>
+      <c r="R110" s="167">
+        <v>10744.430994183689</v>
       </c>
       <c r="S110" s="64">
-        <v>0</v>
+        <v>8.7244494324356801</v>
       </c>
       <c r="T110" s="3">
-        <v>5.6306923075670179</v>
+        <v>10.771390183104071</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
@@ -19218,10 +19597,10 @@
         <v>6</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>10</v>
@@ -19238,29 +19617,29 @@
       <c r="I111" s="3">
         <v>0</v>
       </c>
-      <c r="K111" s="32">
-        <v>40154.352822692912</v>
-      </c>
-      <c r="L111" s="74">
-        <v>13880.01203200905</v>
+      <c r="K111" s="35">
+        <v>41850.127021606291</v>
+      </c>
+      <c r="L111" s="214">
+        <v>10617.545737017939</v>
       </c>
       <c r="M111" s="64">
-        <v>0</v>
+        <v>1.0836115594535149</v>
       </c>
       <c r="N111" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="32">
-        <v>40154.352822692912</v>
-      </c>
-      <c r="R111" s="74">
-        <v>13880.01203200905</v>
+        <v>0.1514670820378915</v>
+      </c>
+      <c r="Q111" s="224">
+        <v>41849.545999548849</v>
+      </c>
+      <c r="R111" s="167">
+        <v>10743.95310474637</v>
       </c>
       <c r="S111" s="64">
-        <v>0</v>
+        <v>1.0836115594535149</v>
       </c>
       <c r="T111" s="3">
-        <v>0</v>
+        <v>0.1514670820378915</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -19271,10 +19650,10 @@
         <v>6</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>16</v>
@@ -19291,29 +19670,29 @@
       <c r="I112" s="3">
         <v>0</v>
       </c>
-      <c r="K112" s="32">
-        <v>40154.352822692912</v>
-      </c>
-      <c r="L112" s="74">
-        <v>13880.01203200905</v>
+      <c r="K112" s="35">
+        <v>41861.97800485426</v>
+      </c>
+      <c r="L112" s="214">
+        <v>10606.30233247855</v>
       </c>
       <c r="M112" s="64">
-        <v>0</v>
+        <v>1.659754453429354</v>
       </c>
       <c r="N112" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="32">
-        <v>40154.352822692912</v>
-      </c>
-      <c r="R112" s="74">
-        <v>13880.01203200905</v>
+        <v>0.32011624495334828</v>
+      </c>
+      <c r="Q112" s="224">
+        <v>41861.08806053891</v>
+      </c>
+      <c r="R112" s="167">
+        <v>10734.932159860011</v>
       </c>
       <c r="S112" s="64">
-        <v>0</v>
+        <v>1.659754453429354</v>
       </c>
       <c r="T112" s="3">
-        <v>0</v>
+        <v>0.32011624495334828</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
@@ -19324,10 +19703,10 @@
         <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
@@ -19344,29 +19723,29 @@
       <c r="I113" s="3">
         <v>0</v>
       </c>
-      <c r="K113" s="32">
-        <v>40154.352822692912</v>
-      </c>
-      <c r="L113" s="74">
-        <v>13880.01203200905</v>
+      <c r="K113" s="35">
+        <v>41857.480339778107</v>
+      </c>
+      <c r="L113" s="214">
+        <v>10612.42618473804</v>
       </c>
       <c r="M113" s="64">
-        <v>0</v>
+        <v>2.3157025462308249</v>
       </c>
       <c r="N113" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="32">
-        <v>40154.352822692912</v>
-      </c>
-      <c r="R113" s="74">
-        <v>13880.01203200905</v>
+        <v>1.0398026865745309</v>
+      </c>
+      <c r="Q113" s="224">
+        <v>41856.23868242764</v>
+      </c>
+      <c r="R113" s="167">
+        <v>10740.030887878651</v>
       </c>
       <c r="S113" s="64">
-        <v>0</v>
+        <v>2.3157025462308249</v>
       </c>
       <c r="T113" s="3">
-        <v>0</v>
+        <v>1.0398026865745309</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
@@ -19377,10 +19756,10 @@
         <v>6</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>17</v>
@@ -19397,29 +19776,29 @@
       <c r="I114" s="3">
         <v>0.3597316458122779</v>
       </c>
-      <c r="K114" s="32">
-        <v>40154.835336980083</v>
-      </c>
-      <c r="L114" s="74">
-        <v>13880.16655721071</v>
+      <c r="K114" s="35">
+        <v>41866.318768362376</v>
+      </c>
+      <c r="L114" s="214">
+        <v>10607.27632341018</v>
       </c>
       <c r="M114" s="64">
-        <v>0</v>
+        <v>2.6681000071330252</v>
       </c>
       <c r="N114" s="3">
-        <v>0.3597316458122779</v>
-      </c>
-      <c r="Q114" s="32">
-        <v>40154.835336980083</v>
-      </c>
-      <c r="R114" s="74">
-        <v>13880.16655721071</v>
+        <v>3.016010340924316</v>
+      </c>
+      <c r="Q114" s="224">
+        <v>41864.888158895272</v>
+      </c>
+      <c r="R114" s="167">
+        <v>10736.061156430091</v>
       </c>
       <c r="S114" s="64">
-        <v>0</v>
+        <v>2.6681000071330252</v>
       </c>
       <c r="T114" s="3">
-        <v>0.3597316458122779</v>
+        <v>3.016010340924316</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
@@ -19430,10 +19809,10 @@
         <v>6</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>10</v>
@@ -19450,29 +19829,29 @@
       <c r="I115" s="103">
         <v>502.73660566274651</v>
       </c>
-      <c r="K115" s="33">
-        <v>40951.87083056922</v>
-      </c>
-      <c r="L115" s="71">
-        <v>13971.022652557071</v>
+      <c r="K115" s="35">
+        <v>41863.541040642856</v>
+      </c>
+      <c r="L115" s="214">
+        <v>10603.282466776889</v>
       </c>
       <c r="M115" s="64">
         <v>0</v>
       </c>
-      <c r="N115" s="103">
-        <v>501.74576531155572</v>
-      </c>
-      <c r="Q115" s="33">
-        <v>40953.535948384357</v>
-      </c>
-      <c r="R115" s="71">
-        <v>13971.11218835159</v>
+      <c r="N115" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="224">
+        <v>41863.541040642856</v>
+      </c>
+      <c r="R115" s="167">
+        <v>10732.2656132467</v>
       </c>
       <c r="S115" s="64">
         <v>0</v>
       </c>
-      <c r="T115" s="103">
-        <v>502.73660566274651</v>
+      <c r="T115" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
@@ -19483,10 +19862,10 @@
         <v>6</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>16</v>
@@ -19503,29 +19882,29 @@
       <c r="I116" s="26">
         <v>844.93009241324307</v>
       </c>
-      <c r="K116" s="34">
-        <v>41501.05692391772</v>
-      </c>
-      <c r="L116" s="72">
-        <v>14027.8181747173</v>
+      <c r="K116" s="35">
+        <v>41863.541040642856</v>
+      </c>
+      <c r="L116" s="214">
+        <v>10603.282466776889</v>
       </c>
       <c r="M116" s="64">
         <v>0</v>
       </c>
-      <c r="N116" s="26">
-        <v>843.93925206205222</v>
-      </c>
-      <c r="Q116" s="34">
-        <v>41502.72204173285</v>
-      </c>
-      <c r="R116" s="72">
-        <v>14027.907710511819</v>
+      <c r="N116" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="224">
+        <v>41863.541040642856</v>
+      </c>
+      <c r="R116" s="167">
+        <v>10732.2656132467</v>
       </c>
       <c r="S116" s="64">
         <v>0</v>
       </c>
-      <c r="T116" s="26">
-        <v>844.93009241324307</v>
+      <c r="T116" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
@@ -19536,10 +19915,10 @@
         <v>6</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
@@ -19557,28 +19936,28 @@
         <v>1190.088769647454</v>
       </c>
       <c r="K117" s="35">
-        <v>42054.220642472646</v>
-      </c>
-      <c r="L117" s="73">
-        <v>14085.887050983059</v>
+        <v>41863.541040642856</v>
+      </c>
+      <c r="L117" s="214">
+        <v>10603.282466776889</v>
       </c>
       <c r="M117" s="64">
         <v>0</v>
       </c>
-      <c r="N117" s="104">
-        <v>1189.0979292962629</v>
-      </c>
-      <c r="Q117" s="35">
-        <v>42055.885760287783</v>
-      </c>
-      <c r="R117" s="73">
-        <v>14085.97658677757</v>
+      <c r="N117" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="224">
+        <v>41863.541040642856</v>
+      </c>
+      <c r="R117" s="167">
+        <v>10732.2656132467</v>
       </c>
       <c r="S117" s="64">
         <v>0</v>
       </c>
-      <c r="T117" s="104">
-        <v>1190.088769647454</v>
+      <c r="T117" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
@@ -19589,10 +19968,10 @@
         <v>6</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>17</v>
@@ -19609,29 +19988,29 @@
       <c r="I118" s="46">
         <v>1579.4829910762371</v>
       </c>
-      <c r="K118" s="36">
-        <v>42730.420618439581</v>
-      </c>
-      <c r="L118" s="73">
-        <v>14099.25525356893</v>
+      <c r="K118" s="35">
+        <v>41863.919055988459</v>
+      </c>
+      <c r="L118" s="214">
+        <v>10603.352327103479</v>
       </c>
       <c r="M118" s="64">
-        <v>0</v>
-      </c>
-      <c r="N118" s="46">
-        <v>1578.4921507250469</v>
-      </c>
-      <c r="Q118" s="36">
-        <v>42732.085736254718</v>
-      </c>
-      <c r="R118" s="73">
-        <v>14099.344789363449</v>
+        <v>0.14087019278751159</v>
+      </c>
+      <c r="N118" s="3">
+        <v>0.2102591113962535</v>
+      </c>
+      <c r="Q118" s="224">
+        <v>41863.843522750984</v>
+      </c>
+      <c r="R118" s="167">
+        <v>10732.355931493559</v>
       </c>
       <c r="S118" s="64">
-        <v>0</v>
-      </c>
-      <c r="T118" s="46">
-        <v>1579.4829910762371</v>
+        <v>0.14087019278751159</v>
+      </c>
+      <c r="T118" s="3">
+        <v>0.2102591113962535</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
@@ -19642,7 +20021,7 @@
         <v>6</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>15</v>
@@ -19662,29 +20041,29 @@
       <c r="I119" s="3">
         <v>6.8615489806603619E-2</v>
       </c>
-      <c r="K119" s="32">
-        <v>40154.444857837829</v>
-      </c>
-      <c r="L119" s="74">
-        <v>13880.041506264441</v>
+      <c r="K119" s="35">
+        <v>41861.268601132288</v>
+      </c>
+      <c r="L119" s="214">
+        <v>10605.591697250709</v>
       </c>
       <c r="M119" s="64">
-        <v>0</v>
+        <v>6.8615489806603619E-2</v>
       </c>
       <c r="N119" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="224">
+        <v>41861.23181016904</v>
+      </c>
+      <c r="R119" s="167">
+        <v>10734.1426805187</v>
+      </c>
+      <c r="S119" s="64">
         <v>6.8615489806603619E-2</v>
       </c>
-      <c r="Q119" s="32">
-        <v>40154.444857837829</v>
-      </c>
-      <c r="R119" s="74">
-        <v>13880.041506264441</v>
-      </c>
-      <c r="S119" s="64">
-        <v>0</v>
-      </c>
       <c r="T119" s="3">
-        <v>6.8615489806603619E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
@@ -19695,7 +20074,7 @@
         <v>6</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>15</v>
@@ -19715,29 +20094,29 @@
       <c r="I120" s="3">
         <v>0.16903000595106779</v>
       </c>
-      <c r="K120" s="32">
-        <v>40154.579545567532</v>
-      </c>
-      <c r="L120" s="74">
-        <v>13880.084640010209</v>
+      <c r="K120" s="35">
+        <v>41863.663264575916</v>
+      </c>
+      <c r="L120" s="214">
+        <v>10603.27040990298</v>
       </c>
       <c r="M120" s="64">
-        <v>0</v>
+        <v>0.14087019278751159</v>
       </c>
       <c r="N120" s="3">
-        <v>0.16903000595106779</v>
-      </c>
-      <c r="Q120" s="32">
-        <v>40154.579545567532</v>
-      </c>
-      <c r="R120" s="74">
-        <v>13880.084640010209</v>
+        <v>1.9557471535043419E-2</v>
+      </c>
+      <c r="Q120" s="224">
+        <v>41863.587731338448</v>
+      </c>
+      <c r="R120" s="167">
+        <v>10732.274014293051</v>
       </c>
       <c r="S120" s="64">
-        <v>0</v>
+        <v>0.14087019278751159</v>
       </c>
       <c r="T120" s="3">
-        <v>0.16903000595106779</v>
+        <v>1.9557471535043419E-2</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
@@ -19748,7 +20127,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>15</v>
@@ -19768,29 +20147,29 @@
       <c r="I121" s="3">
         <v>0.29608693914255529</v>
       </c>
-      <c r="K121" s="32">
-        <v>40154.749969232682</v>
-      </c>
-      <c r="L121" s="74">
-        <v>13880.13921818939</v>
+      <c r="K121" s="35">
+        <v>41863.833688241059</v>
+      </c>
+      <c r="L121" s="214">
+        <v>10603.32498808217</v>
       </c>
       <c r="M121" s="64">
-        <v>0</v>
+        <v>0.14087019278751159</v>
       </c>
       <c r="N121" s="3">
-        <v>0.29608693914255529</v>
-      </c>
-      <c r="Q121" s="32">
-        <v>40154.749969232682</v>
-      </c>
-      <c r="R121" s="74">
-        <v>13880.13921818939</v>
+        <v>0.14661440472653089</v>
+      </c>
+      <c r="Q121" s="224">
+        <v>41863.75815500359</v>
+      </c>
+      <c r="R121" s="167">
+        <v>10732.32859247224</v>
       </c>
       <c r="S121" s="64">
-        <v>0</v>
+        <v>0.14087019278751159</v>
       </c>
       <c r="T121" s="3">
-        <v>0.29608693914255529</v>
+        <v>0.14661440472653089</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
@@ -19801,7 +20180,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>15</v>
@@ -19821,29 +20200,29 @@
       <c r="I122" s="3">
         <v>0.96048509426930406</v>
       </c>
-      <c r="K122" s="32">
-        <v>40155.64113798568</v>
-      </c>
-      <c r="L122" s="74">
-        <v>13880.42461498476</v>
+      <c r="K122" s="35">
+        <v>41864.724856994057</v>
+      </c>
+      <c r="L122" s="214">
+        <v>10603.610384877529</v>
       </c>
       <c r="M122" s="64">
-        <v>0</v>
+        <v>0.14087019278751159</v>
       </c>
       <c r="N122" s="3">
-        <v>0.96048509426930406</v>
-      </c>
-      <c r="Q122" s="32">
-        <v>40155.64113798568</v>
-      </c>
-      <c r="R122" s="74">
-        <v>13880.42461498476</v>
+        <v>0.81101255985327958</v>
+      </c>
+      <c r="Q122" s="224">
+        <v>41864.649323756588</v>
+      </c>
+      <c r="R122" s="167">
+        <v>10732.613989267609</v>
       </c>
       <c r="S122" s="64">
-        <v>0</v>
+        <v>0.14087019278751159</v>
       </c>
       <c r="T122" s="3">
-        <v>0.96048509426930406</v>
+        <v>0.81101255985327958</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
@@ -19857,15 +20236,15 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="145">
+      <c r="F123" s="131">
         <v>52806.300387778261</v>
       </c>
-      <c r="G123" s="152">
+      <c r="G123" s="138">
         <v>1228.064466923681</v>
       </c>
       <c r="H123" s="86">
@@ -19874,26 +20253,26 @@
       <c r="I123" s="3">
         <v>0</v>
       </c>
-      <c r="K123" s="129">
-        <v>52730.673908346987</v>
-      </c>
-      <c r="L123" s="130">
-        <v>1303.6909463549621</v>
-      </c>
-      <c r="M123" s="85">
-        <v>37.038997107081258</v>
+      <c r="K123" s="201">
+        <v>47077.257211980002</v>
+      </c>
+      <c r="L123" s="144">
+        <v>6594.3039115098318</v>
+      </c>
+      <c r="M123" s="184">
+        <v>1167.861062008968</v>
       </c>
       <c r="N123" s="3">
         <v>0</v>
       </c>
-      <c r="Q123" s="38">
-        <v>52850.880710092657</v>
-      </c>
-      <c r="R123" s="75">
-        <v>1183.484144609288</v>
-      </c>
-      <c r="S123" s="86">
-        <v>39.381801504440617</v>
+      <c r="Q123" s="163">
+        <v>45872.519595909936</v>
+      </c>
+      <c r="R123" s="173">
+        <v>7274.0387036641559</v>
+      </c>
+      <c r="S123" s="184">
+        <v>1167.861062008968</v>
       </c>
       <c r="T123" s="3">
         <v>0</v>
@@ -19910,15 +20289,15 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="146">
+      <c r="F124" s="132">
         <v>52653.816846379013</v>
       </c>
-      <c r="G124" s="153">
+      <c r="G124" s="139">
         <v>1380.5480083229429</v>
       </c>
       <c r="H124" s="80">
@@ -19927,29 +20306,29 @@
       <c r="I124" s="3">
         <v>0</v>
       </c>
-      <c r="K124" s="41">
-        <v>53230.825026340208</v>
-      </c>
-      <c r="L124" s="60">
-        <v>803.53982836174248</v>
-      </c>
-      <c r="M124" s="80">
-        <v>52.553419562602777</v>
-      </c>
-      <c r="N124" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="129">
-        <v>52717.814186071359</v>
-      </c>
-      <c r="R124" s="130">
-        <v>1316.550668630588</v>
-      </c>
-      <c r="S124" s="80">
-        <v>56.513372608181541</v>
-      </c>
-      <c r="T124" s="3">
-        <v>0</v>
+      <c r="K124" s="202">
+        <v>50125.428632491123</v>
+      </c>
+      <c r="L124" s="92">
+        <v>4328.5976327360768</v>
+      </c>
+      <c r="M124" s="144">
+        <v>1884.4193980663731</v>
+      </c>
+      <c r="N124" s="102">
+        <v>26.05883106916713</v>
+      </c>
+      <c r="Q124" s="97">
+        <v>48184.372786185457</v>
+      </c>
+      <c r="R124" s="174">
+        <v>5220.1496326633905</v>
+      </c>
+      <c r="S124" s="144">
+        <v>1884.4193980663731</v>
+      </c>
+      <c r="T124" s="102">
+        <v>26.05883106916713</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
@@ -19963,7 +20342,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
@@ -19980,29 +20359,29 @@
       <c r="I125" s="3">
         <v>8.5316005430559336</v>
       </c>
-      <c r="K125" s="40">
-        <v>53192.817493941773</v>
-      </c>
-      <c r="L125" s="77">
-        <v>851.9055151726908</v>
-      </c>
-      <c r="M125" s="79">
-        <v>74.90446878072791</v>
-      </c>
-      <c r="N125" s="3">
-        <v>5.8491757571577088</v>
-      </c>
-      <c r="Q125" s="39">
-        <v>53378.669843893593</v>
-      </c>
-      <c r="R125" s="76">
-        <v>670.80340205522816</v>
-      </c>
-      <c r="S125" s="65">
-        <v>78.22282939554286</v>
-      </c>
-      <c r="T125" s="3">
-        <v>8.5316005430559336</v>
+      <c r="K125" s="203">
+        <v>51664.114141999249</v>
+      </c>
+      <c r="L125" s="68">
+        <v>3489.6749253107018</v>
+      </c>
+      <c r="M125" s="93">
+        <v>2397.6558106199031</v>
+      </c>
+      <c r="N125" s="10">
+        <v>124.4032471157535</v>
+      </c>
+      <c r="Q125" s="225">
+        <v>49197.451082246072</v>
+      </c>
+      <c r="R125" s="66">
+        <v>4383.1099188263697</v>
+      </c>
+      <c r="S125" s="93">
+        <v>2397.6558106199031</v>
+      </c>
+      <c r="T125" s="10">
+        <v>124.4032471157535</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
@@ -20016,7 +20395,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>17</v>
@@ -20033,29 +20412,29 @@
       <c r="I126" s="3">
         <v>0.6297568199471405</v>
       </c>
-      <c r="K126" s="43">
-        <v>53596.645501803883</v>
-      </c>
-      <c r="L126" s="62">
-        <v>438.75599164041051</v>
-      </c>
-      <c r="M126" s="65">
-        <v>61.881678686345502</v>
-      </c>
-      <c r="N126" s="3">
-        <v>0.58538248795234027</v>
-      </c>
-      <c r="Q126" s="131">
-        <v>53121.59123269999</v>
-      </c>
-      <c r="R126" s="58">
-        <v>913.88884210376648</v>
-      </c>
-      <c r="S126" s="80">
-        <v>66.448612919742303</v>
-      </c>
-      <c r="T126" s="3">
-        <v>0.6297568199471405</v>
+      <c r="K126" s="46">
+        <v>53859.913688763503</v>
+      </c>
+      <c r="L126" s="220">
+        <v>2304.8865264695669</v>
+      </c>
+      <c r="M126" s="73">
+        <v>3520.0990243199358</v>
+      </c>
+      <c r="N126" s="99">
+        <v>47.557246823940261</v>
+      </c>
+      <c r="Q126" s="226">
+        <v>50246.154882153358</v>
+      </c>
+      <c r="R126" s="175">
+        <v>3158.3445612949549</v>
+      </c>
+      <c r="S126" s="73">
+        <v>3520.0990243199358</v>
+      </c>
+      <c r="T126" s="99">
+        <v>47.557246823940261</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
@@ -20069,7 +20448,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>10</v>
@@ -20086,26 +20465,26 @@
       <c r="I127" s="3">
         <v>0</v>
       </c>
-      <c r="K127" s="98">
-        <v>53291.247461719599</v>
-      </c>
-      <c r="L127" s="61">
-        <v>743.11739298235398</v>
-      </c>
-      <c r="M127" s="64">
-        <v>7.9604721117660313</v>
+      <c r="K127" s="164">
+        <v>51507.191079720047</v>
+      </c>
+      <c r="L127" s="75">
+        <v>1002.942242200001</v>
+      </c>
+      <c r="M127" s="86">
+        <v>39.159394506020831</v>
       </c>
       <c r="N127" s="3">
         <v>0</v>
       </c>
-      <c r="Q127" s="98">
-        <v>53322.47361680965</v>
-      </c>
-      <c r="R127" s="76">
-        <v>711.89123789229791</v>
-      </c>
-      <c r="S127" s="64">
-        <v>8.4865673753873274</v>
+      <c r="Q127" s="227">
+        <v>51463.881265219781</v>
+      </c>
+      <c r="R127" s="171">
+        <v>1894.238965777206</v>
+      </c>
+      <c r="S127" s="86">
+        <v>39.159394506020831</v>
       </c>
       <c r="T127" s="3">
         <v>0</v>
@@ -20122,12 +20501,12 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F128" s="131">
+      <c r="F128" s="122">
         <v>53140.909191805928</v>
       </c>
       <c r="G128" s="58">
@@ -20139,26 +20518,26 @@
       <c r="I128" s="3">
         <v>0</v>
       </c>
-      <c r="K128" s="131">
-        <v>53098.044777109717</v>
-      </c>
-      <c r="L128" s="58">
-        <v>936.32007759223427</v>
-      </c>
-      <c r="M128" s="64">
-        <v>12.904392550087319</v>
+      <c r="K128" s="204">
+        <v>51994.411717626899</v>
+      </c>
+      <c r="L128" s="87">
+        <v>533.70788390268831</v>
+      </c>
+      <c r="M128" s="80">
+        <v>55.463157105631083</v>
       </c>
       <c r="N128" s="3">
         <v>0</v>
       </c>
-      <c r="Q128" s="40">
-        <v>53156.819071933976</v>
-      </c>
-      <c r="R128" s="77">
-        <v>877.5457827679636</v>
-      </c>
-      <c r="S128" s="64">
-        <v>14.01541339592255</v>
+      <c r="Q128" s="123">
+        <v>51933.115623517093</v>
+      </c>
+      <c r="R128" s="75">
+        <v>1514.1842711251791</v>
+      </c>
+      <c r="S128" s="80">
+        <v>55.463157105631083</v>
       </c>
       <c r="T128" s="3">
         <v>0</v>
@@ -20175,12 +20554,12 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F129" s="132">
+      <c r="F129" s="123">
         <v>53431.413030550641</v>
       </c>
       <c r="G129" s="87">
@@ -20192,29 +20571,29 @@
       <c r="I129" s="3">
         <v>0</v>
       </c>
-      <c r="K129" s="39">
-        <v>53374.429329267252</v>
+      <c r="K129" s="204">
+        <v>51995.438168522473</v>
       </c>
       <c r="L129" s="87">
-        <v>659.93552543469787</v>
-      </c>
-      <c r="M129" s="64">
-        <v>20.082693545099101</v>
+        <v>571.04056169180205</v>
+      </c>
+      <c r="M129" s="65">
+        <v>77.168645132056099</v>
       </c>
       <c r="N129" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q129" s="132">
-        <v>53455.85504184755</v>
-      </c>
-      <c r="R129" s="87">
-        <v>578.5098128544048</v>
-      </c>
-      <c r="S129" s="64">
-        <v>21.56155719846485</v>
+        <v>8.2298522311534832</v>
+      </c>
+      <c r="Q129" s="123">
+        <v>51910.356978675802</v>
+      </c>
+      <c r="R129" s="75">
+        <v>1561.867227162463</v>
+      </c>
+      <c r="S129" s="65">
+        <v>77.168645132056099</v>
       </c>
       <c r="T129" s="3">
-        <v>0</v>
+        <v>8.2298522311534832</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
@@ -20228,12 +20607,12 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="147">
+      <c r="F130" s="133">
         <v>53486.129900883192</v>
       </c>
       <c r="G130" s="63">
@@ -20245,29 +20624,29 @@
       <c r="I130" s="3">
         <v>0.57647976213425078</v>
       </c>
-      <c r="K130" s="132">
-        <v>53416.191389262603</v>
-      </c>
-      <c r="L130" s="87">
-        <v>619.20990898921309</v>
-      </c>
-      <c r="M130" s="64">
-        <v>20.63921633540226</v>
+      <c r="K130" s="205">
+        <v>52369.125089125788</v>
+      </c>
+      <c r="L130" s="85">
+        <v>171.72539640749639</v>
+      </c>
+      <c r="M130" s="80">
+        <v>65.890264325690197</v>
       </c>
       <c r="N130" s="3">
-        <v>0.5852722641587228</v>
-      </c>
-      <c r="Q130" s="147">
-        <v>53511.611567252818</v>
-      </c>
-      <c r="R130" s="63">
-        <v>523.77416058404549</v>
-      </c>
-      <c r="S130" s="64">
-        <v>22.433011606244779</v>
+        <v>0.57658998592786825</v>
+      </c>
+      <c r="Q130" s="228">
+        <v>52296.119179339672</v>
+      </c>
+      <c r="R130" s="60">
+        <v>1222.7875066244751</v>
+      </c>
+      <c r="S130" s="80">
+        <v>65.890264325690197</v>
       </c>
       <c r="T130" s="3">
-        <v>0.57647976213425078</v>
+        <v>0.57658998592786825</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
@@ -20281,7 +20660,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>10</v>
@@ -20298,26 +20677,26 @@
       <c r="I131" s="3">
         <v>0</v>
       </c>
-      <c r="K131" s="44">
-        <v>53724.845718331002</v>
-      </c>
-      <c r="L131" s="65">
-        <v>309.51913637096368</v>
+      <c r="K131" s="206">
+        <v>51862.82754416269</v>
+      </c>
+      <c r="L131" s="76">
+        <v>613.51729496222526</v>
       </c>
       <c r="M131" s="64">
-        <v>1.266132541720467</v>
+        <v>8.4064093540977929</v>
       </c>
       <c r="N131" s="3">
         <v>0</v>
       </c>
-      <c r="Q131" s="44">
-        <v>53731.379074393233</v>
-      </c>
-      <c r="R131" s="65">
-        <v>302.98578030873568</v>
+      <c r="Q131" s="39">
+        <v>51853.306212457552</v>
+      </c>
+      <c r="R131" s="75">
+        <v>1560.355209186313</v>
       </c>
       <c r="S131" s="64">
-        <v>1.3732007837008759</v>
+        <v>8.4064093540977929</v>
       </c>
       <c r="T131" s="3">
         <v>0</v>
@@ -20334,7 +20713,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>16</v>
@@ -20351,26 +20730,26 @@
       <c r="I132" s="3">
         <v>0</v>
       </c>
-      <c r="K132" s="44">
-        <v>53760.810389311271</v>
-      </c>
-      <c r="L132" s="80">
-        <v>273.55446539066332</v>
+      <c r="K132" s="207">
+        <v>51726.573932600899</v>
+      </c>
+      <c r="L132" s="77">
+        <v>755.710853917706</v>
       </c>
       <c r="M132" s="64">
-        <v>2.0315562762976049</v>
+        <v>13.700728221184651</v>
       </c>
       <c r="N132" s="3">
         <v>0</v>
       </c>
-      <c r="Q132" s="44">
-        <v>53770.054668644792</v>
-      </c>
-      <c r="R132" s="80">
-        <v>264.31018605716258</v>
+      <c r="Q132" s="40">
+        <v>51711.112653502067</v>
+      </c>
+      <c r="R132" s="172">
+        <v>1679.33151481715</v>
       </c>
       <c r="S132" s="64">
-        <v>2.177255841067113</v>
+        <v>13.700728221184651</v>
       </c>
       <c r="T132" s="3">
         <v>0</v>
@@ -20387,7 +20766,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>12</v>
@@ -20404,26 +20783,26 @@
       <c r="I133" s="3">
         <v>0</v>
       </c>
-      <c r="K133" s="43">
-        <v>53655.44682261056</v>
-      </c>
-      <c r="L133" s="79">
-        <v>378.91803209138868</v>
+      <c r="K133" s="204">
+        <v>51992.782389379303</v>
+      </c>
+      <c r="L133" s="87">
+        <v>497.95240018365138</v>
       </c>
       <c r="M133" s="64">
-        <v>3.5488053286729948</v>
+        <v>21.245139865994808</v>
       </c>
       <c r="N133" s="3">
         <v>0</v>
       </c>
-      <c r="Q133" s="43">
-        <v>53674.057965460051</v>
-      </c>
-      <c r="R133" s="79">
-        <v>360.30688924189872</v>
+      <c r="Q133" s="133">
+        <v>51968.871107236118</v>
+      </c>
+      <c r="R133" s="59">
+        <v>1471.9698714017341</v>
       </c>
       <c r="S133" s="64">
-        <v>3.8640941209221582</v>
+        <v>21.245139865994808</v>
       </c>
       <c r="T133" s="3">
         <v>0</v>
@@ -20440,7 +20819,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>17</v>
@@ -20457,29 +20836,29 @@
       <c r="I134" s="3">
         <v>0.56786127285922428</v>
       </c>
-      <c r="K134" s="44">
-        <v>53741.164923379452</v>
-      </c>
-      <c r="L134" s="65">
-        <v>294.22111261210182</v>
+      <c r="K134" s="208">
+        <v>52046.385346804753</v>
+      </c>
+      <c r="L134" s="63">
+        <v>446.42810043897362</v>
       </c>
       <c r="M134" s="64">
-        <v>5.3973667417913438</v>
+        <v>22.116494137926029</v>
       </c>
       <c r="N134" s="3">
-        <v>0.57665377488369629</v>
-      </c>
-      <c r="Q134" s="44">
-        <v>53768.668828337548</v>
-      </c>
-      <c r="R134" s="80">
-        <v>266.70163723906472</v>
+        <v>0.57647976213425078</v>
+      </c>
+      <c r="Q134" s="42">
+        <v>52021.4162801157</v>
+      </c>
+      <c r="R134" s="57">
+        <v>1430.781299643817</v>
       </c>
       <c r="S134" s="64">
-        <v>5.8593450564310476</v>
+        <v>22.116494137926029</v>
       </c>
       <c r="T134" s="3">
-        <v>0.56786127285922428</v>
+        <v>0.57647976213425078</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
@@ -20493,7 +20872,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>10</v>
@@ -20510,26 +20889,26 @@
       <c r="I135" s="3">
         <v>0</v>
       </c>
-      <c r="K135" s="46">
-        <v>54033.391231884329</v>
-      </c>
-      <c r="L135" s="64">
-        <v>0.97362281762849534</v>
+      <c r="K135" s="209">
+        <v>52195.798797175383</v>
+      </c>
+      <c r="L135" s="65">
+        <v>272.58369250295499</v>
       </c>
       <c r="M135" s="64">
-        <v>0</v>
+        <v>1.3459433806313921</v>
       </c>
       <c r="N135" s="3">
         <v>0</v>
       </c>
-      <c r="Q135" s="46">
-        <v>54033.391231884329</v>
-      </c>
-      <c r="R135" s="64">
-        <v>0.97362281762849534</v>
+      <c r="Q135" s="44">
+        <v>52194.239814916808</v>
+      </c>
+      <c r="R135" s="77">
+        <v>1280.1533510299839</v>
       </c>
       <c r="S135" s="64">
-        <v>0</v>
+        <v>1.3459433806313921</v>
       </c>
       <c r="T135" s="3">
         <v>0</v>
@@ -20546,7 +20925,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>16</v>
@@ -20563,26 +20942,26 @@
       <c r="I136" s="3">
         <v>0</v>
       </c>
-      <c r="K136" s="46">
-        <v>54033.391231884329</v>
-      </c>
-      <c r="L136" s="64">
-        <v>0.97362281762849534</v>
+      <c r="K136" s="209">
+        <v>52231.953005339223</v>
+      </c>
+      <c r="L136" s="80">
+        <v>237.3578451191882</v>
       </c>
       <c r="M136" s="64">
-        <v>0</v>
+        <v>2.149998437997628</v>
       </c>
       <c r="N136" s="3">
         <v>0</v>
       </c>
-      <c r="Q136" s="46">
-        <v>54033.391231884329</v>
-      </c>
-      <c r="R136" s="64">
-        <v>0.97362281762849534</v>
+      <c r="Q136" s="44">
+        <v>52229.465662300579</v>
+      </c>
+      <c r="R136" s="60">
+        <v>1251.8619863058141</v>
       </c>
       <c r="S136" s="64">
-        <v>0</v>
+        <v>2.149998437997628</v>
       </c>
       <c r="T136" s="3">
         <v>0</v>
@@ -20599,7 +20978,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>12</v>
@@ -20616,26 +20995,26 @@
       <c r="I137" s="3">
         <v>0</v>
       </c>
-      <c r="K137" s="46">
-        <v>54033.391231884329</v>
-      </c>
-      <c r="L137" s="64">
-        <v>0.97362281762849534</v>
+      <c r="K137" s="209">
+        <v>52154.777045523653</v>
+      </c>
+      <c r="L137" s="79">
+        <v>316.39566503921208</v>
       </c>
       <c r="M137" s="64">
-        <v>0</v>
+        <v>3.7723942308547671</v>
       </c>
       <c r="N137" s="3">
         <v>0</v>
       </c>
-      <c r="Q137" s="46">
-        <v>54033.391231884329</v>
-      </c>
-      <c r="R137" s="64">
-        <v>0.97362281762849534</v>
+      <c r="Q137" s="43">
+        <v>52150.427842380537</v>
+      </c>
+      <c r="R137" s="58">
+        <v>1316.7118408614051</v>
       </c>
       <c r="S137" s="64">
-        <v>0</v>
+        <v>3.7723942308547671</v>
       </c>
       <c r="T137" s="3">
         <v>0</v>
@@ -20652,7 +21031,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>17</v>
@@ -20669,29 +21048,29 @@
       <c r="I138" s="3">
         <v>0</v>
       </c>
-      <c r="K138" s="46">
-        <v>54019.166519449231</v>
-      </c>
-      <c r="L138" s="64">
-        <v>15.19833525272694</v>
+      <c r="K138" s="209">
+        <v>52242.949577805179</v>
+      </c>
+      <c r="L138" s="80">
+        <v>231.52578838924831</v>
       </c>
       <c r="M138" s="64">
-        <v>0.35973164581227779</v>
+        <v>5.7676284724357503</v>
       </c>
       <c r="N138" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q138" s="46">
-        <v>54019.585975919967</v>
-      </c>
-      <c r="R138" s="64">
-        <v>14.778878781981829</v>
+        <v>0.56786127285922428</v>
+      </c>
+      <c r="Q138" s="45">
+        <v>52236.303329905168</v>
+      </c>
+      <c r="R138" s="60">
+        <v>1248.604667149564</v>
       </c>
       <c r="S138" s="64">
-        <v>0.35973164581227779</v>
+        <v>5.7676284724357503</v>
       </c>
       <c r="T138" s="3">
-        <v>0</v>
+        <v>0.56786127285922428</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
@@ -20705,7 +21084,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>10</v>
@@ -20722,26 +21101,26 @@
       <c r="I139" s="3">
         <v>0</v>
       </c>
-      <c r="K139" s="133">
-        <v>45003.166911138898</v>
-      </c>
-      <c r="L139" s="134">
-        <v>9031.1979435630637</v>
-      </c>
-      <c r="M139" s="66">
-        <v>1025.4048329682689</v>
+      <c r="K139" s="210">
+        <v>52465.975721350267</v>
+      </c>
+      <c r="L139" s="64">
+        <v>0.84778606949814528</v>
+      </c>
+      <c r="M139" s="64">
+        <v>0</v>
       </c>
       <c r="N139" s="3">
         <v>0</v>
       </c>
-      <c r="Q139" s="26">
-        <v>46459.897579822667</v>
-      </c>
-      <c r="R139" s="158">
-        <v>7574.46727487928</v>
-      </c>
-      <c r="S139" s="88">
-        <v>1191.4318866157471</v>
+      <c r="Q139" s="46">
+        <v>52465.975721350267</v>
+      </c>
+      <c r="R139" s="87">
+        <v>1059.060913223509</v>
+      </c>
+      <c r="S139" s="64">
+        <v>0</v>
       </c>
       <c r="T139" s="3">
         <v>0</v>
@@ -20758,46 +21137,46 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="148">
+      <c r="F140" s="134">
         <v>47442.754551080019</v>
       </c>
-      <c r="G140" s="154">
+      <c r="G140" s="140">
         <v>6641.0730991604742</v>
       </c>
-      <c r="H140" s="158">
+      <c r="H140" s="144">
         <v>1917.1342876618601</v>
       </c>
       <c r="I140" s="102">
         <v>27.93128708294461</v>
       </c>
-      <c r="K140" s="135">
-        <v>47199.558423828952</v>
-      </c>
-      <c r="L140" s="136">
-        <v>6859.6417079216544</v>
-      </c>
-      <c r="M140" s="137">
-        <v>1687.558162735663</v>
-      </c>
-      <c r="N140" s="4">
-        <v>14.02430342801726</v>
-      </c>
-      <c r="Q140" s="159">
-        <v>49129.562105274628</v>
-      </c>
-      <c r="R140" s="175">
-        <v>4954.2655449658596</v>
-      </c>
-      <c r="S140" s="158">
-        <v>1917.1342876618601</v>
-      </c>
-      <c r="T140" s="102">
-        <v>27.93128708294461</v>
+      <c r="K140" s="210">
+        <v>52465.975721350267</v>
+      </c>
+      <c r="L140" s="64">
+        <v>0.84778606949814528</v>
+      </c>
+      <c r="M140" s="64">
+        <v>0</v>
+      </c>
+      <c r="N140" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="46">
+        <v>52465.975721350267</v>
+      </c>
+      <c r="R140" s="87">
+        <v>1059.060913223509</v>
+      </c>
+      <c r="S140" s="64">
+        <v>0</v>
+      </c>
+      <c r="T140" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
@@ -20811,7 +21190,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>12</v>
@@ -20819,7 +21198,7 @@
       <c r="F141" s="48">
         <v>48289.337086243453</v>
       </c>
-      <c r="G141" s="155">
+      <c r="G141" s="141">
         <v>5970.8775214278166</v>
       </c>
       <c r="H141" s="93">
@@ -20828,29 +21207,29 @@
       <c r="I141" s="10">
         <v>127.53574113866151</v>
       </c>
-      <c r="K141" s="138">
-        <v>48174.092730581768</v>
-      </c>
-      <c r="L141" s="139">
-        <v>6044.2571501524726</v>
-      </c>
-      <c r="M141" s="140">
-        <v>2163.979355924082</v>
-      </c>
-      <c r="N141" s="141">
-        <v>103.8950290843644</v>
-      </c>
-      <c r="Q141" s="169">
-        <v>50364.809817473462</v>
-      </c>
-      <c r="R141" s="176">
-        <v>3895.4047901978051</v>
-      </c>
-      <c r="S141" s="93">
-        <v>2437.294730432523</v>
-      </c>
-      <c r="T141" s="10">
-        <v>127.53574113866151</v>
+      <c r="K141" s="210">
+        <v>52465.975721350267</v>
+      </c>
+      <c r="L141" s="64">
+        <v>0.84778606949814528</v>
+      </c>
+      <c r="M141" s="64">
+        <v>0</v>
+      </c>
+      <c r="N141" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="46">
+        <v>52465.975721350267</v>
+      </c>
+      <c r="R141" s="87">
+        <v>1059.060913223509</v>
+      </c>
+      <c r="S141" s="64">
+        <v>0</v>
+      </c>
+      <c r="T141" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
@@ -20864,46 +21243,46 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F142" s="149">
+      <c r="F142" s="135">
         <v>48697.233909312883</v>
       </c>
-      <c r="G142" s="142">
+      <c r="G142" s="128">
         <v>5430.086325926779</v>
       </c>
       <c r="H142" s="73">
         <v>3578.7193729932751</v>
       </c>
-      <c r="I142" s="125">
+      <c r="I142" s="118">
         <v>52.491238949080874</v>
       </c>
-      <c r="K142" s="49">
-        <v>48647.237173999063</v>
-      </c>
-      <c r="L142" s="142">
-        <v>5432.4859179501054</v>
-      </c>
-      <c r="M142" s="73">
-        <v>3157.3844256712041</v>
-      </c>
-      <c r="N142" s="102">
-        <v>25.613472355020011</v>
-      </c>
-      <c r="Q142" s="170">
-        <v>51693.253016897688</v>
-      </c>
-      <c r="R142" s="177">
-        <v>2434.067218341982</v>
-      </c>
-      <c r="S142" s="73">
-        <v>3578.7193729932751</v>
-      </c>
-      <c r="T142" s="125">
-        <v>52.491238949080874</v>
+      <c r="K142" s="210">
+        <v>52452.758138212273</v>
+      </c>
+      <c r="L142" s="64">
+        <v>14.48425945477546</v>
+      </c>
+      <c r="M142" s="64">
+        <v>0.3597316458122779</v>
+      </c>
+      <c r="N142" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="46">
+        <v>52452.339247964977</v>
+      </c>
+      <c r="R142" s="87">
+        <v>1070.263774376077</v>
+      </c>
+      <c r="S142" s="64">
+        <v>0.3597316458122779</v>
+      </c>
+      <c r="T142" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
@@ -20934,11 +21313,11 @@
       <c r="I143" s="3">
         <v>0</v>
       </c>
-      <c r="K143" s="46">
-        <v>54003.883698988342</v>
+      <c r="K143" s="210">
+        <v>52436.660289068233</v>
       </c>
       <c r="L143" s="64">
-        <v>30.481155713610828</v>
+        <v>30.24311779831412</v>
       </c>
       <c r="M143" s="64">
         <v>6.8615489806603619E-2</v>
@@ -20947,10 +21326,10 @@
         <v>0</v>
       </c>
       <c r="Q143" s="46">
-        <v>54003.963706437033</v>
-      </c>
-      <c r="R143" s="64">
-        <v>30.401148264925759</v>
+        <v>52436.580389621449</v>
+      </c>
+      <c r="R143" s="87">
+        <v>1082.9411283025311</v>
       </c>
       <c r="S143" s="64">
         <v>6.8615489806603619E-2</v>
@@ -20987,11 +21366,11 @@
       <c r="I144" s="3">
         <v>0</v>
       </c>
-      <c r="K144" s="46">
-        <v>54009.155192824197</v>
+      <c r="K144" s="210">
+        <v>52442.2129102451</v>
       </c>
       <c r="L144" s="64">
-        <v>25.209661877753739</v>
+        <v>24.807424509190291</v>
       </c>
       <c r="M144" s="64">
         <v>0.16903000595106779</v>
@@ -21000,10 +21379,10 @@
         <v>0</v>
       </c>
       <c r="Q144" s="46">
-        <v>54009.352286214707</v>
-      </c>
-      <c r="R144" s="64">
-        <v>25.01256848724546</v>
+        <v>52442.016082910573</v>
+      </c>
+      <c r="R144" s="87">
+        <v>1078.5683364314671</v>
       </c>
       <c r="S144" s="64">
         <v>0.16903000595106779</v>
@@ -21040,11 +21419,11 @@
       <c r="I145" s="3">
         <v>0</v>
       </c>
-      <c r="K145" s="46">
-        <v>54015.825342378666</v>
+      <c r="K145" s="210">
+        <v>52449.238777071892</v>
       </c>
       <c r="L145" s="64">
-        <v>18.539512323298059</v>
+        <v>17.929509386918301</v>
       </c>
       <c r="M145" s="64">
         <v>0.29608693914255529</v>
@@ -21053,10 +21432,10 @@
         <v>0</v>
       </c>
       <c r="Q145" s="46">
-        <v>54016.170587463363</v>
-      </c>
-      <c r="R145" s="64">
-        <v>18.19426723860159</v>
+        <v>52448.893998032858</v>
+      </c>
+      <c r="R145" s="87">
+        <v>1073.0353363638001</v>
       </c>
       <c r="S145" s="64">
         <v>0.29608693914255529</v>
@@ -21093,26 +21472,26 @@
       <c r="I146" s="3">
         <v>0.335537146211912</v>
       </c>
-      <c r="K146" s="46">
-        <v>54033.133662753557</v>
+      <c r="K146" s="210">
+        <v>52467.433721338071</v>
       </c>
       <c r="L146" s="64">
-        <v>1.840956437148483</v>
+        <v>0.70243345766494081</v>
       </c>
       <c r="M146" s="64">
-        <v>0.61698831734804704</v>
+        <v>0.61698831734804682</v>
       </c>
       <c r="N146" s="3">
-        <v>0.34432964823638401</v>
+        <v>0.335537146211912</v>
       </c>
       <c r="Q146" s="46">
-        <v>54033.841293670128</v>
-      </c>
-      <c r="R146" s="64">
-        <v>1.117755105648182</v>
+        <v>52466.715268035907</v>
+      </c>
+      <c r="R146" s="87">
+        <v>1059.2050455115291</v>
       </c>
       <c r="S146" s="64">
-        <v>0.61698831734804704</v>
+        <v>0.61698831734804682</v>
       </c>
       <c r="T146" s="3">
         <v>0.335537146211912</v>

--- a/results/Manuscript/scenario_comparison_table.xlsx
+++ b/results/Manuscript/scenario_comparison_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/results/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2905322D-61BD-574F-9701-54872EEFCBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2B758-3990-EE4A-B5BE-84D4264D8074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22280" yWindow="500" windowWidth="28920" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22280" yWindow="500" windowWidth="28920" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="27">
   <si>
     <t>EV Scenario</t>
   </si>
@@ -112,6 +112,9 @@
   <si>
     <t>Fast EV</t>
   </si>
+  <si>
+    <t>EV Fleet</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="234">
+  <fills count="218">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,684 +874,588 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD9D9"/>
+        <fgColor rgb="FF61B661"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63B763"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF78C278"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CC57C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88CB88"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E870E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF259425"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDC9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB939"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF4DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF1D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF4E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF6E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEDCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE3B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD993"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC70"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF1D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE8BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCB6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF0D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE8BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDFA4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD892"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF4E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6F7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2F4D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EEC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7EEC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5EDC5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4EDC4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2E3B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E5B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCFCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC6C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBABA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCACA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC1C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB4B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7171"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6F6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA1A1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9898"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8C8C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA8A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9A9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA0A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8282"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2D992D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCFCF"/>
+        <fgColor rgb="FFA6A6FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC6C6"/>
+        <fgColor rgb="FF7878FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBABA"/>
+        <fgColor rgb="FF4A4AFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE5E5"/>
+        <fgColor rgb="FF0C0CFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4E4"/>
+        <fgColor rgb="FFA0A0FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDCDC"/>
+        <fgColor rgb="FF7070FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD6D6"/>
+        <fgColor rgb="FF4040FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD8D8"/>
+        <fgColor rgb="FF0505FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
+        <fgColor rgb="FF9E9EFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD3D3"/>
+        <fgColor rgb="FF6D6DFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCACA"/>
+        <fgColor rgb="FF3C3CFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC1C1"/>
+        <fgColor rgb="FF0101FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB4B4"/>
+        <fgColor rgb="FF3A3AFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7474"/>
+        <fgColor rgb="FF0000FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7373"/>
+        <fgColor rgb="FFA1A1FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7272"/>
+        <fgColor rgb="FF7373FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7171"/>
+        <fgColor rgb="FF4545FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6F6F"/>
+        <fgColor rgb="FF0707FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7070"/>
+        <fgColor rgb="FF9F9FFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFABAB"/>
+        <fgColor rgb="FF6E6EFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA1A1"/>
+        <fgColor rgb="FF3D3DFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9898"/>
+        <fgColor rgb="FF0202FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8C8C"/>
+        <fgColor rgb="FF3B3BFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB8B8"/>
+        <fgColor rgb="FF4141FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB7B7"/>
+        <fgColor rgb="FFA3A3FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB0B0"/>
+        <fgColor rgb="FF7474FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA8A8"/>
+        <fgColor rgb="FF4646FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA2A2"/>
+        <fgColor rgb="FF0808FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9A9A"/>
+        <fgColor rgb="FF6F6FFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA0A0"/>
+        <fgColor rgb="FF3E3EFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA6A6"/>
+        <fgColor rgb="FF0303FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9B9B"/>
+        <fgColor rgb="FFA2A2FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9191"/>
+        <fgColor rgb="FF7272FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8282"/>
+        <fgColor rgb="FF4444FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF61B661"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF63B763"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF78C278"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CC57C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88CB88"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0E870E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF259425"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2E992E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5E5FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7878FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4A4AFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0C0CFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA0A0FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7070FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4040FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0505FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9E9EFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6D6DFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3B3BFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0101FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3A3AFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA1A1FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7373FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4545FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0707FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E6EFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3D3DFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0202FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4141FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA3A3FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7474FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4646FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0808FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9F9FFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6F6FFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0303FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2A2FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7272FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4444FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0606FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3C3CFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFDC9D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCA6A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB939"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF4DF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF3DC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF1D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5E4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF4E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5E2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF6E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEDCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE3B0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD993"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC70"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF1D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8BE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCB6B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF3DD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF0D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFDFA4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD892"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF4E0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6F7D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2F4D2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EEC6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7EEC7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5EDC5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4EDC4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2E3B2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7E5B7"/>
+        <fgColor rgb="FFA2DAA2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1580,11 +1487,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1687,9 +1605,6 @@
     <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1717,7 +1632,7 @@
     <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1747,84 +1662,74 @@
     <xf numFmtId="0" fontId="2" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="180" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="181" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="183" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="187" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="188" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="188" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="189" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="190" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="190" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="191" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="192" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="193" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="192" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="193" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="194" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="195" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="196" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="197" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="198" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="199" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="199" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="200" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="201" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="202" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="203" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="204" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="201" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="202" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="203" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="204" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="205" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="206" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="207" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="208" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="207" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="208" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="209" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="210" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="211" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="210" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="211" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="212" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="213" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="214" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="214" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="215" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="216" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="217" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="218" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="219" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="220" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="221" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="222" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="223" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="224" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="225" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="226" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="227" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="228" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="229" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="230" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="231" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="232" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="233" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="217" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2165,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4348AC9D-6E83-9E4C-885B-E3F4BEE15CF2}">
   <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F100" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q114" sqref="Q114"/>
+    <sheetView topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2189,18 +2094,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="L1" s="100" t="s">
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="L1" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2268,17 +2173,17 @@
       <c r="I3" s="52">
         <v>503.50156248983302</v>
       </c>
-      <c r="L3" s="123">
-        <v>38466.839999999997</v>
+      <c r="L3" s="67">
+        <v>38465.274787111091</v>
       </c>
       <c r="M3" s="19">
-        <v>7762.2309044956692</v>
+        <v>7762.1874023093278</v>
       </c>
       <c r="N3" s="27">
         <v>0</v>
       </c>
       <c r="O3" s="52">
-        <v>891.63792433964113</v>
+        <v>890.03082851832721</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2309,17 +2214,17 @@
       <c r="I4" s="12">
         <v>845.69504924032958</v>
       </c>
-      <c r="L4" s="124">
-        <v>39016.019999999997</v>
+      <c r="L4" s="163">
+        <v>39014.460880459577</v>
       </c>
       <c r="M4" s="24">
-        <v>7819.0264266558988</v>
+        <v>7818.9829244695566</v>
       </c>
       <c r="N4" s="27">
         <v>0</v>
       </c>
-      <c r="O4" s="12">
-        <v>1497.619539848368</v>
+      <c r="O4" s="13">
+        <v>1496.012444027054</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -2350,17 +2255,17 @@
       <c r="I5" s="53">
         <v>1190.8537264745401</v>
       </c>
-      <c r="L5" s="125">
-        <v>39569.19</v>
+      <c r="L5" s="164">
+        <v>39567.624599014518</v>
       </c>
       <c r="M5" s="21">
-        <v>7877.0953029216525</v>
+        <v>7877.0518007353121</v>
       </c>
       <c r="N5" s="27">
         <v>0</v>
       </c>
       <c r="O5" s="53">
-        <v>2108.8521346690482</v>
+        <v>2107.245038847735</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -2391,17 +2296,17 @@
       <c r="I6" s="18">
         <v>1580.2479479033241</v>
       </c>
-      <c r="L6" s="126">
-        <v>40245.39</v>
+      <c r="L6" s="165">
+        <v>40243.824574981452</v>
       </c>
       <c r="M6" s="22">
-        <v>7890.4635055075296</v>
+        <v>7890.4200033211882</v>
       </c>
       <c r="N6" s="27">
         <v>0</v>
       </c>
       <c r="O6" s="18">
-        <v>2798.4203132218649</v>
+        <v>2796.81321740055</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2432,17 +2337,17 @@
       <c r="I7" s="48">
         <v>47.248250644288397</v>
       </c>
-      <c r="L7" s="127">
-        <v>37731</v>
+      <c r="L7" s="3">
+        <v>37730.955936997671</v>
       </c>
       <c r="M7" s="72">
-        <v>7690.1049775888641</v>
+        <v>7690.0928655922771</v>
       </c>
       <c r="N7" s="27">
         <v>0</v>
       </c>
       <c r="O7" s="48">
-        <v>83.670707842149127</v>
+        <v>83.61744168785674</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -2473,17 +2378,17 @@
       <c r="I8" s="5">
         <v>70.644172408073871</v>
       </c>
-      <c r="L8" s="127">
-        <v>37762.78</v>
+      <c r="L8" s="3">
+        <v>37762.737921402448</v>
       </c>
       <c r="M8" s="72">
-        <v>7699.7542273123736</v>
+        <v>7699.7421153157848</v>
       </c>
       <c r="N8" s="27">
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <v>125.1019419704355</v>
+        <v>125.0486758161432</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2514,17 +2419,17 @@
       <c r="I9" s="49">
         <v>98.001609440643151</v>
       </c>
-      <c r="L9" s="128">
-        <v>37799.93</v>
+      <c r="L9" s="4">
+        <v>37799.890338507328</v>
       </c>
       <c r="M9" s="20">
-        <v>7711.0483894998179</v>
+        <v>7711.036277503229</v>
       </c>
       <c r="N9" s="27">
         <v>0</v>
       </c>
       <c r="O9" s="49">
-        <v>173.54852126275921</v>
+        <v>173.49525510846681</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2555,17 +2460,17 @@
       <c r="I10" s="7">
         <v>76.724690556527577</v>
       </c>
-      <c r="L10" s="127">
-        <v>37770.9</v>
+      <c r="L10" s="3">
+        <v>37770.862285093172</v>
       </c>
       <c r="M10" s="72">
-        <v>7702.3976963052046</v>
+        <v>7702.3855843086176</v>
       </c>
       <c r="N10" s="27">
         <v>0</v>
       </c>
       <c r="O10" s="7">
-        <v>135.8697746539861</v>
+        <v>135.8165084996937</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2596,17 +2501,17 @@
       <c r="I11" s="4">
         <v>13.25566515100215</v>
       </c>
-      <c r="L11" s="127">
-        <v>37684.82</v>
+      <c r="L11" s="3">
+        <v>37684.733140629993</v>
       </c>
       <c r="M11" s="72">
-        <v>7676.0864577951652</v>
+        <v>7676.0596479926116</v>
       </c>
       <c r="N11" s="27">
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>23.474115358320319</v>
+        <v>23.361427720507489</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -2637,17 +2542,17 @@
       <c r="I12" s="50">
         <v>22.18514664927616</v>
       </c>
-      <c r="L12" s="127">
-        <v>37696.85</v>
+      <c r="L12" s="3">
+        <v>37696.760445309243</v>
       </c>
       <c r="M12" s="72">
-        <v>7679.8721414792026</v>
+        <v>7679.845331676649</v>
       </c>
       <c r="N12" s="27">
         <v>0</v>
       </c>
       <c r="O12" s="50">
-        <v>39.287103721610727</v>
+        <v>39.174416083797887</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2678,17 +2583,17 @@
       <c r="I13" s="46">
         <v>33.09024280681102</v>
       </c>
-      <c r="L13" s="127">
-        <v>37711.53</v>
+      <c r="L13" s="3">
+        <v>37711.447988136119</v>
       </c>
       <c r="M13" s="72">
-        <v>7684.4961520356828</v>
+        <v>7684.4693422331293</v>
       </c>
       <c r="N13" s="27">
         <v>0</v>
       </c>
       <c r="O13" s="46">
-        <v>58.598657104972723</v>
+        <v>58.485969467159869</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2719,17 +2624,17 @@
       <c r="I14" s="51">
         <v>30.08805430145042</v>
       </c>
-      <c r="L14" s="127">
-        <v>37707.46</v>
+      <c r="L14" s="3">
+        <v>37707.377919737519</v>
       </c>
       <c r="M14" s="72">
-        <v>7683.2497222805177</v>
+        <v>7683.2229124779642</v>
       </c>
       <c r="N14" s="27">
         <v>0</v>
       </c>
       <c r="O14" s="51">
-        <v>53.282158951205602</v>
+        <v>53.169471313392762</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2760,17 +2665,17 @@
       <c r="I15" s="3">
         <v>2.1178699060453412</v>
       </c>
-      <c r="L15" s="127">
-        <v>37669.839999999997</v>
+      <c r="L15" s="3">
+        <v>37669.823321273943</v>
       </c>
       <c r="M15" s="72">
-        <v>7671.3392186161509</v>
+        <v>7671.3330450604517</v>
       </c>
       <c r="N15" s="27">
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>3.7504811657576331</v>
+        <v>3.7250054322960509</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2801,17 +2706,17 @@
       <c r="I16" s="3">
         <v>4.0431801659011652</v>
       </c>
-      <c r="L16" s="127">
-        <v>37672.43</v>
+      <c r="L16" s="3">
+        <v>37672.377959730627</v>
       </c>
       <c r="M16" s="72">
-        <v>7672.1649837811447</v>
+        <v>7672.1495342620483</v>
       </c>
       <c r="N16" s="27">
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>7.1599634230094686</v>
+        <v>7.0961330905916631</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2842,17 +2747,17 @@
       <c r="I17" s="3">
         <v>6.9014480537611433</v>
       </c>
-      <c r="L17" s="127">
-        <v>37676.26</v>
+      <c r="L17" s="3">
+        <v>37676.140936378069</v>
       </c>
       <c r="M17" s="72">
-        <v>7673.3901665169751</v>
+        <v>7673.3513793149432</v>
       </c>
       <c r="N17" s="27">
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>12.22159626906361</v>
+        <v>12.060954790925811</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2883,17 +2788,17 @@
       <c r="I18" s="3">
         <v>9.0367100919316066</v>
       </c>
-      <c r="L18" s="127">
-        <v>37679.129999999997</v>
+      <c r="L18" s="3">
+        <v>37679.078113734067</v>
       </c>
       <c r="M18" s="72">
-        <v>7674.3077430675066</v>
+        <v>7674.2922935484103</v>
       </c>
       <c r="N18" s="27">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>16.00287671280401</v>
+        <v>15.939046380386211</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -2924,8 +2829,8 @@
       <c r="I19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="127">
-        <v>37667</v>
+      <c r="L19" s="3">
+        <v>37667.001434024533</v>
       </c>
       <c r="M19" s="72">
         <v>7670.4299268775649</v>
@@ -2965,8 +2870,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="127">
-        <v>37667</v>
+      <c r="L20" s="3">
+        <v>37667.001434024533</v>
       </c>
       <c r="M20" s="72">
         <v>7670.4299268775649</v>
@@ -3006,8 +2911,8 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="127">
-        <v>37667</v>
+      <c r="L21" s="3">
+        <v>37667.001434024533</v>
       </c>
       <c r="M21" s="72">
         <v>7670.4299268775649</v>
@@ -3047,17 +2952,17 @@
       <c r="I22" s="3">
         <v>0.3503335136736847</v>
       </c>
-      <c r="L22" s="127">
-        <v>37667.47</v>
+      <c r="L22" s="3">
+        <v>37667.351209525623</v>
       </c>
       <c r="M22" s="72">
-        <v>7670.580224704273</v>
+        <v>7670.5417815859719</v>
       </c>
       <c r="N22" s="27">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0.62039657913658419</v>
+        <v>0.4616302094927468</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -3088,8 +2993,8 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="127">
-        <v>37667</v>
+      <c r="L23" s="3">
+        <v>37667.001434024533</v>
       </c>
       <c r="M23" s="72">
         <v>7670.4299268775649</v>
@@ -3129,8 +3034,8 @@
       <c r="I24" s="3">
         <v>7.6196759842034334E-2</v>
       </c>
-      <c r="L24" s="127">
-        <v>37667.1</v>
+      <c r="L24" s="3">
+        <v>37667.103638058237</v>
       </c>
       <c r="M24" s="72">
         <v>7670.4626577196186</v>
@@ -3170,8 +3075,8 @@
       <c r="I25" s="3">
         <v>0.20325369303352181</v>
       </c>
-      <c r="L25" s="127">
-        <v>37667.269999999997</v>
+      <c r="L25" s="3">
+        <v>37667.274061723387</v>
       </c>
       <c r="M25" s="72">
         <v>7670.5172358988048</v>
@@ -3211,8 +3116,8 @@
       <c r="I26" s="3">
         <v>0.86765184816027052</v>
       </c>
-      <c r="L26" s="127">
-        <v>37668.17</v>
+      <c r="L26" s="3">
+        <v>37668.165230476392</v>
       </c>
       <c r="M26" s="72">
         <v>7670.802632694169</v>
@@ -3243,7 +3148,7 @@
       <c r="F27" s="5">
         <v>38238.79085907944</v>
       </c>
-      <c r="G27" s="103">
+      <c r="G27" s="102">
         <v>7414.9490254310931</v>
       </c>
       <c r="H27" s="66">
@@ -3252,17 +3157,17 @@
       <c r="I27" s="6">
         <v>178.61716232365981</v>
       </c>
-      <c r="L27" s="129">
-        <v>38220.870000000003</v>
-      </c>
-      <c r="M27" s="103">
-        <v>7432.8710619724961</v>
+      <c r="L27" s="5">
+        <v>38220.060946048077</v>
+      </c>
+      <c r="M27" s="102">
+        <v>7433.4619400025786</v>
       </c>
       <c r="N27" s="32">
-        <v>1192.5667425208369</v>
+        <v>1190.1526501217691</v>
       </c>
       <c r="O27" s="6">
-        <v>316.30852360844602</v>
+        <v>316.09152514856311</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -3284,7 +3189,7 @@
       <c r="F28" s="68">
         <v>38636.97688842682</v>
       </c>
-      <c r="G28" s="104">
+      <c r="G28" s="103">
         <v>7354.677818917341</v>
       </c>
       <c r="H28" s="79">
@@ -3293,17 +3198,17 @@
       <c r="I28" s="88">
         <v>369.43524737899457</v>
       </c>
-      <c r="L28" s="130">
-        <v>38618.25</v>
-      </c>
-      <c r="M28" s="113">
-        <v>7373.4079837018953</v>
-      </c>
-      <c r="N28" s="228">
-        <v>1630.643563649013</v>
+      <c r="L28" s="68">
+        <v>38617.424026870583</v>
+      </c>
+      <c r="M28" s="112">
+        <v>7373.9615765328681</v>
+      </c>
+      <c r="N28" s="154">
+        <v>1628.3717029174641</v>
       </c>
       <c r="O28" s="88">
-        <v>654.22334644206785</v>
+        <v>653.95424250134954</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -3325,7 +3230,7 @@
       <c r="F29" s="92">
         <v>39040.360697501783</v>
       </c>
-      <c r="G29" s="113">
+      <c r="G29" s="112">
         <v>7303.2824851338519</v>
       </c>
       <c r="H29" s="80">
@@ -3334,17 +3239,17 @@
       <c r="I29" s="89">
         <v>568.20062337949071</v>
       </c>
-      <c r="L29" s="124">
-        <v>39021.39</v>
-      </c>
-      <c r="M29" s="159">
-        <v>7322.2491012050396</v>
-      </c>
-      <c r="N29" s="229">
-        <v>2042.3306331513929</v>
+      <c r="L29" s="163">
+        <v>39020.551888938076</v>
+      </c>
+      <c r="M29" s="122">
+        <v>7322.7590822009024</v>
+      </c>
+      <c r="N29" s="155">
+        <v>2040.2264962126289</v>
       </c>
       <c r="O29" s="89">
-        <v>1006.211821733541</v>
+        <v>1005.87961023689</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -3375,17 +3280,17 @@
       <c r="I30" s="11">
         <v>814.37617993414631</v>
       </c>
-      <c r="L30" s="125">
-        <v>39559.18</v>
-      </c>
-      <c r="M30" s="160">
-        <v>7220.4126945563057</v>
+      <c r="L30" s="164">
+        <v>39558.280471588267</v>
+      </c>
+      <c r="M30" s="123">
+        <v>7220.8208916553249</v>
       </c>
       <c r="N30" s="99">
-        <v>2482.267299117108</v>
+        <v>2480.564110501467</v>
       </c>
       <c r="O30" s="11">
-        <v>1442.1577623660121</v>
+        <v>1441.670002341504</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -3416,17 +3321,17 @@
       <c r="I31" s="3">
         <v>3.5824073321482368</v>
       </c>
-      <c r="L31" s="131">
-        <v>38507.51</v>
+      <c r="L31" s="49">
+        <v>38507.471510017996</v>
       </c>
       <c r="M31" s="58">
-        <v>6836.2627519657808</v>
-      </c>
-      <c r="N31" s="230">
-        <v>3254.4612633132178</v>
+        <v>6836.2507176226418</v>
+      </c>
+      <c r="N31" s="156">
+        <v>3254.461085421613</v>
       </c>
       <c r="O31" s="3">
-        <v>6.3439927017907989</v>
+        <v>6.2908667385516157</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -3457,17 +3362,17 @@
       <c r="I32" s="50">
         <v>22.982776988128119</v>
       </c>
-      <c r="L32" s="132">
-        <v>38536.5</v>
+      <c r="L32" s="59">
+        <v>38536.455161801969</v>
       </c>
       <c r="M32" s="62">
-        <v>6841.6347180084913</v>
-      </c>
-      <c r="N32" s="230">
-        <v>3265.8141393725218</v>
+        <v>6841.6226797081417</v>
+      </c>
+      <c r="N32" s="156">
+        <v>3265.8139614809161</v>
       </c>
       <c r="O32" s="50">
-        <v>40.699606706124598</v>
+        <v>40.646480608026188</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -3498,17 +3403,17 @@
       <c r="I33" s="48">
         <v>47.52592116952269</v>
       </c>
-      <c r="L33" s="132">
-        <v>38572.01</v>
+      <c r="L33" s="59">
+        <v>38571.97291141397</v>
       </c>
       <c r="M33" s="62">
-        <v>6849.5797304267671</v>
-      </c>
-      <c r="N33" s="230">
-        <v>3275.25079592668</v>
+        <v>6849.5676291355194</v>
+      </c>
+      <c r="N33" s="156">
+        <v>3275.2507682639412</v>
       </c>
       <c r="O33" s="48">
-        <v>84.162427410100236</v>
+        <v>84.109179647395536</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -3539,17 +3444,17 @@
       <c r="I34" s="51">
         <v>25.547847431655018</v>
       </c>
-      <c r="L34" s="132">
-        <v>38543.360000000001</v>
+      <c r="L34" s="59">
+        <v>38543.322805339667</v>
       </c>
       <c r="M34" s="62">
-        <v>6839.3094328548323</v>
-      </c>
-      <c r="N34" s="230">
-        <v>3281.0459711378849</v>
+        <v>6839.2973315635854</v>
+      </c>
+      <c r="N34" s="156">
+        <v>3281.045943475146</v>
       </c>
       <c r="O34" s="51">
-        <v>45.242023763862079</v>
+        <v>45.188776001157358</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -3580,14 +3485,14 @@
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="131">
-        <v>38497.480000000003</v>
+      <c r="L35" s="49">
+        <v>38497.450128309101</v>
       </c>
       <c r="M35" s="62">
-        <v>6839.9535178816577</v>
-      </c>
-      <c r="N35" s="231">
-        <v>3231.416386024011</v>
+        <v>6839.9812325929897</v>
+      </c>
+      <c r="N35" s="157">
+        <v>3231.2926718299259</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -3621,14 +3526,14 @@
       <c r="I36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="131">
-        <v>38501.65</v>
+      <c r="L36" s="49">
+        <v>38501.625614902558</v>
       </c>
       <c r="M36" s="58">
-        <v>6835.778031288206</v>
-      </c>
-      <c r="N36" s="230">
-        <v>3250.0551137613061</v>
+        <v>6835.8057459995371</v>
+      </c>
+      <c r="N36" s="156">
+        <v>3249.9313995672201</v>
       </c>
       <c r="O36" s="3">
         <v>0</v>
@@ -3662,14 +3567,14 @@
       <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="L37" s="131">
-        <v>38506.76</v>
+      <c r="L37" s="49">
+        <v>38506.736403504103</v>
       </c>
       <c r="M37" s="58">
-        <v>6830.667242686658</v>
-      </c>
-      <c r="N37" s="230">
-        <v>3272.8688853146632</v>
+        <v>6830.6949573979891</v>
+      </c>
+      <c r="N37" s="156">
+        <v>3272.7451711205781</v>
       </c>
       <c r="O37" s="3">
         <v>0</v>
@@ -3703,14 +3608,14 @@
       <c r="I38" s="3">
         <v>0</v>
       </c>
-      <c r="L38" s="131">
-        <v>38506.19</v>
+      <c r="L38" s="49">
+        <v>38506.161172084197</v>
       </c>
       <c r="M38" s="58">
-        <v>6831.2424741065652</v>
-      </c>
-      <c r="N38" s="230">
-        <v>3270.301141033458</v>
+        <v>6831.2701888178963</v>
+      </c>
+      <c r="N38" s="156">
+        <v>3270.1774268393729</v>
       </c>
       <c r="O38" s="3">
         <v>0</v>
@@ -3750,16 +3655,16 @@
       </c>
       <c r="K39" s="2">
         <f t="shared" ref="K39:K50" si="1">M39+L39</f>
-        <v>45337.430540538749</v>
-      </c>
-      <c r="L39" s="131">
-        <v>38504.01</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L39" s="49">
+        <v>38503.995024125703</v>
       </c>
       <c r="M39" s="58">
-        <v>6833.4205405387474</v>
-      </c>
-      <c r="N39" s="230">
-        <v>3260.5785886279868</v>
+        <v>6833.4363367763954</v>
+      </c>
+      <c r="N39" s="156">
+        <v>3260.5080766610058</v>
       </c>
       <c r="O39" s="3">
         <v>0</v>
@@ -3799,16 +3704,16 @@
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>45337.428776270273</v>
-      </c>
-      <c r="L40" s="131">
-        <v>38504.94</v>
+        <v>45337.431360902083</v>
+      </c>
+      <c r="L40" s="49">
+        <v>38504.926788394157</v>
       </c>
       <c r="M40" s="58">
-        <v>6832.4887762702738</v>
-      </c>
-      <c r="N40" s="230">
-        <v>3264.737840520364</v>
+        <v>6832.5045725079226</v>
+      </c>
+      <c r="N40" s="156">
+        <v>3264.667328553383</v>
       </c>
       <c r="O40" s="3">
         <v>0</v>
@@ -3848,16 +3753,16 @@
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>45337.428447685204</v>
-      </c>
-      <c r="L41" s="131">
-        <v>38502.69</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L41" s="49">
+        <v>38502.653090352273</v>
       </c>
       <c r="M41" s="58">
-        <v>6834.7384476852039</v>
-      </c>
-      <c r="N41" s="230">
-        <v>3254.6956545229291</v>
+        <v>6834.778270549823</v>
+      </c>
+      <c r="N41" s="156">
+        <v>3254.5178914012508</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -3897,16 +3802,16 @@
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>45337.430200468858</v>
-      </c>
-      <c r="L42" s="131">
-        <v>38503.99</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L42" s="49">
+        <v>38503.951337568607</v>
       </c>
       <c r="M42" s="58">
-        <v>6833.4402004688618</v>
-      </c>
-      <c r="N42" s="230">
-        <v>3260.490829734134</v>
+        <v>6833.4800233334818</v>
+      </c>
+      <c r="N42" s="156">
+        <v>3260.3130666124571</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3946,15 +3851,15 @@
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>45337.427232455928</v>
-      </c>
-      <c r="L43" s="131">
-        <v>38521.78</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L43" s="49">
+        <v>38521.784128446168</v>
       </c>
       <c r="M43" s="58">
         <v>6815.6472324559254</v>
       </c>
-      <c r="N43" s="232">
+      <c r="N43" s="158">
         <v>3339.915892899608</v>
       </c>
       <c r="O43" s="3">
@@ -3995,15 +3900,15 @@
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>45337.427232455928</v>
-      </c>
-      <c r="L44" s="131">
-        <v>38521.78</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L44" s="49">
+        <v>38521.784128446168</v>
       </c>
       <c r="M44" s="58">
         <v>6815.6472324559254</v>
       </c>
-      <c r="N44" s="232">
+      <c r="N44" s="158">
         <v>3339.915892899608</v>
       </c>
       <c r="O44" s="3">
@@ -4044,15 +3949,15 @@
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>45337.427232455928</v>
-      </c>
-      <c r="L45" s="131">
-        <v>38521.78</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L45" s="49">
+        <v>38521.784128446168</v>
       </c>
       <c r="M45" s="58">
         <v>6815.6472324559254</v>
       </c>
-      <c r="N45" s="232">
+      <c r="N45" s="158">
         <v>3339.915892899608</v>
       </c>
       <c r="O45" s="3">
@@ -4093,16 +3998,16 @@
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>45337.4355358557</v>
-      </c>
-      <c r="L46" s="131">
-        <v>38510.46</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L46" s="49">
+        <v>38513.928427382838</v>
       </c>
       <c r="M46" s="58">
-        <v>6826.9755358557022</v>
-      </c>
-      <c r="N46" s="230">
-        <v>3289.3480948554129</v>
+        <v>6823.5029335192521</v>
+      </c>
+      <c r="N46" s="156">
+        <v>3304.8492557477748</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -4142,15 +4047,15 @@
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>45337.427232455928</v>
-      </c>
-      <c r="L47" s="131">
-        <v>38521.78</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L47" s="49">
+        <v>38521.784128446168</v>
       </c>
       <c r="M47" s="58">
         <v>6815.6472324559254</v>
       </c>
-      <c r="N47" s="232">
+      <c r="N47" s="158">
         <v>3339.915892899608</v>
       </c>
       <c r="O47" s="3">
@@ -4191,15 +4096,15 @@
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>45337.431592531939</v>
-      </c>
-      <c r="L48" s="131">
-        <v>38520.160000000003</v>
+        <v>45337.431360902083</v>
+      </c>
+      <c r="L48" s="49">
+        <v>38520.159768370148</v>
       </c>
       <c r="M48" s="58">
         <v>6817.271592531938</v>
       </c>
-      <c r="N48" s="232">
+      <c r="N48" s="158">
         <v>3332.6650002128481</v>
       </c>
       <c r="O48" s="3">
@@ -4240,15 +4145,15 @@
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>45337.426379267512</v>
-      </c>
-      <c r="L49" s="131">
-        <v>38520.21</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L49" s="49">
+        <v>38520.214981634577</v>
       </c>
       <c r="M49" s="58">
         <v>6817.2163792675119</v>
       </c>
-      <c r="N49" s="232">
+      <c r="N49" s="158">
         <v>3332.9114637040102</v>
       </c>
       <c r="O49" s="3">
@@ -4289,15 +4194,15 @@
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>45337.427661524198</v>
-      </c>
-      <c r="L50" s="131">
-        <v>38520.5</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L50" s="49">
+        <v>38520.503699377892</v>
       </c>
       <c r="M50" s="58">
         <v>6816.9276615242006</v>
       </c>
-      <c r="N50" s="232">
+      <c r="N50" s="158">
         <v>3334.2002551514429</v>
       </c>
       <c r="O50" s="3">
@@ -4323,7 +4228,7 @@
       <c r="F51" s="8">
         <v>38844.938493317553</v>
       </c>
-      <c r="G51" s="107">
+      <c r="G51" s="106">
         <v>6492.4928675845531</v>
       </c>
       <c r="H51" s="42">
@@ -4338,16 +4243,16 @@
       </c>
       <c r="K51" s="2">
         <f>M51+L51</f>
-        <v>45337.428334807693</v>
-      </c>
-      <c r="L51" s="133">
-        <v>38748.720000000001</v>
-      </c>
-      <c r="M51" s="107">
-        <v>6588.7083348076912</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L51" s="8">
+        <v>38747.145824146697</v>
+      </c>
+      <c r="M51" s="106">
+        <v>6590.2855367554012</v>
       </c>
       <c r="N51" s="99">
-        <v>2481.0247264762811</v>
+        <v>2477.6342121489511</v>
       </c>
       <c r="O51" s="3">
         <v>0</v>
@@ -4369,10 +4274,10 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="108">
+      <c r="F52" s="107">
         <v>39465.324543430041</v>
       </c>
-      <c r="G52" s="114">
+      <c r="G52" s="113">
         <v>6066.9505017596339</v>
       </c>
       <c r="H52" s="37">
@@ -4387,19 +4292,19 @@
       </c>
       <c r="K52" s="2">
         <f t="shared" ref="K52:K72" si="3">M52+L52</f>
-        <v>45532.274378293921</v>
-      </c>
-      <c r="L52" s="134">
-        <v>39344.370000000003</v>
-      </c>
-      <c r="M52" s="161">
-        <v>6187.9043782939189</v>
-      </c>
-      <c r="N52" s="233">
-        <v>3440.9560807111989</v>
+        <v>45532.142602933753</v>
+      </c>
+      <c r="L52" s="166">
+        <v>39342.87160938028</v>
+      </c>
+      <c r="M52" s="124">
+        <v>6189.2709935534758</v>
+      </c>
+      <c r="N52" s="159">
+        <v>3438.0116843381429</v>
       </c>
       <c r="O52" s="68">
-        <v>194.84368428759379</v>
+        <v>194.71124203166929</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -4418,10 +4323,10 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="109">
+      <c r="F53" s="108">
         <v>40019.777397565922</v>
       </c>
-      <c r="G53" s="115">
+      <c r="G53" s="114">
         <v>5806.7524321995506</v>
       </c>
       <c r="H53" s="61">
@@ -4436,19 +4341,19 @@
       </c>
       <c r="K53" s="2">
         <f t="shared" si="3"/>
-        <v>45826.531243209196</v>
-      </c>
-      <c r="L53" s="135">
-        <v>39889.519999999997</v>
-      </c>
-      <c r="M53" s="162">
-        <v>5937.0112432091983</v>
+        <v>45826.357100689776</v>
+      </c>
+      <c r="L53" s="167">
+        <v>39888.041345339247</v>
+      </c>
+      <c r="M53" s="125">
+        <v>5938.3157553505307</v>
       </c>
       <c r="N53" s="66">
-        <v>4085.2745644669421</v>
+        <v>4082.4628400331289</v>
       </c>
       <c r="O53" s="90">
-        <v>489.09846886337277</v>
+        <v>488.92573978769587</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -4485,19 +4390,19 @@
       </c>
       <c r="K54" s="2">
         <f t="shared" si="3"/>
-        <v>45999.955203361016</v>
-      </c>
-      <c r="L54" s="136">
-        <v>40638.230000000003</v>
-      </c>
-      <c r="M54" s="163">
-        <v>5361.7252033610112</v>
-      </c>
-      <c r="N54" s="234">
-        <v>5339.3544532514388</v>
+        <v>45999.685833871641</v>
+      </c>
+      <c r="L54" s="168">
+        <v>40636.790976347329</v>
+      </c>
+      <c r="M54" s="126">
+        <v>5362.8948575243094</v>
+      </c>
+      <c r="N54" s="160">
+        <v>5336.8332939198426</v>
       </c>
       <c r="O54" s="88">
-        <v>662.52126571851863</v>
+        <v>662.25447296953882</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -4534,16 +4439,16 @@
       </c>
       <c r="K55" s="2">
         <f t="shared" si="3"/>
-        <v>45337.43028826479</v>
-      </c>
-      <c r="L55" s="137">
-        <v>44466.85</v>
+        <v>45337.431360902105</v>
+      </c>
+      <c r="L55" s="10">
+        <v>44466.823912807893</v>
       </c>
       <c r="M55" s="35">
-        <v>870.58028826479085</v>
+        <v>870.60744809420964</v>
       </c>
       <c r="N55" s="72">
-        <v>14336.46364295511</v>
+        <v>14336.39511655654</v>
       </c>
       <c r="O55" s="3">
         <v>0</v>
@@ -4583,16 +4488,16 @@
       </c>
       <c r="K56" s="2">
         <f t="shared" si="3"/>
-        <v>45337.436215495487</v>
-      </c>
-      <c r="L56" s="138">
-        <v>44490.75</v>
+        <v>45337.431360902105</v>
+      </c>
+      <c r="L56" s="100">
+        <v>44490.717985577197</v>
       </c>
       <c r="M56" s="28">
-        <v>846.68621549548561</v>
+        <v>846.7133753249044</v>
       </c>
       <c r="N56" s="72">
-        <v>14396.64852189639</v>
+        <v>14396.579995497819</v>
       </c>
       <c r="O56" s="3">
         <v>0</v>
@@ -4632,16 +4537,16 @@
       </c>
       <c r="K57" s="2">
         <f t="shared" si="3"/>
-        <v>45337.435233932913</v>
-      </c>
-      <c r="L57" s="138">
-        <v>44518.879999999997</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L57" s="100">
+        <v>44518.848967139762</v>
       </c>
       <c r="M57" s="28">
-        <v>818.55523393291776</v>
+        <v>818.58239376233701</v>
       </c>
       <c r="N57" s="20">
-        <v>14467.4977514981</v>
+        <v>14467.42922509952</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4681,16 +4586,16 @@
       </c>
       <c r="K58" s="2">
         <f t="shared" si="3"/>
-        <v>45337.426823132249</v>
-      </c>
-      <c r="L58" s="138">
-        <v>44501.42</v>
+        <v>45337.431360902105</v>
+      </c>
+      <c r="L58" s="100">
+        <v>44501.397377940433</v>
       </c>
       <c r="M58" s="28">
-        <v>836.00682313224991</v>
+        <v>836.03398296166847</v>
       </c>
       <c r="N58" s="20">
-        <v>14423.372217385941</v>
+        <v>14423.303690987361</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4730,16 +4635,16 @@
       </c>
       <c r="K59" s="2">
         <f t="shared" si="3"/>
-        <v>45337.428577399078</v>
-      </c>
-      <c r="L59" s="138">
-        <v>44502.6</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L59" s="100">
+        <v>44502.543400553659</v>
       </c>
       <c r="M59" s="28">
-        <v>834.82857739908195</v>
+        <v>834.88796034844177</v>
       </c>
       <c r="N59" s="20">
-        <v>14426.765099057529</v>
+        <v>14426.61552909569</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4779,16 +4684,16 @@
       </c>
       <c r="K60" s="2">
         <f t="shared" si="3"/>
-        <v>45337.428317137616</v>
-      </c>
-      <c r="L60" s="138">
-        <v>44511.839999999997</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L60" s="100">
+        <v>44511.783660815112</v>
       </c>
       <c r="M60" s="28">
-        <v>825.58831713762083</v>
+        <v>825.64770008698088</v>
       </c>
       <c r="N60" s="20">
-        <v>14449.96513881417</v>
+        <v>14449.81556885234</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -4828,16 +4733,16 @@
       </c>
       <c r="K61" s="2">
         <f t="shared" si="3"/>
-        <v>45337.42947480669</v>
-      </c>
-      <c r="L61" s="138">
-        <v>44523.16</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L61" s="100">
+        <v>44523.102503146052</v>
       </c>
       <c r="M61" s="28">
-        <v>814.26947480668605</v>
+        <v>814.32885775604609</v>
       </c>
       <c r="N61" s="20">
-        <v>14478.381719606219</v>
+        <v>14478.232149644389</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4877,16 +4782,16 @@
       </c>
       <c r="K62" s="2">
         <f t="shared" si="3"/>
-        <v>45337.429245957297</v>
-      </c>
-      <c r="L62" s="138">
-        <v>44522.21</v>
+        <v>45337.431360902105</v>
+      </c>
+      <c r="L62" s="100">
+        <v>44522.152731995448</v>
       </c>
       <c r="M62" s="28">
-        <v>815.21924595729865</v>
+        <v>815.27862890665858</v>
       </c>
       <c r="N62" s="20">
-        <v>14475.9040845072</v>
+        <v>14475.754514545361</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4908,7 +4813,7 @@
       <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="101">
+      <c r="F63" s="100">
         <v>44706.331939498363</v>
       </c>
       <c r="G63" s="36">
@@ -4926,16 +4831,16 @@
       </c>
       <c r="K63" s="2">
         <f t="shared" si="3"/>
-        <v>45337.427168985632</v>
-      </c>
-      <c r="L63" s="139">
-        <v>44589.9</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L63" s="69">
+        <v>44589.869144621203</v>
       </c>
       <c r="M63" s="39">
-        <v>747.52716898563085</v>
+        <v>747.56221628089099</v>
       </c>
       <c r="N63" s="24">
-        <v>14646.29085739002</v>
+        <v>14646.20348020904</v>
       </c>
       <c r="O63" s="3">
         <v>0</v>
@@ -4957,7 +4862,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="101">
+      <c r="F64" s="100">
         <v>44708.820402533551</v>
       </c>
       <c r="G64" s="36">
@@ -4975,16 +4880,16 @@
       </c>
       <c r="K64" s="2">
         <f t="shared" si="3"/>
-        <v>45337.434044983733</v>
-      </c>
-      <c r="L64" s="140">
-        <v>44592.01</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L64" s="169">
+        <v>44591.972268623103</v>
       </c>
       <c r="M64" s="39">
-        <v>745.42404498373367</v>
+        <v>745.45909227899369</v>
       </c>
       <c r="N64" s="24">
-        <v>14651.53274150672</v>
+        <v>14651.445364325749</v>
       </c>
       <c r="O64" s="3">
         <v>0</v>
@@ -5024,16 +4929,16 @@
       </c>
       <c r="K65" s="2">
         <f t="shared" si="3"/>
-        <v>45337.432512054293</v>
-      </c>
-      <c r="L65" s="139">
-        <v>44562.93</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L65" s="69">
+        <v>44562.841070274393</v>
       </c>
       <c r="M65" s="36">
-        <v>774.50251205429561</v>
+        <v>774.59029062769946</v>
       </c>
       <c r="N65" s="19">
-        <v>14578.68764784007</v>
+        <v>14578.468228151511</v>
       </c>
       <c r="O65" s="3">
         <v>0</v>
@@ -5073,16 +4978,16 @@
       </c>
       <c r="K66" s="2">
         <f t="shared" si="3"/>
-        <v>45337.43072348008</v>
-      </c>
-      <c r="L66" s="139">
-        <v>44565.97</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L66" s="69">
+        <v>44565.882858848607</v>
       </c>
       <c r="M66" s="36">
-        <v>771.46072348008238</v>
+        <v>771.54850205348691</v>
       </c>
       <c r="N66" s="19">
-        <v>14586.26866467298</v>
+        <v>14586.049244984421</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -5122,15 +5027,15 @@
       </c>
       <c r="K67" s="2">
         <f t="shared" si="3"/>
-        <v>45337.42897315399</v>
-      </c>
-      <c r="L67" s="141">
-        <v>44763.44</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L67" s="170">
+        <v>44763.442387748102</v>
       </c>
       <c r="M67" s="27">
         <v>573.98897315398642</v>
       </c>
-      <c r="N67" s="102">
+      <c r="N67" s="101">
         <v>15078.75286938478</v>
       </c>
       <c r="O67" s="3">
@@ -5171,15 +5076,15 @@
       </c>
       <c r="K68" s="2">
         <f t="shared" si="3"/>
-        <v>45337.42897315399</v>
-      </c>
-      <c r="L68" s="141">
-        <v>44763.44</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L68" s="170">
+        <v>44763.442387748102</v>
       </c>
       <c r="M68" s="27">
         <v>573.98897315398642</v>
       </c>
-      <c r="N68" s="102">
+      <c r="N68" s="101">
         <v>15078.75286938478</v>
       </c>
       <c r="O68" s="3">
@@ -5220,15 +5125,15 @@
       </c>
       <c r="K69" s="2">
         <f t="shared" si="3"/>
-        <v>45337.42897315399</v>
-      </c>
-      <c r="L69" s="141">
-        <v>44763.44</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L69" s="170">
+        <v>44763.442387748102</v>
       </c>
       <c r="M69" s="27">
         <v>573.98897315398642</v>
       </c>
-      <c r="N69" s="102">
+      <c r="N69" s="101">
         <v>15078.75286938478</v>
       </c>
       <c r="O69" s="3">
@@ -5269,16 +5174,16 @@
       </c>
       <c r="K70" s="2">
         <f t="shared" si="3"/>
-        <v>45337.433441098816</v>
-      </c>
-      <c r="L70" s="142">
-        <v>44657.15</v>
-      </c>
-      <c r="M70" s="40">
-        <v>680.28344109881436</v>
-      </c>
-      <c r="N70" s="22">
-        <v>14813.837897955689</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L70" s="11">
+        <v>44688.824721812911</v>
+      </c>
+      <c r="M70" s="27">
+        <v>648.60663908918559</v>
+      </c>
+      <c r="N70" s="23">
+        <v>14892.886700344859</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -5318,15 +5223,15 @@
       </c>
       <c r="K71" s="2">
         <f t="shared" si="3"/>
-        <v>45337.42897315399</v>
-      </c>
-      <c r="L71" s="141">
-        <v>44763.44</v>
+        <v>45337.43136090209</v>
+      </c>
+      <c r="L71" s="170">
+        <v>44763.442387748102</v>
       </c>
       <c r="M71" s="27">
         <v>573.98897315398642</v>
       </c>
-      <c r="N71" s="102">
+      <c r="N71" s="101">
         <v>15078.75286938478</v>
       </c>
       <c r="O71" s="3">
@@ -5367,10 +5272,10 @@
       </c>
       <c r="K72" s="2">
         <f t="shared" si="3"/>
-        <v>45337.427697732921</v>
-      </c>
-      <c r="L72" s="142">
-        <v>44748.14</v>
+        <v>45337.431360902105</v>
+      </c>
+      <c r="L72" s="11">
+        <v>44748.143663169183</v>
       </c>
       <c r="M72" s="27">
         <v>589.28769773292242</v>
@@ -5416,10 +5321,10 @@
       </c>
       <c r="K73" s="2">
         <f t="shared" ref="K73:K112" si="5">M73+L73</f>
-        <v>45337.427972157457</v>
-      </c>
-      <c r="L73" s="142">
-        <v>44748.26</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L73" s="11">
+        <v>44748.263388744643</v>
       </c>
       <c r="M73" s="27">
         <v>589.16797215745635</v>
@@ -5465,10 +5370,10 @@
       </c>
       <c r="K74" s="2">
         <f t="shared" si="5"/>
-        <v>45337.431910678846</v>
-      </c>
-      <c r="L74" s="142">
-        <v>44748.89</v>
+        <v>45337.431360902097</v>
+      </c>
+      <c r="L74" s="11">
+        <v>44748.889450223251</v>
       </c>
       <c r="M74" s="27">
         <v>588.54191067885017</v>
@@ -5514,19 +5419,19 @@
       </c>
       <c r="K75" s="2">
         <f t="shared" si="5"/>
-        <v>53356.376956200947</v>
-      </c>
-      <c r="L75" s="143">
-        <v>41207.599999999999</v>
+        <v>53354.572088104549</v>
+      </c>
+      <c r="L75" s="171">
+        <v>41205.887412842967</v>
       </c>
       <c r="M75" s="29">
-        <v>12148.776956200951</v>
+        <v>12148.68467526158</v>
       </c>
       <c r="N75" s="27">
         <v>0</v>
       </c>
       <c r="O75" s="52">
-        <v>889.55817930488354</v>
+        <v>887.74858068479102</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -5563,19 +5468,19 @@
       </c>
       <c r="K76" s="2">
         <f t="shared" si="5"/>
-        <v>53962.362478361181</v>
-      </c>
-      <c r="L76" s="144">
-        <v>41756.79</v>
+        <v>53960.553703613274</v>
+      </c>
+      <c r="L76" s="172">
+        <v>41755.07350619146</v>
       </c>
       <c r="M76" s="30">
-        <v>12205.57247836118</v>
+        <v>12205.48019742181</v>
       </c>
       <c r="N76" s="27">
         <v>0</v>
       </c>
       <c r="O76" s="13">
-        <v>1495.539794813611</v>
+        <v>1493.7301961935179</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -5612,19 +5517,19 @@
       </c>
       <c r="K77" s="2">
         <f t="shared" si="5"/>
-        <v>54573.591354626937</v>
-      </c>
-      <c r="L77" s="145">
-        <v>42309.95</v>
+        <v>54571.786298433966</v>
+      </c>
+      <c r="L77" s="173">
+        <v>42308.237224746394</v>
       </c>
       <c r="M77" s="31">
-        <v>12263.64135462694</v>
+        <v>12263.549073687571</v>
       </c>
       <c r="N77" s="27">
         <v>0</v>
       </c>
       <c r="O77" s="53">
-        <v>2106.7723896342909</v>
+        <v>2104.962791014199</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -5661,19 +5566,19 @@
       </c>
       <c r="K78" s="2">
         <f t="shared" si="5"/>
-        <v>55263.159557212821</v>
-      </c>
-      <c r="L78" s="146">
-        <v>42986.15</v>
+        <v>55261.354476986766</v>
+      </c>
+      <c r="L78" s="174">
+        <v>42984.437200713328</v>
       </c>
       <c r="M78" s="31">
-        <v>12277.009557212819</v>
+        <v>12276.91727627344</v>
       </c>
       <c r="N78" s="27">
         <v>0</v>
       </c>
       <c r="O78" s="18">
-        <v>2796.3405681871081</v>
+        <v>2794.5309695670148</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -5710,19 +5615,19 @@
       </c>
       <c r="K79" s="2">
         <f t="shared" si="5"/>
-        <v>52526.924047232744</v>
-      </c>
-      <c r="L79" s="147">
-        <v>40454.910000000003</v>
+        <v>52526.89814328371</v>
+      </c>
+      <c r="L79" s="98">
+        <v>40454.889634454972</v>
       </c>
       <c r="M79" s="64">
-        <v>12072.01404723274</v>
+        <v>12072.00850882874</v>
       </c>
       <c r="N79" s="27">
         <v>0</v>
       </c>
       <c r="O79" s="46">
-        <v>60.09835598885094</v>
+        <v>60.074635863956367</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -5759,19 +5664,19 @@
       </c>
       <c r="K80" s="2">
         <f t="shared" si="5"/>
-        <v>52552.674371110268</v>
-      </c>
-      <c r="L80" s="148">
-        <v>40474.559999999998</v>
+        <v>52552.651475629747</v>
+      </c>
+      <c r="L80" s="175">
+        <v>40474.542642923479</v>
       </c>
       <c r="M80" s="64">
-        <v>12078.11437111027</v>
+        <v>12078.10883270627</v>
       </c>
       <c r="N80" s="27">
         <v>0</v>
       </c>
       <c r="O80" s="48">
-        <v>85.851688334889175</v>
+        <v>85.827968209994623</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -5808,19 +5713,19 @@
       </c>
       <c r="K81" s="2">
         <f t="shared" si="5"/>
-        <v>52593.232718317493</v>
-      </c>
-      <c r="L81" s="148">
-        <v>40505.61</v>
+        <v>52593.066705650715</v>
+      </c>
+      <c r="L81" s="175">
+        <v>40505.481725909987</v>
       </c>
       <c r="M81" s="64">
-        <v>12087.622718317491</v>
+        <v>12087.58497974073</v>
       </c>
       <c r="N81" s="27">
         <v>0</v>
       </c>
       <c r="O81" s="5">
-        <v>126.4091673539462</v>
+        <v>126.24319823096781</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -5857,19 +5762,19 @@
       </c>
       <c r="K82" s="2">
         <f t="shared" si="5"/>
-        <v>52566.113397677887</v>
-      </c>
-      <c r="L82" s="148">
-        <v>40484.75</v>
+        <v>52566.09444794515</v>
+      </c>
+      <c r="L82" s="175">
+        <v>40484.736588671251</v>
       </c>
       <c r="M82" s="64">
-        <v>12081.363397677889</v>
+        <v>12081.3578592739</v>
       </c>
       <c r="N82" s="27">
         <v>0</v>
       </c>
       <c r="O82" s="47">
-        <v>99.294660650289615</v>
+        <v>99.270940525395034</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -5906,19 +5811,19 @@
       </c>
       <c r="K83" s="2">
         <f t="shared" si="5"/>
-        <v>52479.72963450486</v>
-      </c>
-      <c r="L83" s="147">
-        <v>40418.879999999997</v>
+        <v>52479.711617542765</v>
+      </c>
+      <c r="L83" s="98">
+        <v>40418.867094668989</v>
       </c>
       <c r="M83" s="64">
-        <v>12060.849634504861</v>
+        <v>12060.84452287378</v>
       </c>
       <c r="N83" s="27">
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>12.90929501766869</v>
+        <v>12.888110123016279</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -5955,19 +5860,19 @@
       </c>
       <c r="K84" s="2">
         <f t="shared" si="5"/>
-        <v>52486.793473900267</v>
-      </c>
-      <c r="L84" s="147">
-        <v>40424.239999999998</v>
+        <v>52486.707608158838</v>
+      </c>
+      <c r="L84" s="98">
+        <v>40424.174261542648</v>
       </c>
       <c r="M84" s="64">
-        <v>12062.553473900271</v>
+        <v>12062.53334661619</v>
       </c>
       <c r="N84" s="27">
         <v>0</v>
       </c>
       <c r="O84" s="3">
-        <v>19.96795399733703</v>
+        <v>19.884100739085142</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
@@ -6004,19 +5909,19 @@
       </c>
       <c r="K85" s="2">
         <f t="shared" si="5"/>
-        <v>52498.729527327603</v>
-      </c>
-      <c r="L85" s="147">
-        <v>40433.300000000003</v>
+        <v>52498.645426137678</v>
+      </c>
+      <c r="L85" s="98">
+        <v>40433.236026094157</v>
       </c>
       <c r="M85" s="64">
-        <v>12065.4295273276</v>
+        <v>12065.40940004352</v>
       </c>
       <c r="N85" s="27">
         <v>0</v>
       </c>
       <c r="O85" s="4">
-        <v>31.905771976179441</v>
+        <v>31.821918717927559</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -6053,19 +5958,19 @@
       </c>
       <c r="K86" s="2">
         <f t="shared" si="5"/>
-        <v>52499.703105597269</v>
-      </c>
-      <c r="L86" s="147">
-        <v>40434.03</v>
+        <v>52499.614508300809</v>
+      </c>
+      <c r="L86" s="98">
+        <v>40433.961529987617</v>
       </c>
       <c r="M86" s="64">
-        <v>12065.67310559727</v>
+        <v>12065.65297831319</v>
       </c>
       <c r="N86" s="27">
         <v>0</v>
       </c>
       <c r="O86" s="50">
-        <v>32.874854139304972</v>
+        <v>32.79100088105308</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -6102,19 +6007,19 @@
       </c>
       <c r="K87" s="2">
         <f t="shared" si="5"/>
-        <v>52468.913140218428</v>
-      </c>
-      <c r="L87" s="147">
-        <v>40410.68</v>
+        <v>52468.899600246688</v>
+      </c>
+      <c r="L87" s="98">
+        <v>40410.669457209122</v>
       </c>
       <c r="M87" s="64">
-        <v>12058.23314021843</v>
+        <v>12058.23014303757</v>
       </c>
       <c r="N87" s="27">
         <v>0</v>
       </c>
       <c r="O87" s="3">
-        <v>2.088454415073838</v>
+        <v>2.0760928269378942</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -6151,19 +6056,19 @@
       </c>
       <c r="K88" s="2">
         <f t="shared" si="5"/>
-        <v>52470.221644733974</v>
-      </c>
-      <c r="L88" s="147">
-        <v>40411.67</v>
+        <v>52470.213033737382</v>
+      </c>
+      <c r="L88" s="98">
+        <v>40411.66438618426</v>
       </c>
       <c r="M88" s="64">
-        <v>12058.55164473398</v>
+        <v>12058.54864755312</v>
       </c>
       <c r="N88" s="27">
         <v>0</v>
       </c>
       <c r="O88" s="3">
-        <v>3.4018879057641249</v>
+        <v>3.389526317628182</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -6200,19 +6105,19 @@
       </c>
       <c r="K89" s="2">
         <f t="shared" si="5"/>
-        <v>52472.515808240023</v>
-      </c>
-      <c r="L89" s="147">
-        <v>40413.410000000003</v>
+        <v>52472.472941506698</v>
+      </c>
+      <c r="L89" s="98">
+        <v>40413.37642507819</v>
       </c>
       <c r="M89" s="64">
-        <v>12059.10580824002</v>
+        <v>12059.09651642851</v>
       </c>
       <c r="N89" s="27">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>5.6877804700708907</v>
+        <v>5.6494340869453747</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -6249,19 +6154,19 @@
       </c>
       <c r="K90" s="2">
         <f t="shared" si="5"/>
-        <v>52476.635729779438</v>
-      </c>
-      <c r="L90" s="147">
-        <v>40416.53</v>
+        <v>52476.596608216503</v>
+      </c>
+      <c r="L90" s="98">
+        <v>40416.500170248582</v>
       </c>
       <c r="M90" s="64">
-        <v>12060.10572977944</v>
+        <v>12060.096437967921</v>
       </c>
       <c r="N90" s="27">
         <v>0</v>
       </c>
       <c r="O90" s="3">
-        <v>9.8114471798675957</v>
+        <v>9.7731007967420798</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -6298,10 +6203,10 @@
       </c>
       <c r="K91" s="2">
         <f t="shared" si="5"/>
-        <v>52466.826625124588</v>
-      </c>
-      <c r="L91" s="147">
-        <v>40409.1</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L91" s="98">
+        <v>40409.096882295169</v>
       </c>
       <c r="M91" s="64">
         <v>12057.726625124589</v>
@@ -6347,10 +6252,10 @@
       </c>
       <c r="K92" s="2">
         <f t="shared" si="5"/>
-        <v>52466.826625124588</v>
-      </c>
-      <c r="L92" s="147">
-        <v>40409.1</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L92" s="98">
+        <v>40409.096882295169</v>
       </c>
       <c r="M92" s="64">
         <v>12057.726625124589</v>
@@ -6396,10 +6301,10 @@
       </c>
       <c r="K93" s="2">
         <f t="shared" si="5"/>
-        <v>52466.826625124588</v>
-      </c>
-      <c r="L93" s="147">
-        <v>40409.1</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L93" s="98">
+        <v>40409.096882295169</v>
       </c>
       <c r="M93" s="64">
         <v>12057.726625124589</v>
@@ -6445,10 +6350,10 @@
       </c>
       <c r="K94" s="2">
         <f t="shared" si="5"/>
-        <v>52467.461150326249</v>
-      </c>
-      <c r="L94" s="147">
-        <v>40409.58</v>
+        <v>52467.46054690858</v>
+      </c>
+      <c r="L94" s="98">
+        <v>40409.579396582332</v>
       </c>
       <c r="M94" s="64">
         <v>12057.88115032625</v>
@@ -6494,10 +6399,10 @@
       </c>
       <c r="K95" s="2">
         <f t="shared" si="5"/>
-        <v>52466.946099379973</v>
-      </c>
-      <c r="L95" s="147">
-        <v>40409.19</v>
+        <v>52466.945016820064</v>
+      </c>
+      <c r="L95" s="98">
+        <v>40409.188917440093</v>
       </c>
       <c r="M95" s="64">
         <v>12057.756099379971</v>
@@ -6543,10 +6448,10 @@
       </c>
       <c r="K96" s="2">
         <f t="shared" si="5"/>
-        <v>52467.119233125748</v>
-      </c>
-      <c r="L96" s="147">
-        <v>40409.32</v>
+        <v>52467.122838295538</v>
+      </c>
+      <c r="L96" s="98">
+        <v>40409.32360516979</v>
       </c>
       <c r="M96" s="64">
         <v>12057.79923312575</v>
@@ -6592,10 +6497,10 @@
       </c>
       <c r="K97" s="2">
         <f t="shared" si="5"/>
-        <v>52467.343811304927</v>
-      </c>
-      <c r="L97" s="147">
-        <v>40409.49</v>
+        <v>52467.347840139861</v>
+      </c>
+      <c r="L97" s="98">
+        <v>40409.494028834932</v>
       </c>
       <c r="M97" s="64">
         <v>12057.853811304931</v>
@@ -6641,10 +6546,10 @@
       </c>
       <c r="K98" s="2">
         <f t="shared" si="5"/>
-        <v>52468.529208100299</v>
-      </c>
-      <c r="L98" s="147">
-        <v>40410.39</v>
+        <v>52468.524405688229</v>
+      </c>
+      <c r="L98" s="98">
+        <v>40410.38519758793</v>
       </c>
       <c r="M98" s="64">
         <v>12058.1392081003</v>
@@ -6675,7 +6580,7 @@
       <c r="F99" s="88">
         <v>40963.360449785352</v>
       </c>
-      <c r="G99" s="116">
+      <c r="G99" s="115">
         <v>11728.230631240071</v>
       </c>
       <c r="H99" s="83">
@@ -6690,19 +6595,19 @@
       </c>
       <c r="K99" s="2">
         <f t="shared" si="5"/>
-        <v>52691.589232649327</v>
-      </c>
-      <c r="L99" s="149">
-        <v>40939.89</v>
-      </c>
-      <c r="M99" s="116">
-        <v>11751.699232649329</v>
+        <v>52691.294469000604</v>
+      </c>
+      <c r="L99" s="88">
+        <v>40938.896616013983</v>
+      </c>
+      <c r="M99" s="115">
+        <v>11752.39785298662</v>
       </c>
       <c r="N99" s="33">
-        <v>1438.712105889249</v>
+        <v>1435.7101557622641</v>
       </c>
       <c r="O99" s="8">
-        <v>224.76757360566751</v>
+        <v>224.47096158083809</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
@@ -6724,7 +6629,7 @@
       <c r="F100" s="17">
         <v>41350.638206860916</v>
       </c>
-      <c r="G100" s="117">
+      <c r="G100" s="116">
         <v>11609.887903751671</v>
       </c>
       <c r="H100" s="84">
@@ -6739,19 +6644,19 @@
       </c>
       <c r="K100" s="2">
         <f t="shared" si="5"/>
-        <v>52960.53065960059</v>
-      </c>
-      <c r="L100" s="150">
-        <v>41321.03</v>
-      </c>
-      <c r="M100" s="105">
-        <v>11639.50065960059</v>
-      </c>
-      <c r="N100" s="229">
-        <v>2073.8844217925271</v>
+        <v>52960.16404986188</v>
+      </c>
+      <c r="L100" s="176">
+        <v>41320.020674478481</v>
+      </c>
+      <c r="M100" s="104">
+        <v>11640.143375383401</v>
+      </c>
+      <c r="N100" s="155">
+        <v>2071.087232439284</v>
       </c>
       <c r="O100" s="63">
-        <v>493.70260319283949</v>
+        <v>493.34054244212069</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -6773,7 +6678,7 @@
       <c r="F101" s="71">
         <v>41746.568396109848</v>
       </c>
-      <c r="G101" s="118">
+      <c r="G101" s="117">
         <v>11525.464001136979</v>
       </c>
       <c r="H101" s="85">
@@ -6788,19 +6693,19 @@
       </c>
       <c r="K101" s="2">
         <f t="shared" si="5"/>
-        <v>53272.034739796909</v>
-      </c>
-      <c r="L101" s="151">
-        <v>41713.449999999997</v>
-      </c>
-      <c r="M101" s="164">
-        <v>11558.58473979691</v>
+        <v>53271.59809383141</v>
+      </c>
+      <c r="L101" s="15">
+        <v>41712.424247624171</v>
+      </c>
+      <c r="M101" s="127">
+        <v>11559.173846207241</v>
       </c>
       <c r="N101" s="76">
-        <v>2599.2564087162359</v>
+        <v>2596.6548845092739</v>
       </c>
       <c r="O101" s="71">
-        <v>805.20888982707118</v>
+        <v>804.77458641165322</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -6819,10 +6724,10 @@
       <c r="E102" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="110">
+      <c r="F102" s="109">
         <v>42226.246417872993</v>
       </c>
-      <c r="G102" s="119">
+      <c r="G102" s="118">
         <v>11261.735670595101</v>
       </c>
       <c r="H102" s="86">
@@ -6837,19 +6742,19 @@
       </c>
       <c r="K102" s="2">
         <f t="shared" si="5"/>
-        <v>53487.984176696438</v>
-      </c>
-      <c r="L102" s="152">
-        <v>42180.12</v>
-      </c>
-      <c r="M102" s="119">
-        <v>11307.864176696439</v>
+        <v>53487.297163060524</v>
+      </c>
+      <c r="L102" s="177">
+        <v>42179.023969339243</v>
+      </c>
+      <c r="M102" s="118">
+        <v>11308.273193721279</v>
       </c>
       <c r="N102" s="65">
-        <v>3615.4423748824011</v>
+        <v>3613.528657774847</v>
       </c>
       <c r="O102" s="56">
-        <v>1021.1585810483321</v>
+        <v>1020.473655640766</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -6886,19 +6791,19 @@
       </c>
       <c r="K103" s="2">
         <f t="shared" si="5"/>
-        <v>52496.718647852234</v>
-      </c>
-      <c r="L103" s="144">
-        <v>41757.35</v>
+        <v>52496.694983800204</v>
+      </c>
+      <c r="L103" s="172">
+        <v>41757.331874345597</v>
       </c>
       <c r="M103" s="73">
-        <v>10739.36864785224</v>
+        <v>10739.363109454611</v>
       </c>
       <c r="N103" s="78">
-        <v>5254.6589448314771</v>
+        <v>5254.658944806094</v>
       </c>
       <c r="O103" s="4">
-        <v>29.8951965027391</v>
+        <v>29.871476380451401</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
@@ -6935,19 +6840,19 @@
       </c>
       <c r="K104" s="2">
         <f t="shared" si="5"/>
-        <v>52522.465581387652</v>
-      </c>
-      <c r="L104" s="144">
-        <v>41777</v>
+        <v>52522.446794956872</v>
+      </c>
+      <c r="L104" s="172">
+        <v>41776.986751973222</v>
       </c>
       <c r="M104" s="73">
-        <v>10745.465581387651</v>
+        <v>10745.46004298365</v>
       </c>
       <c r="N104" s="78">
         <v>5254.6723263605236</v>
       </c>
       <c r="O104" s="46">
-        <v>55.64700766200211</v>
+        <v>55.623287537107551</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -6984,19 +6889,19 @@
       </c>
       <c r="K105" s="2">
         <f t="shared" si="5"/>
-        <v>52553.338263306607</v>
-      </c>
-      <c r="L105" s="153">
-        <v>41800.39</v>
+        <v>52553.318565249006</v>
+      </c>
+      <c r="L105" s="178">
+        <v>41800.340933825653</v>
       </c>
       <c r="M105" s="73">
-        <v>10752.948263306611</v>
+        <v>10752.97763142335</v>
       </c>
       <c r="N105" s="78">
-        <v>5253.9275841944218</v>
+        <v>5253.7717668730747</v>
       </c>
       <c r="O105" s="48">
-        <v>86.51877795413894</v>
+        <v>86.495057829244374</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -7033,19 +6938,19 @@
       </c>
       <c r="K106" s="2">
         <f t="shared" si="5"/>
-        <v>52535.914607955267</v>
-      </c>
-      <c r="L106" s="144">
-        <v>41787.199999999997</v>
+        <v>52535.889767272267</v>
+      </c>
+      <c r="L106" s="172">
+        <v>41787.180697721</v>
       </c>
       <c r="M106" s="73">
-        <v>10748.714607955269</v>
+        <v>10748.709069551271</v>
       </c>
       <c r="N106" s="78">
         <v>5254.6723263605236</v>
       </c>
       <c r="O106" s="57">
-        <v>69.089979977402564</v>
+        <v>69.066259852508011</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
@@ -7082,19 +6987,19 @@
       </c>
       <c r="K107" s="2">
         <f t="shared" si="5"/>
-        <v>52469.14102013364</v>
-      </c>
-      <c r="L107" s="151">
-        <v>41736.31</v>
+        <v>52469.139786024141</v>
+      </c>
+      <c r="L107" s="15">
+        <v>41736.310042082863</v>
       </c>
       <c r="M107" s="73">
-        <v>10732.831020133641</v>
+        <v>10732.82974394128</v>
       </c>
       <c r="N107" s="78">
-        <v>5254.6580609289849</v>
+        <v>5254.6580580530517</v>
       </c>
       <c r="O107" s="3">
-        <v>2.321555727683656</v>
+        <v>2.316278604380043</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
@@ -7131,19 +7036,19 @@
       </c>
       <c r="K108" s="2">
         <f t="shared" si="5"/>
-        <v>52474.920845504646</v>
-      </c>
-      <c r="L108" s="151">
-        <v>41739.919999999998</v>
+        <v>52474.895166927556</v>
+      </c>
+      <c r="L108" s="15">
+        <v>41739.884054847018</v>
       </c>
       <c r="M108" s="73">
-        <v>10735.00084550465</v>
+        <v>10735.01111208054</v>
       </c>
       <c r="N108" s="78">
-        <v>5251.2003406266431</v>
+        <v>5251.1316946840998</v>
       </c>
       <c r="O108" s="3">
-        <v>8.0928444024474402</v>
+        <v>8.0716595077950366</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
@@ -7180,19 +7085,19 @@
       </c>
       <c r="K109" s="2">
         <f t="shared" si="5"/>
-        <v>52483.362514767083</v>
-      </c>
-      <c r="L109" s="144">
-        <v>41747.1</v>
+        <v>52483.278808824442</v>
+      </c>
+      <c r="L109" s="172">
+        <v>41747.036421341443</v>
       </c>
       <c r="M109" s="73">
-        <v>10736.262514767081</v>
+        <v>10736.242387483</v>
       </c>
       <c r="N109" s="78">
         <v>5254.6723263605236</v>
       </c>
       <c r="O109" s="3">
-        <v>16.539154662934578</v>
+        <v>16.45530140468269</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -7229,19 +7134,19 @@
       </c>
       <c r="K110" s="2">
         <f t="shared" si="5"/>
-        <v>52485.896877009342</v>
-      </c>
-      <c r="L110" s="144">
-        <v>41748.71</v>
+        <v>52485.877099448582</v>
+      </c>
+      <c r="L110" s="172">
+        <v>41748.67995586335</v>
       </c>
       <c r="M110" s="73">
-        <v>10737.186877009341</v>
+        <v>10737.19714358523</v>
       </c>
       <c r="N110" s="78">
-        <v>5253.3089199658098</v>
+        <v>5253.2402740232656</v>
       </c>
       <c r="O110" s="3">
-        <v>19.074776923476239</v>
+        <v>19.053592028823839</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
@@ -7278,16 +7183,16 @@
       </c>
       <c r="K111" s="2">
         <f t="shared" si="5"/>
-        <v>52467.096565937121</v>
-      </c>
-      <c r="L111" s="151">
-        <v>41734.44</v>
+        <v>52467.091736566777</v>
+      </c>
+      <c r="L111" s="15">
+        <v>41734.432137106189</v>
       </c>
       <c r="M111" s="73">
-        <v>10732.656565937121</v>
+        <v>10732.65959946059</v>
       </c>
       <c r="N111" s="78">
-        <v>5253.2176083207778</v>
+        <v>5253.2040671401792</v>
       </c>
       <c r="O111" s="3">
         <v>0.26822914702826722</v>
@@ -7327,19 +7232,19 @@
       </c>
       <c r="K112" s="2">
         <f t="shared" si="5"/>
-        <v>52467.388641725716</v>
-      </c>
-      <c r="L112" s="151">
-        <v>41734.910000000003</v>
+        <v>52467.386588296431</v>
+      </c>
+      <c r="L112" s="15">
+        <v>41734.90676953557</v>
       </c>
       <c r="M112" s="73">
-        <v>10732.478641725709</v>
+        <v>10732.479818760859</v>
       </c>
       <c r="N112" s="78">
-        <v>5254.3352032877801</v>
+        <v>5254.3258302297754</v>
       </c>
       <c r="O112" s="3">
-        <v>0.56688559770530422</v>
+        <v>0.56308087666776196</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
@@ -7376,19 +7281,19 @@
       </c>
       <c r="K113" s="2">
         <f t="shared" ref="K113:K146" si="7">M113+L113</f>
-        <v>52468.664796842691</v>
-      </c>
-      <c r="L113" s="151">
-        <v>41735.72</v>
+        <v>52468.652505577549</v>
+      </c>
+      <c r="L113" s="15">
+        <v>41735.704329499727</v>
       </c>
       <c r="M113" s="73">
-        <v>10732.94479684269</v>
+        <v>10732.94817607782</v>
       </c>
       <c r="N113" s="78">
-        <v>5253.6340571354267</v>
+        <v>5253.6055937985639</v>
       </c>
       <c r="O113" s="3">
-        <v>1.841359745926942</v>
+        <v>1.8289981577909979</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
@@ -7425,19 +7330,19 @@
       </c>
       <c r="K114" s="2">
         <f t="shared" si="7"/>
-        <v>52472.160410168362</v>
-      </c>
-      <c r="L114" s="151">
-        <v>41738.519999999997</v>
+        <v>52472.152120717306</v>
+      </c>
+      <c r="L114" s="15">
+        <v>41738.508331313817</v>
       </c>
       <c r="M114" s="73">
-        <v>10733.640410168369</v>
+        <v>10733.64378940349</v>
       </c>
       <c r="N114" s="78">
-        <v>5254.3176334370819</v>
+        <v>5254.2891701002191</v>
       </c>
       <c r="O114" s="3">
-        <v>5.340974885699489</v>
+        <v>5.3286132975635452</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
@@ -7474,10 +7379,10 @@
       </c>
       <c r="K115" s="2">
         <f t="shared" si="7"/>
-        <v>52466.8256132467</v>
-      </c>
-      <c r="L115" s="151">
-        <v>41734.559999999998</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L115" s="15">
+        <v>41734.557894173056</v>
       </c>
       <c r="M115" s="73">
         <v>10732.2656132467</v>
@@ -7523,10 +7428,10 @@
       </c>
       <c r="K116" s="2">
         <f t="shared" si="7"/>
-        <v>52466.8256132467</v>
-      </c>
-      <c r="L116" s="151">
-        <v>41734.559999999998</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L116" s="15">
+        <v>41734.557894173056</v>
       </c>
       <c r="M116" s="73">
         <v>10732.2656132467</v>
@@ -7572,10 +7477,10 @@
       </c>
       <c r="K117" s="2">
         <f t="shared" si="7"/>
-        <v>52466.8256132467</v>
-      </c>
-      <c r="L117" s="151">
-        <v>41734.559999999998</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L117" s="15">
+        <v>41734.557894173056</v>
       </c>
       <c r="M117" s="73">
         <v>10732.2656132467</v>
@@ -7621,10 +7526,10 @@
       </c>
       <c r="K118" s="2">
         <f t="shared" si="7"/>
-        <v>52467.195931493552</v>
-      </c>
-      <c r="L118" s="151">
-        <v>41734.839999999997</v>
+        <v>52467.19584985447</v>
+      </c>
+      <c r="L118" s="15">
+        <v>41734.839918360907</v>
       </c>
       <c r="M118" s="73">
         <v>10732.355931493559</v>
@@ -7670,10 +7575,10 @@
       </c>
       <c r="K119" s="2">
         <f t="shared" si="7"/>
-        <v>52466.827011911228</v>
-      </c>
-      <c r="L119" s="151">
-        <v>41734.53</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L119" s="15">
+        <v>41734.526495508529</v>
       </c>
       <c r="M119" s="73">
         <v>10732.297011911231</v>
@@ -7719,10 +7624,10 @@
       </c>
       <c r="K120" s="2">
         <f t="shared" si="7"/>
-        <v>52466.854014293051</v>
-      </c>
-      <c r="L120" s="151">
-        <v>41734.58</v>
+        <v>52466.858141241421</v>
+      </c>
+      <c r="L120" s="15">
+        <v>41734.584126948372</v>
       </c>
       <c r="M120" s="73">
         <v>10732.274014293051</v>
@@ -7768,10 +7673,10 @@
       </c>
       <c r="K121" s="2">
         <f t="shared" si="7"/>
-        <v>52467.078592472244</v>
-      </c>
-      <c r="L121" s="151">
-        <v>41734.75</v>
+        <v>52467.083143085765</v>
+      </c>
+      <c r="L121" s="15">
+        <v>41734.754550613521</v>
       </c>
       <c r="M121" s="73">
         <v>10732.32859247224</v>
@@ -7817,10 +7722,10 @@
       </c>
       <c r="K122" s="2">
         <f t="shared" si="7"/>
-        <v>52468.263989267609</v>
-      </c>
-      <c r="L122" s="151">
-        <v>41735.65</v>
+        <v>52468.259708634119</v>
+      </c>
+      <c r="L122" s="15">
+        <v>41735.645719366512</v>
       </c>
       <c r="M122" s="73">
         <v>10732.613989267609</v>
@@ -7866,16 +7771,16 @@
       </c>
       <c r="K123" s="2">
         <f t="shared" si="7"/>
-        <v>52466.82564421196</v>
-      </c>
-      <c r="L123" s="154">
-        <v>41453.440000000002</v>
+        <v>52466.823507419773</v>
+      </c>
+      <c r="L123" s="179">
+        <v>41451.471726838703</v>
       </c>
       <c r="M123" s="74">
-        <v>11013.38564421196</v>
+        <v>11015.35178058107</v>
       </c>
       <c r="N123" s="60">
-        <v>2381.2735932489318</v>
+        <v>2376.9426672000441</v>
       </c>
       <c r="O123" s="3">
         <v>0</v>
@@ -7900,7 +7805,7 @@
       <c r="F124" s="97">
         <v>42269.478352660437</v>
       </c>
-      <c r="G124" s="120">
+      <c r="G124" s="119">
         <v>10243.492066261129</v>
       </c>
       <c r="H124" s="62">
@@ -7915,19 +7820,19 @@
       </c>
       <c r="K124" s="2">
         <f t="shared" si="7"/>
-        <v>52512.969278714765</v>
-      </c>
-      <c r="L124" s="155">
-        <v>42133.96</v>
-      </c>
-      <c r="M124" s="165">
-        <v>10379.00927871477</v>
-      </c>
-      <c r="N124" s="106">
-        <v>3832.2109686123599</v>
+        <v>52512.797135444853</v>
+      </c>
+      <c r="L124" s="97">
+        <v>42132.10293156586</v>
+      </c>
+      <c r="M124" s="128">
+        <v>10380.694203878989</v>
+      </c>
+      <c r="N124" s="105">
+        <v>3828.4700161983451</v>
       </c>
       <c r="O124" s="51">
-        <v>46.146911501786462</v>
+        <v>45.973628025074248</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
@@ -7946,10 +7851,10 @@
       <c r="E125" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="111">
+      <c r="F125" s="110">
         <v>42905.419612441721</v>
       </c>
-      <c r="G125" s="121">
+      <c r="G125" s="120">
         <v>9781.706395115054</v>
       </c>
       <c r="H125" s="45">
@@ -7964,19 +7869,19 @@
       </c>
       <c r="K125" s="2">
         <f t="shared" si="7"/>
-        <v>52687.125189503888</v>
-      </c>
-      <c r="L125" s="156">
-        <v>42742.52</v>
-      </c>
-      <c r="M125" s="166">
-        <v>9944.6051895038891</v>
-      </c>
-      <c r="N125" s="235">
-        <v>4865.7772626996984</v>
+        <v>52686.889007131314</v>
+      </c>
+      <c r="L125" s="110">
+        <v>42740.701500349787</v>
+      </c>
+      <c r="M125" s="181">
+        <v>9946.1875067815272</v>
+      </c>
+      <c r="N125" s="161">
+        <v>4862.2528613167233</v>
       </c>
       <c r="O125" s="8">
-        <v>220.30250013701141</v>
+        <v>220.06549971155309</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
@@ -7995,10 +7900,10 @@
       <c r="E126" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F126" s="112">
+      <c r="F126" s="111">
         <v>43883.610322181281</v>
       </c>
-      <c r="G126" s="122">
+      <c r="G126" s="121">
         <v>8667.4310864416657</v>
       </c>
       <c r="H126" s="31">
@@ -8013,19 +7918,19 @@
       </c>
       <c r="K126" s="2">
         <f t="shared" si="7"/>
-        <v>52551.045756938423</v>
-      </c>
-      <c r="L126" s="157">
-        <v>43649.29</v>
+        <v>52550.748288516232</v>
+      </c>
+      <c r="L126" s="180">
+        <v>43647.497385862531</v>
       </c>
       <c r="M126" s="44">
-        <v>8901.7557569384244</v>
+        <v>8903.2509026536973</v>
       </c>
       <c r="N126" s="84">
-        <v>7119.3206050002254</v>
+        <v>7115.9803713538477</v>
       </c>
       <c r="O126" s="48">
-        <v>84.217901203161247</v>
+        <v>83.924781096442999</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
@@ -8062,16 +7967,16 @@
       </c>
       <c r="K127" s="2">
         <f t="shared" si="7"/>
-        <v>52466.826957395977</v>
-      </c>
-      <c r="L127" s="158">
-        <v>51378.12</v>
+        <v>52466.823507419773</v>
+      </c>
+      <c r="L127" s="18">
+        <v>51378.104592569623</v>
       </c>
       <c r="M127" s="41">
-        <v>1088.7069573959759</v>
+        <v>1088.7189148501491</v>
       </c>
       <c r="N127" s="31">
-        <v>23578.914480685369</v>
+        <v>23578.88444452253</v>
       </c>
       <c r="O127" s="3">
         <v>0</v>
@@ -8111,16 +8016,16 @@
       </c>
       <c r="K128" s="2">
         <f t="shared" si="7"/>
-        <v>52466.821173717202</v>
-      </c>
-      <c r="L128" s="158">
-        <v>51392.73</v>
+        <v>52466.823507419773</v>
+      </c>
+      <c r="L128" s="18">
+        <v>51392.720376248399</v>
       </c>
       <c r="M128" s="41">
-        <v>1074.091173717198</v>
+        <v>1074.1031311713709</v>
       </c>
       <c r="N128" s="31">
-        <v>23615.703899652039</v>
+        <v>23615.673863489199</v>
       </c>
       <c r="O128" s="3">
         <v>0</v>
@@ -8160,19 +8065,19 @@
       </c>
       <c r="K129" s="2">
         <f t="shared" si="7"/>
-        <v>52481.401634142174</v>
-      </c>
-      <c r="L129" s="158">
-        <v>51397.9</v>
+        <v>52481.373869450632</v>
+      </c>
+      <c r="L129" s="18">
+        <v>51397.807122976708</v>
       </c>
       <c r="M129" s="41">
-        <v>1083.501634142172</v>
+        <v>1083.5667464739211</v>
       </c>
       <c r="N129" s="31">
-        <v>23600.98989112295</v>
+        <v>23600.813584926811</v>
       </c>
       <c r="O129" s="3">
-        <v>14.57403294782393</v>
+        <v>14.550362030845861</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8209,16 +8114,16 @@
       </c>
       <c r="K130" s="2">
         <f t="shared" si="7"/>
-        <v>52467.843266510637</v>
-      </c>
-      <c r="L130" s="158">
-        <v>51403.02</v>
+        <v>52467.844575747149</v>
+      </c>
+      <c r="L130" s="18">
+        <v>51403.009413257212</v>
       </c>
       <c r="M130" s="41">
-        <v>1064.8232665106441</v>
+        <v>1064.8351624899401</v>
       </c>
       <c r="N130" s="31">
-        <v>23639.63739126733</v>
+        <v>23639.607525621239</v>
       </c>
       <c r="O130" s="3">
         <v>1.0210683273860319</v>
@@ -8258,16 +8163,16 @@
       </c>
       <c r="K131" s="2">
         <f t="shared" si="7"/>
-        <v>52466.821699410728</v>
-      </c>
-      <c r="L131" s="158">
-        <v>51392.46</v>
+        <v>52466.823507419773</v>
+      </c>
+      <c r="L131" s="18">
+        <v>51392.450778037528</v>
       </c>
       <c r="M131" s="41">
-        <v>1074.3616994107281</v>
+        <v>1074.3727293822419</v>
       </c>
       <c r="N131" s="31">
-        <v>23615.00185378734</v>
+        <v>23614.973995502609</v>
       </c>
       <c r="O131" s="3">
         <v>0</v>
@@ -8307,16 +8212,16 @@
       </c>
       <c r="K132" s="2">
         <f t="shared" si="7"/>
-        <v>52466.81922680798</v>
-      </c>
-      <c r="L132" s="158">
-        <v>51387.51</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L132" s="18">
+        <v>51387.470968020767</v>
       </c>
       <c r="M132" s="41">
-        <v>1079.3092268079761</v>
+        <v>1079.3525393989939</v>
       </c>
       <c r="N132" s="31">
-        <v>23602.461069317211</v>
+        <v>23602.351611863229</v>
       </c>
       <c r="O132" s="3">
         <v>0</v>
@@ -8356,16 +8261,16 @@
       </c>
       <c r="K133" s="2">
         <f t="shared" si="7"/>
-        <v>52466.822693700524</v>
-      </c>
-      <c r="L133" s="158">
-        <v>51394.38</v>
+        <v>52466.82350741978</v>
+      </c>
+      <c r="L133" s="18">
+        <v>51394.337501128233</v>
       </c>
       <c r="M133" s="41">
-        <v>1072.4426937005289</v>
+        <v>1072.4860062915479</v>
       </c>
       <c r="N133" s="31">
-        <v>23619.77297051077</v>
+        <v>23619.66351305681</v>
       </c>
       <c r="O133" s="3">
         <v>0</v>
@@ -8405,16 +8310,16 @@
       </c>
       <c r="K134" s="2">
         <f t="shared" si="7"/>
-        <v>52467.840651882318</v>
-      </c>
-      <c r="L134" s="158">
-        <v>51396.01</v>
+        <v>52467.844380554678</v>
+      </c>
+      <c r="L134" s="18">
+        <v>51395.970416081342</v>
       </c>
       <c r="M134" s="41">
-        <v>1071.8306518823181</v>
+        <v>1071.8739644733359</v>
       </c>
       <c r="N134" s="31">
-        <v>23621.891139740659</v>
+        <v>23621.78168228667</v>
       </c>
       <c r="O134" s="3">
         <v>1.0208731349141991</v>
@@ -8454,16 +8359,16 @@
       </c>
       <c r="K135" s="2">
         <f t="shared" si="7"/>
-        <v>52466.82517518902</v>
-      </c>
-      <c r="L135" s="158">
-        <v>51401.8</v>
+        <v>52466.823507419766</v>
+      </c>
+      <c r="L135" s="18">
+        <v>51401.79168828301</v>
       </c>
       <c r="M135" s="41">
-        <v>1065.025175189018</v>
+        <v>1065.0318191367539</v>
       </c>
       <c r="N135" s="31">
-        <v>23638.581149964011</v>
+        <v>23638.564540106989</v>
       </c>
       <c r="O135" s="3">
         <v>0</v>
@@ -8503,16 +8408,16 @@
       </c>
       <c r="K136" s="2">
         <f t="shared" si="7"/>
-        <v>52466.820740639327</v>
-      </c>
-      <c r="L136" s="158">
-        <v>51402.55</v>
+        <v>52466.823507419773</v>
+      </c>
+      <c r="L136" s="18">
+        <v>51402.546122832711</v>
       </c>
       <c r="M136" s="41">
-        <v>1064.270740639324</v>
+        <v>1064.277384587059</v>
       </c>
       <c r="N136" s="31">
-        <v>23640.464182439038</v>
+        <v>23640.447572582019</v>
       </c>
       <c r="O136" s="3">
         <v>0</v>
@@ -8552,16 +8457,16 @@
       </c>
       <c r="K137" s="2">
         <f t="shared" si="7"/>
-        <v>52466.825588652231</v>
-      </c>
-      <c r="L137" s="158">
-        <v>51400.41</v>
+        <v>52466.823507419766</v>
+      </c>
+      <c r="L137" s="18">
+        <v>51400.38741980675</v>
       </c>
       <c r="M137" s="41">
-        <v>1066.4155886522269</v>
+        <v>1066.436087613017</v>
       </c>
       <c r="N137" s="31">
-        <v>23635.05738166095</v>
+        <v>23635.005951659099</v>
       </c>
       <c r="O137" s="3">
         <v>0</v>
@@ -8601,16 +8506,16 @@
       </c>
       <c r="K138" s="2">
         <f t="shared" si="7"/>
-        <v>52467.832831148335</v>
-      </c>
-      <c r="L138" s="158">
-        <v>51403.040000000001</v>
+        <v>52467.829118294423</v>
+      </c>
+      <c r="L138" s="18">
+        <v>51403.015788185301</v>
       </c>
       <c r="M138" s="41">
-        <v>1064.7928311483349</v>
+        <v>1064.813330109125</v>
       </c>
       <c r="N138" s="31">
-        <v>23639.722028721109</v>
+        <v>23639.670598719251</v>
       </c>
       <c r="O138" s="3">
         <v>1.0056108746540171</v>
@@ -8650,10 +8555,10 @@
       </c>
       <c r="K139" s="2">
         <f t="shared" si="7"/>
-        <v>52466.820913223513</v>
-      </c>
-      <c r="L139" s="158">
-        <v>51407.76</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L139" s="18">
+        <v>51407.762594196247</v>
       </c>
       <c r="M139" s="41">
         <v>1059.060913223509</v>
@@ -8699,10 +8604,10 @@
       </c>
       <c r="K140" s="2">
         <f t="shared" si="7"/>
-        <v>52466.820913223513</v>
-      </c>
-      <c r="L140" s="158">
-        <v>51407.76</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L140" s="18">
+        <v>51407.762594196247</v>
       </c>
       <c r="M140" s="41">
         <v>1059.060913223509</v>
@@ -8748,10 +8653,10 @@
       </c>
       <c r="K141" s="2">
         <f t="shared" si="7"/>
-        <v>52466.820913223513</v>
-      </c>
-      <c r="L141" s="158">
-        <v>51407.76</v>
+        <v>52466.823507419758</v>
+      </c>
+      <c r="L141" s="18">
+        <v>51407.762594196247</v>
       </c>
       <c r="M141" s="41">
         <v>1059.060913223509</v>
@@ -8797,10 +8702,10 @@
       </c>
       <c r="K142" s="2">
         <f t="shared" si="7"/>
-        <v>52466.824359890401</v>
-      </c>
-      <c r="L142" s="158">
-        <v>51407.519999999997</v>
+        <v>52466.823507419787</v>
+      </c>
+      <c r="L142" s="18">
+        <v>51407.519147529383</v>
       </c>
       <c r="M142" s="41">
         <v>1059.304359890403</v>
@@ -8846,10 +8751,10 @@
       </c>
       <c r="K143" s="2">
         <f t="shared" si="7"/>
-        <v>52466.81984840324</v>
-      </c>
-      <c r="L143" s="158">
-        <v>51407.24</v>
+        <v>52466.823507419773</v>
+      </c>
+      <c r="L143" s="18">
+        <v>51407.243659016531</v>
       </c>
       <c r="M143" s="41">
         <v>1059.57984840324</v>
@@ -8895,10 +8800,10 @@
       </c>
       <c r="K144" s="2">
         <f t="shared" si="7"/>
-        <v>52466.824824320414</v>
-      </c>
-      <c r="L144" s="158">
-        <v>51407.34</v>
+        <v>52466.823507419766</v>
+      </c>
+      <c r="L144" s="18">
+        <v>51407.338683099348</v>
       </c>
       <c r="M144" s="41">
         <v>1059.4848243204151</v>
@@ -8944,10 +8849,10 @@
       </c>
       <c r="K145" s="2">
         <f t="shared" si="7"/>
-        <v>52466.824588033807</v>
-      </c>
-      <c r="L145" s="158">
-        <v>51407.46</v>
+        <v>52466.82350741978</v>
+      </c>
+      <c r="L145" s="18">
+        <v>51407.458919385972</v>
       </c>
       <c r="M145" s="41">
         <v>1059.3645880338049</v>
@@ -8993,10 +8898,10 @@
       </c>
       <c r="K146" s="2">
         <f t="shared" si="7"/>
-        <v>52467.41504551153</v>
-      </c>
-      <c r="L146" s="158">
-        <v>51408.21</v>
+        <v>52467.417701493585</v>
+      </c>
+      <c r="L146" s="18">
+        <v>51408.212655982054</v>
       </c>
       <c r="M146" s="41">
         <v>1059.2050455115291</v>
@@ -9019,10 +8924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98ABE47-B6FE-B64B-A769-638C3FA61DCC}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9033,7 +8938,7 @@
     <col min="8" max="8" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9055,8 +8960,11 @@
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="220" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9072,17 +8980,20 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="167">
-        <v>15.245795465371909</v>
+      <c r="F2" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G2" s="27">
         <v>0</v>
       </c>
-      <c r="H2" s="202">
-        <v>503.50156248983302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="129">
+        <v>502.5940469669805</v>
+      </c>
+      <c r="I2" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9098,17 +9009,20 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="167">
-        <v>15.245795465371909</v>
+      <c r="F3" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G3" s="27">
         <v>0</v>
       </c>
-      <c r="H3" s="203">
-        <v>845.69504924032958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="147">
+        <v>844.787533717477</v>
+      </c>
+      <c r="I3" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9124,17 +9038,20 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="167">
-        <v>15.245795465371909</v>
+      <c r="F4" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G4" s="27">
         <v>0</v>
       </c>
-      <c r="H4" s="204">
-        <v>1190.8537264745401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="130">
+        <v>1189.946210951688</v>
+      </c>
+      <c r="I4" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9150,17 +9067,20 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="167">
-        <v>15.245795465371909</v>
+      <c r="F5" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G5" s="27">
         <v>0</v>
       </c>
-      <c r="H5" s="205">
-        <v>1580.2479479033241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="131">
+        <v>1579.3404323804709</v>
+      </c>
+      <c r="I5" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9176,17 +9096,20 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="168">
-        <v>604.72230690129879</v>
+      <c r="F6" s="183">
+        <v>603.48159999999996</v>
       </c>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="206">
-        <v>47.248250644288397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="132">
+        <v>47.218171627703377</v>
+      </c>
+      <c r="I6" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9202,17 +9125,20 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="169">
-        <v>1021.41778297362</v>
+      <c r="F7" s="184">
+        <v>1020.177</v>
       </c>
       <c r="G7" s="27">
         <v>0</v>
       </c>
-      <c r="H7" s="207">
-        <v>70.644172408073871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="133">
+        <v>70.614093391488851</v>
+      </c>
+      <c r="I7" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9228,17 +9154,20 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="170">
-        <v>1435.8518972517629</v>
+      <c r="F8" s="185">
+        <v>1434.6110000000001</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="208">
-        <v>98.001609440643151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="134">
+        <v>97.971530424058145</v>
+      </c>
+      <c r="I8" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9254,17 +9183,20 @@
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="171">
-        <v>2004.5464447654281</v>
+      <c r="F9" s="186">
+        <v>2003.306</v>
       </c>
       <c r="G9" s="27">
         <v>0</v>
       </c>
-      <c r="H9" s="209">
-        <v>76.724690556527577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="135">
+        <v>76.694611539942557</v>
+      </c>
+      <c r="I9" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9280,17 +9212,20 @@
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="172">
-        <v>652.36885264148918</v>
+      <c r="F10" s="187">
+        <v>651.2953</v>
       </c>
       <c r="G10" s="27">
         <v>0</v>
       </c>
-      <c r="H10" s="210">
-        <v>13.25566515100215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="136">
+        <v>13.192031247415031</v>
+      </c>
+      <c r="I10" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9306,17 +9241,20 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="173">
-        <v>1089.1104658929839</v>
+      <c r="F11" s="188">
+        <v>1088.037</v>
       </c>
       <c r="G11" s="27">
         <v>0</v>
       </c>
-      <c r="H11" s="211">
-        <v>22.18514664927616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="137">
+        <v>22.121512745689031</v>
+      </c>
+      <c r="I11" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9332,17 +9270,20 @@
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="174">
-        <v>1526.3448773960499</v>
+      <c r="F12" s="189">
+        <v>1525.271</v>
       </c>
       <c r="G12" s="27">
         <v>0</v>
       </c>
-      <c r="H12" s="212">
-        <v>33.09024280681102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="138">
+        <v>33.026608903223902</v>
+      </c>
+      <c r="I12" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9358,17 +9299,20 @@
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="175">
-        <v>2069.720148046677</v>
+      <c r="F13" s="190">
+        <v>2068.6469999999999</v>
       </c>
       <c r="G13" s="27">
         <v>0</v>
       </c>
-      <c r="H13" s="213">
-        <v>30.08805430145042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="139">
+        <v>30.024420397863299</v>
+      </c>
+      <c r="I13" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9384,17 +9328,20 @@
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="176">
-        <v>668.54877359187401</v>
+      <c r="F14" s="191">
+        <v>668.43</v>
       </c>
       <c r="G14" s="27">
         <v>0</v>
       </c>
-      <c r="H14" s="214">
-        <v>2.1178699060453412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="140">
+        <v>2.1034839414588968</v>
+      </c>
+      <c r="I14" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9410,17 +9357,20 @@
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="177">
-        <v>1115.3222607343239</v>
+      <c r="F15" s="192">
+        <v>1115.0170000000001</v>
       </c>
       <c r="G15" s="27">
         <v>0</v>
       </c>
-      <c r="H15" s="214">
-        <v>4.0431801659011652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="140">
+        <v>4.00713563344096</v>
+      </c>
+      <c r="I15" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9436,17 +9386,20 @@
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="178">
-        <v>1564.071415108089</v>
+      <c r="F16" s="193">
+        <v>1563.2619999999999</v>
       </c>
       <c r="G16" s="27">
         <v>0</v>
       </c>
-      <c r="H16" s="214">
-        <v>6.9014480537611433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="140">
+        <v>6.8107349593142414</v>
+      </c>
+      <c r="I16" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9462,17 +9415,20 @@
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="179">
-        <v>2100.1284519899832</v>
+      <c r="F17" s="194">
+        <v>2099.8229999999999</v>
       </c>
       <c r="G17" s="27">
         <v>0</v>
       </c>
-      <c r="H17" s="214">
-        <v>9.0367100919316066</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="140">
+        <v>9.0006655594714005</v>
+      </c>
+      <c r="I17" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9488,17 +9444,20 @@
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="176">
-        <v>671.62744761363456</v>
+      <c r="F18" s="191">
+        <v>671.62739999999997</v>
       </c>
       <c r="G18" s="27">
         <v>0</v>
       </c>
-      <c r="H18" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="140">
+        <v>0</v>
+      </c>
+      <c r="I18" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9514,17 +9473,20 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="177">
-        <v>1121.2166504556151</v>
+      <c r="F19" s="192">
+        <v>1121.2170000000001</v>
       </c>
       <c r="G19" s="27">
         <v>0</v>
       </c>
-      <c r="H19" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="140">
+        <v>0</v>
+      </c>
+      <c r="I19" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9540,17 +9502,20 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="180">
-        <v>1574.14487790612</v>
+      <c r="F20" s="195">
+        <v>1574.145</v>
       </c>
       <c r="G20" s="27">
         <v>0</v>
       </c>
-      <c r="H20" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="140">
+        <v>0</v>
+      </c>
+      <c r="I20" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9566,17 +9531,20 @@
       <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="181">
-        <v>2112.7766052045458</v>
+      <c r="F21" s="196">
+        <v>2112.402</v>
       </c>
       <c r="G21" s="27">
         <v>0</v>
       </c>
-      <c r="H21" s="214">
-        <v>0.3503335136736847</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="140">
+        <v>0.26067927959014181</v>
+      </c>
+      <c r="I21" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9592,17 +9560,20 @@
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="176">
-        <v>671.62744761363456</v>
+      <c r="F22" s="191">
+        <v>671.62739999999997</v>
       </c>
       <c r="G22" s="27">
         <v>0</v>
       </c>
-      <c r="H22" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="140">
+        <v>0</v>
+      </c>
+      <c r="I22" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9618,17 +9589,20 @@
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="177">
-        <v>1121.10817446385</v>
+      <c r="F23" s="192">
+        <v>1121.079</v>
       </c>
       <c r="G23" s="27">
         <v>0</v>
       </c>
-      <c r="H23" s="214">
+      <c r="H23" s="140">
         <v>7.6196759842034334E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9644,17 +9618,20 @@
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="180">
-        <v>1573.8555184274221</v>
+      <c r="F24" s="195">
+        <v>1573.826</v>
       </c>
       <c r="G24" s="27">
         <v>0</v>
       </c>
-      <c r="H24" s="214">
+      <c r="H24" s="140">
         <v>0.20325369303352181</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9670,17 +9647,20 @@
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="181">
-        <v>2112.0546775542862</v>
+      <c r="F25" s="196">
+        <v>2112.0250000000001</v>
       </c>
       <c r="G25" s="27">
         <v>0</v>
       </c>
-      <c r="H25" s="214">
+      <c r="H25" s="140">
         <v>0.86765184816027052</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9696,17 +9676,20 @@
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="167">
-        <v>15.245795465371909</v>
+      <c r="F26" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G26" s="66">
-        <v>607.43768786206397</v>
-      </c>
-      <c r="H26" s="215">
-        <v>178.61716232365981</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>606.19317422144354</v>
+      </c>
+      <c r="H26" s="141">
+        <v>178.4946248444584</v>
+      </c>
+      <c r="I26" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9722,17 +9705,20 @@
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="167">
-        <v>15.245795465371909</v>
+      <c r="F27" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G27" s="79">
-        <v>833.27518262577712</v>
-      </c>
-      <c r="H27" s="216">
-        <v>369.43524737899457</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>832.10399229723203</v>
+      </c>
+      <c r="H27" s="142">
+        <v>369.28328630721302</v>
+      </c>
+      <c r="I27" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9748,17 +9734,20 @@
       <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="167">
-        <v>15.245795465371909</v>
-      </c>
-      <c r="G28" s="80">
-        <v>1045.5082246835509</v>
-      </c>
-      <c r="H28" s="217">
-        <v>568.20062337949071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="182">
+        <v>15.245799999999999</v>
+      </c>
+      <c r="G28" s="217">
+        <v>1044.4234993751761</v>
+      </c>
+      <c r="H28" s="143">
+        <v>568.01302592196384</v>
+      </c>
+      <c r="I28" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -9774,17 +9763,20 @@
       <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="167">
-        <v>15.245795465371909</v>
+      <c r="F29" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G29" s="81">
-        <v>1272.3045072180421</v>
-      </c>
-      <c r="H29" s="218">
-        <v>814.37617993414631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1271.426478909957</v>
+      </c>
+      <c r="H29" s="144">
+        <v>814.10074533479201</v>
+      </c>
+      <c r="I29" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9800,17 +9792,20 @@
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="182">
-        <v>642.42381236064602</v>
+      <c r="F30" s="197">
+        <v>641.18309999999997</v>
       </c>
       <c r="G30" s="39">
-        <v>48.715543106125537</v>
-      </c>
-      <c r="H30" s="214">
-        <v>3.5824073321482368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48.715451399391341</v>
+      </c>
+      <c r="H30" s="140">
+        <v>3.5524074804488861</v>
+      </c>
+      <c r="I30" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9826,17 +9821,20 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="183">
-        <v>1061.829155962289</v>
+      <c r="F31" s="198">
+        <v>1060.588</v>
       </c>
       <c r="G31" s="39">
-        <v>54.568181191366591</v>
-      </c>
-      <c r="H31" s="211">
-        <v>22.982776988128119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54.568089484632388</v>
+      </c>
+      <c r="H31" s="137">
+        <v>22.95277706027473</v>
+      </c>
+      <c r="I31" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9852,17 +9850,20 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="184">
-        <v>1477.754208046829</v>
+      <c r="F32" s="199">
+        <v>1476.5139999999999</v>
       </c>
       <c r="G32" s="36">
-        <v>59.432969220206843</v>
-      </c>
-      <c r="H32" s="206">
-        <v>47.52592116952269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59.432954959502993</v>
+      </c>
+      <c r="H32" s="132">
+        <v>47.495852538535793</v>
+      </c>
+      <c r="I32" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9878,17 +9879,20 @@
       <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="185">
-        <v>2045.860766953406</v>
+      <c r="F33" s="200">
+        <v>2044.62</v>
       </c>
       <c r="G33" s="36">
-        <v>62.420499690421963</v>
-      </c>
-      <c r="H33" s="213">
-        <v>25.547847431655018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62.420485429718127</v>
+      </c>
+      <c r="H33" s="139">
+        <v>25.517778800668101</v>
+      </c>
+      <c r="I33" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9904,17 +9908,20 @@
       <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="176">
-        <v>663.4082434531</v>
+      <c r="F34" s="201">
+        <v>662.2758</v>
       </c>
       <c r="G34" s="27">
-        <v>15.309346959372821</v>
-      </c>
-      <c r="H34" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15.245569780779039</v>
+      </c>
+      <c r="H34" s="140">
+        <v>0</v>
+      </c>
+      <c r="I34" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9930,17 +9937,20 @@
       <c r="E35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="186">
-        <v>1108.0156556897141</v>
+      <c r="F35" s="202">
+        <v>1106.883</v>
       </c>
       <c r="G35" s="27">
-        <v>24.91798949593381</v>
-      </c>
-      <c r="H35" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24.854212317340028</v>
+      </c>
+      <c r="H35" s="140">
+        <v>0</v>
+      </c>
+      <c r="I35" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9956,17 +9966,20 @@
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="187">
-        <v>1554.8402663501131</v>
+      <c r="F36" s="203">
+        <v>1553.7080000000001</v>
       </c>
       <c r="G36" s="40">
-        <v>36.678951877950169</v>
-      </c>
-      <c r="H36" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36.615174699356388</v>
+      </c>
+      <c r="H36" s="140">
+        <v>0</v>
+      </c>
+      <c r="I36" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9982,17 +9995,20 @@
       <c r="E37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="188">
-        <v>2094.469908220537</v>
+      <c r="F37" s="204">
+        <v>2093.337</v>
       </c>
       <c r="G37" s="40">
-        <v>35.355227572775419</v>
-      </c>
-      <c r="H37" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35.291450394181638</v>
+      </c>
+      <c r="H37" s="140">
+        <v>0</v>
+      </c>
+      <c r="I37" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10008,17 +10024,20 @@
       <c r="E38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="176">
-        <v>670.29836528981446</v>
+      <c r="F38" s="191">
+        <v>669.9606</v>
       </c>
       <c r="G38" s="27">
-        <v>2.384861322190901</v>
-      </c>
-      <c r="H38" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.348510971736848</v>
+      </c>
+      <c r="H38" s="140">
+        <v>0</v>
+      </c>
+      <c r="I38" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -10034,17 +10053,20 @@
       <c r="E39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="177">
-        <v>1118.684944969754</v>
+      <c r="F39" s="192">
+        <v>1118.347</v>
       </c>
       <c r="G39" s="27">
-        <v>4.5290401103921152</v>
-      </c>
-      <c r="H39" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.4926897599380631</v>
+      </c>
+      <c r="H39" s="140">
+        <v>0</v>
+      </c>
+      <c r="I39" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -10060,17 +10082,20 @@
       <c r="E40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="178">
-        <v>1569.663136972265</v>
+      <c r="F40" s="205">
+        <v>1568.771</v>
       </c>
       <c r="G40" s="27">
-        <v>8.0353038414672575</v>
-      </c>
-      <c r="H40" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.943663343443415</v>
+      </c>
+      <c r="H40" s="140">
+        <v>0</v>
+      </c>
+      <c r="I40" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -10086,17 +10111,20 @@
       <c r="E41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="181">
-        <v>2107.1575284700848</v>
+      <c r="F41" s="196">
+        <v>2106.2649999999999</v>
       </c>
       <c r="G41" s="27">
-        <v>11.022834311682381</v>
-      </c>
-      <c r="H41" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.93119381365854</v>
+      </c>
+      <c r="H41" s="140">
+        <v>0</v>
+      </c>
+      <c r="I41" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -10112,17 +10140,20 @@
       <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="176">
-        <v>671.62744761363456</v>
+      <c r="F42" s="191">
+        <v>671.62739999999997</v>
       </c>
       <c r="G42" s="27">
         <v>0</v>
       </c>
-      <c r="H42" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="140">
+        <v>0</v>
+      </c>
+      <c r="I42" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -10138,17 +10169,20 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="177">
-        <v>1121.2166504556151</v>
+      <c r="F43" s="192">
+        <v>1121.2170000000001</v>
       </c>
       <c r="G43" s="27">
         <v>0</v>
       </c>
-      <c r="H43" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="140">
+        <v>0</v>
+      </c>
+      <c r="I43" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -10164,17 +10198,20 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="180">
-        <v>1574.14487790612</v>
+      <c r="F44" s="195">
+        <v>1574.145</v>
       </c>
       <c r="G44" s="27">
         <v>0</v>
       </c>
-      <c r="H44" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="140">
+        <v>0</v>
+      </c>
+      <c r="I44" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -10190,17 +10227,20 @@
       <c r="E45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="181">
-        <v>2113.084680807583</v>
+      <c r="F45" s="196">
+        <v>2112.6309999999999</v>
       </c>
       <c r="G45" s="27">
-        <v>0.36376748993015001</v>
-      </c>
-      <c r="H45" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.27019636719850298</v>
+      </c>
+      <c r="H45" s="140">
+        <v>0</v>
+      </c>
+      <c r="I45" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -10216,17 +10256,20 @@
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="176">
-        <v>671.62744761363456</v>
+      <c r="F46" s="191">
+        <v>671.62739999999997</v>
       </c>
       <c r="G46" s="27">
         <v>0</v>
       </c>
-      <c r="H46" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="140">
+        <v>0</v>
+      </c>
+      <c r="I46" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -10242,17 +10285,20 @@
       <c r="E47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="177">
-        <v>1121.1769085909009</v>
+      <c r="F47" s="192">
+        <v>1121.1469999999999</v>
       </c>
       <c r="G47" s="27">
         <v>7.6196759842034334E-2</v>
       </c>
-      <c r="H47" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="140">
+        <v>0</v>
+      </c>
+      <c r="I47" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -10268,17 +10314,20 @@
       <c r="E48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="180">
-        <v>1574.038865661473</v>
+      <c r="F48" s="195">
+        <v>1574.009</v>
       </c>
       <c r="G48" s="27">
         <v>0.20325369303352181</v>
       </c>
-      <c r="H48" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="140">
+        <v>0</v>
+      </c>
+      <c r="I48" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -10294,17 +10343,20 @@
       <c r="E49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="181">
-        <v>2112.8373524671251</v>
+      <c r="F49" s="196">
+        <v>2112.808</v>
       </c>
       <c r="G49" s="27">
         <v>0.86765184816027041</v>
       </c>
-      <c r="H49" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="140">
+        <v>0</v>
+      </c>
+      <c r="I49" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -10320,17 +10372,20 @@
       <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="167">
-        <v>15.245795465371909</v>
+      <c r="F50" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G50" s="42">
-        <v>1172.200666452452</v>
-      </c>
-      <c r="H50" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1170.518400365213</v>
+      </c>
+      <c r="H50" s="140">
+        <v>0</v>
+      </c>
+      <c r="I50" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -10346,17 +10401,20 @@
       <c r="E51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="167">
-        <v>15.245795465371909</v>
+      <c r="F51" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G51" s="37">
-        <v>1644.2139572453129</v>
-      </c>
-      <c r="H51" s="219">
-        <v>110.0268357839718</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1642.748982546507</v>
+      </c>
+      <c r="H51" s="145">
+        <v>109.95204658874211</v>
+      </c>
+      <c r="I51" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10372,17 +10430,20 @@
       <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="167">
-        <v>15.245795465371909</v>
+      <c r="F52" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G52" s="61">
-        <v>1961.788155632516</v>
-      </c>
-      <c r="H52" s="220">
-        <v>276.1904093149447</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1960.3881866459039</v>
+      </c>
+      <c r="H52" s="146">
+        <v>276.09287044056907</v>
+      </c>
+      <c r="I52" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10398,17 +10459,20 @@
       <c r="E53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="167">
-        <v>15.245795465371909</v>
+      <c r="F53" s="182">
+        <v>15.245799999999999</v>
       </c>
       <c r="G53" s="82">
-        <v>2589.340564873989</v>
-      </c>
-      <c r="H53" s="216">
-        <v>374.12102308128061</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2588.0860766714441</v>
+      </c>
+      <c r="H53" s="142">
+        <v>373.97036712295329</v>
+      </c>
+      <c r="I53" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10424,17 +10488,20 @@
       <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="182">
-        <v>646.13393249122896</v>
+      <c r="F54" s="197">
+        <v>644.8646</v>
       </c>
       <c r="G54" s="36">
-        <v>55.712015306098479</v>
-      </c>
-      <c r="H54" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55.68173350328258</v>
+      </c>
+      <c r="H54" s="140">
+        <v>0</v>
+      </c>
+      <c r="I54" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10450,17 +10517,20 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="173">
-        <v>1083.9104079106201</v>
+      <c r="F55" s="188">
+        <v>1082.6410000000001</v>
       </c>
       <c r="G55" s="28">
-        <v>82.023158253107027</v>
-      </c>
-      <c r="H55" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>81.992876450291135</v>
+      </c>
+      <c r="H55" s="140">
+        <v>0</v>
+      </c>
+      <c r="I55" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10476,17 +10546,20 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="189">
-        <v>1522.9057440870099</v>
+      <c r="F56" s="206">
+        <v>1521.636</v>
       </c>
       <c r="G56" s="34">
-        <v>112.98254322708959</v>
-      </c>
-      <c r="H56" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112.9522614242737</v>
+      </c>
+      <c r="H56" s="140">
+        <v>0</v>
+      </c>
+      <c r="I56" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10502,17 +10575,20 @@
       <c r="E57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="175">
-        <v>2070.2786487402282</v>
+      <c r="F57" s="190">
+        <v>2069.009</v>
       </c>
       <c r="G57" s="35">
-        <v>93.474120302442998</v>
-      </c>
-      <c r="H57" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93.44383849962712</v>
+      </c>
+      <c r="H57" s="140">
+        <v>0</v>
+      </c>
+      <c r="I57" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10528,17 +10604,20 @@
       <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="176">
-        <v>663.51019653425442</v>
+      <c r="F58" s="201">
+        <v>662.37609999999995</v>
       </c>
       <c r="G58" s="27">
-        <v>16.277776033003871</v>
-      </c>
-      <c r="H58" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16.21292590009006</v>
+      </c>
+      <c r="H58" s="140">
+        <v>0</v>
+      </c>
+      <c r="I58" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10554,17 +10633,20 @@
       <c r="E59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="186">
-        <v>1108.268352399891</v>
+      <c r="F59" s="202">
+        <v>1107.134</v>
       </c>
       <c r="G59" s="27">
-        <v>26.28174785105303</v>
-      </c>
-      <c r="H59" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26.216897718139212</v>
+      </c>
+      <c r="H59" s="140">
+        <v>0</v>
+      </c>
+      <c r="I59" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10580,17 +10662,20 @@
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="187">
-        <v>1555.274695266585</v>
+      <c r="F60" s="203">
+        <v>1554.1410000000001</v>
       </c>
       <c r="G60" s="40">
-        <v>38.533428215143573</v>
-      </c>
-      <c r="H60" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38.468578082229747</v>
+      </c>
+      <c r="H60" s="140">
+        <v>0</v>
+      </c>
+      <c r="I60" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10606,17 +10691,20 @@
       <c r="E61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="188">
-        <v>2094.7883354111541</v>
+      <c r="F61" s="204">
+        <v>2093.654</v>
       </c>
       <c r="G61" s="40">
-        <v>37.392432635927619</v>
-      </c>
-      <c r="H61" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37.327582503013787</v>
+      </c>
+      <c r="H61" s="140">
+        <v>0</v>
+      </c>
+      <c r="I61" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10632,17 +10720,20 @@
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="176">
-        <v>670.31113204383814</v>
+      <c r="F62" s="191">
+        <v>669.97239999999999</v>
       </c>
       <c r="G62" s="27">
-        <v>2.552629892846991</v>
-      </c>
-      <c r="H62" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.515363375448584</v>
+      </c>
+      <c r="H62" s="140">
+        <v>0</v>
+      </c>
+      <c r="I62" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10658,17 +10749,20 @@
       <c r="E63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="177">
-        <v>1118.7392802496231</v>
+      <c r="F63" s="192">
+        <v>1118.4010000000001</v>
       </c>
       <c r="G63" s="27">
-        <v>4.7856752187593257</v>
-      </c>
-      <c r="H63" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.7484087013609191</v>
+      </c>
+      <c r="H63" s="140">
+        <v>0</v>
+      </c>
+      <c r="I63" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10684,17 +10778,20 @@
       <c r="E64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="178">
-        <v>1569.7244304199789</v>
+      <c r="F64" s="205">
+        <v>1568.83</v>
       </c>
       <c r="G64" s="27">
-        <v>8.5530005029627443</v>
-      </c>
-      <c r="H64" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.4590623585279694</v>
+      </c>
+      <c r="H64" s="140">
+        <v>0</v>
+      </c>
+      <c r="I64" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10710,17 +10807,20 @@
       <c r="E65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="181">
-        <v>2107.2215946420092</v>
+      <c r="F65" s="196">
+        <v>2106.3270000000002</v>
       </c>
       <c r="G65" s="27">
-        <v>11.77651366788316</v>
-      </c>
-      <c r="H65" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.68257552344839</v>
+      </c>
+      <c r="H65" s="140">
+        <v>0</v>
+      </c>
+      <c r="I65" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10736,17 +10836,20 @@
       <c r="E66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="176">
-        <v>671.62744761363456</v>
+      <c r="F66" s="191">
+        <v>671.62739999999997</v>
       </c>
       <c r="G66" s="27">
         <v>0</v>
       </c>
-      <c r="H66" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="140">
+        <v>0</v>
+      </c>
+      <c r="I66" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10762,17 +10865,20 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="177">
-        <v>1121.2166504556151</v>
+      <c r="F67" s="192">
+        <v>1121.2170000000001</v>
       </c>
       <c r="G67" s="27">
         <v>0</v>
       </c>
-      <c r="H67" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="140">
+        <v>0</v>
+      </c>
+      <c r="I67" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10788,17 +10894,20 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="180">
-        <v>1574.14487790612</v>
+      <c r="F68" s="195">
+        <v>1574.145</v>
       </c>
       <c r="G68" s="27">
         <v>0</v>
       </c>
-      <c r="H68" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="140">
+        <v>0</v>
+      </c>
+      <c r="I68" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10814,17 +10923,20 @@
       <c r="E69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="181">
-        <v>2113.0910206530052</v>
+      <c r="F69" s="196">
+        <v>2112.6410000000001</v>
       </c>
       <c r="G69" s="27">
-        <v>0.38042081672706007</v>
-      </c>
-      <c r="H69" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.27165601630586078</v>
+      </c>
+      <c r="H69" s="140">
+        <v>0</v>
+      </c>
+      <c r="I69" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10840,17 +10952,20 @@
       <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="176">
-        <v>671.62744761363456</v>
+      <c r="F70" s="191">
+        <v>671.62739999999997</v>
       </c>
       <c r="G70" s="27">
         <v>0</v>
       </c>
-      <c r="H70" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="140">
+        <v>0</v>
+      </c>
+      <c r="I70" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10866,17 +10981,20 @@
       <c r="E71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="177">
-        <v>1121.17996925936</v>
+      <c r="F71" s="192">
+        <v>1121.1500000000001</v>
       </c>
       <c r="G71" s="27">
         <v>7.6196759842034348E-2</v>
       </c>
-      <c r="H71" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="140">
+        <v>0</v>
+      </c>
+      <c r="I71" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10892,17 +11010,20 @@
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="180">
-        <v>1574.0470299478379</v>
+      <c r="F72" s="195">
+        <v>1574.0170000000001</v>
       </c>
       <c r="G72" s="27">
         <v>0.20325369303352181</v>
       </c>
-      <c r="H72" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="140">
+        <v>0</v>
+      </c>
+      <c r="I72" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10918,17 +11039,20 @@
       <c r="E73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="181">
-        <v>2112.8722042725121</v>
+      <c r="F73" s="196">
+        <v>2112.8429999999998</v>
       </c>
       <c r="G73" s="27">
         <v>0.86765184816027063</v>
       </c>
-      <c r="H73" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="140">
+        <v>0</v>
+      </c>
+      <c r="I73" s="218">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10944,17 +11068,20 @@
       <c r="E74" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="167">
-        <v>17.26366348295134</v>
+      <c r="F74" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G74" s="27">
         <v>0</v>
       </c>
-      <c r="H74" s="202">
-        <v>502.32714533462251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H74" s="129">
+        <v>501.30527792877962</v>
+      </c>
+      <c r="I74" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10970,17 +11097,20 @@
       <c r="E75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="167">
-        <v>17.26366348295134</v>
+      <c r="F75" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="221">
-        <v>844.5206320851189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H75" s="147">
+        <v>843.49876467927618</v>
+      </c>
+      <c r="I75" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10996,17 +11126,20 @@
       <c r="E76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="167">
-        <v>17.26366348295134</v>
+      <c r="F76" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="204">
-        <v>1189.6793093193301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H76" s="130">
+        <v>1188.657441913487</v>
+      </c>
+      <c r="I76" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11022,17 +11155,20 @@
       <c r="E77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="167">
-        <v>17.26366348295134</v>
+      <c r="F77" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G77" s="27">
         <v>0</v>
       </c>
-      <c r="H77" s="205">
-        <v>1579.0735307481129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H77" s="131">
+        <v>1578.0516633422701</v>
+      </c>
+      <c r="I77" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11048,17 +11184,20 @@
       <c r="E78" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="190">
-        <v>623.16514931174368</v>
+      <c r="F78" s="207">
+        <v>622.60699999999997</v>
       </c>
       <c r="G78" s="27">
         <v>0</v>
       </c>
-      <c r="H78" s="212">
-        <v>33.937112046761968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H78" s="138">
+        <v>33.923717461784307</v>
+      </c>
+      <c r="I78" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11074,17 +11213,20 @@
       <c r="E79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="191">
-        <v>1052.0737209602121</v>
+      <c r="F79" s="208">
+        <v>1051.5160000000001</v>
       </c>
       <c r="G79" s="27">
         <v>0</v>
       </c>
-      <c r="H79" s="206">
-        <v>48.479834738995613</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H79" s="132">
+        <v>48.46644015401796</v>
+      </c>
+      <c r="I79" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11100,17 +11242,20 @@
       <c r="E80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="192">
-        <v>1472.6535393942479</v>
+      <c r="F80" s="209">
+        <v>1468.954</v>
       </c>
       <c r="G80" s="27">
         <v>0</v>
       </c>
-      <c r="H80" s="207">
-        <v>71.38235323815853</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H80" s="133">
+        <v>71.288631660751861</v>
+      </c>
+      <c r="I80" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11126,17 +11271,20 @@
       <c r="E81" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="193">
-        <v>2033.118447257518</v>
+      <c r="F81" s="210">
+        <v>2032.56</v>
       </c>
       <c r="G81" s="27">
         <v>0</v>
       </c>
-      <c r="H81" s="222">
-        <v>56.070985115786257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H81" s="148">
+        <v>56.057590530808604</v>
+      </c>
+      <c r="I81" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11152,17 +11300,20 @@
       <c r="E82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="194">
-        <v>660.9782753555329</v>
+      <c r="F82" s="201">
+        <v>660.7577</v>
       </c>
       <c r="G82" s="27">
         <v>0</v>
       </c>
-      <c r="H82" s="214">
-        <v>7.2897866214610332</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H82" s="140">
+        <v>7.2778236628794239</v>
+      </c>
+      <c r="I82" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11178,17 +11329,20 @@
       <c r="E83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="195">
-        <v>1104.759188861573</v>
+      <c r="F83" s="211">
+        <v>1103.883</v>
       </c>
       <c r="G83" s="27">
         <v>0</v>
       </c>
-      <c r="H83" s="214">
-        <v>11.27576089232673</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H83" s="140">
+        <v>11.22840955677092</v>
+      </c>
+      <c r="I83" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11204,17 +11358,20 @@
       <c r="E84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="187">
-        <v>1547.8952890047799</v>
+      <c r="F84" s="212">
+        <v>1547.019</v>
       </c>
       <c r="G84" s="27">
         <v>0</v>
       </c>
-      <c r="H84" s="210">
-        <v>18.01696137403346</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H84" s="136">
+        <v>17.969610038477651</v>
+      </c>
+      <c r="I84" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11230,17 +11387,20 @@
       <c r="E85" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="196">
-        <v>2086.2397935758208</v>
+      <c r="F85" s="213">
+        <v>2085.364</v>
       </c>
       <c r="G85" s="27">
         <v>0</v>
       </c>
-      <c r="H85" s="211">
-        <v>18.56419514459801</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H85" s="137">
+        <v>18.5168438090422</v>
+      </c>
+      <c r="I85" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11256,17 +11416,20 @@
       <c r="E86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="176">
-        <v>669.92593604405283</v>
+      <c r="F86" s="191">
+        <v>669.84209999999996</v>
       </c>
       <c r="G86" s="27">
         <v>0</v>
       </c>
-      <c r="H86" s="214">
-        <v>1.1793352800210379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H86" s="140">
+        <v>1.172354779560705</v>
+      </c>
+      <c r="I86" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11282,17 +11445,20 @@
       <c r="E87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="177">
-        <v>1118.438595640775</v>
+      <c r="F87" s="192">
+        <v>1118.355</v>
       </c>
       <c r="G87" s="27">
         <v>0</v>
       </c>
-      <c r="H87" s="214">
-        <v>1.921021783854771</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H87" s="140">
+        <v>1.914041283394438</v>
+      </c>
+      <c r="I87" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11308,17 +11474,20 @@
       <c r="E88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="178">
-        <v>1569.486380969754</v>
+      <c r="F88" s="205">
+        <v>1569.2339999999999</v>
       </c>
       <c r="G88" s="27">
         <v>0</v>
       </c>
-      <c r="H88" s="214">
-        <v>3.2118489754693011</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H88" s="140">
+        <v>3.1901950470164149</v>
+      </c>
+      <c r="I88" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11334,17 +11503,20 @@
       <c r="E89" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="181">
-        <v>2105.2630965248791</v>
+      <c r="F89" s="196">
+        <v>2105.011</v>
       </c>
       <c r="G89" s="27">
         <v>0</v>
       </c>
-      <c r="H89" s="214">
-        <v>5.5404540907212851</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H89" s="140">
+        <v>5.5188001622683993</v>
+      </c>
+      <c r="I89" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -11360,17 +11532,20 @@
       <c r="E90" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="176">
-        <v>671.62744761363456</v>
+      <c r="F90" s="191">
+        <v>671.62739999999997</v>
       </c>
       <c r="G90" s="27">
         <v>0</v>
       </c>
-      <c r="H90" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H90" s="140">
+        <v>0</v>
+      </c>
+      <c r="I90" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -11386,17 +11561,20 @@
       <c r="E91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F91" s="177">
-        <v>1121.2166504556151</v>
+      <c r="F91" s="192">
+        <v>1121.2170000000001</v>
       </c>
       <c r="G91" s="27">
         <v>0</v>
       </c>
-      <c r="H91" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H91" s="140">
+        <v>0</v>
+      </c>
+      <c r="I91" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -11412,17 +11590,20 @@
       <c r="E92" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="180">
-        <v>1574.14487790612</v>
+      <c r="F92" s="195">
+        <v>1574.145</v>
       </c>
       <c r="G92" s="27">
         <v>0</v>
       </c>
-      <c r="H92" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H92" s="140">
+        <v>0</v>
+      </c>
+      <c r="I92" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -11438,17 +11619,20 @@
       <c r="E93" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="181">
-        <v>2112.777774991373</v>
+      <c r="F93" s="196">
+        <v>2112.703</v>
       </c>
       <c r="G93" s="27">
         <v>0</v>
       </c>
-      <c r="H93" s="214">
+      <c r="H93" s="140">
         <v>0.3597316458122779</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -11464,17 +11648,20 @@
       <c r="E94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="176">
-        <v>671.52976439233419</v>
+      <c r="F94" s="191">
+        <v>671.50840000000005</v>
       </c>
       <c r="G94" s="27">
         <v>0</v>
       </c>
-      <c r="H94" s="214">
+      <c r="H94" s="140">
         <v>6.8615489806603619E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -11490,17 +11677,20 @@
       <c r="E95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="177">
-        <v>1120.976012990398</v>
+      <c r="F95" s="192">
+        <v>1120.9549999999999</v>
       </c>
       <c r="G95" s="27">
         <v>0</v>
       </c>
-      <c r="H95" s="214">
+      <c r="H95" s="140">
         <v>0.16903000595106779</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -11516,17 +11706,20 @@
       <c r="E96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="180">
-        <v>1573.723356953971</v>
+      <c r="F96" s="195">
+        <v>1573.702</v>
       </c>
       <c r="G96" s="27">
         <v>0</v>
       </c>
-      <c r="H96" s="214">
+      <c r="H96" s="140">
         <v>0.29608693914255529</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -11542,17 +11735,20 @@
       <c r="E97" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="181">
-        <v>2111.922516080836</v>
+      <c r="F97" s="196">
+        <v>2111.9009999999998</v>
       </c>
       <c r="G97" s="27">
         <v>0</v>
       </c>
-      <c r="H97" s="214">
+      <c r="H97" s="140">
         <v>0.96048509426930406</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -11568,17 +11764,20 @@
       <c r="E98" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="167">
-        <v>17.26366348295134</v>
+      <c r="F98" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G98" s="83">
-        <v>741.47822666772481</v>
-      </c>
-      <c r="H98" s="223">
-        <v>126.9246421873744</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>739.93066043416309</v>
+      </c>
+      <c r="H98" s="149">
+        <v>126.75714749712159</v>
+      </c>
+      <c r="I98" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -11594,17 +11793,20 @@
       <c r="E99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="167">
-        <v>17.26366348295134</v>
+      <c r="F99" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G99" s="84">
-        <v>1068.922450257201</v>
-      </c>
-      <c r="H99" s="224">
-        <v>278.7903310606651</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1067.480442359388</v>
+      </c>
+      <c r="H99" s="150">
+        <v>278.58587794272688</v>
+      </c>
+      <c r="I99" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -11620,17 +11822,20 @@
       <c r="E100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="167">
-        <v>17.26366348295134</v>
+      <c r="F100" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G100" s="85">
-        <v>1339.762375182537</v>
-      </c>
-      <c r="H100" s="225">
-        <v>454.69570449114372</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1338.4212366398619</v>
+      </c>
+      <c r="H100" s="151">
+        <v>454.450456456837</v>
+      </c>
+      <c r="I100" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -11646,17 +11851,20 @@
       <c r="E101" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="167">
-        <v>17.26366348295134</v>
+      <c r="F101" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G101" s="86">
-        <v>1863.626870505522</v>
-      </c>
-      <c r="H101" s="226">
-        <v>576.64095152584036</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1862.6403104858809</v>
+      </c>
+      <c r="H101" s="152">
+        <v>576.25417904400183</v>
+      </c>
+      <c r="I101" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -11672,17 +11880,20 @@
       <c r="E102" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="197">
-        <v>637.75398989222128</v>
+      <c r="F102" s="214">
+        <v>637.19579999999996</v>
       </c>
       <c r="G102" s="27">
-        <v>19.05919834792099</v>
-      </c>
-      <c r="H102" s="210">
-        <v>16.881603775677949</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19.059198334835461</v>
+      </c>
+      <c r="H102" s="136">
+        <v>16.868209192172369</v>
+      </c>
+      <c r="I102" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -11698,17 +11909,20 @@
       <c r="E103" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F103" s="198">
-        <v>1066.658505457533</v>
+      <c r="F103" s="215">
+        <v>1066.0999999999999</v>
       </c>
       <c r="G103" s="27">
         <v>19.066096797805681</v>
       </c>
-      <c r="H103" s="212">
-        <v>31.42346746461299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H103" s="138">
+        <v>31.41007287963534</v>
+      </c>
+      <c r="I103" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11724,17 +11938,20 @@
       <c r="E104" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="199">
-        <v>1491.5761551478449</v>
+      <c r="F104" s="216">
+        <v>1487.8030000000001</v>
       </c>
       <c r="G104" s="27">
-        <v>26.08118311098249</v>
-      </c>
-      <c r="H104" s="206">
-        <v>48.856535478661627</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26.000856118553479</v>
+      </c>
+      <c r="H104" s="132">
+        <v>48.843140893683973</v>
+      </c>
+      <c r="I104" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -11751,16 +11968,19 @@
         <v>16</v>
       </c>
       <c r="F105" s="200">
-        <v>2047.7032317548401</v>
+        <v>2047.145</v>
       </c>
       <c r="G105" s="27">
         <v>19.066096797805681</v>
       </c>
-      <c r="H105" s="227">
-        <v>39.014617841403648</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H105" s="153">
+        <v>39.001223256425988</v>
+      </c>
+      <c r="I105" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -11776,17 +11996,20 @@
       <c r="E106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="176">
-        <v>666.10887882837005</v>
+      <c r="F106" s="191">
+        <v>665.87609999999995</v>
       </c>
       <c r="G106" s="27">
-        <v>6.443652796510138</v>
-      </c>
-      <c r="H106" s="214">
-        <v>1.3109659250548931</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.4436513139080596</v>
+      </c>
+      <c r="H106" s="140">
+        <v>1.3079859712459641</v>
+      </c>
+      <c r="I106" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -11802,17 +12025,20 @@
       <c r="E107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="186">
-        <v>1110.315353855482</v>
+      <c r="F107" s="202">
+        <v>1109.4069999999999</v>
       </c>
       <c r="G107" s="27">
-        <v>7.6374339764668093</v>
-      </c>
-      <c r="H107" s="214">
-        <v>4.5699713868016616</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.6020455994926106</v>
+      </c>
+      <c r="H107" s="140">
+        <v>4.5580084282200524</v>
+      </c>
+      <c r="I107" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -11828,17 +12054,20 @@
       <c r="E108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="187">
-        <v>1555.350075409948</v>
+      <c r="F108" s="203">
+        <v>1554.4739999999999</v>
       </c>
       <c r="G108" s="27">
         <v>9.4273131076562038</v>
       </c>
-      <c r="H108" s="214">
-        <v>9.3395424170814856</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H108" s="140">
+        <v>9.2921910815256794</v>
+      </c>
+      <c r="I108" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -11854,17 +12083,20 @@
       <c r="E109" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="188">
-        <v>2092.8010922296098</v>
+      <c r="F109" s="204">
+        <v>2091.893</v>
       </c>
       <c r="G109" s="27">
-        <v>8.7244494324356801</v>
-      </c>
-      <c r="H109" s="214">
-        <v>10.771390183104071</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.6890610554614796</v>
+      </c>
+      <c r="H109" s="140">
+        <v>10.75942722452246</v>
+      </c>
+      <c r="I109" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -11880,17 +12112,20 @@
       <c r="E110" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="176">
-        <v>670.81454545366523</v>
+      <c r="F110" s="191">
+        <v>670.72439999999995</v>
       </c>
       <c r="G110" s="27">
-        <v>1.0836115594535149</v>
-      </c>
-      <c r="H110" s="214">
+        <v>1.076630805953213</v>
+      </c>
+      <c r="H110" s="140">
         <v>0.1514670820378915</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -11906,17 +12141,20 @@
       <c r="E111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F111" s="177">
-        <v>1119.8327007816119</v>
+      <c r="F111" s="192">
+        <v>1119.7449999999999</v>
       </c>
       <c r="G111" s="27">
-        <v>1.659754453429354</v>
-      </c>
-      <c r="H111" s="214">
-        <v>0.32011624495334828</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.654922451742959</v>
+      </c>
+      <c r="H111" s="140">
+        <v>0.31796774617941009</v>
+      </c>
+      <c r="I111" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -11932,17 +12170,20 @@
       <c r="E112" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F112" s="178">
-        <v>1571.3418761318769</v>
+      <c r="F112" s="205">
+        <v>1571.077</v>
       </c>
       <c r="G112" s="27">
-        <v>2.3157025462308249</v>
-      </c>
-      <c r="H112" s="214">
-        <v>1.0398026865745309</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.3010291182382709</v>
+      </c>
+      <c r="H112" s="140">
+        <v>1.032822186114198</v>
+      </c>
+      <c r="I112" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -11958,17 +12199,20 @@
       <c r="E113" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="181">
-        <v>2107.4360608073089</v>
+      <c r="F113" s="196">
+        <v>2107.1709999999998</v>
       </c>
       <c r="G113" s="27">
-        <v>2.6681000071330252</v>
-      </c>
-      <c r="H113" s="214">
-        <v>3.016010340924316</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.6534265791404712</v>
+      </c>
+      <c r="H113" s="140">
+        <v>3.0090298404639819</v>
+      </c>
+      <c r="I113" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -11984,17 +12228,20 @@
       <c r="E114" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="176">
-        <v>671.62744761363456</v>
+      <c r="F114" s="191">
+        <v>671.62739999999997</v>
       </c>
       <c r="G114" s="27">
         <v>0</v>
       </c>
-      <c r="H114" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H114" s="140">
+        <v>0</v>
+      </c>
+      <c r="I114" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -12010,17 +12257,20 @@
       <c r="E115" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F115" s="177">
-        <v>1121.2166504556151</v>
+      <c r="F115" s="192">
+        <v>1121.2170000000001</v>
       </c>
       <c r="G115" s="27">
         <v>0</v>
       </c>
-      <c r="H115" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H115" s="140">
+        <v>0</v>
+      </c>
+      <c r="I115" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -12036,17 +12286,20 @@
       <c r="E116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="180">
-        <v>1574.14487790612</v>
+      <c r="F116" s="195">
+        <v>1574.145</v>
       </c>
       <c r="G116" s="27">
         <v>0</v>
       </c>
-      <c r="H116" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H116" s="140">
+        <v>0</v>
+      </c>
+      <c r="I116" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -12062,17 +12315,20 @@
       <c r="E117" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="181">
-        <v>2112.916398736767</v>
+      <c r="F117" s="196">
+        <v>2112.8420000000001</v>
       </c>
       <c r="G117" s="27">
         <v>0.14087019278751159</v>
       </c>
-      <c r="H117" s="214">
+      <c r="H117" s="140">
         <v>0.2102591113962535</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -12088,17 +12344,20 @@
       <c r="E118" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="176">
-        <v>671.59165975118981</v>
+      <c r="F118" s="191">
+        <v>671.57029999999997</v>
       </c>
       <c r="G118" s="27">
         <v>6.8615489806603619E-2</v>
       </c>
-      <c r="H118" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H118" s="140">
+        <v>0</v>
+      </c>
+      <c r="I118" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -12114,17 +12373,20 @@
       <c r="E119" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F119" s="177">
-        <v>1121.114636735791</v>
+      <c r="F119" s="192">
+        <v>1121.0930000000001</v>
       </c>
       <c r="G119" s="27">
         <v>0.14087019278751159</v>
       </c>
-      <c r="H119" s="214">
+      <c r="H119" s="140">
         <v>1.9557471535043419E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -12140,17 +12402,20 @@
       <c r="E120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="180">
-        <v>1573.861980699364</v>
+      <c r="F120" s="195">
+        <v>1573.8409999999999</v>
       </c>
       <c r="G120" s="27">
         <v>0.14087019278751159</v>
       </c>
-      <c r="H120" s="214">
+      <c r="H120" s="140">
         <v>0.14661440472653089</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -12166,17 +12431,20 @@
       <c r="E121" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="181">
-        <v>2112.061139826229</v>
+      <c r="F121" s="196">
+        <v>2112.04</v>
       </c>
       <c r="G121" s="27">
         <v>0.14087019278751159</v>
       </c>
-      <c r="H121" s="214">
+      <c r="H121" s="140">
         <v>0.81101255985327958</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -12192,17 +12460,20 @@
       <c r="E122" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="167">
-        <v>17.26366348295134</v>
+      <c r="F122" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G122" s="87">
-        <v>1167.861062008968</v>
-      </c>
-      <c r="H122" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1165.715107509699</v>
+      </c>
+      <c r="H122" s="140">
+        <v>0</v>
+      </c>
+      <c r="I122" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -12218,17 +12489,20 @@
       <c r="E123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="167">
-        <v>17.26366348295134</v>
-      </c>
-      <c r="G123" s="62">
-        <v>1884.4193980663731</v>
-      </c>
-      <c r="H123" s="213">
-        <v>26.05883106916713</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F123" s="182">
+        <v>17.263660000000002</v>
+      </c>
+      <c r="G123" s="58">
+        <v>1882.5591984354689</v>
+      </c>
+      <c r="H123" s="139">
+        <v>25.960979128489651</v>
+      </c>
+      <c r="I123" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -12244,17 +12518,20 @@
       <c r="E124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="167">
-        <v>17.26366348295134</v>
+      <c r="F124" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G124" s="45">
-        <v>2397.6558106199031</v>
-      </c>
-      <c r="H124" s="223">
-        <v>124.4032471157535</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2395.9004795435981</v>
+      </c>
+      <c r="H124" s="149">
+        <v>124.2694146695647</v>
+      </c>
+      <c r="I124" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -12270,17 +12547,20 @@
       <c r="E125" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="167">
-        <v>17.26366348295134</v>
+      <c r="F125" s="182">
+        <v>17.263660000000002</v>
       </c>
       <c r="G125" s="31">
-        <v>3520.0990243199358</v>
-      </c>
-      <c r="H125" s="206">
-        <v>47.557246823940261</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3518.4356858762558</v>
+      </c>
+      <c r="H125" s="132">
+        <v>47.391723994884813</v>
+      </c>
+      <c r="I125" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -12296,17 +12576,20 @@
       <c r="E126" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="172">
-        <v>653.19689859226128</v>
+      <c r="F126" s="187">
+        <v>652.6259</v>
       </c>
       <c r="G126" s="40">
-        <v>39.159394506020831</v>
-      </c>
-      <c r="H126" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39.145913725100833</v>
+      </c>
+      <c r="H126" s="140">
+        <v>0</v>
+      </c>
+      <c r="I126" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -12322,17 +12605,20 @@
       <c r="E127" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="173">
-        <v>1095.212959407829</v>
+      <c r="F127" s="188">
+        <v>1094.6420000000001</v>
       </c>
       <c r="G127" s="36">
-        <v>55.463157105631083</v>
-      </c>
-      <c r="H127" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55.449676324711071</v>
+      </c>
+      <c r="H127" s="140">
+        <v>0</v>
+      </c>
+      <c r="I127" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -12348,17 +12634,20 @@
       <c r="E128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F128" s="174">
-        <v>1526.6824311529499</v>
+      <c r="F128" s="206">
+        <v>1522.9069999999999</v>
       </c>
       <c r="G128" s="28">
-        <v>77.168645132056099</v>
-      </c>
-      <c r="H128" s="214">
-        <v>8.2298522311534832</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77.08827888256269</v>
+      </c>
+      <c r="H128" s="140">
+        <v>8.2164854335345368</v>
+      </c>
+      <c r="I128" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -12374,17 +12663,20 @@
       <c r="E129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F129" s="196">
-        <v>2081.261374316578</v>
+      <c r="F129" s="213">
+        <v>2080.69</v>
       </c>
       <c r="G129" s="36">
-        <v>65.890264325690197</v>
-      </c>
-      <c r="H129" s="214">
+        <v>65.876841341266086</v>
+      </c>
+      <c r="H129" s="140">
         <v>0.57658998592786825</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -12400,17 +12692,20 @@
       <c r="E130" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="176">
-        <v>667.28710580628729</v>
+      <c r="F130" s="191">
+        <v>667.05529999999999</v>
       </c>
       <c r="G130" s="27">
-        <v>8.4064093540977929</v>
-      </c>
-      <c r="H130" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.3942690949242902</v>
+      </c>
+      <c r="H130" s="140">
+        <v>0</v>
+      </c>
+      <c r="I130" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -12426,17 +12721,20 @@
       <c r="E131" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F131" s="177">
-        <v>1114.205172968389</v>
+      <c r="F131" s="202">
+        <v>1113.2840000000001</v>
       </c>
       <c r="G131" s="27">
-        <v>13.700728221184651</v>
-      </c>
-      <c r="H131" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13.65266487629944</v>
+      </c>
+      <c r="H131" s="140">
+        <v>0</v>
+      </c>
+      <c r="I131" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -12452,17 +12750,20 @@
       <c r="E132" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F132" s="201">
-        <v>1563.348514936283</v>
+      <c r="F132" s="193">
+        <v>1562.4280000000001</v>
       </c>
       <c r="G132" s="27">
-        <v>21.245139865994808</v>
-      </c>
-      <c r="H132" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21.197076521109611</v>
+      </c>
+      <c r="H132" s="140">
+        <v>0</v>
+      </c>
+      <c r="I132" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -12478,17 +12779,20 @@
       <c r="E133" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F133" s="179">
-        <v>2101.1736474304821</v>
+      <c r="F133" s="194">
+        <v>2100.2530000000002</v>
       </c>
       <c r="G133" s="27">
-        <v>22.116494137926029</v>
-      </c>
-      <c r="H133" s="214">
+        <v>22.068430793040829</v>
+      </c>
+      <c r="H133" s="140">
         <v>0.57647976213425078</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12504,17 +12808,20 @@
       <c r="E134" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="176">
-        <v>670.9461899411458</v>
+      <c r="F134" s="191">
+        <v>670.85580000000004</v>
       </c>
       <c r="G134" s="27">
-        <v>1.3459433806313921</v>
-      </c>
-      <c r="H134" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.338833143034349</v>
+      </c>
+      <c r="H134" s="140">
+        <v>0</v>
+      </c>
+      <c r="I134" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -12530,17 +12837,20 @@
       <c r="E135" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F135" s="177">
-        <v>1120.1220198757001</v>
+      <c r="F135" s="192">
+        <v>1120.0319999999999</v>
       </c>
       <c r="G135" s="27">
-        <v>2.149998437997628</v>
-      </c>
-      <c r="H135" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.1428882004005851</v>
+      </c>
+      <c r="H135" s="140">
+        <v>0</v>
+      </c>
+      <c r="I135" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -12556,17 +12866,20 @@
       <c r="E136" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F136" s="178">
-        <v>1572.206680639134</v>
+      <c r="F136" s="205">
+        <v>1571.9349999999999</v>
       </c>
       <c r="G136" s="27">
-        <v>3.7723942308547671</v>
-      </c>
-      <c r="H136" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.7502739823953251</v>
+      </c>
+      <c r="H136" s="140">
+        <v>0</v>
+      </c>
+      <c r="I136" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -12582,17 +12895,20 @@
       <c r="E137" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F137" s="181">
-        <v>2109.5115474848121</v>
+      <c r="F137" s="196">
+        <v>2109.2399999999998</v>
       </c>
       <c r="G137" s="27">
-        <v>5.7676284724357503</v>
-      </c>
-      <c r="H137" s="214">
+        <v>5.7455082239763069</v>
+      </c>
+      <c r="H137" s="140">
         <v>0.56786127285922428</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -12608,17 +12924,20 @@
       <c r="E138" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="176">
-        <v>671.62744761363456</v>
+      <c r="F138" s="191">
+        <v>671.62739999999997</v>
       </c>
       <c r="G138" s="27">
         <v>0</v>
       </c>
-      <c r="H138" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H138" s="140">
+        <v>0</v>
+      </c>
+      <c r="I138" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -12634,17 +12953,20 @@
       <c r="E139" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F139" s="177">
-        <v>1121.2166504556151</v>
+      <c r="F139" s="192">
+        <v>1121.2170000000001</v>
       </c>
       <c r="G139" s="27">
         <v>0</v>
       </c>
-      <c r="H139" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H139" s="140">
+        <v>0</v>
+      </c>
+      <c r="I139" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -12660,17 +12982,20 @@
       <c r="E140" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F140" s="180">
-        <v>1574.14487790612</v>
+      <c r="F140" s="195">
+        <v>1574.145</v>
       </c>
       <c r="G140" s="27">
         <v>0</v>
       </c>
-      <c r="H140" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H140" s="140">
+        <v>0</v>
+      </c>
+      <c r="I140" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12686,17 +13011,20 @@
       <c r="E141" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="181">
-        <v>2113.1168285158219</v>
+      <c r="F141" s="196">
+        <v>2113.0419999999999</v>
       </c>
       <c r="G141" s="27">
         <v>0.3597316458122779</v>
       </c>
-      <c r="H141" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H141" s="140">
+        <v>0</v>
+      </c>
+      <c r="I141" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12712,17 +13040,20 @@
       <c r="E142" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="176">
-        <v>671.59443572142493</v>
+      <c r="F142" s="191">
+        <v>671.57299999999998</v>
       </c>
       <c r="G142" s="27">
         <v>6.8615489806603619E-2</v>
       </c>
-      <c r="H142" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H142" s="140">
+        <v>0</v>
+      </c>
+      <c r="I142" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12738,17 +13069,20 @@
       <c r="E143" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F143" s="177">
-        <v>1121.135326800907</v>
+      <c r="F143" s="192">
+        <v>1121.114</v>
       </c>
       <c r="G143" s="27">
         <v>0.16903000595106779</v>
       </c>
-      <c r="H143" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H143" s="140">
+        <v>0</v>
+      </c>
+      <c r="I143" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12764,17 +13098,20 @@
       <c r="E144" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F144" s="180">
-        <v>1574.002424201537</v>
+      <c r="F144" s="195">
+        <v>1573.981</v>
       </c>
       <c r="G144" s="27">
         <v>0.29608693914255529</v>
       </c>
-      <c r="H144" s="214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H144" s="140">
+        <v>0</v>
+      </c>
+      <c r="I144" s="219">
+        <v>3303660.3675457491</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12790,14 +13127,17 @@
       <c r="E145" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F145" s="181">
-        <v>2112.5147259065861</v>
+      <c r="F145" s="196">
+        <v>2112.4929999999999</v>
       </c>
       <c r="G145" s="27">
         <v>0.61698831734804682</v>
       </c>
-      <c r="H145" s="214">
+      <c r="H145" s="140">
         <v>0.335537146211912</v>
+      </c>
+      <c r="I145" s="219">
+        <v>3303660.3675457491</v>
       </c>
     </row>
   </sheetData>
